--- a/기사데이터/토스/엑셀파일/news(토스, 2023.04.16~2023.04.30).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.04.16~2023.04.30).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>주저앉은 파킹통장 금리…주목받는 CMA</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005246338?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>시장금리 인하로 예금금리 하락추세매력잃은 예금에…CMA로 쏠리는 투심[이미지출처=연합뉴스]수시입출금계좌(일명 ‘파킹통장’) 금리가 2~3%대로 주저앉았다. 시장금리 하락의 영향으로 인터넷전문은행 등 각 금융사가 파킹통장 금리를 내리고 있어서다. 불어난 시중 부동자금은 3%대 후반까지 상대적으로 높은 금리를 제공하는 자산관리계좌(CMA)로 눈을 돌리는 양상이다.17일 금융권에 따르면 국내 인터넷전문은행 3사(카카오뱅크·케이뱅크·토스뱅크)의 수시입출금계좌 금리는 대부분 2%대로 하락했다. 파킹통장 붐을 일으켰던 토스뱅크의 입출금통장 금리(5000만원 이하)는 0.2%포인트 내린 2.0%로 '원상복귀' 했다. 토스뱅크는 예치금 5000만원 이상에 대해선 연 3.6%의 이자를 지급하나, 역시 연 4.0%에 달했던 이전보다 0.4%포인트 하락했다. 이외 최대 3억원까지 금액과 관계없이 연 3.0%의 이자를 주던 케이뱅크의 ‘플러스박스’ 금리는 3.0%에서 2.7%로 0.3%포인트 내렸다. 카카오뱅크의 세이프 박스 역시 연 2.6%의 금리를 제공한다.저축은행의 수시입출금통장 금리는 상대적으론 낫지만, 하락 추세인 것은 비슷하다. 업계 ‘맏형’인 SBI저축은행은 최근 사이다뱅크의 수시입출금통장 금리를 3.0%에서 2.8%로 0.2%포인트 내렸다. OK저축은행 OK읏백만통장Ⅱ의 금리도 500만원 초과~2000만원 이하의 경우 연 3.0%(우대금리 제외)로 0.3%포인트 내려 간신히 3%대를 지켰다.은행·저축은행의 파킹통장 금리가 상대적인 매력을 잃으면서 투자 대기성 자금을 굴리려는 예테크족의 고민도 커지고 있다. 최근 예금 금리 하락으로 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 요구불예금 잔액이 지난달 말 기준 619조2650억원으로 한 달 새 10조1116억원 증가한 상황에서다.최근 예테크족들이 주목하고 있는 것은 3%대 중·후반의 수익률을 제공하는 증권사의 CMA다. CMA의 수익률은 발행어음형의 경우 한국투자증권 연 3.75%, 미래에셋증권 3.70%, KB증권 3.65%로 은행·저축은행의 파킹통장 금리를 한참 뛰어넘는 수준이다. 환매조건부채권(RP)형 CMA 수익률 역시 미래에셋증권 3.55, SK증권 행복나눔 3.50%, 다올투자증권 3.45%, IBK투자증권 3.40%로 상대적으로 높다.CMA는 증권사나 종합금융회사가 투자자로부터 예탁금을 받아 안정성이 높은 국·공채, 환매조건부채권 등 금융상품에 투자해 수익을 내는 상품으로, 은행 파킹통장처럼 수시입·출금이 가능하단 점에서 인기를 끈다. 종금형을 제외하면 예금자 보호 대상이 아니지만, 원금 손실 가능성이 거의 없는 만큼 상대적으로 안정적인 투자처로 꼽힌다.금융투자협회에 따르면 13일 기준 증권사의 CMA 계좌 잔액은 65조5269억원으로 집계됐다. 이는 연초(58조1351억원) 대비 12.7%(7조3918억원) 증가한 수치다. 계좌 수 역시 3644만좌로 1.48%(53만좌) 늘었다.특히 최근 인기를 끌고 있는 것은 발행어음형 CMA다. 발행어음은 자기자본이 4조원을 넘으면서 단기금융업 인가를 받은 증권사가 자금조달을 위해 자체 신용을 바탕으로 발행하는 만기 1년 이내 단기금융상품이다. 국내에선 미래에셋증권, 한국투자증권, NH투자증권, KB증권 등 4곳이 이를 발행할 수 있다.같은 기간 발행어음형 CMA 잔액은 12조960억원에서 23조4690억원으로 94.0%나 증가했다. 전체 CMA 잔액 증가율(12.7%)을 크게 웃도는 수준이다. 금융권 관계자는 “한국은행의 기준금리 동결과 미국 연방준비제도(Fed)의 완화 기조에 대한 기대감이 커지면서 예금 상품의 매력이 점차 떨어지는 양상”이라며 "주식거래계좌로 옮겨 투자하기도 용이한 만큼 이에 주목하는 예금자들도 느는 추세"라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.04.23.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>SKT도 취소 수순…이통3사 모두 5G 28㎓ 손 뗀다</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001097143?sid=105</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>기한내 기지국 추가 구축을 조건으로 정부로부터 5G 28㎓ 대역 회수를 유보 받은 SK텔레콤이 기지국 구축에 나서지 않으면서 사실상 통신 3사 모두 5G 28㎓ 주파수에서 손을 떼게 됐다.23일 통신업계에 따르면 5월 말까지 5G 28㎓ 기지국 1만5천 대 추가를 주파수 할당 취소 유보 조건으로 받았던 SK텔레콤은 지난해 11월부터 해당 대역 기지국을 추가로 구축하지 않고 있다.남은 한 달간 SK텔레콤이 기지국 증설 조건을 이행하기가 물리적으로 어렵기 때문에 사실상 통신 3사 모두 5G 28㎓ 주파수 할당을 포기하는 셈이 됐다.앞서 정부는 지난해 12월 KT와 LG유플러스의 5G 28GHz 주파수 할당 취소 처분을 확정한 바 있다.과기정통부 핵심 관계자는 28㎓를 할당받으려는 신규 사업자 유치와 관련해 "일부 관심을 표명하는 기업이 있지만 아직 뚜렷하게 사업을 하겠다고까지 성숙한 것은 아니다. 기업에 나름 큰 투자일 수 있기 때문에 신중하게 검토하는 단계"라고 전했다.그는 "이번에 (신규 사업자 유치가) 혹시라도 안될지라도 통신 시장 경쟁 활성화를 위해 정부가 끊임없이 노력해야 하는 이슈"라고 언급해 제4이통사 유치가 이번에도 불발로 끝날 가능성에 대한 여지를 남겼다.정부는 2010년 미래창조과학부 시절부터 제4통신사 유치를 7차례 시도했다 실패했지만, 이번에는 휴대전화 자급제 보급, 알뜰폰 점유율 증가 등 달라진 통신 시장 환경에 힘입어 유치 성공을 자신한 바 있다.네이버와 카카오 등 플랫폼 사업자, 쿠팡과 토스 등 유통·금융권 신사업자 등이 28㎓ 대역대를 활용한 네트워크 사업에 뛰어들 거라는 기대가 나왔지만 뚜렷한 진출 의지를 나타내는 기업이 없어 올해 안으로 신규 사업자를 유치하겠다던 정부 입장이 초조해지는 상황이다.과기정통부는 5G 중간 요금제 도입으로 요금 구간이 촘촘해졌지만, 요금 시작점 자체가 높게 책정돼 있어 소비자 부담을 키운다고 보고 이를 낮추는 방안을 검토 중인 것으로 알려졌다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.04.21.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>해외법인서 현장경험 쌓은 ‘미국통’ 활약</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003492803?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>[한미동맹 70년]금융첨단 정보기술 국내 금융업에 녹여최근 국내 금융권에서는 대표적인 선진 금융시장으로 꼽히는 미국에서의 현장 경험을 바탕으로 활약하는 ‘미국통’ 인사들이 주목받고 있다. 투자은행(IB) 업무를 비롯해 다양한 사업을 펼치는 미국 금융회사의 영업 방식과 현지 금융당국의 규제 등을 경험한 것이 경쟁력으로 작용한다는 평가를 받는다. 국내 금융권에서는 신한금융그룹을 6년 동안 지휘하다가 최근 물러난 조용병 전 회장이 신한은행 뉴욕지점장을 지낸 대표적 ‘국제통’으로 꼽힌다. 신한금융에서는 신한은행 디지털개인부문장(부행장)을 지내고 지난해 제주은행장에 취임한 박우혁 행장도 신한아메리카은행 법인장을 거쳤다. 정용욱 신한은행 개인부문장 겸 개인·WM그룹장(부행장) 역시 뉴욕지점에서 경력을 쌓은 미국통이다. 최근 우리금융그룹의 지휘봉을 넘겨준 손태승 전 회장도 우리은행 미국 로스앤젤레스 지점장, 글로벌부문장을 지낸 미국 전문가로 유명하다. 현재 우리은행에서는 박종일 베트남 법인장과 류형진 외환그룹장이 각각 3년씩 우리아메리카은행에서 근무한 경력을 바탕으로 글로벌 사업을 펼치고 있다. 하나은행에서는 뉴욕지점장을 거친 이병현 글로벌영업본부장이 은행 전반의 글로벌 영업을 지휘하고 있다. 인터넷전문은행과 핀테크 영역에서 미국 경험을 살리고 있는 최고경영자(CEO)들도 관심을 모은다. 미국에서 경험한 첨단 정보기술(IT)과 소비자 지향의 서비스를 국내 금융업에 녹여내고 있다는 평가를 받는다. 1980년대생 CEO로 유명한 홍민택 토스뱅크 대표는 삼성전자에서 일하면서 삼성페이의 미국 시장 개척에 핵심적인 역할을 한 바 있다. 서호성 케이뱅크 행장 역시 한국타이어앤테크놀로지그룹에서 미주지역본부장을 지냈다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.04.25.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>‘드론핏’ 운용사 석세스코드, 유니콘 기업 등용문 ‘청년창업사관학교’ 13기 기업 선정</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004182867?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>[서울경제] 드론교육원 추천 플랫폼 드론핏(Drone-FIT)을 운영하는 ㈜석세스코드(대표 김성우)가 중소벤처기업진흥공단의 청년 창업프로그램 ‘청년창업사관학교’ 13기에 최종 선정됐다고 밝혔다. 유니콘 기업 등용문 청년창업사관학교는 만 39세 이하 청년 창업자의 사업계획 수립부터 사업화, 졸업 후 성장을 위한 연계지원까지 창업 전 단계를 원스톱으로 지원하는 사업이다. 유망 창업 아이템과 혁신기술을 보유한 우수 창업자를 선발해 창업 전 과정을 지원한다. 청창사를 졸업한 주요 기업 CEO에는 이승건 토스 대표, 안성우 직방 대표, 김태훈 뱅크샐러드 대표 등이 있다. 13기 청년창업사관학교에는 전국 주요 도시에서 역대 최다 인원인 6,100명이 지원했으며 운영 첫해 180억 원이었던 예산은 올해 1,100억 원으로 책정돼 6배 가량 증가했다.  치열한 경쟁을 뚫고 세종 청년창업사관학교 최종 30인으로 선정된 드론핏(Drone-FIT) 운영사 석세스코드 김성우 대표는 총 사업비의 70% 이내에서 최대 1억원의 창업 사업화 지원금, 사무공간, 시제품 제작 관련 인프라, 창업교육 및 코칭, 판로개척, 투자사(VC)매칭 등을 종합 지원받게 된다. 드론핏(Drone-FIT)은 ‘집 근처 저렴하고 핏(FIT)한 드론 교육원을 추천한다’는 캐치프레이즈를 걸고, 드론 교육원과 드론 교육을 희망하는 수요청을 연결해주는 사이트다. 2025년 국내 드론시장이 1조원 대로 성장할 것이란 예측이 제기되는 가운데, 드론 관련 일자리 확대를 염두에 두고 드론 파일럿 및 드론 전문가를 양성하기 위해 검증된 교육원 정보를 입점, 제공하고 있다. 김성우 ㈜석세스코드 대표는 “새로운 아이디어와 혁혁한 사업성으로 이제껏 없던 새로운 시장을 창조해낸 청년 CEO들을 배출한 청년창업사관학교에 입교하게 되어 기쁘다”며 “앞으로 청년창업사관학교의 종합 지원을 바탕으로 국내 대학들의 드론학과와 적극적으로 교류하며 드론 파일럿 양성 사업을 확장해가고 아이들을 위한 드론 엔터테인먼트 사업을 추진하는 등, 국내 드론 사업의 청사진을 제시하는 기업으로 성장할 것”고 포부를 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>尹의 '중기 경제사절단'…토스·메가존·알스퀘어 등 스타 스타트업 '총출동'</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000741973?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>전체 사절단 약 70%가 중견·중소기업으로 구성정부 출범 이후 최대 규모…"글로벌 시장 진출 논의 가능"비즈니스 유망성과 기업 실적 등 두루 고려해 선발사절단 테마는 '첨단산업' …프롭테크·모빌리티·클라우드·핀테크 등윤석열 대통령의 방미 경제사절단은 중견·중소기업 중심이라고 해도 과언이 아니다. 전체 사절단의 약 70%가 중견·중소기업으로 구성됐기 때문이다. 이들은 국내에서 활발하게 사업을 펼치거나 글로벌 진출을 통해 성장을 도모할 수 있는 기업들이란 공통점이 있다.최근 산업계가 주목하는 데이터, 인공지능(AI), 모빌리티, 헬스케어 등에 특화됐다는 점도 눈여겨볼 만하다. 이들은 이번 방미를 계기로 현지 기업이나 투자사와 사업 모, 글로벌 시장 진출 등에 대한 논의를 확대할 수 있을 것으로 보인다.20일 전국경제인연합회(이하 전경련)에 따르면 윤 대통령의 방미 경제사절단에 중견·중소기업으로 상업용 부동산 데이터 기업 알스퀘어와 모바일 금융 서비스 토스를 운영하는 비바리퍼블리카, 클라우드 관리 서비스 기업 메가존클라우드, AI 기업 와이즈넛, 모빌리티 기업 서울로보틱스, 디지털 헬스케어 업체 에이슬립, 닥터나우 등이 포함됐다.이번 방미 경제사절단은 정부 출범 이후 최대 규모다. 특히 중소·중견이 85개 회사로, 전체 사절단(122개)의 70%에 이른다. 전경련은 이번 사절단의 테마가 첨단 산업인 만큼 반도체와 항공우주, 방위산업, 에너지, 바이오, 모빌리티 분야 기업들이 상당한 비중을 차지한다고 밝혔다.이번 미국 경제사절단은 전경련 모집공고를 통해 신청서를 제출한 기업을 대상으로 선정했다. 선정 객관성과 공정성을 위해 주요 경제단체 대표, 관련 공공기관, 전문가 등으로 선정위원회를 구성하고 2차례 심의를 거쳤다. 신청 기업들의 비즈니스 유망성, 대미 교역 및 투자 실적, 주요 산업 분야 협력 가능성 등을 두루 고려해 선발했다.'방미 경제사절단' 명단에 오른 기업의 성과가 기대된다.  [사진=조은수 기자]특히, 이번 명단에 포함된 중견·중소기업들은 미 현지 기업이나 투자회사와 활발한 협력 방안을 발굴할 것으로 보인다. 실제 프롭테크 기업으로는 유일하게 이번 경제사절단에 포함된 알스퀘어의 경우 상업용 부동산 데이터를 토대로 베트남과 싱가포르에서 활발하게 사업을 펼치고 있는데, 이를 글로벌 시장으로도 넓힐 수 있을지 검토할 계획이다.BMW와 메르세데스-벤츠, 볼보 등과 협력하는 모빌리티 기업 서울로보틱스 역시 미국 완성차 업계와의 접점을 넓힐 수 있을 것으로 보인다. 원격 의료 플랫폼인 닥터나우도 마찬가지다. 한국과 비교해 상대적으로 의료 인프라가 열악한 미국에서 사업 기회를 모색할 수 있을 것으로 예상된다.또한, 국내 클라우드와 핀테크 시장을 선도하며 이미 현지 법인 설립을 마쳤거나 미국에서 지분 투자에 나선 메가존클라우드와 비바리퍼블리카의 입지 확대도 기대되는 상황이다.이번 경제사절단에 포함된 기업의 한 관계자는 "새로운 사업 기회와 네트워크를 발굴해 글로벌 경기 둔화에 대응하려고 한다"며 "정부 관심이 크고, 지원도 적극적인 만큼 소중한 기회로 활용할 것"이라고 말했다.증권가에서도 이번 방미 경제사절단 명단에 오른 기업의 성과에 예의주시할 필요가 있다는 의견을 내놨다. 하나증권 리서치센터 글로벌투자분석팀은 이날 '하나 구루 아이' 보고서를 통해 "방미 경제사절단 명단에 오른 기업들의 미국에서 투자와 업무협약(MOU) 등 협력과 네트워크 구축 성과가 기대된다"고 밝혔다.한편, 경제사절단은 전경련 미국상공회의소가 주관하는 한미 첨단산업 포럼, 백악관 환영 행사, 중소벤처기업부 주최 한미 클러스터 라운드 테이블 등에 참석해 미국 정부 관계자 및 기업인들과의 네트워크 구축, 비즈니스 확대 기회를 얻게 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.04.19.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>토스 '유스카드' 누적 발급량 100만장 돌파</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001096417?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>어린이·청소년용 선불카드 '유스카드'만 7세부터 만 16세까지모의투자·해냄 저금통 등 다양한 서비스 제공모바일 금융 서비스 ‘토스'를 운영하는 비바리퍼블리카(이하 토스)의 어린이·청소년용 선불 카드인 ‘유스카드(USS card)’ 누적 발급량이 100만 장을 넘어섰다.총 누적 발급량은 107만 장에 이른다.만 7세부터 만 16세의 어린이·청소년이 자신의 이름으로 만들어 사용할 수 있는 '유스카드'는 연결된 가상 계좌에 이체하거나 CU 편의점에서 현금을 충전해 사용할 수 있고, 오프라인 매장뿐만 아니라 온라인 가맹점에서도 결제할 수 있다.단, 청소년 제한업종, 자동 결제 및 해외 결제에는 사용이 제한된다.교통카드 기능 또한 제공하며, 토스 앱에서 소비 내역을 확인하고, 결제 알림, 카드 일시 정지 등의 관리도 쉽게 가능하다.‘유스카드’는 지난 2021년 12월 출시 이후 1년 4개월 만에 누적 발급량 107만 장을 돌파했다.출시 이후 하루 평균 발급량이 2천 장이 넘는 셈이다.편의점 충전 누적 횟수는 115만 회, 토스페이 온라인 결제 이용자 월평균은 70만 명을 돌파하는 등 카드 발급에 따른 이용 수치도 눈에 띈다.그 결과, 토스에서 만 7세부터 만 18세 이하의 사용자를 의미하는 ‘틴즈(teens)’ 가입자는 194만 명을 돌파했다.이는 2021년 7월 어린이·청소년의 주체적인 금융 생활을 위해 만들어진 ‘틴즈 사일로’가 첫 출범한 이후 1년 9개월 만의 성과다.‘틴즈 사일로’를 담당하는 윤주승 PO(Product Owner, 제품 책임자)는 “토스는 2021년부터 누구보다도 빠르게 알파 세대를 주목하기 시작했으며, 10대 고객들의 의견을 직접 듣고 서비스에 반영하며 ‘틴즈’들만이 느낄 수 있는 금융의 불편함을 해소하기 위해 다양한 노력을 기울여왔다”라며 “우수한 제품뿐 아니라 ‘토스 아동 보호 정책’을 제정해 가입 방식부터 소비되는 콘텐츠까지 안전하고 유익하게 제공하고자 하는 점도 토스만의 특별한 점”이라고 전했다.이 밖에도 '틴즈 사일로'는 ‘해냄 저금통’, 급식표 및 시간표 등 꾸준히 10대 전용 서비스들을 선보이고 있으며, ‘머니 스터디 카페’ 메뉴를 통해 청소년 전용 금융 교육 콘텐츠를 직접 제작하여 선보이고 있다.만 14세 미만을 위해서는 별도의 UI(user interface)가 구현된 전용 ‘유스 홈’ 또한 제공한다.한편, 토스는 이달 초 청소년이 직접 주식 투자를 경험할 수 있는 ‘토스 모의투자’ 제품을 새롭게 출시했다.만 7세부터 만 18세까지의 ‘틴즈’ 사용자에게 가상의 1,000달러를 지급하며, 사용자는 실시간 시세 정보를 활용해 국내외 주식 투자를 경험해 볼 수 있다. 더불어 청소년 눈높이에 맞춘 종목 설명과 투자 가이드 또한 함께 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.04.30.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>'디지털 외상거래' 후불결제 1년새 연체율 급증 비상</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013912625?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>최승재 "경각심 가지고 후불결제 관리·감독 강화해야"토스[비바리퍼블리카 제공]    (서울=연합뉴스) 심재훈 기자 = 청년층 사이에서 당장 돈이 없더라도 상품을 우선 구매한 뒤 일정 기간 후 대금을 갚는 후불결제(BNPL) 서비스의 연체율이 1년 새 급증한 것으로 30일 나타났다.    금융감독원이 국민의힘 최승재 의원에 제출한 자료에 따르면 BNPL 서비스를 제공하는 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스)의 지난 3월 기준 누적 가입자는 266만명, 총채권액은 445억원에 달했다.    문제는 단기간에 사용자가 늘면서 연체율이 급증하고 있다는 점이다.    3개 업체 중 이용량이 적은 카카오페이를 제외하고 네이버파이낸셜의 경우 지난해 3월 1.26%였던 연체율이 올해 3월에는 2.7%로 두배 넘게 늘었다. 같은 기간 연체 채권은 9천600만원에서 3억3천만원으로 증가했다.    토스는 BNPL 이용자가 200만명 수준으로 3개 사 중 가장 큰 비중을 차지하고 있으며 지난해 3월 서비스 개시 후 1년여만에 채권액이 320억원으로 늘었고, 이 가운데 연체 채권이 16억원으로 연체율이 5%에 달했다.    BNPL은 물품의 구매거래가 이뤄질 경우 업체가 가맹점에 먼저 대금을 지급하고, 소비자는 물품을 받은 뒤 여러 차례에 걸쳐 업체에 상환할 수 있도록 만든 서비스다.    대금을 나눠 갚는다는 점에서 할부 기능을 제공하는 신용카드와 비슷하지만, BNPL은 신용카드를 발급받을 수 없는 학생, 주부, 사회초년생도 이용할 수 있고 연체 등을 고려해 월 30만원 수준으로 사용액을 제한했다.    최승재 의원은 "혁신금융 조건이던 채권 판매 제한 등을 감안하더라도 몇백만원 수준이던 연체채권이 단기간에 증가하고 연체율 또한 급증하는 상황에 경각심을 가지고 관리·감독을 강화하고 규제체계를 논의할 필요가 있다"고 지적했다.     president21@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>한투, 펀더풀과 '영화·드라마' 토큰증권 상품화 MOU</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011814089?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>기사내용 요약토큰증권형 투자상품 개발[서울=뉴시스] 박은비 기자 = 한국투자증권은 영화·드라마 등 문화 콘텐츠 투자 플랫폼 '펀더풀'과 토큰증권(ST) 상품화를 위한 업무협약(MOU)을 체결했다고 20일 밝혔다.두 회사는 전날 업무협약식에서 토큰증권형 투자상품 개발, 투자계약증권의 토큰증권화, 플랫폼 내 관련 투자상품 탑재를 위한 인프라 구축 등을 추진하기로 했다.토큰증권 상품의 핵심이 되는 투자계약증권은 자본시장법상 허용되는 증권의 한 유형이다. 투자자가 공동사업 형태로 금전 등을 투자하고 결과에 따라 손익을 얻는 계약상 권리가 표시된다. 미술품, 선박, 항공기부터 음원과 영화 등 지적재산권(IP)까지 비정형 특성을 가진 자산은 모두 여기에 포함될 수 있다.한국투자증권은 앞서 카카오뱅크, 토스뱅크, 카카오엔터프라이즈와 손잡고 토큰증권 협의체 '한국투자 ST 프렌즈'를 출범시킨 바 있다. 발행 분산원장(블록체인) 시스템 개발과 토큰증권 상품 공급에 주력하고 있으며, 이번 협약을 비롯해 토큰증권 상품 기획·발행을 위한 다양한 파트너사와의 전략적 제휴도 추진 중이다.최서룡 한국투자증권 플랫폼본부장은 "펀더풀의 풍부한 콘텐츠 역량을 활용해 양질의 상품을 발굴할 수 있을 것으로 기대한다"며 "한국투자 ST 프렌즈의 분산원장 네트워크로 투자자가 만족할 만한 창의적인 투자상품을 공급하면서 토큰증권 초기 생태계 구축에 앞장서겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>이창용 한은 총재 "SVB 유사사태 가능성 대비해야"</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005001855?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>24일 오후 서울 명동 은행회관에서 열린 한국은행 총재 초청 은행장 간담회에서 (앞줄 왼쪽부터)김종호 기술보증기금 이사장, 이원덕 우리은행장, 유명순 한국씨티은행장, 이창용 한국은행 총재, 김광수 은행연합회 회장, 강신숙 수협은행장, 최원목 신용보증기금 이사장, 방성빈 부산은행장, (가운데 왼쪽부터)이석용 농협은행장, 이재근 국민은행장, 이승열 하나은행장, 정상혁 신한은행장, 윤호영 카카오뱅크 대표, 홍민택 토스뱅크 대표, 김성태 기업은행장, 서호성 케이뱅크 은행장, (뒷줄 왼쪽부터)이상형 한국은행 부총재보, 이호형 은행연합회 전무이사, 고병일 광주은행장, 백종일 전북은행장, 예경탁 경남은행장, 황병우 대구은행장이 기념사진을 찍고 있다. (사진=은행연합회 제공) *재판매 및 DB 금지 /사진=뉴시스  [파이낸셜뉴스]이창용 한국은행 총재가 시중은행장들에게 미국 실리콘밸리은행(SVB) 파산 사태와 유사한 사례가 발생할 가능성에 대비해야 한다고 강조했다. 온라인·모바일 뱅킹이 발달한만큼 디지털 뱅크런(대규모 예금 인출)이 언제든지 일어날 수 있다는 점을 경고한 것이다.   은행연합회는 24일 오후 서울 명동 은행회관에서 한은 총재 초청 은행장 간담회를 개최했다. 한은과의 소통을 강화하고 금융현안에 대한 이해의 폭을 넓히기 위해 마련된 자리다.   이날 간담회에는 이창용 한은 총재, 김광수 은행연합회장과 시중은행장 등 20명이 참석했다.   참석 기관은 NH농협은행, 신한은행, 우리은행, 하나은행, IBK기업은행, KB국민은행, 한국씨티은행, Sh수협은행, 신용보증기금, 대구은행, 부산은행, 광주은행, 전북은행, 경남은행, 기술보증기금, 케이뱅크, 카카오뱅크, 토스뱅크 등 18개사다.   이창용 총재는 이 자리에서 "최근 물가안정과 금융안정이 상충되는 상황에서 통화정책을 어떻게 운용해야 하는지가 국제적으로 중요한 이슈로 대두됐다"며 "지난주 주요 20개국(G20) 회의와 국제통화기금(IMF)-세계은행그룹(WBG) 회의에서 이와 관련한 심도 있는 논의가 있었다"고 소개했다.   이어 SVB 사태 이후의 금융시장을 바라보는 국제금융계의 시각, 앞으로의 국내외 금융시장 전망 등에 대한 의견을 냈다.   이 총재는 "해당 사태가 국내 금융시장에 미친 영향이 아직까지는 제한적이지만, 향후 유사 이벤트의 국내 발생 가능성에 대비해 한국은행 등 관계 당국과 금융기관이 함께 노력할 필요가 있다"고 강조했다.   이어 "은행권 현안을 포함한 주요 금융·경제 이슈에 대해 계속 관심을 갖고 살펴볼 것"이라며 "앞으로도 시장과의 소통을 강화해나갈 것"이라고 말했다.   이날 간담회에서 이 총재와 은행장들은 최근 국내외 금융시장 동향에 대한 인식을 공유하고, 은행산업 현안에 대한 논의를 진행했다.   김광수 회장은 "한은이 최근 SVB와 크레딧스위스 사태 이후 금융안정 차원에서 대출 적격담보증권 확대조치를 3개월 연장하는 한편, 중소기업대출비율을 합리적으로 조정하는 등 금융시장 상황에 발 빠르게 대처해준 점에 대해 감사의 뜻을 표한다"고 말했다.   그러면서 "은행이 경쟁력을 제고하고 국민경제의 건전한 발전에 이바지할 수 있도록 다양한 은행산업 현안과 관련해 한은이 함께 고민해 달라"고 요청했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>토스, 사이버공격 방어 훈련 '락드쉴즈' 참가</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002705656?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>토스 로고. ⓒ토스[데일리안 = 김효숙 기자] 토스는 북대서양 조약기구(NATO)가 주관하는 국제 사이버 공격 방어 연합훈련 락드쉴즈에 대한민국 대표팀의 일원으로 참가했다고 24일 밝혔다.지난 18일부터 21일까지 열린 락드쉴즈는 NATO 사이버방위센터가 2010년부터 개최하고 있는 사이버 훈련으로, 가상의 국가를 대상으로 이루어지는 국방, 에너지, 금융 등의 분야에 대한 사이버 공격을 방어한다.대한민국 대표팀은 총 11개 기관 60여 명의 보안전문가들로 구성되었으며 올해는 튀르키예와 연합 훈련 팀을 이루어 참가했다. 금융보안원이 주관하는 금융권 특화 사이버 침해 위협 분석 대회 FIESTA에서 2021년부터 2년 연속 1위에 오른 토스는 금융보안원의 초청을 받아 금융 분야 훈련에 참가할 수 있는 기회를 얻게 됐다.토스는 가상의 중앙은행 시스템을 방어하는 역할을 수행했다. 금융망 시스템 취약점 분석 및 제거, 보안 강화를 위한 조치, 위협 모니터링, 보고 및 시스템 복구 등을 진행했다. 또한, 그동안 쌓아온 노하우와 경험을 활용해 금융 보안을 위한 모의 해킹, 문제점이나 취약점을 발견하고 의도적으로 공격하는 레드 티밍도 수행하며 보안 역량을 발휘했다.이종호 토스 보안기술팀 리더는 "38개국에서 2000여 명의 보안 전문가가 참여하는 락드쉴즈는 최신 트렌드가 반영된 공격⋅대응⋅복구 사례들을 공유하고 훈련을 진행하기 때문에 깊은 인사이트를 나누고 배울 수 있었다"며 "금융보안원에서 토스를 대표 금융사 중 하나로 초청해 주신 만큼, 앞으로도 책임감을 가지고 금융업권의 전반의 보안 수준을 향상시킬 수 있도록 다양한 노력을 기울이겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>속속 출시되는 초단기 적금…금리 보고 가입하기는 무리 있어</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000936815?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>KB국민은행, IBK기업은행, 하나은행의 초단기 적금 상품.  사진|각 사[스포츠서울 | 홍성효기자] 이달부터 최소 1개월 만기 적금이 가능해지면서 초단기 적금들이 속속 출시되고 있다. 하지만 초단기 적금의 금리를 보고 가입하기에는 무리가 있다는 의견이다.17일 금융권에 따르면 IBK기업은행, 케이뱅크, 하나은행, KB국민은행, 토스뱅크가 6개월 이하 만기의 단기적금 상품을 운영하고 있다. 월 최대 납입액은 20만~50만원, 연 최고금리는 3.3%~6.0% 수준이다. 은행들이 이같이 단기 적금을 출시하는 것은 최근 한국은행이 정기적금 만기를 1개월부터 가능하도록 개정했기 때문이다. 그동안 한국은행 금융기관 여수신이율 등에 관한 규정에 따라 정기적금의 만기는 최소 6개월부터로 정해져 있었다.다른 은행들도 초단기 적금 출시를 준비하고 있다. 신한은행은 4월 중, NH농협은행은 5월 중으로 출시 예정이다. 또 우리은행과 카카오뱅크는 출시를 검토하고 있는 것으로 알려졌다.은행들의 이같은 행보는 금융 변동성이 커지자 단기적으로 유동자금을 굴리려는 금융 소비자들의 수요를 공략하기 위함이다. 특히 단기 납입을 선호하는 MZ세대(1980년대 중반~2000년대 초 출생)를 집중적으로 잡겠다는 계획이다.그러나 초단기 적금은 이자수령액이 매우 적어 예금 대비 효율성이 떨어진다는 의견이다. 실제 1개월 적금 중 최고금리가 6%로 가장 높은 ‘KB 특별한 적금’에 최대 불입액인 30만원을 넣으면 만기 시 받을 수 있는 세후이자는 1269원이다.시중은행 관계자는 “단기간이지만 목돈을 예치해 일정 수준의 이자를 받을 수 있어 요긴하게 쓸 수 있는 예금과 달리 적은 금액을 연속적으로 납입해 목돈을 마련하려는 목적인 적금의 기간이 1개월인 경우 너무 짧은 기간에 모을수 있는 돈의 한계와 적은 이자로 인해 예금대비 효율성 급격히 떨어지는 게 사실”이라고 말했다.하지만 초단기 적금은 금리를 보고 가입하는게 아니라는 의견도 있다. 하나은행 관계자는 “초단기 적금인 ‘하나 타이밍 적금’은 기존의 적금처럼 이자만 주는 것이 아니라 게임을 즐기면서 경품과 저축을 동시에 즐길 수 구조이기 때문에 인기가 많다”고 설명했다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.04.30.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>‘디지털 외상거래’ 후불결제 1년 새 연체율 급증…비상</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011475658?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>청년층 사이에서 당장 돈이 없더라도 상품을 우선 구매한 후 일정 기간이 지나 대금을 갚는 후불결제(BNPL) 서비스 연체율이 1년 새 급증한 것으로 나타났습니다. 금융감독원이 오늘(30일) 국민의힘 최승재 의원에 제출한 자료에 따르면 BNPL 서비스를 제공하는 네이버파이낸셜과 카카오페이, 비바리퍼블리카(토스)의 지난 3월 기준 누적 가입자는 266만 명, 총채권액은 445억 원에 달했습니다. 문제는 단기간에 사용자가 늘면서 연체율이 급증하고 있다는 점으로, 3개 업체 중 이용량이 적은 카카오페이를 제외하고 네이버파이낸셜의 경우 지난해 3월 1.26%였던 연체율이 올해 3월에는 2.7%로 두 배 넘게 늘었고, 같은 기간 연체 채권은 9천600만 원에서 3억3천만 원으로 증가했습니다. 토스는 BNPL 이용자가 200만 명 수준으로 3개 사 중 가장 큰 비중을 차지하고 있으며 지난해 3월 서비스 개시 후 1년여만에 채권액이 320억 원으로 늘었고 이 가운데 연체 채권은 16억 원으로 연체율이 5%에 육박했습니다. BNPL은 물품의 구매거래가 이뤄질 경우 업체가 가맹점에 먼저 대금을 지급하고, 소비자는 물품을 받은 후 여러 차례에 걸쳐 업체에 상환할 수 있도록 만든 서비스입니다. 대금을 나눠 갚는다는 점에서 할부 기능을 제공하는 신용카드와 비슷하지만 BNPL은 신용카드를 발급받을 수 없는 학생과 주부, 사회초년생도 이용할 수 있으며 연체 등을 고려해 월 30만 원 수준으로 사용액이 제한돼 있습니다. 최승재 의원은 “혁신금융 조건이던 채권 판매 제한 등을 감안하더라도 몇백만 원 수준이던 연체채권이 단기간에 증가하고 연체율 또한 급증하는 상황에 경각심을 가지고 관리·감독을 강화하고 규제체계를 논의할 필요가 있다”고 지적했습니다.[사진 출처 : 연합뉴스 / 바바리퍼블리카 제공]</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>엔픽셀, 블록토와 전략적 파트너십…웹3.0 게임 대중화 나선다</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000043535?sid=105</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>게임 본연의 재미와 블록체인 기술 결합, 차세대 웹3.0 게임 대중화 기반 마련메타픽셀은 블록토와 전략적 파트너십을 체결했다. [사진 엔픽셀][이코노미스트 원태영 기자]엔픽셀의 웹3.0(Web 3.0) 기반 게임 생태계 ‘메타픽셀(METAPIXEL)’이 포르토(Portto)의 멀티 체인 지갑(Wallet) 및 웹3.0 생태계 ‘블록토(Blocto) 와 전략적 파트너십을 체결했다고 18일 밝혔다.이번 파트너십은 게임 본연의 재미와 블록체인 기술을 융합한 차세대 웹3.0 게임의 대중화를 목표로, 글로벌 게이머의 이용 편의 및 접근성 향상 등 웹3.0 게임 커뮤니티 확대를 위해서다.블록토는 메타픽셀과 첫 번째로 협업 관계를 맺은 주요 지갑으로, 소셜 로그인과 가스 비용 지원, 앱토스(Aptos) 생태계 속에서 가장 빠르고 편리한 접근성을 제공하는 등 메타픽셀 커뮤니티의 활성화에도 기여하게 된다.엔픽셀은 “메타픽셀의 비전은 게임을 통해 실제와 가상 세계를 연결하는 경험을 제공하는 데 있으며, 블록토와의 파트너십을 통해 웹3.0 게임의 대중화에 기여할 것으로 기대한다”고 밝혔다.블록토 역시 “블록체인 기술의 장점을 적용해 게임의 재미를 향상할 수 있는 진정한 웹3.0 게임의 대중화에 기여할 수 있게 돼 기쁘다”라고 전했다.한편 엔픽셀은 지난해 실리콘밸리의 주목받는 레이어1(Layer 1) 블록체인 기업 ‘앱토스(Aptos)’ 와 게임 부문 파트너십을 체결하고, 웹3.0 기반 게임 생태계 ‘메타픽셀(METAPIXEL)’의 첫 번째 MMORPG ‘그랑사가: 언리미티드’를 개발하고 있다. 블록토는 블록체인 지갑 서비스를 제공하며 160만 명의 활성 사용자를 확보하고, 최근 8000만 달러의 가치를 인정받으며 ‘마크 큐반’ 등 실리콘밸리 유명 투자자들로부터 투자를 유치한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>“어린이날 에코프로 줄까?” 미성년 자녀 비대면계좌 빗장 열렸다</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002134083?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>[연합][헤럴드경제=윤호 기자] 가정의달을 앞두고 금융위원회가 은행·증권사 등 금융사 영업점을 방문하지 않고 스마트폰을 이용해 미성년 자녀 명의의 계좌를 개설할 수 있게 제도를 손질하면서, 각 증권사가 해당 서비스 시행에 경쟁적으로 뛰어들고 있다.24일 업계에 따르면 금융위원회는 이달 법정대리권을 가진 부모가 비대면 방식으로 자녀 명의의 계좌를 개설할 수 있도록 ‘비대면 실명확인 가이드라인’을 개편했다.금융위는 지난 2015년 12월 계좌개설시 비대면 방식의 실명 확인을 허용했으나, 명의인 본인만 이용할 수 있도록 대상을 제한했다. 이 때문에 부모가 자녀 명의로 주식계좌를 만들려면 직접 증권사나 은행을 방문해야만 했다.이에 따라 금융당국은 지난해 7월 비대면 실명확인 제도개선 등을 담은 금융규제혁신 추진방향을 발표하고 행정안전부, 경찰청, 외교부 등과 법정대리인 업무 절차를 정비해 이달 결과물을 낸 것이다.먼저 실무작업을 마친 곳은 최근 코스닥 투자 열풍을 타고 있는 증권가다. NH투자증권과 KB증권은 이미 미성년 자녀 비대면 계좌개설 서비스를 시작했으며, 키움증권과 미래에셋증권은 이번주 오픈을 앞두고 있다.상반기 토스증권이 미성년 비대면 계좌개설에 합류하고 하반기에는 은행권에서 신한·국민·하나·우리·농협 등 5대 은행과 카카오·토스은행, 부산·대구·광주·전북·수협은행 등이 출시를 예정하고 있다. 증권가에서도 삼성·하나·유안타·이베스트투자가 연내 출시를 목표로 하고 있다.각 사 최고경영자(CEO)들도 금융투자 교육 효과를 강조하며 미성년 비대면 계좌개설 유치에 적극적이다. 정영채 NH투자증권 대표는 “금융교육의 중요성이 커지면서 미성년자 계좌 서비스의 수요가 크게 늘었다”면서 “비대면 자녀 계좌개설 서비스를 시작으로 미성년 고객들의 올바른 투자 습관을 정립하고 함께 성장해 나갈 수 있도록 다양한 서비스와 솔루션을 고민할 것”이라고 말했다.금융당국은 본인이 아닌 미성년 자녀도 비대면 계좌 개설 대상에 포함됨에 따라 혹시나 모를 부작용에 대한 모니터링을 강화하고 있다. 다만 자녀에 대한 편법증여 등 제도악용은 기존 대면 계좌개설로도 가능한 만큼 비대면 계좌 개설로 크게 늘어날 것으로 보지는 않고 있고, 가족관계증명서에는 발행번호와 진위확인 메뉴가 있어 위변조 여부를 쉽게 가려낼 수 있는 만큼 부작용 우려가 크지 않다는 후문이다.금융감독원 관계자는 “법정상속인 등은 비대면 계좌개설이 안되고 자녀에 대해서만 허용했기 때문에, 가족관계증명서 등을 통해 비대면 개설에 대한 증명이 비교적 쉽고 정확하게 이뤄질 것으로 보고 있다”면서 “계좌개설 모수 전체가 급격히 늘어나는 효과는 있을 것으로 예상되는 만큼 해당 모니터링을 강화할 방침이다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>"고물가 시대 택시비 아끼세요".. 티머니GO 온다택시 프로모션</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004998029?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 티머니GO 온다택시가 택시비 부담 덜기에 나섰다. 불황과 고물가로 어려움에 빠진 택시업계에 활력이 되고 소비자들에도 혜택이 돌아갈 것으로 기대된다.   17일 티머니GO에 따르면 온다택시를 통해 오는 6월 30일까지 택시비를 할인받을 수 있는 프로모션을 진행한다. 쿠폰부터 'G마켓 100원딜', '토스 브랜드 캐시백' 등 제휴 마케팅까지 준비됐다.   티머니GO 온다택시는 앱 회원을 대상으로 2만원 상당의 '택시비 지원금 쿠폰팩'을 지급한다. 티머니GO 신규고객이라면 택시비 50% 할인 쿠폰(5천원 한도)과 3000원 할인 쿠폰 2장(신규가입 시 1장, 첫 자동결제 완료시 1장 추가 발급), 2000원 할인 쿠폰 등 풍성한 혜택을 받을 수 있다. 기존 회원도 출퇴근 지원금으로 택시비 20% 할인 쿠폰(2천원 한도) 2장과 심야 지원금 30%할인 쿠폰(3천원 한도)을 받을 수 있다. 신규고객 기준으로 오늘부터 받을 수 있는 쿠폰을 모두 합하면 2만원에 이른다.   티머니GO 온다택시를 처음 이용하는 고객들은 더 많은 혜택으로 택시비 부담을 크게 줄일 수 있다. 먼저, 오는 23일까지 '티머니GO 온다택시 3천원 권 G마켓 100원딜'을 통해 티머니GO 온다택시 첫 탑승 3천원 쿠폰과 스타벅스 커피쿠폰을 단돈 100원에 구매할 수 있다. 토스 사용자라면, 토스 앱 내 '브랜드 캐시백'코너에서 '티머니GO 온다택시'를 선택해 이용하면 캐시백 리워드 5천원도 받을 수 있다.   조동욱 티머니 전무는 "티머니GO 온다택시는 다양한 혜택과 상생 활동으로 택시업계와 고객 모두에게 '착한 택시'로 자리매김하고 있다"고 하며 "앞으로도 더 많은 혜택으로 택시업계와는 동반성장하고, 고객들에게는 사랑받는 티머니GO 온다택시가 되겠다"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>‘은행 알뜰폰’ 밀려오나… 바짝 긴장한 이통사들</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001601616?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>KB리브엠 첫 정식 사업승인 받아  신한·하나도 제휴 방식으로 진출  ‘알뜰폰 갈아타기’ 가속화 가능성규제 묶인 기존업체 형평성 문제도정부가 이동통신 시장의 경쟁을 활성화한다며 시중은행이 알뜰폰 사업에 진출할 수 있도록 빗장을 풀었다. 가장 먼저 KB국민은행의 알뜰폰 ‘리브모바일(리브엠)’이 정식 사업승인을 받았다. 은행이 후발주자로 이동통신 시장에 진출할 경우 다양한 요금제 출시로 ‘메기’ 역할을 할 수 있다. 이동통신 업계에선 금융자본이 기존 알뜰폰 사업자를 심각하게 위협할 수 있다며 긴장하는 모습이 역력하다.금융위원회는 지난 12일 정례회의를 열고 가상이동통신망 사업(알뜰폰·MVNO)을 은행의 부수업무로 영위할 수 있도록 하는 규제 개선 요청을 수용했다. 이에 따라 리브엠은 알뜰폰 사업에 대한 정식 승인을 받게 됐다. 리브엠은 지난 2019년 규제샌드박스 사업 특례로 알뜰폰 시장에 진출했다. 단기간에 업계 최다 수준인 40만명 가량의 가입자를 모으면서 입지를 다졌다. 하지만 16일로 특례기간이 종료될 예정이라 사업 지속 여부가 불투명했었다.이동통신 업계는 KB국민은행 외에 다른 은행이 알뜰폰 시장에 진출할 가능성은 희박하다고 본다. 시장 성장세가 주춤한 상태라 ‘수익성 판단’이 필요해서다. 다만 중장기적으로는 자본력을 앞세워 가입자를 유치하려는 은행권 경쟁이 치열하게 펼쳐질 수 있다는 관측도 제기된다. 경기 침체로 수익성이 낮아진 은행들이 고객 유치를 위해 알뜰폰을 정식 사업으로 확대할 수 있다.특히 은행 입장에선 알뜰폰을 앞세워 고객을 자사 금융 플랫폼에 묶는 ‘락인 효과’를 기대한다. 고객의 금융데이터뿐만 아니라 통신사용 패턴 등의 부수적 데이터도 확보할 수 있다. 다양한 금융 서비스를 만들고 제공하는 데 활용할 수 있다는 장점도 있는 것이다. 이미 인터넷은행 토스가 알뜰폰 사업에 진출했고, 신한은행과 하나은행도 알뜰폰 사업자와 제휴해 관련 요금제를 출시했다. 간접적인 방식으로 시장에 발을 들인 것이다.이동통신 안팎에서는 긴장감이 역력하다. 이동통신 3사의 가입자들이 통신비 절감을 위해 알뜰폰으로 갈아타는 현상이 두드러지게 나타나고 있다. 여기에 ‘은행 알뜰폰’이라는 선택지가 추가된 만큼 이탈에 속도가 붙을 수 있다는 우려가 크다. 16일 과학기술정보통신부에 따르면 지난해 기준으로 알뜰폰 가입자는 약 137만명 순증했다. 반면 SK텔레콤 가입자는 약 39만명, KT는 약 26만명, LG유플러스는 약 18만명 줄었다.알뜰폰 사업자들은 더 어려운 상황에 직면했다. 기존 알뜰폰 사업자들은 점유율 규제로 고객 유치 활동을 적극적으로 하지 못한다. 이동통신 3사의 알뜰폰 자회사들은 도매대가 이하로 요금제를 출시할 수 없다. 시장 점유율도 총합 50%(사물인터넷 회선 포함)를 넘기지 못한다. 반면 은행 알뜰폰은 규제를 적용받지 않아 운신의 폭이 넓다. 자본력을 바탕으로 대대적인 고객 유치전을 펼칠 수 있다. 은행은 전국 지점망을 갖추고 있어 온라인 영업을 주로 하는 기존 알뜰폰 사업자보다 이점을 갖는다.이에 이동통신 업계는 공정경쟁을 위한 ‘룰’을 추가로 마련해야 한다고 지적한다. 전국이동통신유통협회는 “리브엠이 도매대가 이하로 판매를 계속하면 많은 알뜰폰 기업들이 도산해 이용자 피해로 이어진다. 과도한 덤핑 판매로 100억원 가량의 손실을 보며 소상공인을 도산시키는 것이 혁신인지 묻고 싶다. 건전성 훼손, 과당 경쟁 방지를 위한 모니터링이 이뤄져야 한다”고 주장했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>토스, 사이버 공격 방어 연합훈련 '락드쉴즈' 참가</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003093674?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>토스는 북대서양 조약기구(NATO) 사이버방위센터(CCDCOE)에서 주관하는 국제 사이버 공격 방어 연합훈련 락드쉴즈에 대한민국 대표팀 일원으로 참가했다고 24일 밝혔다.토스는 북대서양 조약기구(NATO) 사이버방위센터(CCDCOE)에서 주관하는 국제 사이버 공격 방어 연합훈련 '락드쉴즈'에 대한민국 대표팀 일원으로 참가했다고 24일 밝혔다.토스는 금융 위협 분석 대회 '피에스타(FIESTA) 2022의 1위 자격으로 금융보안원으로부터 참가 초청을 받았다.지난 18일부터 21일까지 열린 '락드쉴즈'는 NATO 사이버방위센터가 2010년부터 개최하고 있는 사이버 훈련이다. 가상 국가를 대상으로 이루어지는 국방, 에너지, 금융 등의 분야에 대한 사이버 공격을 방어한다. 대한민국 대표팀은 총 11개 기관 60여명 보안전문가로 구성됐으며, 올해는 튀르키예와 연합 훈련 팀을 이뤄 참가했다.토스는 가상의 중앙은행 시스템을 방어하는 역할을 수행했다. 금융망 시스템 취약점 분석 및 제거, 보안 강화를 위한 조치, 위협 모니터링, 보고 및 시스템 복구 등을 진행했다. 그동안 쌓아온 노하우와 경험을 활용해 금융 보안을 위한 모의 해킹, 문제점이나 취약점을 발견하고 의도적으로 공격하는 '레드 티밍'도 수행하며 보안 역량을 발휘했다.이종호 토스 보안기술팀 리더는 “38개국에서 2000여명의 보안 전문가가 참여하는 '락드쉴즈'는 최신 트렌드가 반영된 공격·대응·복구 사례들을 공유하고 훈련을 진행하기 때문에 깊은 인사이트를 나누고 배울 수 있었다”라며 “금융보안원에서 토스를 대표 금융사 중 하나로 초청해 주신 만큼, 앞으로도 책임감을 가지고 금융업권의 전반의 보안 수준을 향상시킬 수 있도록 다양한 노력을 기울이겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>인뱅 '막내' 토스뱅크, 위기관리 능력 시험대 올랐다</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000212081?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>토스뱅크, '유동성 위기설' 일축하니 '건전성 관리' 과제로 떠올라토스뱅크는 최근 업계 일각에서 나오는 유동성 위기를 겪을 수 있다는 우려에 대해 즉각 대응에 나섰다. /토스뱅크 제공토스뱅크가 일각에서 제기된 '유동성 위기설'에 몸살을 앓았다. 토스뱅크 측은 '위기설'에 대해 즉각 진화에 나섰지만, 미국 실리콘밸리은행(SVB) 파산 사태 이후 전 세계적으로 확산한 금융 불안으로 인해 논란이 쉽게 사그라지지 않는 모양새다.17일 금융권에 따르면 토스뱅크는 최근 '유도성 위기설'에 휩싸였다. SVB 파산 이후 전 세계적으로 은행들의 유동성 위기가 확산하고 있는 가운데 국내에서도 토스뱅크가 토스뱅크의 수신 상품 구조, SVB의 파산 요인 중 하나인 '폰 뱅크런' 등으로 유동성 위기를 겪을 수 있다는 우려가 나오면서다.특히 토스뱅크가 연 3.5% 금리를 가입 즉시 제공하는 선이자 예금 상품 '먼저 이자 받는 예금'을 출시하면서 일각에서는 토스뱅크가 단기 유동성이 부족해서 선이자 상품을 출시한 것이 아니냐며 의혹에 불을 지폈다.이러한 의혹이 확산하자 토스뱅크 측은 '위기설은 사실이 아니다'며 즉각 대응에 나섰다.홍민택 토스뱅크 대표는 지난달 열린 '인터넷전문은행 출범 5주년 기념 토론회'에서 토스뱅크 유동성 우려 제기와 관련 "토스뱅크가 우려할 만한 부분이 전혀 없다"며 "수신은 23조 원을 넘는 등 다른 시중은행들 대비 유동성 비율이 훨씬 높다"라며 위기설을 일축했다. 또한 선이자 정기 예금과 관련해서도 "선이자 정기 예금은 기존 금융권에 있던 상품으로 고객에게 이자를 먼저 제공해도 재무적으로 차이가 없다"며 "해당 상품은 수신을 확보하기 위해서가 아니라 고객이 이자를 받는 불편한 경험을 개선하기 위해 출시한 것"이라고 설명했다.토스뱅크는 지난해 연간 실적 발표를 통해 "올해는 흑자를 이룰 것"이라며 위기설 진화에 거듭 나섰다.지난해 연간 실적에서 토스뱅크는 2644억 원의 당기 순손실을 기록했다. 이는 전년 대비 3배 정도 늘어난 수준이다. 토스뱅크는 순손실이 늘어난 이유에 대해 대손충당금이 차지하는 비율이 70%로 높았기 때문이라고 설명했다. 대손충당금은 금융회사가 대출 이후 예상되는 상환 불이행에 대비해 미리 적립금으로 쌓아 두는 금액을 의미한다. 토스뱅크의 대손 충당금은 1860억 원으로, 적립률은 405%다. 이는 은행권 평균인 225%의 1.8배에 이르는 수치다.높은 대손충담금에 대해 토스뱅크 측은 은행이 담보가 없는 신용대출만 공급했기 때문이라고 설명했다. 토스뱅크 관계자는 "여신 포트폴리오 다각화를 통해 늘어나는 신규 여신 규모 대비 새로 지출되는 충당금 비율은 축소될 것"이라며 "올해는 적립률이 상대적으로 낮은 전월세 자금 대출을 출시할 예정"이라고 전했다. 앞으로는 담보가 있는 전월세 자금 대출 등을 공급해 대손충당금의 적립률을 낮추겠다는 의지로 풀이된다.지난 3월 기준으로 토스뱅크의 유동성커버리지비율(LCR)은 833.5%로, 평균 100%를 유지하는 시중은행과 비교해도 유동성 비율이 높은 편이다.홍민택 토스뱅크 대표는 '위기설'과 관련 "토스뱅크가 우려할 만한 부분이 전혀 없다"고 위기설을 일축했다. /토스뱅크다만 업계 일각에서는 토스뱅크가 건전성 관리 등 풀어 야할 숙제가 남아있는 만큼 신생 은행인 토스뱅크의 위기 관리 능력은 당분간 시험대에 오를 것이란 분석도 나온다.토스뱅크는 인터넷은행으로 중·저신용자 대상 대출이 높다는 특징이 있다. 토스뱅크는 금융당국의 요구에 따라 지난해 말 기준 중저신용자 대상 신용대출 비중을 40.4%까지 끌어올렸다.다만 경기침체 그림자가 짙어지면서 중·저신용자 대출이 부실화할 가능성이 점차 높아지고 있다는 점을 고려하면 토스뱅크 건전성에 대한 '우려'가 근거가 없지 않다는 분석이다.실제 토스뱅크의 지난해 말 연체율은 0.72%로, 전년 동기 대비 0.42%포인트 증가했다. 부실채권 비율 또한 크게 상승했다. 같은 기간 토스뱅크의 부실채권 비율은 0.52%포인트 오른 0.53%로 나타났다.이와 관련 토스뱅크 관계자는 "리스크 관리 부분은 면밀히 관찰하면서 건전하게 잘 관리해 나갈 것"이라고 강조했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.04.16.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>KB리브엠은 시작일 뿐… ‘은행 알뜰폰’ 빗장 풀리자 이통사 ‘긴장’</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001601427?sid=105</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>정부가 이동통신 시장의 경쟁을 활성화한다며 시중은행이 알뜰폰 사업에 진출할 수 있도록 빗장을 풀었다. 가장 먼저 KB국민은행의 알뜰폰 ‘리브모바일(리브엠)’이 정식 사업승인을 받았다. 은행이 후발주자로 이동통신 시장에 진출할 경우 다양한 요금제 출시로 ‘메기’ 역할을 할 수 있다. 이동통신 업계에선 금융자본이 기존 알뜰폰 사업자를 심각하게 위협할 수 있다며 긴장하는 모습이 역력하다.금융위원회는 지난 12일 정례회의를 열고 가상이동통신망 사업(알뜰폰·MVNO)을 은행의 부수업무로 영위할 수 있도록 하는 규제 개선 요청을 수용했다. 이에 따라 리브엠은 알뜰폰 사업에 대한 정식 승인을 받게 됐다. 리브엠은 지난 2019년 규제샌드박스 사업 특례로 알뜰폰 시장에 진출했다. 단기간에 업계 최다 수준인 40만명 가량의 가입자를 모으면서 입지를 다졌다. 하지만 16일로 특례기간이 종료될 예정이라 사업 지속 여부가 불투명했었다.이동통신 업계는 KB국민은행 외에 다른 은행이 알뜰폰 시장에 진출할 가능성은 희박하다고 본다. 시장 성장세가 주춤한 상태라 ‘수익성 판단’이 필요해서다. 다만 중장기적으로는 자본력을 앞세워 가입자를 유치하려는 은행권 경쟁이 치열하게 펼쳐질 수 있다는 관측도 제기된다. 경기 침체로 수익성이 낮아진 은행들이 고객 유치를 위해 알뜰폰을 정식 사업으로 확대할 수 있다.특히 은행 입장에선 알뜰폰을 앞세워 고객을 자사 금융 플랫폼에 묶는 ‘락인 효과’를 기대한다. 고객의 금융데이터뿐만 아니라 통신사용 패턴 등의 부수적 데이터도 확보할 수 있다. 다양한 금융 서비스를 만들고 제공하는 데 활용할 수 있다는 장점도 있는 것이다. 이미 인터넷은행 토스가 알뜰폰 사업에 진출했고, 신한은행과 하나은행도 알뜰폰 사업자와 제휴해 관련 요금제를 출시했다. 간접적인 방식으로 시장에 발을 들인 것이다.이동통신 안팎에서는 긴장감이 역력하다. 이동통신 3사의 가입자들이 통신비 절감을 위해 알뜰폰으로 갈아타는 현상이 두드러지게 나타나고 있다. 여기에 ‘은행 알뜰폰’이라는 선택지가 추가된 만큼 이탈에 속도가 붙을 수 있다는 우려가 크다. 16일 과학기술정보통신부에 따르면 지난해 기준으로 알뜰폰 가입자는 약 137만명 순증했다. 반면 SK텔레콤 가입자는 약 39만명, KT는 약 26만명, LG유플러스는 약 18만명 줄었다.알뜰폰 사업자들은 더 어려운 상황에 직면했다. 기존 알뜰폰 사업자들은 점유율 규제로 고객 유치활동을 적극적으로 하지 못한다. 이동통신 3사의 알뜰폰 자회사들은 도매대가 이하로 요금제를 출시할 수 없다. 시장 점유율도 총합 50%(사물인터넷 회선 포함)를 넘기지 못한다. 반면 은행 알뜰폰은 규제를 적용 받지 않아 운신의 폭이 넓다. 자본력을 바탕으로 대대적인 고객 유치전을 펼칠 수 있다. 은행은 전국 지점망을 갖추고 있어 온라인 영업을 주로 하는 기존 알뜰폰 사업자보다 이점을 갖는다.이에 이동통신 업계는 공정경쟁을 위한 ‘룰’을 추가로 마련해야 한다고 지적한다. 전국이동통신유통협회는 “리브엠이 도매대가 이하로 판매를 계속하면 많은 알뜰폰 기업들이 도산해 이용자 피해로 이어진다. 과도한 덤핑 판매로 100억원 가량의 손실을 보며 소상공인을 도산시키는 것이 혁신인지 묻고 싶다. 건전성 훼손, 과당 경쟁 방지를 위한 모니터링이 이뤄져야 한다”고 주장했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>택시비 2만원 줄일 수 있다고?…어디서?</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000331920?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>티머니 GO 온다택시 서비스 시작[티머니GO 온다택시 (사진=티머니)]티머니GO 온다택시가 앱 회원을 대상으로 최대 2만원 쿠폰팩을 지급해 택시비 부담 덜기에 나섰습니다.스마트한 이동과 결제 서비스 업체인 티머니가 '티머니GO 온다택시'를 통해 오늘(17일)부터 6월 30일까지 택시비 부담 줄이기에 나선다고 밝혔습니다.먼저, 티머니GO 온다택시는 앱 회원을 대상으로 2만원 상당의 ‘택시비 지원금 쿠폰팩’을 지급합니다.티머니GO 신규고객이라면 택시비 50% 할인 쿠폰(5천원 한도)과, 3천원 할인 쿠폰 2장(신규가입 시 1장, 첫 자동결제 완료시 1장 추가 발급), 2천원 할인 쿠폰 등 풍성한 혜택을 받을 수 있습니다.기존 회원의 경우에도 출퇴근 지원금으로 택시비 20% 할인 쿠폰(2천원 한도) 2장과, 심야 지원금 30%할인 쿠폰(3천원 한도)을 받을 수 있습니다.신규고객이라면 오늘부터 받을 수 있는 쿠폰을 모두 합해 최대 2만원을 할인받을 수 있습니다. 이와 함께 티머니GO 온다택시의 첫 이용 고객은 추가로 혜택을 받을 수 있습니다. 먼저, 오늘부터 일주일(4월 17일 ~23일)간 진행 중인 ‘티머니GO 온다택시 3천원 권 G마켓 100원딜’을 통해 티머니GO 온다택시 첫 탑승 3천원 쿠폰과 스타벅스 커피쿠폰을 단돈 100원에 구매할 수 있습니다.아울러 토스 사용자라면, 토스 앱 내 ‘브랜드 캐시백’코너에서 ‘티머니GO 온다택시’를 선택해 이용하면 캐시백 리워드 5천원도 받을 수 있습니다.티머니GO는 택시 외에 대중교통 서비스에 대한 리워드도 지급합니다. 티머니GO는 ‘대중교통 리워드’와 ‘티머니GO 환승리워드’ 등 대중교통을 이용하는 것만으로도 리워드를 받을 수 있고, ‘하루하루 출석체크’를 통해 일 최대 500M, 월 누적 출석 달성 시 추가 마일리지도 받을 수 있습니다.㈜티머니 Mobility사업부장 조동욱 전무는 “티머니GO 온다택시는 다양한 혜택과 상생 활동으로 택시업계, 고객 모두에게 ‘착한 택시’로 자리매김하고 있다”고 하며 “앞으로도 더 많은 혜택으로 택시업계와는 동반성장하고, 고객들에게는 사랑받는 티머니GO 온다택시가 되겠다”고 밝혔습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.04.29.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>도넛·버거로 매출 100억에서 3년만에 천억으로 키운 이 남자 [남돈남산]</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005123577?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>이준범 GFFG 대표 인터뷰‘노티드’, ‘다운타우너’ 등 외식 브랜드 11개 운영노티드, 하루 평균 5만개 팔리는 도넛으로 유명 알토스벤처스 등 300억 투자 유치…해외 진출 도전 이준범 GFFG 대표가 GFFG 사무실에서 ‘노티드’ 도넛을 들고 포즈를 취하고 있다. [이승환 기자]하루 평균 판매량 5만개.사회관계망서비스(SNS)를 중심으로 ‘죽기 전에 꼭 먹어봐야 하는 인생 도넛’이라고 입소문 나면서 사먹으려면 최소 수십분 이상 줄서야 하는 도넛. 2018년 10월 혜성처럼 등장해 젊은 여성들 사이에 특히 인기 있는 도넛 ‘노티드(knotted)’이다.한국은 식문화가 유행에 매우 민감한 데다 소비자들의 입맛도 까다로워서 외식업체가 성공하기 굉장히 힘든 나라로 유명하다. 반짝 주목받을 수 있지만 대중에게 지속적으로 사랑받는 게 쉽지 않기 때문에 출시 이후 1, 2년 만에 사라진 국내외 외식 브랜드도 많다. 이 같은 한국 외식 시장에서 약 5년 동안 지속적으로 성장해온 도넛 브랜드가 바로 ‘노티드’이다.올해 3월 31일 서울 송파구에 위치한 잠실 롯데월드몰 ‘노티드월드점’ 개관 당일 약 1000명이 줄서서 대기하며 입장이 조기 마감돼 화제가 되기도 했다. 일반적인 외식 브랜드와 달리 가맹점 없이 직영 매장으로만 19개(4월말 기준, 팝업스토어 제외)를 운영 중인 노티드가 성장 가도를 달리고 있는 비결이 뭘까.노티드를 소유한 기업은 최근 외식 업계에서 가장 유명한 기업으로 부상한 ‘지에프에프지(GFFG)’이다. 2015년 이준범 GFFG 대표가 ‘좋은 음식을 오랫동안 즐길 수 있도록 하자’는 취지에서 설립한 기업으로, GFFG는 ‘굿 푸드 포 굿(Good food for good)’의 약자이다.GFFG는 노티드(도넛), 다운타우너(수제 버거), 리틀넥(브런치), 호족반(퓨전 한식), 클랩피자(피자), 웍셔너리(퓨전 중식), 애니오케이션(베이글), 키마스시(초밥), 오픈엔드 위스키바(술), 미뉴트 빠삐용(츄러스), 베이커리 블레어(빵) 등 총 11개 브랜드를 지닌 외식 기업으로, 지난해 약 1000억원의 매출액을 기록했다. 2019년 매출이 100억원대였던 점을 감안하며 불과 3년 만에 약 10배 성장한 셈이다. 올해 목표 매출액은 1300억원이다.이달 말 기준 브랜드 11개의 매장 수(팝업스토어 제외)는 노티드 19개, 다운타우너 8개, 리틀넥 2개, 클랩피자 2개, 나머지 브랜드는 각각 1개씩으로 약 40개에 달한다.11개 브랜드 중 매출액 비중이 가장 큰 브랜드는 노티드로, 지난해 GFFG 매출의 60%가량이 노티드에서 나왔다. 두 번째로 비중이 큰 브랜드는 다운타우너로, 약 20%를 차지했다. 이준범 GFFG의 대표를 만나 노티드의 인기 비결과 전략, GFFG의 목표 등에 관해 들어봤다.“노티드는 경험을 파는 곳”이준범 GFFG 대표는 노티드의 인기 비결에 대해 “맛, 서비스, 공간 등 소비자가 원하는 것들을 최대한 반영·개선하려고 끊임없이 노력했고, 누구나 노티드에 와서 기분 좋고 행복한 경험을 할 수 있도록 힘쓴 덕분인 것 같다”고 말했다.노티드 매장에 가보면 인테리어부터 평범한 도넛 가게와는 다르다는 것을 깨닫게 된다. 처음 노티드 매장을 방문한 사람들은 대부분 자신의 휴대폰을 꺼내서 매장 곳곳을 촬영한다. 핑크색, 노란색 등 화사한 색상이 어우러진 인테리어 덕분에 매장에 들어오면 사진을 찍고 싶다는 생각이 저절로 들기 때문이다.슈가베어 인형, 크림버니 인형, 스마일파우치, 레인보우 목 쿠션, 우산, 피크닉매트, 스마일코스터 등 다양한 상품(굿즈)도 곳곳에 있어 볼거리도 풍성하다. 노티드 매장 내부 모습. [사진 제공 = GFFG]도넛을 담아주는 방식도 독특하다. 노티드는 아이스크림 가게에서 아이스크림을 담아줄 때 쓸 것 같은 작고 예쁜 종이컵에 도넛을 담아준다. 이로 인해 손으로 도넛을 잡지 않고 먹을 수 있는 데다 시각적으로 도넛의 크림이 더 부각돼 맛있어 보인다.이 대표는 “색연필로 색칠하며 놀 수 있는 컬러링북, 노티드 캐릭터인 스마일 캐릭터가 새겨진 여러 색상의 스티커 등이 매장에 마련돼 있어 도넛을 먹다가 마치 어린이가 된 것처럼 놀 수도 있다”며 “노티드가 출발할 때 타깃 고객이 2030세대였는데, 아이들이 노티드에 와도 심심하지 않다고 알려지면서 어린 자녀를 데리고 오는 부모들, 할머니, 할아버지도 많아져서 지금은 거의 전 연령대가 노티드에 오는 것 같다”고 설명했다.노티드는 2017년 출발할 때 조각 케이크 포장 판매(테이크아웃) 전문점이었다. 케이크는 잘 팔렸지만 매출액의 변동성이 심했다. 케이크를 구입한 고객들 중에 이동하면서 케이크가 망가졌다며 환불을 요청하는 경우도 적지 않았다.이 대표는 “1년 8개월 동안 케이크 테이크아웃 중심으로 매장을 운영했지만 적자가 심해졌다”며 “당시에 이미 노티드 크림을 좋아하는 분들이 많았기 때문에 아이템을 도넛으로 바꿔 2018년 10월 노티드 도넛을 선보였다”고 전했다.노티드 팬들이 많아지면서 GFFG는 올해 노티드 굿즈 매출액을 지난해(20억원)보다 5배 증가한 100억원으로 잡았다. 한 발 더 나아가 지식재산권(IP) 사업도 확대한다.이 대표는 “노티드 캐릭터들의 정체성 확립과 관계성, 세계관 구축, 디자인 다각화 등을 재정비 중”이라며 “캐릭터들의 세계관이 확정되면 다양한 팝업스토어, 다양한 브랜드와 산업과의 협업, 다양한 상품을 개발할 예정이고, 애니메이션 등 콘텐츠를 제작하는 방안도 검토하고 있다”고 밝혔다.올해 노티드 내부 시스템 안정화에도 힘쓸 계획이다.이 대표는 “올해는 노티드 매장 수를 늘리는 전략보다는 고객들이 노티드에서 불편하다고 여기는 부분을 개선하는 데 더욱 주력할 것”이라며 “앞으로 노티드 매장 규모도 80평 이상 대형 매장 중심으로 운영할 예정”이라고 강조했다.줄서서 먹는 버거 ‘다운타우너’GFFG의 두 번째 핵심 사업은 줄서서 먹는 버거로 유명한 ‘다운타우너’이다. 2016년 서울 용산구에 다운타우너 한남점을 개관하며 출발한 다운타우너는 레드오션(포화상태가 심해 경쟁이 매우 치열한 시장)인 우리나라 수제 버거 시장에서 꾸준히 성장해왔다. 버거를 명함상자에 넣어 주는 독특한 포장에 젊은 여성들이 특히 주목했다.이 대표는 “수제 버거가 보기에는 좋지만 막상 먹으려고 하면 입으로 베어 먹기가 힘들기 때문에 많은 사람들이 칼로 버거를 썰어 먹는다. 하지만 버거를 제대로 맛보려면 재료를 다 같이 한 번에 먹어야 한다고 생각했다”며 “버거를 세운 후 손에 들고 먹으면 될 것 같아서 종이에 버거를 싼 후 이를 다시 명함상자에 넣었는데, 고객들에게 뜨거운 호응을 받았다”고 설명했다.해외 유명한 버거 브랜드들이 몇 년 새 하나, 둘 우리나라에 속속 진출하면서 더욱 치열해진 버거 시장에서 다운타우너가 명맥을 이어가는 비결에 대해 이 대표는 “소비자들의 목소리에 귀 기울이고 이를 브랜드에 반영한 결과”라고 말했다.이 대표는 “버거 시장에서 살아남으려면 맛은 기본이고, 같은 재료라도 색다르게 접근하는 게 필요하다”며 “예를 들어 다운타우너 버거 중에 아보카도 버거가 있는데, 고객들이 봤을 때 아보카도가 더 시각적으로 맛있게 보이도록 아보카도 위치도 세심하게 고민하고 정했다”고 밝혔다.그는 그러면서 “‘갈릭 프라이즈’ 메뉴가 처음에는 미국에서 파는 방식대로 버터에 마늘을 끓여서 감자튀김과 버무려서 만들었는데, 마늘 향이 너무 강해서 여자 친구와 헤어질 뻔했다는 고객의 반응을 보고 바로 개선했다”며 “마늘을 줄이고 감자튀김 위에 마요네즈를 활용한 소스를 대량 올렸더니 고객 호응이 매우 좋았다”고 덧붙였다. 다운타우너의 버거들.  맨 앞에 있는 버거가 ‘아보카도 버거’이다. [사진 제공 = GFFG]다운타우너가 성공한 배경에는 창업자인 이준범 GFFG 대표의 버거에 대한 열정이 큰 몫을 했다. 이 대표는 2011년부터 2013년까지 서울 강남 도곡동 버거 가게에서 근무하면서 버거에 대해 차근차근 연구했다. 직접 버거를 만들고, 메뉴도 개발하고 매장도 청소했다. 인터넷에 올라온 버거 사진만 300만장 이상 보면서 버거를 연구했다.그는 이후 2014년 다운타우너의 전신인 수제 버거 브랜드 ‘오베이(5BEY)’를 내고 버거 사업에 뛰어들었다. 크게 성공하지는 못했다. 버거 사업에 다시 도전해보고 싶다는 그의 열정을 모아 2016년 다운타우너를 선보였다.알토스벤처스 등 300억원 투자…IPO에도 도전GFFG에 따르면 GFFG는 2019년 매출액 100억원을 넘어선 후 2020년 300억원, 2021년 700억원을 각각 돌파했으며, 지난해 매출액 약 1000억원을 올렸다. GFFG는 급격히 성장하면서 스타트업(초기 벤처기업)이 가장 투자받고 싶어 하는 미국 벤처캐피털(VC) ‘알토스벤처스’ 등으로부터 최근 300억원을 투자받았다.알토스벤처스는 국민 배달 애플리케이션(앱) ‘배달의민족’을 운영하는 우아한형제들, ‘토스’로 유명한 비바리퍼블리카, 중고 물품 거래앱 ‘당근마켓’을 운영하는 주식회사 당근마켓, 온라인 거래 최강자로 부상한 쿠팡 등에 투자한 미국 벤처캐피털이다.GFFG는 이번 투자 유치를 계기로 해외 시장 개척, 노티드를 중심으로 한 IP 사업 강화, 기업화 작업에 나선다. GFFG는 도넛 브랜드 ‘노티드’, 퓨전 한식 브랜드 ‘호족반’의 해외 진출부터 도전할 계획이다. 미국에 이미 3개의 법인도 설립했다. 기업 성장을 위해 기업 공개(IPO) 전략도 고려하고 있다.“GFFG가 지금까지 우리나라 시장에서 활동하고, 우리나라에서만 브랜드를 키우는데 주력했어요. 한국에만 집중하지 않고 세계에서 인정받는 한국의 외식 브랜드로 키우고 싶어요. 우리나라 외식 브랜드 중에 세계인들에게 오랫동안 사랑받고 있는 브랜드가 별로 없는데, GFFG가 도전해보고 싶습니다. GFFG는 외식기업을 넘어 세계적인 ‘푸드 앤드 라이프스타일(food and lifestyle)’ 기업 즉 사람들의 식생활 개선까지 넘나드는 기업으로 진화하겠습니다.”* 남돈남산은 많이 팔린 제품 등을 소개하고 많이 팔리게 된 배경, 해당 기업의 경영 전략 등을 담는 연재 코너입니다. 협찬, 광고 등을 통해 나가는 기사가 아닙니다. 기자가 기업에 직접 접촉하고 여러 가지를 직접 취재한 후 공들여 쓰는 기사입니다. 자사 제품 중에 소비자에게 사랑받아 많이 팔린 제품이 있다면 제보해주셔도 좋습니다. 아래 기자페이지의 ‘+구독’을 누르시면 놓치지 않고 기사를 읽으실 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>'메기 효과'는 없고, 사회공헌에도 인색한 인터넷은행 [톡톡Talk]</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000734448?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>"수익 없는 초창기" 해명하지만 '이자 장사' 속 사회공헌 외면 비판2021년 10월 서울 강남구 토스뱅크 본사. 연합뉴스토스뱅크 1억 원, 케이뱅크 2억7,000만 원, 그리고 카카오뱅크 26억 원.각각 임원 연봉이냐고요? 아닙니다. 최근 금융당국이 발표한 지난해 인터넷은행의 사회공헌 지출액입니다. 특히 토스뱅크의 경우, 임직원 연봉이 평균 1억1,900만 원인 점을 감안하면 이 은행이 작년에 사회에 환원한 금액은 직원 한 명의 임금보다도 적었습니다.  다른 곳도 목소리 키울 상황은 못 됩니다. 지난해 국내은행의 사회공헌 지출액은 총 1조1,305억 원에 달했는데, 케이뱅크는 그것의 0.02%, 카카오뱅크는 0.23%에 불과하거든요. 2021년 사회공헌 지출액(케이뱅크 7,000만 원, 카카오뱅크 3억 원)보다 늘긴 했지만, 인터넷은행이 제1금융권 은행업 인가라는 '사회적 특혜'를 받은 것에 비하면 사회공헌에 인색하다는 느낌을 지울 수 없습니다. 물론 인터넷은행도 나름 사정을 호소합니다. 지난해 총 15조8,506억 원의 순이익을 낸 4대 시중은행(KB국민·신한·하나·우리)과 비교하는 것은 무리란 겁니다. 실제 토스뱅크는 지난해 2,644억 원의 순손실을 냈고, 케이뱅크와 카카오뱅크의 순이익은 각각 836억 원과 2,631억 원입니다. 한 인터넷은행 관계자는 "사회공헌도 수익과 자산이 뒷받침돼야 가능한데, 인터넷은행은 이제야 적자에서 흑자로 전환하는 단계라 여유가 많지 않다"고 토로했습니다. 억울한 부분도 있다고 강조합니다. 토스뱅크에 따르면, 지난해 자사가 서민금융진흥원에 출연한 금액이 8억4,800만 원입니다. 여기에 보이스피싱 피해 고객을 대상으로 한 '토스 안심보상제'에 지출한 금액도 7억5,280만 원이라네요. 이런 수치는 사회공헌에서 제외된다는 항변입니다. 물론 사회공헌액이 많고 적음으로 인터넷은행의 역할이 규정되는 것은 아닙니다. 다만 '메기 효과'를 기대하며 출범했던 인터넷은행이 기존 은행과 마찬가지로 고금리에 기대 이자 장사를 하면서도 사회공헌을 외면하고 있다는 점에 대한 실망이 작지 않습니다. 최근 인터넷은행들이 금융당국에 중·저신용자대출의 목표 비중을 완화해줄 것을 요청했다는 소식은 '안전한 이자 장사를 하게 해달라'는 뜻으로도 읽힙니다. 비판이 일자 인터넷은행들은 사회적 기여를 확대하기로 했습니다. 최근 5대 시중은행이 3년간 7,800억 원을 사회공헌기금으로 기부하겠다고 발표한 데 대해 인터넷은행들도 "올해는 사회공헌 지출액을 더 늘리겠다"는 약속을 내놓은 것이죠.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.04.26.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>“은행 바꿨더니 이자 4%P↓”… 금리 상승 끝 대출 갈아타기 본격화</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000896602?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>대출 갈아타기 인프라 5월 30일 구축은행·2금융권·플랫폼 등 53곳 참여국민은행 상품 1개월 만에 신청자 1만명대출 중개 플랫폼도 제휴 금융사 늘려대환대출 플랫폼 개요. /금융위원회 제공        지난해 하반기부터 빠르게 오르던 대출 금리가 주춤하면서 금리가 더 낮은 대출로 갈아타기를 시도하는 사람이 늘고 있다. 5월 말부터 은행·저축은행·카드사 등 신용대출 상품을 온라인으로 비교하고 유리한 조건의 대출로 갈아탈 수 있는 대환대출 인프라가 구축되게 되면 이런 움직임은 더 커질 전망이다.26일 금융권에 따르면 각 금융사의 대출상품을 비교한 뒤 더 낮은 금리의 대출로 갈아탈 수 있는 대환대출 인프라가 오는 5월 30일 구축된다. 금융사에선 ▲은행 19곳 ▲저축은행 18곳 ▲카드 7곳 ▲캐피탈 9곳 등 53곳이 참여한다. 플랫폼사의 경우 대출비교 시장의 95% 이상을 차지하는 23곳이 동참했다.코픽스(COFIX·자금조달비용지수)는 농협·신한·우리·SC제일·하나·IBK기업·KB국민·한국씨티 등 국내 8개 은행이 조달한 자금의 가중평균금리다. 은행이 실제 취급한 예·적금, 은행채 등 수신상품 금리가 인상 또는 인하될 때 이를 반영해 상승 또는 하락한다. /그래픽=정서희        지난해부터 금리 변동 폭이 커지면서 이자를 한 푼이라도 줄이려는 차주(대출받는 사람)들의 대환대출 수요는 꾸준히 늘고 있다. 대출 중개 플랫폼 핀다에 따르면 지난해 대환대출 실행 금액은 1조654억원으로, 전년 동기 대비 약 67.8%가 증가했다. 대환대출에 성공한 이들은 평균 4.59%포인트의 금리를 낮췄다. 가계대출 금리가 내림세로 바뀐 지난해 말부턴 대출을 갈아타는 금융소비자가 매달 평균 6%씩 증가하고 있다.은행권 관계자는 “올해 초까지만 해도 금리가 연 7~8%대였던 주택담보대출·신용대출은 최근 3~5%대까지 하단이 내려왔다”면서 “지난해부터 가계대출은 줄고 있지만, 차주들은 이자 부담을 줄이기 위해 2금융권에서 받은 여러 개의 대출을 통합하는 등 다양한 방법으로 대환대출을 시도하고 있다”고 말했다.실제로 KB국민은행이 지난달 27일 출시한 대환대출 상품인 희망대출 누적 신청자는 지난 20일까지 9100명에 이른다. 희망대출은 2금융권 신용대출을 연 10% 미만 금리의 은행권 대출로 전환해 주는 상품이다. 국민은행은 일반적으로 은행권 대출이 불가능한 다중채무자에게도 심사 결과에 따라 대출을 해주는 등 기준을 완화했다. 이 때문에 출시 한 달 만에 신청자가 1만명을 돌파할 것으로 보고 있다.핀다 제공        다른 은행들도 잇달아 대환대출 서비스를 내놓고 있다. BNK부산은행은 국민은행과 비슷한 2금융권 대환대출 상품을 출시할 계획이고, 우리은행 등도 서민을 위한 추가 상생금융 상품 출시를 검토하고 있다. 인터넷전문은행 카카오뱅크는 최근 기자간담회를 통해 윤호영 대표가 직접 “보다 좋은 조건으로 대출을 받을 수 있도록 도움 드리는 대출 비교 플랫폼 준비를 본격화할 것”이라고 밝히기도 했다.대출 중개 플랫폼 역시 제휴 금융사를 늘리고 있다. 현재 토스·카카오페이·핀다·네이버파이낸셜 등 주요 대출 중개 플랫폼 중 가장 많은 은행과 제휴한 곳은 카카오페이로 13개다. ▲토스 12개 ▲네이버파이낸셜 9개 ▲핀다 7개 등이 뒤를 이었다. 이들 플랫폼은 제휴 은행뿐 아니라 제휴한 은행이 제공하는 상품군도 개인신용대출에서 전세대출·사업자대출·주택담보대출 등으로 확대할 계획이다.금융권 관계자는 “대출 중개 플랫폼 출시 초기엔 제휴 은행이 많지 않아 한계가 있었는데, 최근엔 주요 시중은행 17곳 중 15개가 이들 플랫폼에 상품 정보를 제공하고 있다”면서 “금융 당국 주도의 대환대출 인프라가 만들어지면 더 많은 차주가 대출 갈아타기에 동참할 것으로 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>‘모두를 위한 착한택시’ 티머니GO 온다택시 택시비 부담 덜기 나서</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/144/0000881017?sid=103</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>티머니택시업계가 불황과 고물가로 어려움에 빠진가운데, ‘착한 택시’ 티머니GO 온다택시가 택시비 부담 덜기에 나섰다.스마트한 이동과 결제 서비스로 “이동을 편하게, 세상을 이롭게” 만들고 있는 ㈜티머니(대표이사 김태극)가 티머니GO 온다택시를 통해 오늘부터 6월 30일까지 택시비 부담 줄이기에 나선다고 17일 밝혔다.택시비를 할인받을 수 있는 쿠폰부터 ‘G마켓 100원딜’, ‘토스 브랜드 캐시백’ 등 제휴 마케팅까지 택시비를 절약할 수 있는 다양한 프로모션을 준비했다. 이를 통해 고객은 물론 침체에 빠진 택시업계에도 모처럼 활력을 불어넣을 것으로 기대된다.티머니GO 온다택시는 앱 회원을 대상으로 2만원 상당의 ‘택시비 지원금 쿠폰팩’을 지급한다. 티머니GO 신규고객이라면 ▲택시비 50% 할인 쿠폰(5천원 한도)과 ▲3,000원 할인 쿠폰 2장(신규가입 시 1장, 첫 자동결제 완료시 1장 추가 발급), ▲2,000원 할인 쿠폰 등 풍성한 혜택을 받을 수 있다.기존 회원의 경우에도 ▲출퇴근 지원금으로 택시비 20% 할인 쿠폰(2천원 한도) 2장과 ▲심야 지원금 30%할인 쿠폰(3천원 한도)을 받을 수 있다. 신규고객 기준으로 오늘부터 받을 수 있는 쿠폰을 모두 합하면 2만원에 이른다. 택시를 자주 이용하는 고객이나, 오른 물가로 택시 이용에 부담을 느끼는 고객이라면 티머니GO 온다택시를 이용하는 것이 좋은 팁이 될 것으로 보인다.티머니GO 온다택시를 처음 이용하는 고객들은 더 많은 혜택으로 택시비 부담을 크게 줄일 수 있다. 먼저, 오늘부터 1주일(4월 17일 ~23일)간 진행 중인 ▲‘티머니GO 온다택시 3천원 권 G마켓 100원딜’을 통해 티머니GO 온다택시 첫 탑승 3천원 쿠폰과 스타벅스 커피쿠폰을 단돈 100원에 구매할 수 있다. 또한, 토스 사용자라면, 토스 앱 내 ▲‘브랜드 캐시백’코너에서 ‘티머니GO 온다택시’를 선택해 이용하면 캐시백 리워드 5천원도 받을 수 있다.㈜티머니 Mobility사업부장 조동욱 전무는 “티머니GO 온다택시는 다양한 혜택과 상생 활동으로 택시업계, 고객 모두에게 ‘착한 택시’로 자리매김하고 있다”고 하며 “앞으로도 더 많은 혜택으로 택시업계와는 동반성장하고, 고객들에게는 사랑받는 티머니GO 온다택시가 되겠다.”고 소감을 밝혔다.티머니GO를 이용하면 택시비 외에도 다양한 교통비 할인 혜택을 받을 수 있다. 5월에 재개되는 ▲‘친구초대 이벤트’를 통해 친구 추천하고, 친구가 티머니GO 온다택시를 이용한다면 친구와 추천인 모두 스타벅스 커피쿠폰(가입시 모두 500M 추가적립)을 받을 수 있다. 또, 티머니GO는 ‘대중교통 리워드’(주 3일 이상 대중교통 또는 따릉이를 이용하면 하루 100M 제공), ‘티머니GO 환승리워드’(대중교통과 다른 이동수단을 복합적으로 이용하면 제공. 따릉이 100M/ 씽씽 200M/ 고속, 시외버스 500M) 등 대중교통을 이용하는 것만으로도 다양한 혜택을 받을 수 있고, ‘하루하루 출석체크’를 통해 일 최대 500M, 월 누적 출석 달성 시 추가 마일리지도 받을 수 있어 교통비를 크게 절약할 수 있다.티머니GO 온다택시는 택시업계의 적극적인 참여를 바탕으로 서비스 전국 확대에 박차를 가하고 있으며 전국 택시업계 종사자들과 상생발전하고 있다. 이에 대한 자세한 내용은 티머니 홈페이지와 티머니 온다택시 고객센터에서 확인할 수 있다.손봉석 기자 paulsohn@kyunghyang.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.04.27.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>[제16회 스마트금융 콘퍼런스] 금융-빅테크 "초협력 생태계 구축 약속"</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003094780?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>전자신문이 주최한 제16회 스마트금융 콘퍼런스가 융합의 시대가 오다를 주제로 27일 서울 여의도 전경련회관에서 열렸다. 참석 VIP들이 스마트금융 콘퍼런스 개막을 축하하고 있다. 앞줄 오른쪽부터 시계방향으로 송재영 수협은행 부행장, 박진석 금융보안원 상무, 현권익 IBK기업은행 부행장, 이근주 한국핀테크산업협회장, 고정현 우리에프아이에스 대표, 윤호영 카카오뱅크 대표, 이준수 금융감독원 부원장, 강병준 전자신문 대표, 박종석 금융결제원장, 서호성 케이뱅크 행장, 석창규 웹케시 회장, 주은영 베스트핀 대표, 명제선 우리카드 전무, 박상영 더시드그룹 대표, 조현준 핀크 대표, 황선정 코스콤 전무, 조익재 한국성장금융 전무, 이해 하나금융융합기술원장, 유태현 신한카드 그룹장, 송민택 에이피더핀 부사장, 이해정 KB국민카드 부사장, 김항주 항상위드 대표, 정유신 서강대 기술경영대학원장, 패트릭 스토리 비자코리아 대표, 임수한 신한은행 부행장, 강태영 농협은행 부행장, 옥일진 우리은행 부행장, 김은조 여신금융협회 전무, 한정욱 롯데카드 본부장, 박기은 국민은행 전무, 김평섭 신용정보원 전무, 박창옥 은행연합회 상무, 김승규 전자신문 편집국장. 박지호기자 jihopress@etnews.com16회를 맞은 스마트금융 콘퍼런스가 27일 서울 전국경제인연합회(전경련) 회관에서 성황리에 치뤄졌다. 비자를 비롯한 국내외 금융·핀테크 기업들이 참여해 산업 현안을 논의하고 교류하는 등 명실상부한 글로벌 행사로 자리매김했다.스마트금융 콘퍼런스 사무국에 따르면 이날 행사에는 300명이 넘는 청중이 방문했다. 금융권 관계자들이 총출동해 인산인해를 이루는 바람에 현장에서 추가로 급히 좌석을 확보하는 모습도 볼 수 있었다. 청중들은 콘퍼런스가 끝난 오후 늦은 시간까지 대부분 자리를 지키며 강연을 경청했다.이날 행사의 중요한 주제가 '협업'이었던 만큼 행사 참여자들은 다른 기업 혹은 산업 간 교류에 주목했다.행사 시작 전 열린 VIP 환담에는 행사를 위해 방한한 쿠날 차터지 비자 아시아태평양지역 이노베이션 총괄사장과 윤호영 카카오뱅크 행장, 서호성 케이뱅크 행장, 홍민택 토스뱅크 대표, 박종석 금융결제원장 등 국내 혁신을 이끌고 있는 오피니언 리더가 만나 한·미 금융 산업 협력을 논의했다.차터지 부사장은 환담에 이은 기조강연에서 “전통 금융과 핀테크 파트너십이 혁신을 만들고 있다”면서 “협업은 아무리 강조해도 지나치지 않다”고 강조했다. 강병준 전자신문 대표도 “기술 발전은 더 많은 사람들이 더 편리하게 금융서비스를 이용할 수 있는 마중물 역할을 하고 있다”면서 “전통금융과 빅테크 플랫폼과 협력관계를 더욱 강화해 한국 핀테크 산업을 더욱 육성해야 할 이유”라고 화답했다.이어진 본 세션에서는 금융위를 비롯해 교보생명, 신한금융지주, KB금융지주, 하나은행, 우리금융지주, NH농협은행, 한화생명 등이 각자 그동안 진행해온 협업 사례를 소개하고 향후 계획을 밝혔다.금융위는 국내 핀테크 기업의 글로벌 진출을 지원할 방침이다. 금융의 디지털 전환 속도가 빠른 아세안 국가를 중심으로 국내 기업들이 수월하게 해외로 진출하도록 돕겠다는 것이다. 해외투자 정보를 제공하고 초기진출 전략과 서비스 고도화까지 지원할 계획이다. 이 과정에서 대기업, 해외자본과 협력이 활성화 할 것으로 기대된다.금융사들은 오픈이노베이션 전략을 소개하는 데 공을 들였다. 행사를 찾은 핀테크 업체들이 자사 오픈이노베이션 프로그램에 합류할 수 있도록 독려하기도 했다.일례로 신한금융지주는 자사 투자를 받은 핀테크 업체들 생존율이 90% 이상이고 누적 기업가치가 2조3000억원 규모로 성장했다고 발표해 호응을 받았다. 전통 금융사에서 참가한 청중이 신한금융지주 오픈이노베이션 조직 인적 구성과 구조를 질문하는 등 열띤 분위기가 이어졌다.한화생명은 헬스케어 기업 룩시드랩스와 협업을 소개해 이목을 끌었다. 인공지능(AI)과 가상현실(VR)을 접목한 룩시드랩스는 정신건강 케어를 목표로 한 스타트업이다. 핀테크 업체는 아니지만, 한화생명 드림플러스를 통해 미국 등 해외로 비즈니스 스케일업을 추진 중이다. 최근 사회적 화두로 떠오른 정신건강 관리와 보험 등 각종 금융 서비스를 연계할 수 있을 것으로 기대된다.참석자 중 한 명은 “금융대기업이 금융 외 분야에서도 차후 시너지를 낼 수 있는 사업에 투자하는 경향을 볼 수 있어 인상 깊었다”고 말했다.정부는 전통금융과 핀테크 업계의 협력이 곧 양쪽의 공존을 불러올 것이라고 예측했다. 이를 위해 제도를 적극 정비해 나가겠다는 의지를 피력했다.이준수 금융감독원 부원장은 “전통금융과 핀테크 양쪽이 상호보완적 기술을 활용한 공동 실증을 넓히는 등 협업의 성공 모델을 쌓는 것이 필요하다”면서 “양쪽이 공존, 공영할 수 있도록 규제혁신과 규율체계 정비에 노력하겠다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.04.29.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>[브런치 경제] '디지털 폐지 줍기' 해보니… 2만2000원 벌었다</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/310/0000106283?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>만보기 미션·버튼 눌러 22,719원 모아포인트는 현금처럼 온라인 쇼핑서 사용토스·네이버·삼성·KB 등 종류도 다양"버튼 누르고 10원 받기" "만보기 140원 받기"토스 앱을 실행하고 하단의 '혜택' 메뉴를 누르면 약 14개 정도의 포인트를 받을 수 있다. 사진= 토스 앱 화면 중 일부, 일러스트= 이은정 디자이너스마트폰 앱을 통해 1원, 10원 티끌 모아 22,000원을 벌었다. 버려진 박스나 종이를 모아 돈을 버는 폐지 줍기에 빗댄 일명 '디지털 폐지 줍기'가 유행처럼 번지고 있다.디지털 폐지 줍기는 소정의 포인트나 현금이 지원되는 스마트폰 앱을 활용한 앱테크의 한 형태다. 다양한 앱을 통해 푼돈을 모을 수 있다.기자는 주로 토스 앱을 이용하고 있다. 토스 앱은 다양한 방법으로 포인트를 제공하고 있고 포인트는 현금으로 출금할 수 있다. 토스 앱을 실행하고 하단의 '혜택' 메뉴를 누르면 약 14개 정도의 포인트를 받을 수 있다. 기자는 △만보기로 16,980원 △행운복권으로 1,680원 △함께 토스 켜고 포인트 받기로 1,289원 △기타로 2,770원을 모았다. 26일 기준으로 22,719원을 벌었다.만보기의 경우 걷기 미션 하루 최대 40원, 방문 미션 하루 최대 100원으로 최대 140원까지 모을 수 있다. 걷기 미션은 걸으면 달성되는 미션으로 △1,000보 10원 △5,000보 10원 △ 10,000보 20원의 포인트를 준다. 방문 미션의 경우 내 위치 주변에 20원 풍선 모양이 떠 있는 곳까지 가면 20원을 얻을 수 있는 형태이다. 출퇴근길에 토스 앱을 켜고 걷다가 미션 장소에 방문해 포인트를 받으면 챌린지 형 게임을 하는 것처럼 소소한 재미를 느낄 수 있다.그러나 예전에 비해 토스 앱의 걷기 방문 미션을 수행하기 어렵다는 지적도 있다. 토스 앱 만보기를 사용 중인 직장인 하예영(28)씨는 "이전에 비해 방문 장소 자체가 줄어들었다"며 "예전엔 걸어서 퇴근할 때 하루에 100원씩 모을 수 있었는데 요즘엔 장소가 줄어 40~60원 정도밖에 못 모은다"고 밝혔다.기자는 △만보기로 16,980원 △행운복권으로 1,680원 △함께 토스 켜고 포인트 받기로 1,289원 △기타로 2,770원을 모았다. 지금까지 받은 포인트를 합산하면 22,719원을 벌었다. 사진= 토스 앱 화면 중 일부, 일러스트= 이은정 디자이너토스에서 모은 포인트는 계좌로 출금하거나 온라인 쇼핑몰에서 사용할 수 있다. 출금 수수료 1회는 무료이고, 2회 이상 출금 시 5천 원 이하 금액 수수료 500원(5천 원 이상 수수료 무료)이 발생한다. 기자는 온라인 쇼핑몰에서 물건을 살 때 포인트를 사용했다.네이버에선 마이플레이스 영수증 리뷰를 하면 포인트를 준다. 포인트는 네이버 결제를 통해 현금처럼 사용할 수 있다. 포인트를 받으려면 네이버 앱을 실행하고 MY플레이스에 접속해 리뷰 쓰기를 하면 된다. 리뷰는 영수증을 찍은 사진을 업로드하고 후기를 쓰면 된다. 하나의 리뷰를 등록하면 50원의 네이버페이를 받을 수 있고 재방문 인증을 하면 10원까지 적립할 수 있다. 단 하루에 5회까지 가능하다.네이버 마이플레이스 영수증 리뷰를 남겨 한 달에 2,000원씩 포인트를 모으고 있는 이정애(53)씨는 "원래 영수증을 받지 않거나 버렸는데 리뷰를 남겨야 하니까 영수증을 모으는 습관이 생겼다"며 "사진만 찍으면 되니까 어렵지 않고 다른 사람들의 리뷰도 참고해 맛집을 고르기도 한다"고 말했다. 이어 "1,000명 이상 내 리뷰를 보면 알림이 와서 뿌듯하다"며 "영수증을 다시 한번 들여다보게 되니까 경제관념도 알뜰해지는 기분이 든다"고 덧붙였다.삼성 앱 모니모에서도 '젤리'라는 포인트를 지급한다. 앱 실행 후 가장 상단에 보이는 '챌린지' 메뉴를 통해 젤리를 받을 수 있다. 챌린지 내용은 출석체크, 기상미션, 걷기미션, 영상 시청 등이다. 한 달에 한 번 참여자를 모아 한 달간 챌린지가 진행된다. 미션 수행 후 제공받는 젤리는 모니머니로 교환해 사용할 수 있다. 모니머니는 보험 가입, 송금, 펀드 투자 등 모니모에서 현금처럼 사용할 수 있다. 단, 보유한 젤리는 달이 바뀌면 전부 소멸되기 때문에 유의해야 한다.KB국민카드 앱 '리브메이트'는 매일 오전 10시 '오늘의 퀴즈'를 풀면 10 포인트를 준다. '일반상식퀴즈'를 3개 맞출 경우 30 포인트를 추가로 받을 수 있다. KB국민카드는 자체 결제 서비스인 'KB페이'에 출석체크하거나 결제하면 무작위로 현금성 포인트를 지급한다. KB 스타뱅킹 앱은 'KB매일걷기'에 가입한 뒤 한 주 3만 5,000보를 걸으면 100 포인트, 7만 보 달성 시 500 포인트를 준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>LGU+, 영문 홈페이지 개설…요금납부·소액결제 가능</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002289446?sid=105</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>상반기 내 중국어·러시아어·베트남어 홈페이지 개설 예정LG유플러스는 외국인 이용자가 요금 수납, 일시정지 해제 등 서비스 업무를 온라인으로 진행할 수 있도록 영문 홈페이지를 개설했다고 20일 밝혔다.영문 홈페이지는 가입정보 조회, 실시간 사용량 조회, 요금 즉시 납부, 데이터 주고받기, 소액결제 차단·해제, 유심 일시정지·해제 등 기본적인 통신 서비스 업무와 외국어 채팅 상담 서비스를 지원한다.이 외에 멤버십 할인, 결합 상품 할인, 이벤트 정보를 제공한다. 특히 멤버십의 경우 국문 'U+멤버스' 앱을 거치지 않고 바로 발급된 바코드를 이용해 편의점과 제과점 등 제휴사 할인을 받도록 지원한다.영문 홈페이지는 서류 제출 등 대면 업무가 필요할 때 구글맵을 기반으로 가장 가까이 있는 매장을 알려주는 위치 서비스도 추가했다. 통신 서비스 이용 경험·국내 체류 시 필요한 정보를 이용자 간 공유할 수 있는 커뮤니티 기능인 'talk+'도 신설했다.LG유플러스는 기존 홈페이지 계정 외에도 토스, 카카오톡, 네이버, 애플 계정으로도 간편하게 로그인할 수 있도록 했다. 구글 계정 연동도 추가할 예정이다.LG유플러스는 상반기 중국어, 베트남어, 러시아어 등 다양한 외국어 버전 홈페이지를 개설할 계획이다.법무부에 따르면, 지난해 국내 입국한 장기체류 외국인은 약 81만명이다. 전년 보다 약 122% 증가했다. LG유플러스는 최근 증가하는 장기체류 외국인 이용자의 편의성을 높이고자 영문 홈페이지를 개설했다.김유진 LG유플러스 글로벌통신사업담당은 "통신 관련 업무 처리를 넘어 국내 체류 외국인용 생활 편의 플랫폼으로 거듭날 수 있도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.04.19.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>윤 대통령 방미에 4대 그룹 총수 등 122명 동행</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002636468?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>전경련 발표…“20년 만에 4대그룹 총수와 6대 경제단체장 참여”지난 3월17일 일본 도쿄 게이단렌(일본경제단체연합회) 회관에서 열린 ‘한일 비즈니스라운드 테이블’에서 신동빈 롯데그룹 회장(왼쪽부터), 구광모 엘지(LG)그룹 회장, 정의선 현대자동차그룹 회장, 최태원 에스케이(SK)그룹 회장, 이재용 삼성전자 회장이 윤석열 대통령의 발언이 끝난 뒤 박수 치고 있다. 연합뉴스 윤석열 대통령의 미국 국빈 방문에 122명의 대규모 경제사절단이 동행한다. 이번 국빈 방문엔 삼성, 엘지(LG), 현대차, 에스케이(SK) 등 4대 그룹 총수가 포함되면서 한미 간 반도체·에너지·모빌리티 산업 관련 논의가 구체화할 전망이다.  전국경제인연합회(전경련)는 19일 윤 대통령의 미국 방문에 동행할 경제사절단으로 대기업 19개, 중소·중견기업 85개, 경제단체 및 협·단체 14개, 공기업 4개 등 122개사를 선정했다고 밝혔다.  명단을 보면 이재용 삼성전자 회장과 최태원 에스케이 회장(대한상공회의소 회장), 정의선 현대자동차 회장, 구광모 엘지 회장 등 그룹 총수와 김병준 전국경제인연합회 회장, 구자열 한국무역협회 회장, 김기문 중소기업중앙회 회장, 손경식 한국경영자총협회 회장, 최진식 한국중견기업연합회 회장 등 주요 경제단체장이 포함됐다. 전경련은 “국빈방문을 지원하기 위해 2003년 이후 20년 만에 처음으로 4대 그룹 총수와 6대 경제단체장이 모두 참여한다”고 설명했다.  특히 4대 그룹의 경우 미국에 생산 공장을 두거나 계획하고 있어 민감한 현안들이 있다. 삼성전자와 에스케이하이닉스는 미국 반도체법에 따른 보조금을 신청할 경우 민감한 경영 정보 등을 미국 정부에 보고해야해 곤란한 입장에 처해있다. 미 인플레이션감축법(IRA) 시행에 따라 현대차·기아는 보조금 차별을 받게 돼 전기차 가격 경쟁력이 저하될 것이라는 우려가 많다. 엘지도 대규모 이차전지 생산공장 신설을 계획하고 있어, 미국 정부의 정책 방향에 촉각을 세우고 있다.  다만 최정우 포스코그룹 회장은 이번 방미에 동행하지 않는다. 윤 대통령의 지난 3월 일본 방문 당시 경제사절단에도 포스코가 제외되며 현 정권과 ‘불화설’이 지속됐다. 이에 대해 포스코 관계자는 “최정우 회장이 세계철강협회 회장으로서 오스트리아에서 열리는 세계철강협회 정기총회를 주관하는 일정에 따라 참가 신청을 하지 않았다”고 말했다. 전경련은 “중소·중견기업의 미국 시장 진출과 혁신 스타트업 성장을 지원하기 위해 전체 사절단 중 약 70%를 이들 기업으로 꾸렸다”고 밝혔다. 최수연 네이버 대표, 박태훈 왓챠 대표, 이승건 비바리퍼블리카(토스 운영사) 대표 등도 명단에 포함됐다. 이번 사절단의 테마가 첨단산업인 만큼 반도체·항공우주·방위산업·에너지·바이오·모빌리티 분야의 기업들이 상당한 비중을 차지했다. 금속 및 방위산업 분야에선 류진 풍산그룹 회장, 바이오 분야에선 서정진 셀트리온 회장 등이 명단에 이름을 올렸다. 전경련은 지난달 윤석열 대통령의 일본 방문에 이어 이번 방미 경제사절단 준비 작업을 주도했다. 박근혜-최순실 국정농단 사태로 존폐 위기에 몰린 전경련의 위상이 부활하고 있다는 평가가 나온다. 전경련은 “모집 공고를 통해 신청서를 제출한 기업을 대상으로 주요 경제단체 대표 및 전문가 등이 2차례 심의를 거쳐 명단을 선정했다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>토스증권, 무료로 해외주식 양도소득세 대행신고 해준다</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002302788?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>신청은 4월 18일부터 가능... 신고·납부는 5월 31일까지 진행토스·키움·미래에셋·한투·KB·신한투자·NH투자·삼성증권 등 8개사 대상토스증권(대표 김승연)은 작년 해외주식을 판매한 고객들을 위한 양도소득세 대행신고를 무료로 제공한다고 18일 밝혔다.    ◆…［토스증권 제공］대상은 8개 증권사 합산기준으로 작년 해외주식 매매차익이 250만원을 초과하는 고객이다. 예상 세금 여부는 토스증권에서 자동계산해 준다.   합산 서비스를 제공하는 8개 증권사는 토스증권, 키움증권, 미래에셋증권, 한국투자증권, KB증권, 신한투자증권, NH투자증권, 삼성증권 등 이다.   신청은 토스증권 앱의 해외주식 양도소득세 신고하기 배너를 누르면 되고, 오는 18일부터 이용할 수 있다. 타사 합산 고객은 해당 증권사의 양도소득세 계산내역 서류를 업로드해야 하고, 토스증권 거래내역은 별도로 업로드할 필요가 없다.   일정은 대행신청(4/18~5/9), 제휴 세무법인의 대행신고(5/10~5/19), 신고완료 안내 및 납부 (5/22~5/31)순으로 진행된다.   해외주식 양도소득세는 지난해 해외주식 판매수익에서 기본공제 250만원, 수수료, 제세금을 빼고 차익이 있을 때 발생하며, 차익의 22%가 세금으로 부과된다.   신고와 납부는 매년 5월1일부터 31일까지이고, 기타 자세한 사항은 토스증권 홈페이지 공지사항과 고객센터로 문의하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.04.21.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>[금융티타임]K핀테크 대표로 방미 경제사절단에 뽑힌 토스</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004181875?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>보스턴 '투자로드쇼' 참가핀테크 업권 美 관심 제고디지털 혁신 강조 의미도[서울경제] 이승건 토스(비바리퍼블리카) 대표가 26일 윤석열 대통령의 미국 방문에 ‘경제사절단’으로 동행한다. 122개 사로 구성된 경제사절단 중 금융·핀테크 업권 참가사는 토스가 유일하다.21일 금융권에 따르면 이 대표는 28일 미국 보스턴에서 열리는 ‘K스타트업 투자로드쇼’에 참여한다. 중소벤처기업부와 창업진흥원·한국벤처투자 등이 주관한 이번 행사는 벤처·스타트업 및 기술 혁신 기업의 글로벌 진출과 투자 유치를 지원하기 위해 마련됐다. 앞서 토스는 3월 벤처기업 자격으로 이 행사에 지원했었다.행사 참가사로 선정되면서 토스는 윤 대통령 방미와 함께하는 경제사절단 명단에도 포함됐다. 4대 그룹(삼성·SK·현대차·LG) 총수 및 6대 경제단체장을 비롯해 에너지·바이오·모빌리티 분야 중소기업이 대거 선정된 가운데 금융·핀테크 업권에서는 토스만 이름을 올린 것이다. 중소벤처기업부 관계자는 “토스를 통해 토스뿐 아니라 국내 핀테크 업권 전반에 대한 미국의 관심을 제고할 수 있을 것으로 판단했다”며 “투자 활성화에도 크게 기여할 수 있을 것으로 기대된다”고 선발 배경을 밝혔다. 핀테크 업계 관계자는 “금융권에서 토스가 유일하게 참가사로 선정됐다는 건 기존 금융사에도 디지털 금융으로의 변화와 혁신이 시대적 요구라는 인식을 갖게할 것”이라고 말했다.한편 토스는 지난해 사상 처음으로 매출 1조 원을 넘긴 바 있다. 전년보다 37.6% 성장한 비금융 매출이 1조 646억 원으로 매출의 대부분을 차지했지만 금융업 매출(1424억 원)의 경우 2021년보다 1600% 넘게 확대되며 급성장세를 보였다. 4월 현재 기준 가입자는 2000만 명으로 월간활성이용자(MAU)는 1500만 명에 달했다. 토스 관계자는 “토스의 ‘슈퍼앱’ 전략은 글로벌 핀테크에서도 드문 만큼 우리나라 핀테크 기업을 대표한다는 책임감을 가지고 미국 내 관심과 투자 확대를 꾀하는 계기로 삼겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>김봉진·이승건·이승재...유니콘 창업자들이 한목소리로 외친 것은?</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005249431?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>중단 위기 비대면 진료 위해 유니콘 창업자 나서김봉진 우아한형제들 의장, 이승건 비바리퍼블리카(토스) 대표, 이수진 야놀자 총괄대표, 이승재 버킷플레이스(오늘의집) 대표, 박재욱 쏘카 대표…국내서 유니콘으로 등극했던 기업의 창업자들이다. 우리나라 스타트업 생태계의 대표격이라고 할 수 있는 이들이 최근 한목소리로 외친 것이 있다. "지켜줘", 대상은 비대면 진료다. 코로나19로 한시적으로 허용된 비대면 진료는 현재 중단 위기에 처해 있다. 비대면 진료 지속을 원하는 목소리는 창업자들만 내는 것이 아니다. 국민들도 힘을 보탰다. 서명운동이 시작된지 일주일 만에 10만 명 이상이 참여했다.코리아스타트업포럼(이하 코스포)은 비대면 진료 서비스가 지속될 수 있도록 대국민 서명운동 캠페인을 진행한 결과 24일 0시 기준 11만2564명이 참여했다고 밝혔다. 이 서명운동은 지난 14일 오후 3시 시작 이후 1시간 만에 7000명 이상이 참여했으며, 6일째인 20일 오후 7시께 10만명을 돌파했다. 비대면 진료는 감염병 예방법에 따라 2020년 2월 코로나 위기 단계가 '심각' 단계로 격상되면서 한시적으로 허용됐다. 하지만 단계를 '경계'로 낮추면 중단된다. 이 시점은 내달이 유력하다. 닥터나우, 굿닥 등 비대면 진료를 기반으로 성장한 30여개 관련 스타트업이 한꺼번에 고사 위기에 빠질 수 있는 것이다.박재욱 쏘카 대표창업자 등 스타트업 생태계에서는 코스포 의장인 박재욱 쏘카 대표를 시작으로 비대면 진료를 지켜야 한다고 의견 개진을 이어가고 있다. 이른바 '지켜줘 챌린지'다. 박 대표는 다음 주자로 김봉진 우아한형제들 의장, 안성우 직방 대표, 최성진 코스포 대표 지목했다. 이후 이승건 토스 대표, 이승재 오늘의집 대표, 이수진 야놀자 대표, 민금채 지구인컴퍼니 대표, 이정수 플리토 대표, 최혁재 스푼라디오 대표, 이동건 마이리얼트립 대표, 김영호 말랑스튜디오 대표, 이용재 콴다 대표, 김종윤 야놀자클라우드 대표, 김민지 브이드림 대표, 송재준 컴투스 대표, 박현호 크몽 대표, 장지호 닥터나우 대표, 권도균 프라이머 대표 등이 참여했다.박재욱 쏘카 대표는 "코로나19 위기 속 국민의 건강을 지키기 위해 최선을 다한 혁신 기업이 감염 사태 종료를 이유로 살아남지 못한다면 미래에 닥칠 또 다른 감염병 위기를 대비할 수 있을지 의문"이라고 말했다. 이승재 오늘의집 대표는 "비대면 진료 방식은 계속해서 우리에게 도움을 줄 수 있다"며 "새로운 변화에는 당연히 추가적으로 해결할 점들이 있겠지만 결과적으로 더 많은 사람들에게 더 나은 가치를 제공하는 방향으로 한걸음씩 나아가는게 중요하다고 믿는다"고 했다. 이승건 토스 대표도 "과거 의료인으로의 경험으로도, 공중보건의로 근무할 때에도 비대면 진료의 필요성에 대해서는 늘 생각하고 있었다"며 "특히 노인 등 이동약자, 자녀를 양육중인 맞벌이 부부 등에게는 꼭 필요한 제도라고 생각한다"고 말했다.현재 정치권에서도 비대면 진료 제도화를 추진하고 있다. 하지만 대부분 초진을 제외한 재진 중심이다. 업계는 의료기관 접근 문턱을 낮추고 누구나 제약 없이 즉시 진료받도록 하는 것이 비대면 진료의 본질이기 때문에 초진 환자부터 비대면 진료를 이용하도록 하는 것이 가장 중요하다고 보고 있다. 코스포는 지난 21일 원격의료산업협의회 등과 함께 대통령실을 방문해 초진과 재진 구분 없이 지금처럼 비대면 진료를 이용할 수 있도록 제도화하는 데 동의하는 10만명 이상의 서명을 전달했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.04.26.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>해외 직구 배송서비스·유통 플랫폼 연구개발, 글로벌 유통기업으로 도약</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000939249?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>토스토스 이동훈 대표[스포츠서울 | 신재유기자] 달러 대비 원화 가격이 상대적으로 하락하는 악재 속에서도 해외 직구 수요가 꾸준히 늘어나는 추세다. 이런 가운데 국제 물류의 중심축 구실을 담당하며 약진을 거듭하고 있는 ‘토스토스’의 이동훈 대표가 2023 스포츠서울 라이프특집 이노베이션 리더 대상에 선정됐다.이 대표는 소프트웨어 개발·유통 플랫폼 분야에서 오랜 기간 활동한 엔지니어다. 이를 통해 축적한 소프트웨어 기술을 토대로 날이 갈수록 활성화되는 해외 배송 대행 사업에 도전장을 내밀며 인천광역시 연수구 송도 신도시에 해외 직구 배송 서비스 전문 벤처기업 ‘토스토스’를 창업했다.토스토스는 오리건, 캘리포니아, 런던, 푸랑크푸르트, 도쿄, 칭다오, 광저우, 웨이하이, 인천 총 10개의 지점을 운영중이며, 전세계 해외 발송이 가능한 지구별배송 서비스를 제공하고 있다. 특히 중국에서 가장 인기가 높은 온라인 마켓 플레이스 타오바오(Taobao)의 구매 대행 배대지 사업체로서 독자적으로 물류 처리 시스템(FMS)을 개발했다. FMS에는 실시간 입고 처리 시스템, 화물 자동 처리 프로세스, 누락 배송을 막는 노데이터 체크 프로세스, 오배송을 방지하는 중복 트래킹 번호 체크 모듈, 3PL(3자 물류) 재고 관리 시스템, 국내 쇼핑몰 API 연계 시스템, 구매 대행 사업자를 위한 데이터 검색·다운로드 기능, 카드간편결제 등이 탑재돼 있다.이 혁신적인 배대지 화물 처리 프로세스를 기반으로 익일통관이 가능한 칭다오 해운, 이틀 배송을 표방하는 광저우 특송 서비스(시그니처 사업)를 특화하면서 소비자의 해외 직구 상품 배송이 빠르고 원활하게 이뤄지도록 뒷받침한다.‘토스토스’에서는 화물의 실중량으로 산출된 배송비와 부피, 무게로 산출된 배송비 중 큰 금액으로 배송비를 책정하는 CBM 방식이 아니라 화물의 실중량으로 배송비를 책정하는 합리적인 계산법을 운용한다. 다만 배송할 화물이 국내 택배사의 기준 화물(3변의 합 80㎝)보다 큰 경우에는 추가 운임(ITS)을 구간별로 청구하고 있다. 토스토스는 특허 및 ISO 9001 인증을 취득했고 글로벌 유통 기업으로 도약을 준비하고 있다.이 대표는 “토스토스는 사용자들과 배송대행지, 포워더, 세관, 택배사가 통합 연계되는 구조라 화물 배송 신청서를 작성하는 시점부터 고객이 화물을 수령하는 단계까지 모든 과정이 자동으로 처리돼 이용하기 편리하다”면서 “화물 핸들링을 보다 효과적으로 신속하게 처리하는 부분에 역점을 두고 지속적으로 FMS를 업데이트하고 있다”고 밝혔다.whyjay@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>한국투자증권-펀더풀, 토큰증권 투자상품화 업무협약 체결</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002132872?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=윤호 기자]한국금융지주 자회사 한국투자증권(사장 정일문)은 영화·드라마 등 문화 콘텐츠 투자 플랫폼 ‘펀더풀’과 토큰증권(Security Token, ST) 상품화를 위한 업무협약(MOU)을 체결했다고 20일 밝혔다.지난 19일 여의도 한국투자증권 본사에서 진행된 업무협약식에서 양사는 ▷토큰증권형 투자상품 개발 ▷투자계약증권의 토큰증권화 ▷플랫폼 내 관련 투자상품 탑재를 위한 인프라 구축 등을 추진하기로 했다.토큰증권 상품의 핵심이 되는 투자계약증권은 자본시장법상 허용되는 증권의 한 유형이다. 투자자가 공동사업 형태로 금전 등을 투자하고, 결과에 따라 손익을 얻는 계약상 권리가 표시된 증권을 의미한다. 미술품, 선박, 항공기부터 음원과 영화 등 지적재산권(Intellectual Property, IP)까지 비정형 특성을 가진 자산은 모두 투자계약증권의 범주에 포함될 수 있다.지난달 카카오뱅크, 토스뱅크, 카카오엔터프라이즈와 손잡고 토큰증권 협의체 ‘한국투자 ST 프렌즈’를 출범한 한국투자증권은 발행 분산원장(블록체인) 시스템 개발과 토큰증권 상품 공급에 속도를 내고 있다. 이번 협약을 비롯해 토큰증권 상품 기획 및 발행을 위해 다양한 파트너사와 전략적 제휴도 추진중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.04.19.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>토스, '유스카드' 누적 발급량 100만 장 돌파</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002289404?sid=105</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>어린이·청소년 금융의 불편함을 해소 노력모바일 금융 서비스 ‘토스'를 운영하는 비바리퍼블리카는 어린이⋅청소년용 선불 카드인 ‘유스카드(USS card)’ 누적 발급량이 100만 장을 넘어섰다고 19일 밝혔다.만 7세부터 만 16세의 어린이⋅청소년이 자신의 이름으로 만들어 사용할 수 있는 ‘유스카드’는 2021년 12월 출시 이후 1년4개월 만에 누적 발급량 107만 장을 돌파했다.출시 이후 하루 평균 발급량이 2천 장이 넘는 셈이다. 편의점 충전 누적 횟수는 115만 회, 토스페이 온라인 결제 이용자 월평균은 70만 명을 돌파하는 등 카드 발급에 따른 이용 수치도 눈에 띈다.(사진=비바리퍼블리카 제공)‘유스카드’는 가상계좌에 이체하거나 편의점에 현금을 충전해 사용할 수 있고, 오프라인 매장 뿐만 아니라 온라인 가맹점에서도 결제할 수 있다. 그 결과 토스에서 만 7세부터 만 18세 이하 가입자는 194만 명을 돌파했다.비바리퍼블리카 윤주승 제품책임자는 “10대 고객들의 의견을 직접 듣고 서비스에 반영하며 금융의 불편함을 해소하기 위해 다양한 노력을 기울여왔다”라며 “우수한 제품뿐 아니라 ‘토스 아동 보호 정책’을 제정해 가입 방식부터 소비되는 콘텐츠까지 안전하고 유익하게 제공하고자 한 것도 특별한 부분”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>한투증권, 토큰증권 상품화 '잰걸음'</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004181206?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>콘텐츠 투자 플랫폼 '펀더풀'과 업무협약최서룡(오른쪽) 한국투자증권 플랫폼본부장과 윤성욱 펀더풀 대표가 19일 업무협약식 체결 후 기념사진을 촬영하고 있다. 사진 제공=한국투자증권[서울경제] 한국투자증권이 19일 여의도 본사에서 영화·드라마 등 문화 콘텐츠 투자 플랫폼 ‘펀더풀’과 토큰증권(ST) 상품화를 위한 업무협약을 체결했다고 20일 밝혔다.펀더풀은 2019년 설립된 문화 콘텐츠 투자 플랫폼 스타트업으로 2021년 금융위원회로부터 온라인 소액 투자 중개 업체로 인정받았다. 양 사는 △투자계약증권의 토큰증권화 △토큰증권형 투자 상품 개발 △플랫폼 내 관련 투자 상품 탑재를 위한 인프라 구축을 추진하기로 했다.토큰증권 상품의 핵심인 투자계약증권은 자본시장법상 허용되는 증권의 한 유형이다. 투자자가 공동 사업 형태로 금전 등을 투자하고 결과에 따라 손익을 얻는 계약상 권리가 표시된 증권을 의미한다. 미술품과 선박·항공기부터 음원과 영화 등 지적재산권(IP)까지 비정형 특성을 가진 자산은 모두 투자계약증권의 범주에 포함될 수 있다.지난달 카카오뱅크와 토스뱅크·카카오엔터프라이즈와 손잡고 토큰증권 협의체인 ‘한국투자 ST 프렌즈’를 출범한 한투는 발행 분산원장(블록체인) 시스템 개발과 토큰증권 상품 공급에 속도를 내고 있다. 이번 협약을 비롯해 토큰증권 상품 기획 및 발행을 위해 다양한 파트너 사와 전략적 제휴도 추진하고 있다.최서룡 한국투자증권 플랫폼본부장은 “펀더풀의 풍부한 콘텐츠 역량을 활용해 양질의 상품을 발굴할 수 있을 것”이라며 “한국투자 ST 프렌즈의 분산 원장 네트워크를 통해 투자자가 만족할 만한 창의적인 투자 상품을 공급하면서 토큰증권 초기 생태계 구축에 앞장서겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.04.23.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>"SKT 너마저"…이통3사 모두 5G 28㎓ 손 뗀다</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013897327?sid=105</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>과기정통부 "5G 요금 시작점 높아…로밍료 부담 등도 검토"이동통신 3사 (PG)[장현경 제작] 일러스트(서울=연합뉴스) 조성미 기자 = 기한 내 기지국 추가 구축을 조건으로 정부로부터 5G 28㎓ 대역 회수를 유보 받은 SK텔레콤이 기지국 구축에 나서지 않으면서 사실상 통신 3사 모두 5G 28㎓ 주파수에서 손을 떼게 됐다.    3사로부터 할당 취소한 28㎓ 대역을 신규 사업자에 분배해 경쟁이 정체된 통신 시장 '메기'로 활용하려던 정부 계획은 시장 진출에 적극적인 기업이 좀처럼 나타나지 않는 상황이 이어지면서 적신호가 켜졌다.    23일 통신업계에 따르면 5월 말까지 5G 28㎓ 기지국 1만5천 대 추가를 주파수 할당 취소 유보 조건으로 받았던 SK텔레콤은 지난해 11월부터 해당 대역 기지국을 추가로 구축하지 않고 있다.    남은 한 달간 SK텔레콤이 기지국 증설 조건을 이행하기가 물리적으로 어렵기 때문에 사실상 통신 3사 모두 5G 28㎓ 주파수 할당을 포기하는 셈이 됐다. 앞서 정부는 지난해 12월 KT와 LG유플러스의 5G 28GHz 주파수 할당 취소 처분을 확정한 바 있다.    과기정통부 핵심 관계자는 28㎓를 할당받으려는 신규 사업자 유치와 관련해 "일부 관심을 표명하는 기업이 있지만 아직 뚜렷하게 사업을 하겠다고까지 성숙한 것은 아니다. 기업에 나름 큰 투자일 수 있기 때문에 신중하게 검토하는 단계"라고 전했다.    그는 "이번에 (신규 사업자 유치가) 혹시라도 안될지라도 통신 시장 경쟁 활성화를 위해 정부가 끊임없이 노력해야 하는 이슈"라고 언급해 제4 이통사 유치가 이번에도 불발로 끝날 가능성에 대한 여지를 남겼다.    정부는 2010년 미래창조과학부 시절부터 제4통신사 유치를 7차례 시도했다 실패했지만, 이번에는 휴대전화 자급제 보급, 알뜰폰 점유율 증가 등 달라진 통신 시장 환경에 힘입어 유치 성공을 자신한 바 있다.    네이버와 카카오 등 플랫폼 사업자, 쿠팡과 토스 등 유통·금융권 신사업자 등이 28㎓ 대역대를 활용한 네트워크 사업에 뛰어들 거라는 기대가 나왔지만, 뚜렷한 진출 의지를 나타내는 기업이 없어 올해 안으로 신규 사업자를 유치하겠다던 정부 입장이 초조해지는 상황이다.    한편, 과기정통부는 5G 중간 요금제 도입으로 요금 구간이 촘촘해졌지만, 요금 시작점 자체가 높게 책정돼 있어 소비자 부담을 키운다고 보고 이를 낮추는 방안을 검토 중인 것으로 알려졌다.    핵심 관계자는 "통신사의 투자 비용을 감안해야겠지만 5G 요금제를 시작한 지 4∼5년 된 상황이어서 요금제 시작점을 살피겠다"면서 "해외 사업자와 관계가 있어 쉽지 않겠지만 해외여행이 증가하는 상황에서 로밍 요금 부담에 대해서도 검토할 계획"이라고 말했다.    csm@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.04.23.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>'캐시템' 부터 주식 모의투자까지…"알파세대는 다르네"</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011818862?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>기사내용 요약토스 '유스 카드'…출시 1년4개월만 100만장↑가장 구매력 높은 세대…금융업계도 '주목'[서울=뉴시스] 조성우 기자 = 10일 오후 서울 시내 한 고등학교에서 3학년 학생들이 하교하고 있다. 9월 6일부터 사회적 거리두기 1~3단계일 때 초·중·고교 전면 등교하게 된다. 거리두기 4단계일 때에도 고등학교는 전면 등교가 가능하며, 초등학교와 중학교는 밀집도를 조정해 등교할 수 있다.  2021.08.10. xconfind@newsis.com[서울=뉴시스] 한재혁 기자 = 최근 비바리퍼블리카(토스)의 어린이·청소년용 선불 카드인 '유스(USS)카드'의 누적 발급량이 100만장을 돌파했다.이 카드는 만 7세부터 만 16세 어린이나 청소년이 보호자의 동의가 있을 시 자신의 명의로 사용할 수 있는 카드로 CU 등 편의점에서 현금을 충전해 사용할 수 있는 카드로 온·오프라인 가맹점 내 결제나 교통카드 기능 등을 제공한다.선불카드인만큼 할인 혜택을 제공하지 않으나 청소년들이 주체적으로 소비습관을 결정할 수 있다는 점에선 좋은 평가를 받는다. 해당 카드는 보호자의 명의가 아닌 본인 명의와 전화번호로 카드를 발급하기 때문에 이용내역을 보호자가 아닌 청소년 사용자 본인이 확인할 수 있다. 사생활 보호가 가능하면서도 청소년 제한업종이나 자동·해외결제는 차단돼 있어 남용도 예방할 수 있다.금융업계가 청소년을 대상으로 금융 이해도를 높이려는 데에는 최근 급부상한 '알파세대'의 특징이 배경으로 작용했다. 알파세대는 통상 2010~2014년에 태어난 이들을 지칭하는 용어로 유년기 시절 기술적 진보를 경험하며 자라난만큼 온라인 구매나 결제에 익숙하다는 세대 특성을 갖는다. 때문에 이들의 금융 이해도가 높아면 향후 금융권에서 이들의 구매력이 중요한 요소로 작용할 수 있다는 평가다. 이에 카드사들도 관련 상품을 내놓고 있다. 신용카드 플랫폼 '카드고릴라'에 따르면 신한카드의 '신한 Meme(밈)'카드는 모든 가맹점에서 0.1% 적립을 제공하는 것이 특징으로 특히 앱스토어에서는 5% 특별적립이 가능하다. 10대가 주로 사용하는 음원 스트리밍 사이트나 편의점에서도 같은 수준의 특별적립을 받을 수 있다.카카오뱅크에는 '카카오뱅크 mini'가 있다. 카카오의 대표적인 캐릭터 '니니즈'를 플레이트 디자인으로 사용했으며 대다수의 간편결제 서비스와 연동이 된다. 토스의 유스카드와 마찬가지로 사용내역은 보호자가 아닌 청소년 사용자 본인에게만 전달이 된다.KB국민카드의 '쏘영체크카드' 는 패스트푸드나 유튜브 프리미엄 등 영역별로 1000원씩 최대 5000원까지 할인을 제공한다. 전월실적이 5만원으로 성인에 비해 경제력이 약한 청소년이 사용하기에도 무리가 없다.이 외에도 알파세대를 대상으로 한 이색 서비스도 있다. 토스의 경우 지난 2021년 7월 어린이·청소년 고객을 대상 상품과 서비스를 개발하기 위해 '틴즈 사일로'를 구성했다.이들은 성인 이용자가 아닌 청소년 이용자에게만 제공되는 '틴즈' 코너를 통해 청소년 이용자들에게 급식표와 시간표 서비스를 제공하거나 금융 교육 콘텐츠를 접할 수 있는 '머니스터디 카페' 카테고리 등을 운영하고 있다. 이달 초에는 '토스 모의투자' 제품을 통해 가상의 1000달러를 지급해 주식투자를 경험할 수 있게 했다.KB금융지주경영연구소는 과거 보고서에서 "알파 세대는 이전 세대에 비해 부유하고 기술적으로 발전된 세대"라며 "알파 세대 중 연령이 높은 아이들은 용돈 사용 등으로 부모의 지출에 영향을 미치는 등 확실히 가정 구매 결정에 중요한 역할을 하고 있다"고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>전통 금융권 위협하던 유니콘의 몰락… 두나무·빗썸·토스·케이뱅크 시총 곤두박질</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000893997?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>두나무·빗썸, 1년 만에 시총 75% 감소토스·케이뱅크 시총도 50% 넘게 줄어성장성 부족하고 재무구조 악화 우려불확실성 커 실적·주가 회복 기대 어려워유니콘을 넘어 데카콘으로 성장했던 여러 비상장 신생 금융사들의 몸값이 1년 만에 크게 떨어졌다. /조선비즈DB        전통의 금융권을 위협할 정도로 빠른 성장세를 보였던 금융 스타트업들의 기업 가치가 속절 없이 추락하고 있다. 두나무와 케이뱅크 등 기업공개(IPO)를 통해 증시 입성을 노렸던 금융사들은 떨어진 몸값에 이제 상장 일정을 기약하기조차 어려워진 상황이 됐다.최근 몇 년간 핀테크(FinTech·금융과 기술의 합성어) 시장 확대와 가상자산 투자 열풍 등에 힘입어 금융 스타트업들은 기업 가치가 1조원을 넘는 비상장 기업, 이른바 ‘유니콘’으로 성장했다. 그러나 전통 금융사들과 차별화된 수익 구조를 만드는 데 어려움을 겪고 가상자산 시장도 투자자들의 외면을 받으면서 금융 유니콘들의 기업 가치는 1년 만에 절반도 안 되는 수준으로 떨어졌다. 두나무·빗썸 시총 75% 증발…토스·케이뱅크도 반토막        17일 비상장 주식 거래 플랫폼인 증권플러스 비상장에 따르면 국내 1위 가상자산 거래소인 업비트를 운영하는 두나무는 최근 10만4000원에 거래됐다. 이는 1년 전인 지난해 4월 14일 기준 최고 거래 가격이었던 42만원과 비교해 75.2% 하락한 수치다.업비트에 이어 가상자산 시장에서 2위를 기록 중인 거래소 빗썸코리아는 같은 기간 거래 가격이 36만5000원에서 9만4000원으로 74.2% 떨어졌다.비상장 주식의 가치가 크게 떨어진 곳은 비단 가상자산 관련 기업뿐이 아니다. 핀테크 경쟁력을 기반으로 전통 은행들과 경쟁 중인 인터넷은행 역시 주가가 반토막이 났다.송금 플랫폼인 토스와 인터넷은행 토스뱅크, 토스증권 등을 운영하는 비바리퍼블리카의 비상장 주식은 지난해 4월 14일 9만4500원에 거래됐지만, 1년 후인 지난 13일에는 3만9200원으로 58.5% 하락했다. 또 다른 인터넷은행 케이뱅크의 주식 거래 가격도 2만2300원에서 9800원으로 56.1% 내렸다.상장을 모색했던 일부 금융사들은 기업 가치가 크게 하락하면서 IPO에도 빨간불이 켜졌다. 한때 추정 시총 20조원을 돌파해 ‘데카콘(시총 10조원 이상의 비상장 기업)’으로 불렸던 두나무는 시총이 3조6433억원으로 급감했다. 지난해부터 IPO를 준비해 온 케이뱅크의 경우 몸값이 크게 하락하자 지난 2월 준비 작업을 무기한 연기했다.두나무·빗썸코리아·비바리퍼블리카·케이뱅크의 1년 간 주식 거래 가격 변화. /증권플러스 비상장  코인 시장, 금리 인상 직격탄… 인뱅은 성장 의문부호 제기        두나무와 빗썸코리아의 몸값이 1년 만에 큰 폭으로 하락한 직접적인 원인은 미국의 금리 인상이다. 미국의 중앙은행인 연방준비제도(Fed)가 인플레이션 문제를 해결하기 위해 지난해부터 기준금리를 빠른 속도로 올려 시중 자금이 코인 시장에서 빠지면서 가상자산 거래소를 운영하는 두 회사의 기업 가치가 급락한 것이다.바이낸스 등 여러 해외 거래소들이 가상자산을 기반으로 다양한 파생상품을 개발·유통해 수익을 내고 있는 반면 국내 거래소들은 대부분의 수익을 코인 거래 수수료를 통해 얻고 있다. 이 때문에 코인 가격이 하락하고 거래량이 줄어들면 가상자산 거래소들의 실적은 악화될 수밖에 없다.두나무의 경우 지난해 영업이익이 8101억원으로 전년 대비 75.2% 줄었다. 매출액과 당기순이익 역시 각각 66.2%, 94.1% 급감했다. 빗썸 역시 영업이익이 전년 대비 79.1% 감소한 1635억원에 그친 것으로 나타났다.인터넷은행은 성장성에 대한 의문이 제기되고, 재무 구조와 유동성에 대한 우려가 커지면서 기업 가치가 하락했다.비바리퍼블리카의 경우 급증한 기업 규모에 비해 자회사들이 제대로 수익을 내는데 실패하면서 지난해 3709억원에 이르는 순손실을 기록했다. 전년 대비 71.7% 급증한 규모다. 주력 자회사인 토스뱅크는 자본건전성 지표로 쓰이는 국제결제은행(BIS) 기준 자기자본비율이 크게 떨어지면서 지난달 위기설에 휩싸이기도 했다.카카오뱅크·케이뱅크·토스뱅크 BIS 자기자본비율 추이. /금융감독원  단기간 기업 가치 회복 어려워        투자은행(IB) 업계에서는 떨어진 비상장 금융사들의 몸값이 이른 시일 내 다시 오르기는 어려울 것이라는 전망이 많다. 은행과 가상자산 시장 안팎에 여전히 많은 악재와 불확실성이 존재하고 있다는 이유에서다.지난달 미국 실리콘밸리은행(SVB)이 파산한 후 글로벌 금융 시장에서 은행의 연쇄 도산에 대한 우려가 커지면서 미국의 기준금리 인상은 점차 마무리되는 단계에 들어섰다. 인터넷은행을 비롯한 대다수 국내 은행들은 지난해 금리 인상으로 예대마진(예금과 대출의 금리 차) 수익이 급증했지만, 올해는 이런 호실적을 기대하기 어려워진 것이다.게다가 금융감독원을 비롯한 국내 금융 당국은 지속적으로 대출금리 인하와 예대마진 축소 등을 요구하고 있다. 이 때문에 시중은행과 명확히 차별화된 수익 모델을 갖추지 못한 인터넷은행들도 올해 실적을 방어하는데 고전할 것으로 예상된다.두나무와 빗썸 역시 최근 비트코인 등 일부 가상자산 가격의 회복세에도 실적 회복까지는 갈 길이 먼 상황이다. 가상자산 업계 한 관계자는 “디지털자산 특별법이 도입되면 가상자산 거래소들은 금융 당국의 세밀한 규제를 받게 될 것“이라며 “올해 증권성이 있다는 결론이 나오는 토큰 중 상당수가 거래 가능 종목에서 제외돼 수익원이 줄어드는 점도 두나무, 빗썸 등엔 악재가 될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.04.23.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>'메기' 은행권 가세에 알뜰폰 경쟁 치열...0원 요금도</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001876540?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>고물가에 통신비 부담 커져…알뜰폰 요금 '인기'일정 기간 무료 '0원 요금제'까지 등장정부 "통신비 부담 인하…알뜰폰 시장 적극 육성"[앵커]통신비 부담이 커지면서 월 1, 2만 원대 알뜰 요금제를 찾는 사람들이 늘고 있습니다.최근에는 은행권도 알뜰폰 시장에 본격적으로 진출하면서, 중소 사업자들은 0원 요금제까지 출시하며 가입자 유치에 열을 올리고 있습니다.윤해리 기자의 보도입니다.[기자]서울 동대문에 있는 알뜰폰 매장입니다.LG유플러스가 중소 알뜰폰 사업자와 고객을 연결해주기 위해 지난해 1월 문을 연 곳인데, 최근 한 달 사이 방문객이 부쩍 늘었습니다.[알뜰폰 요금 가입자 : 우선 돈이 4분의 1로 줄고, 데이터도 7GB나 되니까 엄청 많이 쓸 수 있고 훨씬 더 좋아졌죠. 선택권이 넓어지니까 좋고 경제적인 것도 굉장히 이롭고….]고물가에 통신비 부담이 커지면서 알뜰폰 요금이 인기를 얻고 있는 겁니다.단돈 만 원으로도 저렴하게 데이터를 이용할 수 있고, 속도도 크게 차이가 나지 않습니다.관심이 커지자 일정 기간 요금을 아예 내지 않는 '0원 요금제'까지 등장했습니다.[박장희 / 중소알뜰폰 사업자 대표 : 부담 없는 가격으로 우수한 알뜰폰을 경험하게 해보고 싶었고요. 그 경험을 통해 주변에 지인이나 가족분들도 사용해볼 수 있었으면 좋겠고, 알뜰폰을 사용해볼 수 있었으면 좋겠고, 그렇게 되면 좀 더 알뜰폰이 활성화될 거로 생각해서 0원 요금제를 출시하게 됐습니다.]알뜰폰 비교 사이트를 찾아보면, 0원 요금제는 20여 종에 달합니다.적게는 2∼3GB부터 많게는 15GB까지 다양한데, 중도에 계약을 해지하면 할인받은 요금을 반환해야 합니다.중소 알뜰폰 사업자들이 이렇게 파격적인 할인 경쟁에 나서고 있는 건 통신 시장을 뒤흔들 '메기'의 등장 때문입니다.최근 KB국민은행의 리브엠이 정식 사업 승인을 받으면서 자본력을 갖춘 은행권이 알뜰폰 시장에 진출하려는 움직임도 빨라지고 있습니다.알뜰폰 요금제는 약정 기한이 없어, 고객들이 원하면 언제든지 다른 통신사로 갈아탈 수 있는데, 중소사업자들에게 0원 요금제는 일정 기간 가입자를 묶어둘 '생존 전략'입니다.[정우영 / 중소알뜰폰 사업자 관계자 : 리브 모바일이나 토스 모바일 등 대형 사업자들이 알뜰폰 시장에 이제 뛰어듦으로써 중소사업자 입장에선 어떤 돌파구를 찾아야 하는 입장에 있다 보니까….]정부는 통신비 부담 인하와 시장 경쟁 활성화를 위해 알뜰폰 시장을 적극적으로 육성하고 있습니다.가입자 수는 올해 1월 1,300만 명을 넘어서 전체 이동 통신망 점유율 17%를 차지할 정도로 빠르게 성장하고 있습니다.기존 통신사들도 알뜰폰 시장에 가입자를 뺏기지 않기 위해 5∼6만 원대 중저가 요금제를 출시했습니다.사실상 독과점이나 다름없어 소비자들의 다양한 요금 선택권을 보장하지 못했다는 비판을 받아온 통신 시장.알뜰폰 시장이 커지면서 앞으로 가입자 유치를 위한 통신비 인하 경쟁은 더 치열해질 거로 보입니다.YTN 윤해리입니다.촬영기자 : 김종완그래픽 : 이은선※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>토스증권, 해외주식 양도세 신고 대행서비스 실시</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005466177?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>[이데일리 원다연 기자] 토스증권이 해외주식 양도소득세 대행신고 서비스를 제공한다. 토스증권은 지난해 해외주식을 판매한 고객들을 위한 양도소득세 대행신고를 무료로 제공한다고 18일 밝혔다.대상은 8개 증권사 합산기준으로작년 해외주식 매매차익이 250만원을 초과하는 고객으로, 예상 세금 여부를 토스증권에서 자동 계산해 준다. 합산 서비스를 제공하는 8개 증권사는 토스증권, 키움증권, 미래에셋증권, 한국투자증권, KB증권, 신한투자증권, NH투자증권, 삼성증권 등이다.신청은 토스증권 앱의 해외주식 양도소득세 신고하기 배너를 통해 이날부터 할 수 있다. 타사 합산 고객은 해당 증권사의 양도소득세 계산내역 서류를 업로드해야 하고, 토스증권 거래내역은 별도로 업로드할 필요가 없다.일정은 이날부터 5월 9일까지 대행신청을 받은 뒤 5월 10일~19일 제휴 세무법인의 대행신고, 5월 22일~31일 신고완료 안내 및 납부 순으로 진행된다. 해외주식 양도소득세는 작년 해외주식 판매수익에서 기본공제 250만원, 수수료, 제세금을 빼고 차익이 있을 때 발생하며 차익의 22%가 세금으로 부과된다. 신고와 납부는 매년 5월1일부터 31일까지이고, 기타 자세한 사항은 토스증권 홈페이지 공지사항 및 고객센터로 문의하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>‘핵심 인력 뺏기면 안돼’…포스코퓨처엠, 실리콘밸리식 보상책 꺼냈다</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000064883?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>포스코퓨처엠 양극재 광양공장 전경. 사진=포스코퓨처엠 제공포스코그룹의 2차전지 소재 사업을 담당하는 핵심 계열사인 포스코퓨처엠이 직원 장기근속을 유도하기 위한 다양한 자사주 지원 대책을 시행하는 가운데 일부 핵심 인력들에게 ‘양도제한조건부 주식(RSU)’을 지급해 관심이 쏠리고 있다.포스코퓨처엠은 올해부터 RSU 방식의 보상을 병행해 핵심 기술을 담당하는 연구, 생산 및 일부 스텝 부서 직원 등의 장기근속 관리에 들어갔다. RSU 지급 대상은 전년도 인사평가, 소속 부서의 의견을 종합해 이사회에 보고해 결정했다.RSU는 실적에 대한 성과보상 측면보다는 우수인재의 장기근속을 유도하기 위한 제도로, 주식을 지급받은 직원들은 장기근무 등 일정 조건을 충족해야 주식을 최종 지급받게 된다.포스코퓨처엠 관계자는 "선정된 직원들의 신상은 보안사항"이라며 "자칫 직원상호간 불필요한 위화감을 줄 수 있고 경쟁기업의 스카웃 표적이 될 수도 있기 때문"이라고 설명했다.RSU는 미래에 특정 시점이나 업무성과 같은 특정 조건이 충족될 시 직원에게 정해진 수량의 주식이나 그 주식에 가치에 상응하는 현금을 무상으로 제공할 것을 약속해 주는 제도다. 스톡옵션은 직원이 옵션을 행사해야만 주식을 소유하게 되는 반면 RSU는 약정된 조건이 충족되면 베스팅 일정에 따라 자동으로 주식을 소유하게 된다.미국에선 실리콘밸리를 중심으로 RSU가 이미 성과보상 제도의 대세로 자리잡았다. 구글과 애플을 비롯해 테슬라, 아마존, 페이팔 등 빅테크 기업들과 보잉 등이 RSU를 활용하고 있다. 국내에선 2020년 (주)한화가 임원급 이상을 대상으로 처음 도입했으며 쿠팡·토스 ·CJ ENM·위메프 등이 스톡옵션 대신 임직원에게 RSU를 부여하기 시작했다.최근 2차전지 산업의 폭발적 성장으로 연구원과 엔지니어 등 신사업 추진에 필요한 핵심 인력군은 인재 유치 경쟁이 치열해 기업별로 기존 우수인재의 장기근속 유도 및 신규 영입이 그 어느때보다 중요해졌다.포스코퓨처엠의 직원수는 2020년 말 1800여명에서 2023년 3월 말 기준 2400여명으로 대폭 늘었다. 향후 수년간 지속적인 설비 확장이 예정돼 있어 우수 인력 수혈이 절박한 실정이다.이에 따라 포스코퓨처엠은 직원들에 대한 일반적인 성과 보상 외에 장기적으로 자사주를 보유하도록 함으로써 소속감을 높이고 성과 제고에 몰입하도록 하고 있다.2022년부터 시행해온 우리사주 매입 연계 자사주 1:1 매칭 프로그램은 직원이 매입한 주식수 만큼 회사에서 주식을 보태주는 제도다. 직원들이 200만원 한도내 주식을 매입하면 회사에서 같은 금액의 주식수만큼 개인별로 지급해 회사 성장에 따른 기업가치 상승이익을 공유할 수 있도록 했다. 장기근속을 유도하기 위해 지원한 자사주는 4년간 회사가 보호 예수하고 3년이 지나지 않은 시점에 퇴직할 경우에는 환수한다.포스코퓨처엠은 “향후에도 미래 성장 결실을 나누고, 직원들이 행복할 수 있도록 직원 처우 개선과 우수 인재유치 및 확보를 위해 다양한 제도를 실행할 예정”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>"글로벌펀드 확대·투자 인센티브"…중기부, '벤처붐' 일으키기 총력(종합)</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006755543?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>중기부-한국벤처캐피탈협회 18일 벤처캐피탈 포럼 개최이영 "투자 심리 더이상 꺼지지 않도록 자금 조달 여건 개선할 것"18일 이영 중소벤처기업부 장관(왼쪽 다섯 번째)이 서울시 영등포구에서 열린 벤처캐피탈 포럼에서 참석자들과 기념촬영을 하고 있다. (중기부 제공)(서울=뉴스1) 김예원 기자 = 중소벤처기업부가 글로벌 경제 불확실성의 영향으로 위축된 벤처 스타트업계의 자금 조달 여건을 개선하기 위해 글로벌 펀드 확대 등 각종 지원책 마련을 약속했다.중기부는 18일 서울 영등포구 글래드호텔에서 한국벤처캐피탈협회와 공동으로 벤처캐피탈 포럼을 개최했다.이영 중기부 장관은 모두발언을 통해 "올해 1분기 벤처 투자 현황을 살펴보니 벤처펀드 결성 규모가 지난해 대비 78.6%, 투자 실적은 60.4% 감소했다"며 투자심리 위축으로 인한 벤처스타트업의 자금난을 우려했다. 이어 "투자자들이 보수적인 태도로 전환하면서 펀드 결성에 걸리는 시간이 지연되고 R&amp;D 비중이 높은 딥테크 투자 기피 현상이 일어나고 있다"며 "중기부는 1조원 규모의 모태펀드를 통해 2조원 이상의 자펀드를 조성하는 등 다양한 지원을 마련할 것"이라고 말했다.이날 포럼에선 윤건수 한국벤처캐피탈협회장이 '벤처생태계 활성화를 위한 대응전략 및 정책지원 방향'을 주제로 발표했다. 윤 회장은 "투자시장 위축 현상은 투자재원이 부족해서라기보다는 경제 불확실성에 큰 영향을 받는다"며 "정부는 성장 잠재력이 높은 기업을 적극적으로 발굴하고 규제 혁신을 위해 다양한 정책을 기획할 필요가 있다"고 말했다. 윤 회장은 "시스템반도체, 미래차 등 첨단산업 육성의 중요성은 강조되고 있지만 대부분 대기업 위주로 강조되고 있다"며 "이들 분야의 벤처 위주 회수시장을 활성화해  패스트팔로워 전략에서 중시되는 원천 기술 개발 능력을 키워야 한다"며 딥테크 기업의 기술특례상장제도 신설을 제안했다. 초기 투자 확대를 위한 모태펀드의 역할도 강조했다. 윤 회장은 "투자는 심리에 기반하는 측면이 큰 만큼 정부의 벤처산업지원에 대한 확고한 의지 표명이 투자를 촉진할 수 있다고 본다"고 제언했다.이후 이어진 패널토론에서 VC업계 관계자들은 고금리 등 복합경제위기로 얼어붙은 투자 시장에 대체로 공감을 표하면서도 늦어도 내년 하반기엔 투자 및 회수 선순환이 이뤄질 것이라고 예측했다. 이같은 시기를 앞당기기 위해선 정부의 적극적 자금 공급 및 규제 혁신 지원책이 무엇보다 중요하다고 강조했다. 특히 액셀러레이터업계의 정부 지원 요구 목소리가 컸다. 이날 액셀러레이터로는 유일하게 패널 토론에 참여한 김진영 더인벤션랩 대표는 액셀러레이터들이 초기 스타트업에 공격적, 선제적으로 투자할 수 있도록 정부 차원에서 기반을 조성할 필요가 있다고 강조했다. 김 대표는 "액셀러레이터업계의 경우 투자자 절반은 개인투자조합의 개인출자자기 때문에 요즘같은 시기엔 더욱 보수적으로 접근한다. 확실한 성공 가능성이 보장되지 않으면 출자를 꺼려하는 게 사실"이라고 말했다 .하지만 "올해 모태펀드 축소로 액셀러레이터 분야 전용 출자가 사라지는 등 관련 지원은 전무한 상황"이라면서 "개인투자조합에 참여하는 법인 LP 세제 혜택을 강화해주는 등 액셀러레이터 개인투자조합들이 대형화할 수 있도록 정부 지원이 강화됐으면 한다"고 강조했다. 벤처캐피탈업계 관계자들은 벤처 스타트업이 투자 혹한기를 버티기 위해 기술 혁신을 도모하고 몸집을 불리는 등 내실을 다질 필요가 있다고 강조했다. 김태훈 티인베스트먼트 대표는 "성공한 스타트업 벤처 기업들을 보면 공통점이 있다. 한가지 포트폴리오만 가지고는 성장하지 않는다는 것"이라며 "연관 사업의 초기기업들을 과감하게 인수하면서 매출 및 사업 규모를 키울 필요가 있다"고 말했다. 이종훈 엑스플로인베스트먼트(GS건설 CVC) 대표는 "시중 은행이 시도하지 못했던 금융서비스를 탄생시킨 토스처럼 투자자들은 혁신적인 기술을 기반으로 몸집을 키우려는 스타트업을 선호한다"며 "이들을 발굴해 성장시키기 위해선 M&amp;A 등이 활발하게 일어나고  자금 순환이 잘 이뤄지도록 금융투자 환경이 잘 조성될 필요가 있다"고 지적했다. 이 장관은 이와 관련해 "이번 정부의 큰 고민 중 하나가 벤처 생태계에서 관이 주도하는 모태펀드 비중이 높다는 것이다. CVC 활성화 정책 등에 초점을 두는 것도 그러한 이유"라면서 "민간 모펀드를 확대하고 IPO 요건을 완화하는 등 회수시장을 활성화하기 위해 노력할 것"이라고 말했다. 이어 "지난 하반기 투자금액 규모는 줄었지만 기업 수는 늘었다. 투입된 자금의 엑시트 가능성이 낮아지면서 스케일업 직전 대규모로 들어가는 투자가 멈췄을 것으로 예상한다"며 "이제 막 피어나는 싹들이 비바람이 꺼지지 않도록 중기부는 앞으로도 벤처 스타트업 지원에 모든 정책적 역량을 집중할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.04.26.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>“원하는 날에 이자 땡겨요”…카뱅까지 참전</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005122121?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>인터넷뱅크 3사 ‘지금 이자받기’ 서비스 경쟁카카오뱅크가 원할 때 이자받는 서비스를 도입한다. 한 달에 한 번 씩 은행이 정한 날짜에 예금이자를 받는 게 아니라 고객이 원할 때 언제든 이자를 지급 받을 수 있는 서비스다. 이로써 토스뱅크, 케이뱅크에 이어 인터넷전문은행 3사가 공히 ‘지금 이자받기’를 제공하게 됐다.25일 금융권에 따르면 카카오뱅크는 최근 세이프박스 특약 개정을 통해 이자 지급 시기에 ‘고객이 요청한 날’을 추가한다고 밝혔다. 시행일자는 다음달 24일이다. 세이프박스는 연 2.4% 이자를 주는 보통예금으로, 고객은 매월 네번째 토요일 혹은 원하는 날짜 중 이자 받는 날을 선택할 수 있다. 직전 이자지급일로부터 지금 이자 받기를 신청한 날까지 이자를 셈해서 지급한다. 카카오뱅크는 “지금 이자 받기에 대한 고객 요청이 많아 서비스를 선보이게 됐다”고 설명했다.‘지금 이자 받기’는 토스뱅크가 지난해 3월 국내 금융사 최초로 선보인 서비스로 이용횟수가 1년 간 1억 5000만회를 넘어서는 등 인기를 끌었다. 토스뱅크 고객 중 298만명이 지금 이자 받기 서비스를 통해 2670억원의 이자를 받았다. 호응이 높자 케이뱅크도 지난 1월 파킹통장인 플러스박스에 즉시 이자를 받을 수 있는 서비스를 도입했다. 인터넷뱅크 중 가장 규모가 큰 카카오뱅크까지 대열에 합류하며 ‘지금 이자 받기’는 인터넷은행 대표 서비스로 자리 잡게 됐다.파킹 통장(고금리 수시입출금 통장)의 금리 경쟁력이 뒷받침 요소다. 현재 지금 이자 받기 서비스는 모두 수시입출금 통장에 대해 제공된다. 연 0.1% 내외 낮은 이자만 주는 시중은행과 달리 인터넷은행은 2%대다. 케이뱅크 연 2.7%, 카카오뱅크 2.4%, 토스뱅크 2.0% 등이다. 지금 이자 받기로 인해 예수금 변동성이 커지지만 인터넷은행들은 자산부채종합관리(ALM)에 자신 있다는 입장이다. 토스뱅크 관계자는 “줘야 하는 이자를 미리 비용 처리해 고객의 이자 지급 요구에 대비하고 있다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>[거위{인뱅}의 꿈]①상식을 깨고 판을 바꾸다</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000742031?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>금융 시간 장벽 허물고 공인인증서 없는 시대 열어26주 적금·비대면 주담대…관행 깬 상품으로 흥행인터넷전문은행은 출범 초기에 톡톡 튀는 상품으로 MZ세대의 마음을 사로잡았다. 기존 은행들도 그 신선함으로 어느 정도 긴장도 했다. 그러나 딱 거기까지. 기존 은행들을 흔들기엔 부족했다. 출범 6년 차를 맞은 인터넷전문은행의 성장과 미래를 다시 들여다본다. [편집자]2017년 대한민국 은행사(史)는 전환점을 맞았다. 지점이 없는 인터넷전문은행의 등장. 신뢰에 기반하는 금융의 고유 성격을 고려할 때 100% 비대면으로 이뤄지는 거래는 신선한 충격을 안겨줬다.인터넷전문은행은 등장과 동시에 보통 은행이 지닌 상식을 깨며 디지털 금융으로의 대전환을 알렸다. 지점을 방문해 영업시간에만 가능했던 은행 업무가 언제, 어디서나 시간과 장소에 상관없이 가능해졌다. 기존 은행에도 모바일 뱅킹은 있었지만, 간단한 이체 정도만 가능할 뿐 통장 개설과 대출과 같은 금융 업무는 어김없이 영업점을 들러야 했다. 그렇게 손가락 터치 몇 번으로 대출받는 시대가 열렸다.카카오뱅크 서비스 화면. [사진=카카오뱅크]은행 업무에 필수적으로 따라붙던 공인인증서도 없앴다. 카카오뱅크는 공인인증서 대신 인증 비밀번호(핀 번호)로 대체해 모든 소비자의 편의성을 혁신적으로 개선했다. 이체 한도를 늘리는 등 추가 인증이 필요하면 화상통화 방식을 사용했다.금융 거래의 속도에서도 시중은행보다 앞섰다. 카카오뱅크는 국내 은행 최초로 '네이티브 앱' 방식을 채택했다. 당시 시중은행들은 하이브리드 방식을 채택하고 있었다. 네이티브 방식은 웹서버를 기반으로 하는 하이브리드 방식과는 달리 iOS·안드로이드 등 모바일 기기 운영 체제에 최적화된 언어를 사용해 구동 속도가 빠르다.반응은 폭발적이었다. 케이뱅크는 오픈 3일 만에 가입자 10만명을 모았다. 1분당 21명이 계좌를 개설했다. 카카오뱅크는 하루 만인 다음 날 오전 8시에 계좌 개설 수 30만건을 넘겼고, 500억원의 대출이 실행됐다. 그해 4분기 카카오뱅크는 라이언·무지·콘 등 캐릭터가 새겨진 '프렌즈 체크카드'를 출시했는데, 카드를 발급받으려면 한 달을 기다려야 할 정도로 인기가 뜨거웠다. 이 카드는 800만장이 넘게 발급됐다.인터넷전문은행이 출범한 이듬해인 2018년도 시중은행과 케이뱅크, 카카오뱅크의 총여신 및 예수금성장률. [그래픽=아이뉴스24]가파른 성장은 편의성과 더불어 고객의 욕구를 파악한 상품의 혁신에 있었다. 카카오뱅크는 출범 이듬해인 2018년 6월, 매주 납부 금액을 최초 가입 금액만큼 늘려가는 '26주 적금'을 출시했다. 이는 통상 12개월 만기부터 시작하는 기존 은행의 예·적금의 관행을 깬 것이다. 이 상품은 출시 열흘 만에 20만명이 가입하며 흥행에 성공했다.케이뱅크는 2020년 8월 업계 최초의 비대면 주택담보대출인 '아파트담보대출'을 내놓으며 비대면 주담대 시대를 열기도 했다.토스뱅크는 인터넷전문은행 최초로 개인사업자 대출을 출시하며 새 활로를 모색했다. 지난해 말 토스뱅크의 개인사업자 여신 비중은 15.2%로 케이뱅크(0.9%), 카카오뱅크(0.3%)보다 높다.인터넷전문은행은 그렇게 기존 은행들을 긴장시켰다. 이들의 등장 이후 국내은행들은 앱 개발에 속도를 내기 시작했다. 일반은행의 장점인 기업금융과 자산관리(WM) 분야에 몰두하기도 했다. 그렇게 인터넷전문은행은 은행업을 성장시키는 하나의 촉매제가 됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.04.16.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>저축은행 악성 루머까지…왜?[2금융권 오해와 진실②]</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011805493?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>기사내용 요약웰컴·OK저축은행, 1조원대 PF 결손 '악성 루머'건전성 양호한데도…부동산 PF 부실 우려에 공포감[서울=뉴시스] 권창회 기자 = 집값 하락세 속 이자 부담이 더해지며 경매시장으로 유입되는 아파트가 증가하고 있다. 법원경매정보업체 지지옥션에 따르면 지난달 전국 아파트 경매 진행 건수는 2천450건으로 전월(1천652건) 대비 48.3% 증가했다. 작년 3월(1천415건)에 비하면 무려 73.1% 늘어난 것이다. 사진은 11일 오전 서울 송파구 롯데월드타워 서울스카이에서 바라본 아파트단지 모습. 2023.04.11. kch0523@newsis.com[서울=뉴시스] 김형섭 기자 = "(긴급)웰컴, OK저축은행 PF 1조원대 결손 발생, 지급정지 예정, 잔액 모두 인출 요망"지난 12일 금융권에는 스마트폰 문자메시지와 메신저 대화방 등을 통해 정체불명의 글이 급속도로 퍼졌다.대형 저축은행인 웰컴저축은행과 OK저축은행이 부동산 프로젝트파이낸싱(PF)에서 1조원대의 손해를 입어 고객의 예금을 돌려줄 수 없는 지급불능 상태에 빠질 것이란 '지라시'였다.자산 순위 5위권 내의 두 저축은행에서 만에 하나 지급정지가 발생한다면 2011년 저축은행 사태가 재발할 수도 있을 메가톤급 악재였겠지만 당연하게도 이는 악성 루머인 것으로 밝혀졌다.16일 금융권에 따르면 두 저축은행이 결산공시를 통해 밝힌 지난해 말 기준 부동산 PF대출 잔액은 웰컴저축은행 6679억원, OK저축은행 1조10억원이다. 부동산 PF 연체액과 연체율은 웰컴저축은행의 경우 0.01%에 44억원, OK저축은행은 4.09%에 410억원이다. 대출액이 잡히더라도 공정률에 따라 대출금이 나뉘어 나간다는 점을 고려하면 두 저축은행에서 1조원대 PF 결손이 발생한다는 것은 애초에 불가능에 가까운 셈이다.저축은행 사태의 교훈으로 인해 다른 업권에 비해 규제 강도도 높다. 저축은행은 PF 사업자금의 20% 이상을 자기자본으로 조달할 수 있는 차주에 대해서만 PF 대출 취급을 허용하는 '자기자본 20%룰'을 적용받으며 개별차주에 대한 신용공여도 최대 100억원까지로 제한되고 있다.또 두 은행의 유동성 비율은 OK저축은행 250.54%, 웰컴저축은행 159.68%로 감독규정 한도(100%)를 크게 웃돈다. 유동성 비율은 3개월 내 현금화할 수 있는 자산을 3개월 안에 갚아야 하는 부채로 나눈 값으로 이 수치가 높다는 것은 자금관리가 안정적이란 의미다.국제결제은행(BIS) 기준 자기자본비율도 OK저축은행 11.40%, 웰컴저축은해 12.51%다. 이는 위험가중자산 대비 자기자본비율을 의미하는 것으로 규제비율(자산 1조원 이상은 8%, 1조원 미만은 7%)은 물론 권고비율(11%)을 웃도는 것이다.그럼에도 악성 루머가 확산되자 금융당국과 해당 저축은행들은 신속하게 강경 대응에 나섰다.저축은행중앙회도 "허위 사실 유포자와 접촉한 결과 관련 내용에 대해 횡설수설 하는 등 사실관계를 명확히 설명하지 못하고 있다"며 "해당 저축은행의 2022년 12월말 건전성 비율은 매우 양호한 수준이며 유동성비율도 저축은행 감독규정에서 정한 규제비율보다 충분히 상회하는 수준에서 안정적으로 관리되고 있다"고 설명했다.악성 지라시의 피해자가 된 저축은행들은 루머의 최초 작성자와 유포자에 대한 고소장을 제출하고 엄중 처벌을 요청한 상태다.금융감독원도 언론 설명자료를 통해 "악성 루머는 전혀 사실이 아니다"라며 "두 저축은행 모두 BIS 비율이 규제비율을 크게 상회하고 2022년에 이어 올해 1분기에도 순이익이 예상되고 있다"고 진화에 나섰다.금융당국과 저축은행 업계가 신속 대응에 나선 것은 실리콘밸리은행(SVB) 파산 사태에서와 같은 대규모 뱅크런이 발생할 수 있다는 위기감 때문으로 풀이된다.저축은행 업권의 한 관계자는 "결과적으로는 의미 없는 장난에 여러 사람이 고생한 것이지만 자칫 공포감에 더 취약한 2금융권으로서는 생각보다 큰 일로 번질 수도 있었다"고 말했다.앞서 미국 SVB는 자본 조달 계획을 발표했을 무렵 스마트폰 등을 통해 빠르게 파산 공포감이 확산되며 결국 대규모 뱅크런으로 이어졌는데 이번에 유포된 악성 지라시로 인해 유사한 일이 벌어졌을 수도 있다는 얘기다.실제 국내 금융시장에서도 토스뱅크가 가입과 동시에 연 3.5%의 이자를 받을 수 있는 '먼저 이자 받는 예금'을 출시했다가 위기설에 휩싸인 바 있다. SVB 사태 이후 유동성에 문제가 생겼기 때문에 이런 상품을 출시한 것 아니냐는 소문이었는데 홍민택 대표가 직접 진화에 나서기까지 토스뱅크는 루머로 곤욕을 치러야 했다.그러나 일각에서는 이번 저축은행 관련 악성 루머가 주목을 받은 데는 2금융권의 PF 부실 우려가 자리하고 있는 만큼 금융당국과 각 업권이 보다 적극적인 건전성 강화에 나서야 한다는 지적도 나온다.금감원이 국회 정무위원회 소속 윤창현 국민의힘 의원에게 제출한 자료에 따르면 지난해 4분기 기준 금융권의 부동산 PF 대출잔액은 총 129조9000억원, 연체율은 1.19%로 전분기 대비 잔액은 1조8000억원, 연체율은 0.33%포인트 증가했다.업권별 대출잔액은 보험사 44조3000억원, 은행 39조원, 여신전문금융회사 26조8000억원, 저축은행 10조5000억원, 상호금융사 4조8000억원, 증권사 4조5000억원 등의 순이었다. 업권별 연체율은 증권사 10.38%, 여신전문금융회사 2.20%, 저축은행 2.05%, 보험사 0.60%, 은행 0.01%, 상호금융사 0.09% 등이었다.은행(-0.02%포인트)과 저축은행(-0.33%포인트)을 제외한 증권(2.22%포인트), 여신전문금융사(1.13%포인트), 보험사(0.20%포인트) 등에서 연체율이 증가하고 있어 부동산 PF 부실 우려는 여전히 해소되지 않고 있는 상황이다.특히 저축은행의 경우 자본비율이 낮고 브릿지론 비중이 높은 지방 소형 업체들을 중심으로 위기감이 고조되는 분위기다. 고위험 사업장 비중이 높은 저축은행권이 부실화가 진행될 경우 연쇄적인 타격을 받을 수 있다는 경고도 나온다.한국신용평가에 따르면 저축은행권의 자기자본 대비 부동산금융 부담은 높은 수준이다. 한신평 커버리지 저축은행 9곳의 부동산금융 자산은 지난해 9월 말 기준 총 5조2000억원으로 자기자본 대비 197%에 이른다. 자기자본 대비 브릿지론 비중도 약 110%로 A급 이하 캐피탈사(약 70%) 대비 높다. 이들 저축은행은 지난해 하반기부터 자산건전성 지표가 급격하게 저하됐다. 본PF의 요주의이하여신비율은 2021년 말 14.6%에서 지난해 9월말 23.7%로 가파르게 상승했다. 이 기간 고정이하여신비율도 0.7%에서 1.4%로 두 배 뛰었다. 브릿지론도 본PF와 유사한 수준으로 요주의이하여신비율은 23.7%, 고정이하여신비율은 1.2%다.곽수연 한신평 금융·구조화평가본부 선임연구원은 "지방 소형 저축은행의 경우 자본 완충력이 높지 않아 일부 사업장의 부실에도 자본비율 하락 영향이 클 것으로 예상한다"며 "부실 발생으로 뱅크런(대규모 예금인출)이 촉발되면 대형 저축은행도 영향을 받을 수 있다"고 진단했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>금감원 ‘저축은행 파산’ 찌라시 엄단</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003354159?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>허위사실 유포 고발해 형사처벌공매도 세력 등 연계 가능성 조사최근 대형 저축은행에서 부동산 프로젝트파이낸싱(PF) 대출 잔액 1조원대 결손이 발생해 예금 지급 정지가 예상된다는 거짓 찌라시가 확산돼 한때 시장이 혼란에 빠졌던 것과 관련해 금융감독원이 엄단을 예고했다.금융당국 고위 관계자는 16일 “금융 관련 이해관계가 복잡하다 보니 시장 불안을 조성해 간접적으로 이익을 보려는 움직임이 있을 수 있다”며 “수사기관과 협력해 허위사실 유포 행위를 엄단하겠다”고 밝혔다.금감원은 금융사 건전성을 흔들고 시장 불안을 조성하는 루머에 투트랙으로 접근할 방침이다. 허무맹랑한 찌라시 등은 발견 즉시 수사기관에 고발해 형사처벌로 이어지도록 할 계획이며 상장사와 관련한 것이거나 시장에 영향을 미치는 사안일 경우 불공정거래 혐의가 있는지 집중 조사한다.미국 실리콘밸리은행(SVB)과 유럽 크레디트스위스(CS) 사태 등으로 금융권 불안이 커진 상황이라 위기설과 악성 루머가 끊이지 않고 있다. 지난 12일에는 ‘(긴급)웰컴, OK저축은행 PF 대출 잔액 1조원대 결손 발생, 지급정지 예정, 잔액 모두 인출 요망’과 같은 허위 찌라시가 나돌았다. 저축은행중앙회와 해당 은행은 유포자를 고발하는 등 적극 대응했다.이 밖에도 토스뱅크가 지난달 가입 즉시 이자를 먼저 주는 예금 상품을 내놓자 인터넷 커뮤니티 등을 통해 유동성 위기설에 몸살을 앓았고, 새마을금고는 부동산 PF 부실 우려와 관련된 악의적인 유튜브 클립 때문에 고민이 깊은 상황이다.금감원은 “상장사 루머와 관련해서는 주가 불공정 세력이나 공매도 세력이 연계됐을 가능성을 집중적으로 들여다보겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.04.19.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>쿠팡이 통신사업에도 진출할까요? [투자360]</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002132637?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>[게티이미지][헤럴드경제=권제인 기자] 정부에서 잇달아 통신 업계 과점 페해를 지적하면서 제4 이동통신 도입이 또 한 번 추진될 것이란 전망이 나왔다. 유안타증권은 쿠팡이 통신업에 뛰어들 경우 통신 3사(SK텔레콤, KT, LG유플러스)의 실적 하향과 멀티플 조정은 불가피하다고 판단했다.최남곤 유안타증권 연구원은 19일 대통령실이 지난 2월 통신업계의 경쟁 체제 도입 방안 및 서비스 품질·요금 개선을 위한 대책 마련을 요구함에 따라 제4 이동통신 도입 논의가 필연적이라고 주장했다.최 연구원은 “과학기술정보통신부에서 알뜰폰 활성화, 중간요금제 출시 유도, 신규 사업자 진입 방안 등을 준비 중”이라며 “SK텔리콤은 이미 5G 중간 요금제를 출시했고, 정부는 오는 6월까지 통신 시장 경쟁 촉진 방안을 내놓을 계획”이라고 말했다.서울 종로구 KT광화문빌딩 입구에 KT로고가 보이고 있다. 임세준 기자전국망 구축 의무가 약해지고 기업 간 거래(B2B) 영역에서 기회가 확대되면서 이번에는 대기업의 신청이 이뤄질 것으로 기대했다. 앞서 정부는 7차례에 걸쳐 제4 이동통신사업자 선정 절차를 진행했지만, 지원 기업의 재정 능력 미달 등으로 성과를 거두지 못했다.최 연구원은 “전국망 구축 의무의 정도가 약해졌고, 황금 주파수 공급과 글로벌 표준 기술 방식을 채택했다”며 “특히 이용자가 많은 지역에 자사망을 구축하고 타지역에서는 이동통신 3사의 구축 설비를 활용하는 ‘이동통신(MNO)+알뜰폰(MVNO)’ 사업이 가능하다는 점에서 의미가 있다”고 설명했다.그러면서 “B2C(기업과 소비자 간 거래) 중심의 사업 모델만 존재했던 과거와 달리 B2B 영역에서 기회가 확대되고 있다는 점도 고려될 수 있다”고 덧붙였다.기존 통신 3사에 가장 위협적인 예상 후보 기업으로는 쿠팡을 꼽았다. 쿠팡의 제4 이동통신 유치가 현실화할 경우 통신 3사의 실적 하향 및 멀티플 조정은 불가피하다고 전망했다.최 연구원은 “예상 후보 기업으로 쿠팡, 네이버, 카카오, 토스, 신세계 등이 거론되고 있다”며 “재무 체력, 사업의 유사성, 성장성 확보를 위한 기업의 니즈라는 측면에서 가장 위협적으로 판단하는 후보는 쿠팡”이라고 말했다.이어 “한국에서의 제4 이동통신 도입은 아직 가능성과 시나리오에 불과한 시나리오”라면서도 “최소한의 윤곽이 잡힐 2~3분기 기간에는 최대한 보수적인 대응이 필요하다”고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.04.25.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>미성년 자녀 비대면 계좌 개설, 예약부터 열기 후끈</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003094107?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>미성년 자녀 대상 비대면 주식 계좌 개설이 허용되면서 예약 조기 마감 등 시장 초기 반응이 뜨겁다. 증권사와 은행이 잇따라 서비스 출시를 예고하며 고객 유치 경쟁이 치열해질 것으로 전망된다.금융위원회는 이달부터 법정대리권이 있는 부모가 모바일로 자녀 명의의 주식 계좌를 개설할 수 있도록 '비대면 실명확인 가이드라인'을 개편했다. 지난해 7월 발표한 '금융 규제 혁신 추진 방향'의 일환이다. 이전에는 자녀 명의의 인감과 필요 서류 등을 구비해서 증권사나 은행을 직접 방문해야 계좌 개설이 가능했다.NH투자증권과 KB증권은 지난 18일 미성년자 계좌개설 서비스를 출시했다. NH투자증권이 실시한 '미성년 자녀 계좌개설 사전 신청 이벤트'는 사흘 만에 선착순 4000계좌 개설을 달성하며 조기 마감됐다. 인기에 힘입어 이벤트 기간도 연장했다. KB증권 역시 서비스 출시 기념 이벤트에 많은 인원이 참가하며 계좌 개설 건수가 빠르게 증가하고 있는 것으로 알려졌다.미래에셋은 25일 모바일 애플리케이션(앱) '엠스톡'에서 서비스를 개시했다. 24일까지 진행한 예약 이벤트에 고객 1만명이 참가, 자녀 계좌 개설을 미리 신청했다. 미래에셋은 사전 계약 인기에 서비스 정식 출시 이벤트도 검토하고 있다.자료 게티이미지뱅크키움증권은 오는 27일 서비스를 선보이며 이벤트를 진행한다. 주식 증정 등 이벤트뿐만 아니라 청소년에게 투자가치 확립과 교육을 제공하는 서비스 및 콘텐츠도 선보일 계획이다. 토스증권과 삼성증권도 올 상반기 안 서비스 개시를 준비하고 있다. 하반기에는 신한·국민·하나·우리·농협 등 5대 은행과 하나증권, 이베스트투자증권, 유안타증권, 이베스트투자까지 서비스 기업이 확대되면서 고객 유치 경쟁이 더욱 치열해질 것으로 전망된다.업계는 초기 혜택 제공으로 고객을 확보하고, 향후 사용자 비대면 계좌 개설 편의성 증대 및 콘텐츠 제공 등 다양한 서비스 고도화로 차별화를 꾀한다는 전략을 세운 것으로 알려졌다.증권업계 관계자는 “비대면 자녀 계좌 개설이 허용되면서 빠른 개설, 사용자환경(UI) 등 고객 편의성을 높이고 마케팅을 진행하는 것이 관건”이라면서 “미성년자 계좌 서비스 수요가 늘어나는 추세에 회사별로 다양한 서비스와 솔루션을 준비할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>토스, NATO 사이버 방어연합훈련 ‘락드쉴즈’에 한국 대표로 참가</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002796506?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>토스가 북대서양조약기구 사이버방위센터에서 주관하는 국제 사이버 공격 방어 연합훈련에 대한민국 대표팀 일원으로 참가했다고 밝혔다. 토스 제공    토스가 NATO(북대서양 조약기구) CCDCOE(사이버방위센터)에서 주관하는 국제 사이버 공격 방어 연합훈련 '락드쉴즈(Locked Shields)'에 대한민국 대표팀의 일원으로 참가했다고 24일 밝혔다. 토스는 금융 위협 분석 대회 'FIESTA 2022'의 1위 자격으로 금융보안원으로부터 참가 초청을 받았다.지난 18일부터 21일까지 열린 '락드쉴즈'는 NATO 사이버방위센터가 2010년부터 개최하고 있는 사이버 훈련으로, 가상의 국가를 대상으로 이루어지는 국방, 에너지, 금융 등의 분야에 대한 사이버 공격을 방어한다.대한민국 대표팀은 총 11개 기관 60여 명의 보안전문가들로 구성됐으며 올해는 튀르키예와 연합 훈련 팀을 이뤄 참가했다. 금융보안원이 주관하는 금융권 특화 사이버 침해 위협 분석 대회 'FIESTA'에서 2021년부터 2년 연속 1위에 오른 토스는 금융보안원의 초청을 받아 금융 분야 훈련에 참가할 수 있는 기회를 얻게 됐다.토스는 가상의 중앙은행 시스템을 방어하는 역할을 수행했다. 금융망 시스템 취약점 분석 및 제거, 보안 강화를 위한 조치, 위협 모니터링, 보고 및 시스템 복구 등을 진행했다. 또한, 그동안 쌓아온 노하우와 경험을 활용해 금융 보안을 위한 모의 해킹, 문제점이나 취약점을 발견하고 의도적으로 공격하는 '레드 티밍(red-teaming)'도 수행하며 보안 역량을 발휘했다.토스는 전 팀원이 화이트 해커로 구성된 '보안기술팀'이 공격자적 관점에서 앱의 보안 취약점을 찾고 방어막을 세우며 보안을 강화하고 있다. 악성 앱 탐지 시스템 '토스 피싱제로', 이상거래 탐지 시스템 등을 포함해 토스 앱의 보안 환경을 구축하는 '토스 가드'를 개발해 운영 중이며, 최근에는 금융업권 전반의 보안 수준 향상을 위해 '토스 피싱제로'를 다양한 금융 관련 사업자에게 제공하기 위해 노력하고 있다.토스 보안기술팀 이종호 리더는 "38개국에서 2000여 명의 보안 전문가가 참여하는 "금융보안원에서 토스를 대표 금융사 중 하나로 초청해 주신 만큼 앞으로도 책임감을 가지고 금융업권의 전반의 보안 수준을 향상시킬 수 있도록 다양한 노력을 기울이겠다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>케뱅, 중·저신용자 연체율 3배 치솟아…빚투에 차주·은행 부실 악순환</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004180051?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>■리스크 커지는 '코인 대출'업비트 연계계좌 가진 중·저신용자연체율 2021년 1%→작년 2.96%케뱅 "코인과 연관성 단정 어려워"업비트 예수금 비중도 26% 달해코인 빚투, 인뱅 건전성 악화 뇌관서울 서초구 빗썸 고객센터에 암호화폐 시세가 표시되고 있다. 사진 제공=연합뉴스[서울경제] 접근성이 쉬운 인터넷은행 신용대출이 암호화폐 투자 자금줄이 된 가운데 빚투에 나섰던 차주들의 연체액이 빠르게 증가하는 것으로 나타났다. 특히 국내 1위 암호화폐거래소인 업비트 이용자에게 신용대출을 많이 내준 케이뱅크의 관련 연체율이 1%대로 치솟으면서 부실의 약한 고리가 될 수 있다는 우려가 커지고 있다. 인터넷은행의 경우 여타 시중은행과 달리 신용대출이 가계대출의 70% 이상을 차지하고 있는 만큼 차주와 은행 모두 리스크 관리가 시급하다는 지적이다.◇‘코인 빚투’에 연체율 1년 만에 3배 급등17일 금융권에 따르면 지난해 말 기준 케이뱅크의 가계대출 연체율은 전 은행권 중 가장 높은 0.86%에 달했다. 전년(0.41%) 대비 2배 이상 급등한 수치로 전체 국내 은행 연체율(0.24%)과 비교하면 3.5배나 높다. 케이뱅크의 연체율은 같은 시기 카카오뱅크·토스뱅크 등 마찬가지로 중·저신용자 대상 신용대출 비중이 30% 이상인 다른 인터넷은행과 비교해도 높았다.케이뱅크 연체율이 급등한 것은 상당수의 차주들이 암호화폐에 투자했다가 손실을 봤기 때문으로 추정된다. 지난해 말 기준 케이뱅크 총가계대출(10조 6812억 원)에서 신용대출(8조 2140억 원)이 차지하는 비중은 76.9%에 달했는데 이 중 5조 원에 육박하는 금액이 업비트 연계 계좌를 보유한 차주에게 나간 대출이기 때문이다. 케이뱅크는 2020년 6월부터 업비트 이용자에게 원화 투자가 가능한 실명 계좌를 발급해주고 있다.문제는 지난해 암호화폐 시장이 고꾸라지면서 투자자 개인의 부실이 은행의 부실로 전이되고 있다는 점이다. 국회 정무위원회 소속 김한규 더불어민주당 의원실이 입수한 케이뱅크 자료에 따르면 지난해 말 기준 업비트 연계 계좌를 보유한 차주에게 케이뱅크가 내준 신용대출 연체율은 전체 신용대출 연체율을 0.03%포인트 상회하는 1.01%에 달했다.암호화폐 가격이 크게 뛰었던 2021년 말의 경우 업비트 연계 계좌 보유 차주의 신용대출 연체율은 0.31%에 그쳤지만 1년 만에 0.7%포인트나 증가했다. 그중에서도 신용점수가 KCB 기준 820점 이하인 중·저신용자의 연체율은 2021년 말 1%에서 지난해 말 2.96%로 치솟았다.케이뱅크 측은 “연체율 상승이 암호화폐 투자와 관계가 있는지 단정할 수 없다”는 입장이다. 하지만 업비트 연계 계좌가 없는 차주의 신용대출 연체율은 같은 기간 0.15%포인트 증가하는 데 그쳤다. 암호화폐 시장이 2021년 급등했다가 2022년 급락한 사이 연계 계좌 미보유 차주의 연체율은 소폭 오른 반면 연계 계좌를 보유한 차주의 연체율은 3배가 뛴 것이다.◇은행-코인 연계성 밀접해져 리스크 전이↑케이뱅크에서 돈을 빌린 투자자가 업비트로 향하고 케이뱅크는 업비트가 예치한 투자자들의 돈을 다시 대출 재원으로 쓰는 구조가 형성된 셈이다. 케이뱅크의 ‘업비트 의존도’는 다소 줄긴 했지만 지난해 말 기준 총원화예수금 대비 업비트가 맡긴 법인예수금 비중은 여전히 전체 예수금의 4분의 1 이상인 26%로 높았다.이에 금융권에서는 암호화폐 시장 리스크가 은행 등 전통 금융시장으로 전이될 가능성을 간과해서는 안 된다고 지적한다. 실제로 지난달 10일 미 금융 당국이 실리콘밸리은행(SVB)을 폐쇄하면서 전 세계 금융시장에 충격이 커지자 암호화폐 관련 기업에 대한 의존도가 높았던 시그니처은행은 불과 이틀 만인 12일 폐쇄됐다. 시그니처은행의 파산 원인은 주 예금 고객이 몸담았던 암호화폐 업황 악화 및 뱅크런(대규모 예금 인출)이었다.이와 관련해 이승헌 한국은행 부총재는 지난달 24일 국민의힘 디지털자산특별위원회가 개최한 ‘제7차 민·당·정 간담회’에서 “SVB 사태로 주목해야 할 점은 은행 등 전통 금융 시스템과 암호자산 간의 연계성이 밀접하다는 점”이라며 “이번 사태는 암호자산이 은행 및 전통 금융 시스템 안정에 영향을 미칠 만큼 커졌다는 것을 여실히 보여줬다”고 진단한 바 있다.김한규 의원은 “시장 침체기 속 코인 시장을 향한 과도한 ‘빚투’가 은행 건전성 악화로 이어지지 않도록 각별한 관리가 필요하다”며 “은행이 대출 규모 및 수수료 수익 확대를 위해 위험 부담을 차주에게 전가하거나 심사를 소홀히 하지는 않았는지 등도 점검해야 할 것”이라고 말했다. 이에 대해 케이뱅크 관계자는 “리스크 및 건전성 관리를 강화하고 상품 운용에 보수적으로 나서고 있다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>499억 벌었는데 564억 적자... 출혈 경쟁에 골병드는 ‘K유니콘’</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000894288?sid=105</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>감사보고서 공개한 유니콘 기업 총 12곳1곳 빼고 11곳은 전년 대비 실적 악화인건비, 마케팅비 급증에 ‘적자 늪’ “허리띠 졸라매고 장기 생존 도모해야”        국내 유니콘 기업(기업 가치 1조원이 넘는 비상장 기업)들이 ‘만년 적자’를 벗어나지 못하는 가운데, 급여와 마케팅비 지출에 열을 올린 것으로 분석됐다. 회사 덩치를 키워 매출은 늘었지만, 임직원 연봉을 경쟁적으로 올리면서 인건비가 급증한 것이다. 사용자 수를 늘리기 위해 소셜미디어(SNS) 광고 등 출혈 경쟁을 벌이면서 적자의 늪에서 헤어나오지 못하고 있다.그래픽=정서희  매출 증가했지만 적자는 더 늘어        18일 금융감독원 전자공시시스템에 따르면 국내 유니콘 기업 22곳 중 감사보고서를 공개한 곳은 비바리퍼블리카(토스), 컬리, 직방, 리디, 당근마켓, 야놀자, 두나무, 빗썸코리아, 오아시스, 지피클럽, 한국신용데이터, 여기어때컴퍼니 등 12곳이다. 이 중 지난해 영업이익이 늘어난 곳은 종합 여행·여가 플랫폼 운영사인 여기어때컴퍼니 한 곳 뿐이다. 여기어때컴퍼니의 지난해 매출은 3058억원, 영업이익은 301억원으로 2021년 대비 각각 94%, 49% 증가했다.유니콘 기업들 대부분은 매출이 증가했으나 영업손실도 확대되거나 영업이익이 급감했다. 비바리퍼블리카, 컬리, 직방, 리디, 당근마켓, 한국신용데이터 등은 적자 규모가 커졌다.비바리퍼블리카는 지난해 매출 1조1887억원, 영업손실 2472억원을 기록했다. 매출은 2021년 7807억원에서 52.3%가 증가했는데, 영업손실도 2021년 1796억원에서 37.6% 늘어났다. 급여가 영업비용 중 상당 부분을 차지했다. 비금융부문과 금융부문을 합쳐 2021년 932억원에서 지난해 1831억원으로 2배 가까이 급증했다. 퇴직급여도 같은 기간 63억원에서 182억원으로 늘어났다.비바리퍼블리카의 직원 평균 연봉은 1억6400만원이다. 영업손실이 불어나는 상황에서 임직원 급여도 늘고 있는 것이다. 비바리퍼블리카는 지난 2019년부터 최고 인재를 영입한다는 명분 아래 “연봉을 지금 다니는 회사보다 1.5배 더 주겠다”며 “그 회사 연봉만큼 이직 보너스도 주겠다”고 했다. 비바리퍼블리카 관계자는 “직원 평균 연봉에는 스톡옵션 가치도 포함돼 있다”고 말했다.당근마켓의 지난해 매출은 499억원으로 2021년 256억원에서 2배 가까이 늘었다. 하지만 적자 폭도 확대됐다. 작년 영업손실은 564억원으로 2021년 352억원에서 61%가 증가했다. 8년째 적자다. 당근마켓 역시 지난해 급여가 324억원으로 2021년 130억원에서 2.5배가량 증가했다. 복리후생비는 20억원에서 50억원으로, 접대비는 3023만원에서 1억2000만원으로, 광고선전비는 227억원에서 263억원으로 증가했다.컬리(마켓컬리)의 영업손실도 지난해 2335억원으로 2021년(2177억원)보다 7.3% 늘었다. 컬리의 급여 지급액은 2021년 1676억원에서 지난해 2182억원으로 증가했고, 퇴직급여도 같은 기간 640억원에서 1576억원으로 늘었다. 광고선전비 역시 435억원에서 541억원으로 증가했다. 직방 역시 최대 매출을 올렸지만 동시에 최대 적자를 기록했다. 지난해 영업손실은 371억원으로 전년(82억원) 대비 4배 이상 늘었다. 작년 7월 직방이 삼성SDS 홈 IoT 부문을 인수하면서 급여 지출이 234억원으로 전년(104억원) 대비 2배 이상 늘었기 때문이다. 야놀자, 지피클럽, 두나무, 빗썸코리아, 오아시스 등 5곳은 영업이익 규모가 줄었다. “인건비 줄이고 비용 절감 집중해야”        실적이 나빠진 이유와 관련해 유니콘 기업들은 “신사업 관련 투자 비용이 영향을 미쳤다”며 “아직은 외형 성장에 집중할 때”라고 밝혔다. 하지만 업계에서는 덩치를 키우기보다는 비용을 절감하는데 집중해야 한다고 지적한다. 업계 관계자는 “유니콘들이 경기 침체의 초입에서 재무적으로 어려움을 겪기 시작했다”며 “전 직장보다 연봉을 최대 50%까지 더 주겠다고 하고 TV·소셜미디어 광고를 늘리는 등 출혈 경쟁을 벌인게 발목을 잡았다”고 했다.경기 침체가 장기화할 가능성이 높아진 상황에서 내실을 다져야 한다는 것이다. 또 다른 업계 관계자는 “국내 주요 투자사 중 하나였던 소프트뱅크벤처스 매각이 최근 불발되는 등 VC들 사정도 어려워졌다”며 “인건비를 포함한 각종 비용을 줄이고 스타트업들이 장기적으로 생존할 수 있는 방향을 찾아나가야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>정부 불신 맞닥뜨린 인터넷은행</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/053/0000035728?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>경기 성남시 카카오뱅크 판교오피스 모습. photo 뉴시스원래는 '메기'를 찾으려고 했지만 기존 체제의 경쟁을 강화하는 쪽으로 가는 모양새다. 은행 개혁 논의 이야기다. 정부는 '은행권 경영·영업관행·제도개선 태스크포스(TF)'팀을 운영해 왔다. 여기서는 오는 6월 말까지 최종 개선 방안을 내놓는다.TF 논의가 찾으려 했던 큰 물줄기는 은행권의 경쟁 유도법이었다. '메기'를 또 하나 찾자는 아이디어가 나온 것도 이 때문이었다. 새 사업자를 추가해 고여 있던 물에 경쟁을 유도하자고 했고, 그렇게 나왔던 대안 중 하나로 카카오뱅크·케이뱅크·토스뱅크에 이어 제4인터넷은행을 추가하자는 아이디어였다. 그런데 이 이야기가 지금은 없던 일이 되는 분위기다. 상황이 바뀐 결정적 계기는 해외발 위기다. 실리콘밸리은행(SVB)의 뱅크런과 도산, 미국과 유럽에서 발생한 금융시스템의 위기 때문에 은행업 진입 장벽을 낮추고 규제를 완화하기에 꽤 부담스러운 상황이 됐다.제4인터넷은행 가능성은 작아졌지만…이번 TF는 은행권의 과점을 깨기 위한 논의체다. 윤석열 대통령이 직접 "과점 체제를 깨라"고 지시하면서 움직임이 바빠졌고 그래서 큰 변화가 생길지 모른다는 전망이 있었다. 과점은 주요 5대 은행(KB국민·신한·하나·우리·NH농협)이 조성했다. 이들은 2022년 말 기준 수신 74.1%, 여신 63.4%를 점유하고 있다. 예금과 대출 양쪽 모두에서 큰 비중을 차지한다.윤 대통령이 비상경제민생회의에서 "특단의 대처를 내놔라"라고 요구하며 콕 짚은 과점 체제가 은행과 통신시장이었다. 둘 다 민간 영역이지만 공공재 성격이 강하고 정부 라이선스가 진입장벽 역할을 한다. 하지만 이윤이 기업들에 돌아갈 뿐 소비자 효용이 개선되지 않는다는 문제의식이 있었다.은행 이야기로 다시 돌아오면 결국 대형은행을 견제할 무언가가 필요하다고 봤고, 그 무언가를 또 다른 인터넷은행에서 찾으려 했다는 얘기다. 익명을 요구한 한 국책금융기관 관계자는 "(제4인터넷은행 도입은) 그럴듯한 전략은 맞지만 그 효과는 장담하기 어려운 방법"이라고 말했다. "과점 상태를 흔들어보기 위해 인터넷은행 정도를 시장에 들인다고 해서 지금의 판이 바뀔 리가 없다. 신규 플레이어의 규모가 상당해야 하는데 인터넷은행 정도라면 물 한 컵에 먹물 몇 방울 떨어뜨리는 변화에 불과하다. 과점을 흔들려면 기존 은행권 중 어디에선가 우월적 지위를 좀 내려놓고 이익을 포기하는 대신 소비자 친화적으로 가는 게 더 빠른 방법일 것이다."제4인터넷은행이 나올지도 모른다는 가능성, 그 자체만으로도 기존 인터넷은행은 반갑지 않다. 인터넷은행을 하나 더 늘린다는 건 기존 질서에 정부가 불만이 있다는 해석도 가능하다. 새로운 메기를 구한다는 소식이 나올 때만 해도 인터넷은행 쪽에서는 당황스럽다는 반응이었다. 그쪽 사정을 잘 아는 출자기관(LP) 관계자는 "카카오뱅크 외에는 IPO 이전에 투자를 더 받을 필요가 있는데 인터넷 라이선스가 3개에서 4개가 되면 그만큼 가치가 깍이게 된다. 카카오뱅크 주가가 많이 떨어지면서 케이뱅크나 토스뱅크의 밸류에이션도 고점보다 절반 이상 떨어진 상태다. 3사 체제가 완전히 정착하기 전에 또 라이선스가 나오는 게 반가울 리 없다"고 말했다.인터넷은행들이 이번 TF 활동을 통해 정부 측에 건의한 것이 있다. 카카오뱅크·토스뱅크·케이뱅크로 구성된 인터넷전문은행협의회가 제시한 의견 중 대표적인 요구는 중·저신용자 대출 비중 목표 완화였다. 인터넷은행의 출범 목표 중 하나가 금융소비자 편익 증진이었다. 중·저신용자를 위한 중금리 대출이 대표적 편익 증진법이다. 인터넷은행 3사가 확보한 자산은 국내 은행 전체의 3% 정도에 불과해 메기가 되기에는 턱없이 부족한 액수다. 오히려 메기 역할은 출범 목표에 어울리도록 고신용자에 대출이 집중된 금융권의 관행을 타파해달라는 요구에서 찾을 수 있었다.하지만 초기 인터넷은행들은 중·저신용자 대출에서 미흡한 결과를 내고 있다는 평가를 받았다. 시중은행의 시야에서 벗어난 중·저신용자 대출 공급에 나서주길 원했지만, 막상 인터넷은행들은 주로 고신용자에게 신용대출을 제공했다. 하지만 금융당국이 중·저신용자 대출 비중을 압박하면서 상황이 달라졌다.2020년 말 기준 10% 남짓이었던 카카오뱅크의 중금리 신용대출 비중은 지난해 말 25%까지 올랐고 올해는 30%를 목표로 잡았다. 케이뱅크 역시 지난해 말 25%를 기록했고 올해는 32%가 목표치다. 가장 늦게 출범한 토스뱅크의 지난해 중금리 신용대출 비중은 42%였는데 올해는 44%까지 늘리려고 한다.문제는 이런 중·저신용자 대출이 수익성에는 압박이 된다는 점이다. 지난해부터 금리가 오르면서 고신용자보다는 중·저신용자들이 상환에 어려움을 겪었고 인터넷은행들은 이런 부실채권들을 대비해 대손비용이 증가하고 있다. 중·저신용자 대출 비중 때문에 고신용자 대출을 늘리기도 쉽지 않다. 지난해에도 인터넷은행들은 중·저신용자의 잠재적 부실 가능성 탓에 이들에 대한 대출 비중 규제를 완화해야 한다고 언급했지만 금융당국은 "설립 취지에 어울리지 않는다"며 잘랐다.이번 건의 역시 마찬가지. 지난 3월 23일 TF회의에서 김소영 금융위원회 부위원장은 "인터넷전문은행 성장 과정을 보면 급격한 외형성장에 치중한 측면이 있었다"며 "대안신용평가의 고도화·혁신화, 중·저신용자 대출 활성화, 철저한 부실관리 등 내실을 다져나가야 한다"고 강조했다. 지난해와 크게 달라지지 않은 스탠스다."웅덩이에 메기들만 모여 있다"인터넷은행 쪽에서는 메기 역할을 요구하려면 시중은행과 제대로 경쟁할 수 있는 환경을 조성해달라는 목소리도 나온다. 한 인터넷은행 관계자는 "메기가 되려면 넓은 강에서 다른 물고기들과 같은 조건에서 경쟁해야 한다. 우리도 고신용자 판매 규모를 늘려야 시중은행과 경쟁할 수 있고 부실채권도 줄일 수 있다. 한 웅덩이에 메기들만 모아놓고 메기 역할을 하라는데 그게 가능하겠나"라고 말했다.그나마 SVB 사태로 제4 사업자의 등장 가능성이 작아진 건 다행이지만 여전히 인터넷은행 앞에는 장애물이 있다. 가장 중요한 건 정부를 설득하는 일이다. 성과를 어느 정도 냈다는 합의가 있어야 규제 완화를 또다시 요구할 수 있어서다. 게다가 인터넷은행들은 '메기' 역할을 나름 해냈다고 자부한다. "디지털 전환을 가속했고 앱 운용 전략을 변화시켰다"는 게 대표적이다.다만 한국금융연구원이 이번 TF 회의를 앞두고 작성한 '인터넷전문은행 도입 성과 평가'에 따르면 2022년 기준으로 보안이나 인증 절차의 편리함, 개인정보 관리의 신뢰감 등에서 기존 은행의 앱이 인터넷은행들보다 우위에 있는 것으로 나타났다. 그렇게 영향력 있는 메기가 되지 못했다는 뜻인데 이런 상황에서 자신의 요구를 들어달라는 인터넷은행들의 말에 정부는 여전히 고개를 젓는다. 인터넷은행들은 이런 불신의 벽부터 넘어야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.04.23.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>번거로운 실손 청구?…네·카·토에선 30초면 끝</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004836057?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>짠테크 &amp; 핀테크진료·약값 10만원 이하는영수증 찍어 첨부하면 돼금액 크면 추가서류 필요수수료없이 2~5일내 지급Gettyimagesbank매달 수만원이 넘는 실손보험료를 부담하면서도 진료비를 제때 청구하지 않는 경우가 많다. 청구 절차가 번거롭기 때문이다. 소액이면 더욱 그렇다. 녹색소비자연대가 2021년 실손보험 가입자 1000명을 대상으로 조사한 결과에 따르면 응답자의 47.2%는 실손보험을 한 번도 청구하지 않은 것으로 나타났다. 그 사유로는 ‘진료금액이 적어서(51%)’가 가장 많았다. 이어 ‘서류 발급을 위해 다시 병원을 방문할 시간이 없어서(47%)’와 ‘증빙서류를 보내는 것이 귀찮아서(24%)’ 등을 꼽은 응답자도 상당했다.네이버 카카오 토스 등 핀테크 기업은 이런 불편을 해소하기 위해 ‘보험금 청구 서비스’를 잇따라 선보였다. 경우에 따라 30초 이내 보험금 청구 신청도 가능하다.병원비나 약제비가 10만원 이하라면 병원에서 발급하는 ‘진료비 영수증’과 약국에서 받은 ‘약제비 영수증’ 사진만 있으면 된다. 10만원 이상인 경우에는 통원확인서·진단서·처방전 중 한 가지가 필요하다.입원비 청구 시엔 진단서, 입퇴원 확인서 중 하나를 준비해야 한다. 만약 비급여 내역이 있다면 진료비 세부내역서가 필요하다. 수술비 청구를 위해서도 진단서나 수술확인서가 있어야 한다. 응급실을 이용했을 땐 응급실 외래진료 기록지를 확보해야만 청구가 가능하다. 서류가 준비됐으면 스마트폰으로 사진을 찍으면 된다.카카오톡에서는 하단 더보기(설정)에서 ‘pay’를 눌러 ‘보험’을 클릭하면 ‘병원비 청구’ 항목이 나타난다. 본인인증 등이 끝나면 앞서 준비한 서류 사진을 첨부하면 된다. 신청이 끝나고 통상 3~5일의 보험사 심사를 거쳐 자신의 계좌에 보험금이 지급된다.네이버 서비스도 비슷하다. 네이버의 보험금 청구 서비스를 이용하려면 먼저 네이버페이 앱을 내려받아 설치해야 한다. 네이버페이 앱 우측 상단을 누르면 ‘보험금 청구’를 찾을 수 있다. 보험금 청구를 위한 약관에 동의하면 보험사 선택이 나온다. 카카오페이와 마찬가지로 필요한 서류를 카메라로 촬영하거나 미리 찍어둔 서류를 사진첩에서 선택해 올리면 된다. 최종 청구하기를 누르면 신청이 완료된다.토스는 토스 앱에서 보험금을 청구할 수 있다. 토스 앱 우측 하단 ‘전체’를 누르면 보험 부문 ‘병원비 돌려받기’가 나온다. 주민등록번호와 병원에 방문한 이유 등을 입력한 뒤 필요한 서류를 첨부하면 된다. 토스는 평균 2일 내 보험금을 지급받을 수 있다고 안내하고 있다.이들 핀테크 기업의 보험금 청구 서비스는 절차나 방식이 거의 비슷하다. 이 때문에 본인이 자주 쓰는 앱을 통해 신청하면 된다. 별도의 수수료도 없다. 다만 서비스마다 제휴 병·의원에서 차이가 있다. 제휴 병·의원은 별도 서류 없이 보험금 청구가 가능하다. 예컨대 네이버페이는 병·의원, 약국 등 전국 4000여 개 의료기관과 연계돼 있다. 카카오페이는 서울대병원 등 전국 47개 대형 종합병원의 진료 내역 확인과 병원비 청구 진행이 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>사기 계좌 알려주고 50만원 보상도…중고거래 안전꿀팁</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004875639?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>[우리만 아는 금융꿀팁] 상품·서비스[편집자주] 금융, 이것만 읽으면 쉽습니다. 쉽게 설명해주고 도움되는 정책과 상품, 서비스를 소개합니다. 보이스피싱 등 범죄로부터 내 돈을 지키는 방법을 알려드립니다./사진=토스 홈페이지중고거래를 할 때 사기당할 위험을 줄이고 싶다면 토스나 카카오페이를 통해 송금하면 좋다. 토스와 카카오페이는 사기 이력이 있는 계좌를 바로 걸러내 알려주기 때문이다. 토스는 중고거래 사기 피해자에게 50만원을 보상해주는 제도도 운영한다.━계좌만 입력해도…'사기 의심, 송금 주의하세요' 안내문━16일 토스를 운영하는 비바리퍼블리카에 따르면 토스는 경찰청·더치트와 협력해 중고거래 등 온라인 사기 범죄를 예방하기 위한 장치를 마련하고 있다. 더치트는 사기 이력이 있는 계좌를 조회할 수 있는 서비스다.토스는 돈을 입금하려는 계좌가 경찰청 사이버안전지킴이나 더치트에 등록된 계좌라면 '사기가 의심되는 계좌로 송금 전 주의가 필요하다'라는 내용의 경고 문구를 자동으로 띄운다. 일반적으로 중고거래를 할 때 구매자가 직접 경찰청 사이버안전지킴이나 더치트를 통해 사기 여부를 조회하지만 토스는 송금 과정에서 이 절차가 이뤄지도록 했다.카카오페이도 더치트와 협업해 이용자에게 사기 계좌를 알려준다. 카카오페이로 돈을 보낼 때 상대방의 계좌가 더치트에 올라가 있다면 금액 입력 단계에서 상대방의 이름 옆 아이콘이 빨간색으로 표시된다. 아이콘을 보지 못하고 송금을 진행하면 '송금을 주의하라'는 안내가 나타난다.기업은행과 카카오뱅크 등 일부 은행도 이같은 서비스를 운영하고 있다. 반면 온라인 간편결제 1위 네이버페이나 일부 은행은 송금 과정에서 사기 이력을 조회하는 시스템을 따로 갖추지 않았다.━토스로 보냈는데 사기였다면…"조건 없이 50만원까지 보상"━/사진=토스 홈페이지토스는 피해가 실제로 발생했을 때 보상해주는 제도인 '안심보상제'도 운영한다. 토스를 통해 돈을 부친 뒤 사기를 당하면 최대 50만원까지 피해를 구제받을 수 있다. 보상을 받기 위해선 사기를 당한 날로부터 15일 안에 경찰에 신고하고 토스 고객센터에 피해를 접수하면 된다. 다만 사기 계좌로 드러나 경고 문구가 떴는데도 돈을 부쳤다면 보상을 받을 수 없다. 또 보상은 1인 1회로 제한된다.지난해 토스는 이 제도를 통해 2500여명 고객에게 약 15억8000만원을 보상했다. 실제 보상이 이뤄진 사례의 90%는 중고거래 관련 피해로, 1건당 평균 구제액은 약 37만원이다. 나머지 피해 유형은 휴대전화 분실, 명의도용 등이다. 토스는 명의도용 등 금융사고로 피해가 발생했을 땐 최대 5000만원까지 보상한다.카카오는 '금융안심보험'이라는 유료 상품을 통해 중고거래 사기를 보상하고 있다. 이는 카카오페이손해보험이 낸 상품으로, 중고거래·보이스피싱·메신저피싱 등 각종 온라인 사기가 발생했을 때 피해액을 보장해주는 보험이다. 금융안심보험에 가입한 고객은 자신이 원하는 만큼 보장 항목을 설정하고 보험료를 낼 수 있다. 앞서 지난해 12월 카카오뱅크는 카카오손보와 협력해 이 보험을 만 50세 이상 고객 19만명에게 6개월간 무료로 제공하기도 했다. 무료로 제공되는 상품은 최대 500만원까지 횟수 제한 없이 온라인 사기 피해를 보장한다.토스와 카카오가 온라인 사기 예방과 피해 보상에 노력을 기울이는 이유는 이용자의 신뢰도를 높이기 위해서다. 빅테크 관계자는 "페이를 통한 송금이 빠르게 늘고 있지만 페이사가 시중은행만큼 이용자의 신뢰를 얻고 있진 못하다"며 "MAU(월간활성사용자수)를 늘리려는 목적보다는 안심하고 앱을 이용할 수 있도록 하려고 사기 예방 시스템을 운영하고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.04.25.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>[마켓인]베이스인베, 김유리 전 티맵모빌리티 CPO 영입</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005471353?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>"여성 창업가와 적극 교류하며 성장 도울 것"[이데일리 김연지 기자] 초기 스타트업 투자사 베이스인베스트먼트는 김유리 전 티맵모빌리티 최고제품책임자(CPO)를 그로스 어드바이저로 영입했다고 25일 밝혔다. 스타트업의 성장을 폭넓게 돕고자 신은선 전 리디 COO와 김정훈 전 지그재그 CMO를 그로스 어드바이저를 영입한 지 네 달여 만이다.김유리 전 티맵모빌리티 최고제품책임자는 최근 베이스인베스트먼트 그로스 어드바이저로 합류했다. (사진=베이스인베스트먼트 제공)김유리 그로스 어드바이저는 삼성전자 무선 사업부를 시작으로 애플 본사와 SKT, 쿠팡, 토스에서 핵심 역할을 수행했고, 최근에는 티맵모빌리티 CPO를 역임했다. 특히 2016년에는 토스에 합류해 무료 신용등급 조회 서비스를 담당하며 6개월 만에 MAU 300만 명을 달성하기도 했다. 이 밖에도 토스증권 초기 멤버로서 토스증권 인허가 준비 및 초기 팀 셋업과 확장에 기여했다.베이스인베스트먼트는 이번 영입으로 스타트업에 마케팅과 운영, 인사, 조직 등 다양한 도메인에서의 노하우를 심층적으로 제공할 예정이다. 김유리 어드바이저는 “초기 스타트업이 빠르고 기민하게 혁신을 일구어 낼 수 있도록 피부에 와닿는 도움을 드릴 것”이라며 “특히 여성 창업가 분들과 적극적으로 교류하며 함께 성장할 수 있는 계기를 마련하고자 한다”고 전했다.한편 베이스인베스트먼트는 스타트업의 성장을 돕기 위해 지난 2018년 설립된 벤처캐피털(VC)이다. 경기 침체에도 불구하고 지난해 총 32개 스타트업을 대상으로 324억원의 투자를 집행했다. 대표 투자 포트폴리오로는 시니어 여성 쇼핑 플랫폼 퀸잇(라포랩스), 글로벌 핀테크 기업 트래블월렛, AI기반 위조방지 서비스 마크비전, 판례검색 기반 리걸테크 기업 엘박스, IP기반 컴퍼니빌더 콘텐츠테크놀로지스 등이 있다. 단순 투자 뿐 아니라, 다양한 업계 전문가들을 영입해 초기 스타트업이 필요로 하는 채용 지원 및 제품·조직 운영 등 실질적 업무에 대한 멘토링 등을 제공해오고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.04.28.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>[뉴스'까'페] SVB 사태에 놀란 가슴 '돈을 묶어라'…'파킹통장' 힘 빼고 적금에 힘</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000333687?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>최근 인터넷전문은행들이 경쟁적으로 적금 상품을 내놓고 있습니다. 반면, 자유 수시입출금 통장, 일명 '파킹통장'의 금리는 줄줄이 낮추고 있습니다. 이같은 행보를 두고 미 실리콘밸리은행(SVB) 파산 사태로 불거진 대규모 인출사태 '사이버 런' 우려에 대비해 수신 묶어두기에 나선 것 아니냐는 해석이 나오고 있습니다. 인뱅, 잇따라 '적금' 출시…입소문 마케팅 치열 [토스뱅크 굴비적금의 친구 추천 이벤트 화면. (자료=토스뱅크 모바일 앱)]토스뱅크는 지난 12일 '굴비적금'을 내놓았습니다. 매달 30만원씩 납입할 수 있는 이 적금은 6개월 만기에 최고 연 5%의 이자를 줍니다.특히 토스뱅크는 '친구 초대 이벤트'를 병행하고 있습니다.초대 받은 지인이 추천코드를 입력하면, 1명당 최대 500원씩 무제한으로 지원금을 주고 있습니다. 입소문 마케팅을 통해 출시 이틀 만에 5만6천명이 가입했고, 출시 2주 뒤인 26일에는 가입자 수가 18만명을 넘어섰습니다.  카카오뱅크도 지난 18일 재미요소를 강조한 '최애적금'을 출시했습니다. 연 2%의 이자를 주는 이 적금은 덕질 문화를 활용해 좋아하는 가수가 SNS에 사진을 올린다든지 특정 행위를 할때 미리 설정해 둔 일정 금액이 자동 적립되는 구조를 갖고 있습니다. 카카오뱅크도 '출시 알림' 이벤트를 함께 진행하고 있습니다. 가입 내용을 지인 등에게 공유하면, 추첨을 통해 1천명에게 10만원을 지급할 예정입니다.사전 예약 열흘 만에 40만명이 신청할 정도로 초반 인기를 보이고 있습니다. 적금에 밀린 파킹통장…줄줄이 금리 낮춰 인터넷은행들은 이처럼 적금 고객 유치에 열을 올리면서도 파킹통장 금리는 내리고 있습니다. 토스뱅크는 굴비적금 출시 다음 날인 지난 13일 '토스뱅크 통장'의 금리를 0.2%p 내렸습니다.이어 25일에도 5천만원 초과분에 대한 이자를 0.3%p 더 낮췄습니다. 한달 사이 두 차례 금리 인하 조치로, 예치금 5천만원 이하 이자는 2.2%에서 2%로, 5천만원 초과 이자는 3.8%에서 3.3%로 최대 0.5%p가 내렸습니다. 토스뱅크는 "예·적금 신상품 출시 등 수신 포트폴리오를 강화하며, 전반적인 금리 체계를 조정하는 과정에 있다"고 설명했습니다. 카카오뱅크 역시 최애적금 출시 이후인 22일부터 '세이프박스' 금리를 2.6%에서 2.4%로 0.2%p 내렸습니다. 경쟁사들이 잇따른 금리 인하 움직임에 케이뱅크도 27일부터 '플러스박스' 금리를 2.7%에서 2.6%로 0.1%p 낮췄습니다. SVB 파산이 낳은 '사이버 런' 우려…'돈을 묶어라' 상대적으로 적금통장의 경쟁력을 높이는 인터넷은행의 전략을 두고, 좀 더 안정적으로 유동성을 가져가기 위한 행보라는 해석이 나오고 있습니다.한 시중은행 관계자는 "파킹통장과 달리 적금은 해지를 하지 않는 이상 고객이 돈을 빼지 않으니 은행 입장에선 좀 더 안정적으로 유동성을 관리할 수 있다"며 "파킹통장 경쟁력을 낮춰서 그 유동성이 적금으로 이동할 수 있도록 유인하는 전략을 구사하는 것 같다"고 말했습니다.미 SVB 파산사태는 은행의 손실 공시 이후 스마트폰을 이용한 대거 인출이 인출이 이뤄지면서 36시간 만에 발생했습니다. 이 때문에 '뱅크런'이 아닌 '사이버 런'이라는 표현까지 등장했습니다. 우리나라의 경우 비대면 거래 비율이 2015년 28.8%에서 지난해 51.2%까지 급증했습니다.이로 인해 사이버 런 우려가 부각되고 있고, 특히 모바일 앱에 기반해 이체 등의 편의성을 강조한 인터넷은행에 대한 불안감도 확산됐습니다. 지난달 홍민택 토스뱅크 대표는 “시장이 불안하고 은행들이 자꾸 어려움을 겪고 있으니까 국내에도 그런 일이 있지 않겠냐고 했을 때 상대적으로 토스뱅크가 업력이 짧고 젊은 은행이다 보니 소비자들의 불안감이 있는 것 같다”며 "“유동성 문제는 없으며, 오히려 유동성이 너무 많은 편”이라며 유동설 위기설 진화에 나서기도 했습니다.  당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.04.21.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>3월 가계 예대금리차 뚝… 금감원장 은행 순시 약발 먹혔나</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003355492?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>3개월째 오르다 0.22%P 줄어 이복현, 은행 돌며 상생안 받아 농협, 5대 은행 중 금리차 최고한동안 오름세를 보이던 주요 시중은행들의 예대금리차(예금금리와 대출금리의 차이)가 지난달 뚝 떨어졌다. 지난달 이복현 금융감독원장이 집중적으로 은행들을 돌며 상생안을 받아 낸 결과라는 풀이가 나온다.20일 은행연합회에 따르면 지난달 KB국민·신한·우리·하나·NH농협은행 등 5대 시중은행의 가계 예대금리차는 평균 1.22% 포인트로 집계됐다. 가계 예대금리차는 지난달 11월까지만 해도 평균 0.88% 포인트 수준이었는데, 이후 3개월 연속 올라 2월 1.44% 포인트까지 올랐으나 지난 3월에는 전월 대비 0.22% 포인트 줄며 넉 달 만에 감소로 전환했다.이 같은 예대금리차 축소는 이 원장의 금융권 압박에 따른 결과라는 분석이다. 이 원장은 지난 2월 23일 하나은행을 시작으로 지난달 중 국민은행, 신한은행, 우리은행을 차례로 방문했고, 각사는 금리 인하 등 상생금융안을 내놓았다. 은행권 관계자는 “금융당국 수장이 방문하면 은행 입장에서는 부담이 될 수밖에 없다. 실제로 신규 대출 금리를 내렸다”며 “지난달 중순부터 안정되기 시작한 금융채도 대출금리가 떨어진 요인”이라고 말했다.대출금리가 비교적 높은 정책서민금융을 제외한 5대 은행의 가계 예대금리차는 한 달 사이 1.36% 포인트에서 1.16% 포인트로 0.20% 포인트 줄었다. 기업대출까지 포함한 전체 예대금리차는 지난달 1.59% 포인트로 나타났다.다만 대출금리 인하는 담보대출 위주로 이뤄진 것으로 보인다. 지난달 5대 은행의 주택담보대출 금리는 연 4.48~5.23%로 전월(연 4.55~5.27%)과 비교해 상하단이 모두 떨어졌다. 반면 신용대출 금리는 지난달 연 5.89~ 6.47%로, 전월(연 5.81~6.44%)보다 상하단이 모두 올랐다.5대 은행 가운데 예대금리차가 가장 높은 은행은 농협은행으로 나타났다. 농협은행은 전체 예대금리차, 가계 예대금리차, 서민금융 제외 예대금리차가 각각 1.68% 포인트, 1.36% 포인트, 1.34% 포인트로 공시 대상 세 수치가 모두 5대 은행 중 가장 높았다. 농협은행 관계자는 “단기성 정책 수신자금이 많은 농협은행의 특수성으로 인해 예대금리차가 벌어졌다”고 설명했다.반면 인터넷전문은행들의 예대금리차는 대체로 올랐다. 토스뱅크는 공시 대상 19개 은행 중에서도 전체 예대금리차가 가장 높았다. 토스뱅크의 지난달 전체 예대금리차는 4.89% 포인트, 가계 예대금리차는 5.41% 포인트를 기록해 한 달 전보다 각각 0.22% 포인트, 0.51% 포인트 뛰었다. 중저신용자 비중이 높고, 예금 상품이 다양하지 않아 예대금리차가 크다는 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.04.19.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>토스 어린이·청소년 전용 ‘유스카드’…누적 발급량 100만 장 돌파</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002132236?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>“만 18세 이하 가입자 수는 194만 명”토스 유스 카드[토스 제공][헤럴드경제=홍승희 기자] 모바일 금융 서비스 ‘토스'를 운영하는 비바리퍼블리카(이하 토스)는 어린이·청소년용 선불 카드인 ‘유스카드(USS card)’ 누적 발급량이 100만 장을 넘어섰다고 19일 밝혔다. 총 누적 발급량은 107만 장에 이른다.만 7세부터 만 16세의 어린이⋅청소년이 자신의 이름으로 만들어 사용할 수 있는 '유스카드'는 연결된 가상 계좌에 이체하거나 CU 편의점에서 현금을 충전해 사용할 수 있고, 오프라인 매장뿐만 아니라 온라인 가맹점에서도 결제할 수 있다. 단, 청소년 제한업종, 자동 결제 및 해외 결제에는 사용이 제한된다. 교통카드 기능 또한 제공하며, 토스 앱에서 소비 내역을 확인하고, 결제 알림, 카드 일시 정지 등의 관리도 쉽게 가능하다.‘유스카드’는 지난 2021년 12월 출시 이후 1년 4개월 만에 누적 발급량 107만 장을 돌파했다. 출시 이후 하루 평균 발급량이 2천 장이 넘는 셈이다. 편의점 충전 누적 횟수는 115만 회, 토스페이 온라인 결제 이용자 월평균은 70만 명을 돌파하는 등 카드 발급에 따른 이용 수치도 눈에 띈다.그 결과, 토스에서 만 7세부터 만 18세 이하의 사용자를 의미하는 ‘틴즈(teens)’ 가입자는 194만 명을 돌파했다. 이는 2021년 7월 어린이⋅청소년의 주체적인 금융 생활을 위해 만들어진 ‘틴즈 사일로’가 첫 출범한 이후 1년 9개월 만의 성과다.[토스 제공]‘틴즈 사일로’를 담당하는 윤주승 제품 책임자(PO)는 “토스는 2021년부터 누구보다도 빠르게 알파 세대를 주목하기 시작했으며 10대 고객들의 의견을 직접 듣고 서비스에 반영하며 ‘틴즈’들만이 느낄 수 있는 금융의 불편함을 해소하기 위해 다양한 노력을 기울여왔다”며 “우수한 제품뿐 아니라 ‘토스 아동 보호 정책’을 제정해 가입 방식부터 소비되는 콘텐츠까지 안전하고 유익하게 제공하고자 하는 점도 토스만의 특별한 점”이라고 전했다.이 밖에도 '틴즈 사일로'는 ‘해냄 저금통’, 급식표 및 시간표 등 꾸준히 10대 전용 서비스들을 선보이고 있으며, ‘머니 스터디 카페’ 메뉴를 통해 청소년 전용 금융 교육 콘텐츠를 직접 제작하여 선보이고 있다. 만 14세 미만을 위해서는 별도의 UI(user interface)가 구현된 전용 ‘유스 홈’ 또한 제공한다.한편, 토스는 이달 초 청소년이 직접 주식 투자를 경험할 수 있는 ‘토스 모의투자’ 제품을 새롭게 출시했다. 만 7세부터 만 18세까지의 ‘틴즈’ 사용자에게 가상의 1000달러를 지급하며, 사용자는 실시간 시세 정보를 활용해 국내외 주식 투자를 경험해 볼 수 있다. 더불어 청소년 눈높이에 맞춘 종목 설명과 투자 가이드 또한 함께 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>“애플 계정으로 로그인 후 요금납부”…LG유플러스 ‘영문’ 홈페이지 오픈</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/117/0003720896?sid=103</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>[마이데일리 = 구현주 기자] LG유플러스는 외국인 고객을 위한 ‘영문버전’ 외국어 홈페이지를 오픈했다고 20일 밝혔다.먼저 영어로 관련 정보를 제공하는 모바일 기반 외국어 홈페이지를 개설하고, 자사 고객센터 앱(애플리케이션) ‘당신의 U+’에도 순차 적용한다.외국어 홈페이지는 기존 홈페이지 계정 외에도 토스, 카카오톡, 네이버, 애플 계정으로도 로그인할 수 있다. 가입정보, 실시간 사용량 조회와 요금 즉시 납부, 데이터 주고받기, 소액결제 차단·해제, 유심 일시정지·해제 등 업무처리를 지원한다. 외국어 채팅 상담 서비스도 제공한다. 구글맵을 기반으로 고객 위치에서 가장 가까운 매장을 알려주는 위치 서비스도 추가했다.LG유플러스는 상반기 내 영어 외에도 중국어, 베트남어, 러시아어 버전 홈페이지를 선보일 예정이다. 김유진 LG유플러스 글로벌통신사업담당은 “통신 업무 처리를 넘어 국내 체류 외국인에게 필요한 혜택을 제공해 외국어 홈페이지가 생활 편의 플랫폼으로 거듭날 수 있도록 노력하겠다”고 말했다. [사진 = LG유플러스](구현주 기자 winter@mydaily.co.kr)</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>건물 쪼개서 산다… 금융권 ‘STO’ 선점 경쟁</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003354164?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>‘자산 소유권 분산’ 정식 시행 임박한투·카뱅·토스 ‘ST프렌즈’ 결성투자액 한도 등 규제 흥행 변수“안착 시간 필요… ETF 10년 걸려”서울 강남의 빌딩, 대형 선박, 고가의 미술품 등 자산의 소유권을 조각투자 형태로 분산 소유해 주식처럼 사고팔 수 있는 토큰증권발행(STO) 사업의 정식 시행을 둘러싸고 금융권의 선점 경쟁이 뜨겁다.16일 금융권에 따르면 미래에셋증권이 ‘STO 비즈니스’, KB증권이 ‘ST 오너스’, NH투자증권이 ‘STO 비전그룹’, 신한투자증권이 ‘STO 얼라이언스’ 등 토큰증권 협의체를 구성하고 관련 사업 준비에 박차를 가하고 있다. 한국투자증권은 최근 인터넷전문은행인 카카오뱅크 및 토스뱅크와 손잡고 ‘한국투자 ST프렌즈’를 결성했다. 은행권에서는 NH농협은행이 최근 SH수협은행, 전북은행 등과 최초로 STO 컨소시엄을 결성했다.토큰증권은 조각투자에 블록체인 기술을 결합한 것이다. 블록체인 기술을 활용한 디지털자산(토큰) 형태로 발행되기 때문에 비트코인 등 가상자산(암호화폐)과 같지만 실물 자산을 바탕으로 한다는 점에서 다르다. 금융위원회는 올 상반기 안에 관련 법안인 ‘전자증권법 및 자본시장법 개정안’을 국회에 제출해 STO의 제도적인 기반을 마련하고 이르면 내년 말 시행한다는 방침이다.STO가 시행되면 기존에는 잘게 쪼개서 거래하기 어려웠던 다양한 실물 자산을 디지털화해 주식처럼 정식으로 거래할 수 있다. 세계적 거장이 그린 그림은 물론 빌딩 등 부동산, 음악 저작권과 같은 지식재산권 등 자산의 소유권을 잘게 쪼개 소액으로도 소유권 일부를 가질 수 있게 되는 것이다.최근에는 한우, 명품 시계, 게임 아이템 등도 STO 대상으로 주목받고 있다. 만약 투자금 10만원으로 1억원짜리 시계의 지분 0.1%를 취득하고 시계 가치가 올라 2억원이 되면 20만원으로 뛴 지분 가치를 팔아 차익을 남길 수 있다. 이 외에도 한국마사회가 경주마 조각투자를 추진 중이며 미래에셋증권은 HJ중공업, 한국토지신탁과 선박 STO를 논의하고 있다.흥행의 변수는 금융당국의 규제다. 금융위가 지난 2월 발표한 STO 가이드라인에 따르면 STO의 주요 통로로 이용될 소액공모 한계는 최대 100억원이다. 일반 투자자의 투자금액 한도도 제한될 가능성이 높다. 업계에서는 규모에 대한 당국의 규제가 계속될 경우 시장이 커지기 어렵다고 우려한다. 현재 금융규제 샌드박스를 통해 혁신금융서비스로 지정받은 일부 조각투자 플랫폼에 대한 일반 투자자의 연간 투자금액 한도는 1000만~2000만원 수준이다.류지해 미래에셋증권 디지털자산 태스크포스(TF) 이사는 “결국 얼마나 좋은 상품을 내놓을 수 있느냐가 관건”이라면서 “상장지수펀드(ETF)도 자리잡기까지 10년이 걸린 만큼 STO도 자리를 잡는 데 시간이 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.04.25.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>서울 수도요금 고지서, 월 10t 종이 쓴다…전지고지 전환하면 요금 1% 감면</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003219445?sid=102</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>서울시 수도요금 전자고지 전환 방법. 서울시 제공서울시가 오는 7월까지 수도요금을 종이 청구서에서 전자고지서로 바꾸는 가입자들을 대상으로 매월 이벤트를 실시한다고 25일 밝혔다. 환경 보호 차원에서 일부 요금을 감면해 전환을 유도하고는 있지만 전자고지 비율이 여전히 10%에 머무는 데 따른 것이다.서울 수도요금 종이 고지서는 월평균 102만장이 제작돼 사용자에게 직접 혹은 우편으로 전달된다. 매달 쓰는 종이는 무게로 따지면 약 10t 분량에 달한다. 이에 2006년 2월부터 전자고지 서비스가 도입됐으나 가입률이 2023년 3월 말 기준 11%에 그치는 상황이다.전자고지 가입자는 최소 200원에서 최대 1000원까지 수도 요금의 1%를 감면해주고 있다. 단 전자고지와 종이청구서 동시 신청자는 제외된다. 서울시 관계자는 “전자 고지서는 종이 청구서보다 요금을 1~2일 빨리 알 수 있고 분실 염려가 없어 개인정보 보호 효과도 높다”며 “고지서를 통해 요금을 즉시 낼 수도 있다”고 설명했다.서울시는 전자고지 가입 확대를 위해 7월까지 신규 전환자를 대상으로 매달 250명씩 추첨해 커피 쿠폰을 제공하는 이벤트를 진행 중이다.수도요금을 문자나 이메일로 청구서를 받고 싶다면 ‘서울시 상수도사업본부’ 카카오톡 채널, 다산콜재단(국번없이 120번), 아리수 홈페이지 등에서 신청하면 된다. 모바일 애플리케이션을 통한 전자고지 신청은 간편결제 앱(신한플레이, 카카오페이, 토스)에 가입해 ‘서울시 수도요금’을 검색하면 된다.유연식 서울시 상수도사업본부장은 “수도 요금 전자고지는 종이 사용을 줄여 환경을 보호하는 한편 송달 비용도 절감할 수 있어 수도 재정의 건전성을 높여 요금 인상 요인을 상쇄할 수 있다”고 말했다</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.04.26.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>빅테크 보험업 진출에 캐피털사 '사라진 운동장' 우려</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003094454?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>게티이미지뱅크금융당국이 네이버와 카카오, 토스 등 빅테크 기업에 '보험상품 비교·추천 서비스' 등 보험업 진출을 허용하면서 여신전문금융업계(여전업계) 안팎에서 우려의 목소리가 나온다. 과거 금융당국이 마이데이터 허가를 받은 캐피털 등 여전사 보험판매를 허용하겠다고 했지만, 여전히 규제 문턱을 넘지 못하면서 역차별 비판이 일고 있다.보험업 진출은 캐피털사의 숙원 과제 중 하나였다. 여신금융업법 시행령에 여진전문금융사가 '보험업법에 따른 보험대리점'을 할 수 있도록 명시했지만 정작 보험업법상에는 여전사 가운데 카드사만 보험대리점(GA) 설립이 가능하다. 업권별 법령이 충돌하면서 캐피털사의 보험업 진출이 사실상 어려운 상황이다. 2021년 고승범 전 금융위원장이 여신전문금융업계와 간담회에서 마이데이터 사업에 참여하는 캐피털사에 대해 GA 설립을 허용하는 방안을 검토하겠다고 했지만, 2023년이 되도록 법령 수정은 깜깜무소식이다.이런 와중에 금융위원회가 이달 초 '제7차 금융규제혁신회의'에서 '플랫폼 보험상품 취급 시범운영 방안'에 대한 구체적인 세부안을 발표하면서 캐피털사 불만이 폭발했다. 올해 말 혹은 내년 초부터는 보험 소비자가 네이버·카카오·토스가 자동차보험이나 실손의료보험 등 본인에게 맞는 보험상품을 찾을 수 있는 보험중개 업무를 시작하게 됐기 때문이다.여전업계 관계자는 “특별한 사유도 없이 같은 여전사지만 카드사는 GA 업무가 허용되고 캐피털사는 허용되지 않는 차별 규제에 대해 여러 차례 문제를 제기했지만, 금융당국은 요지부동”이라면서 “해외 캐피털사처럼 자체 경쟁력을 강화하기 위해 여전사의 보험업 진출이 필요하다”고 강조했다.해외에서는 캐피털사가 보험판매를 하는 것은 일반화된 형태다. 미국, 유럽 등 주요 선진국에서는 금융사는 물론 비금융사도 고객 정보보호와 금융소비자보호 등에 대한 규제만 준수하면 차별 없이 모두 GA 영업을 할 수 있다. 실제 도요타 전속금융사인 '도요타 파이낸셜'은 2016년 미국에서 자동차보험대리점을 설립해 운전자 데이터를 기반으로 보험료를 할인해 주는 상품을 선보였다.한 캐피털사 관계자는 “최근 빅테크 보험업 진출이 사실상 허용되면서 '기울어진 운동장'을 넘어 '사라진 운동장'이라는 정책적 소외감과 더불어 허탈함을 감출 수 없다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.04.28.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>티몬, 몬스터메가세일...베스트 상품 한달 내내 특가에</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011830313?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>티몬 몬스터메가세일 티저(사진=티몬 제공) *재판매 및 DB 금지[서울=뉴시스]박미선 기자 = 티몬이 창립 13주년을 앞두고 5월 1일부터 한 달간 가정의 달 ‘소비자 물가 안정 프로젝트’를 실시한다고 28일 밝혔다.먼저 1일부터 7일까지 일주일간 ‘몬스터메가세일’을 열고 역대급 쇼핑 기회를 제공한다. 카테고리별 단독 특가인 ‘몬스터데이’는 가정의 달 선물·여행에 초점을 두고 엄선했다. 1일 식품데이, 2일 리빙데이, 3일 여행·E쿠폰데이, 4일 패션데이, 5일 뷰티데이, 6일 출산·유아동데이, 7일 가전·디지털데이 순으로 특가 릴레이가 열린다.29~30일 양일간 최대 25% 할인의 사전 쿠폰팩 3종을 지급한다. 본 행사 기간 지원되는 최대 8% 카카오페이 결제할인, 최대 10% 페이백과 합치면 43%까지 쇼핑 혜택을 누릴 수 있다.또 1일부터 31일까지 한 달 내내 티몬의 베스트 상품을 총집합해 선보이는 ‘베스트 팍팍세일’도 열린다. 고객들이 많이 찾는 생필품 등 다양한 상품을 파격 할인가로 판매하고, 토스페이머니 등 추가 결제 할인도 받을 수 있는 ‘콤보 혜택’도 준비했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>3월 5대 은행 가계 예대금리차 ‘NH농협-우리-KB국민’ 순</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003218636?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>지난 5일 서울의 한 은행에 대출 광고가 붙어있다.  연합뉴스지난달 5대 은행 중 서민금융상품을 제외한 가계 예대금리차(대출금리-저축성수신금리)가 가장 큰 곳은 NH농협은행으로 나타났다.20일 은행연합회의 예대금리차 비교 공시에 따르면 지난달 정책서민금융을 제외한 NH농협은행의 가계 예대금리차는 1.34%포인트로, 5대 은행 중 가장 컸다.이어 우리은행(1.22%포인트), KB국민은행(1.13%포인트), 하나은행(1.11%포인트), 신한은행(1.01%포인트) 순으로 나타났다.공시에 참여한 19개 은행 중에서는 토스뱅크(5.41%포인트)의 예대금리차가 가장 컸고 이어 전북은행(4.82%포인트)이 뒤를 이었다.인터넷전문은행 중에선 토스뱅크에 이어 케이뱅크 1.76%포인트, 카카오뱅크 1.21%포인트였다.기업 대출까지 포함한 전체 예대금리차는 5대 은행 중 농협은행과 우리은행이 각각 1.68%포인트를 기록하고 공동 1위에 올랐다. 이어 KB국민은행(1.59%포인트), 하나은행(1.57%포인트), 신한은행(1.42%포인트) 순으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.04.25.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>[최강시사] 정청래 “제3지대 신당? 쉰당 같아…쉰밥 먹으면 배탈 나”</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011472405?sid=100</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>- 송영길 정계은퇴? 어려운 지경에 그렇게 말하는 것 야박해 - 김민석 '송영길 물욕 없다' 발언, 국민 정서에 맞지 않아 - 돈봉투 의혹, 정보력으로 보면 검찰과 100:0 게임...답답한 상황 - 당 ‘자체 조사’ 한다고 하면 꼬리자르기, 셀프면죄부 얘기 나왔을 것 - 이재명 체제, 투표에 의해 민주적 절차로 세운 것…흔들면 안돼 - 尹, 한미동맹 존중하되 국익 챙겨야…덜컥덜컥 합의하고 오지 않았으면 - 尹 WP 인터뷰, 국민 정서와 동떨어진 일본 총리 같은 발언  - 국민의힘 지도부, 콩가루 비슷하게 서로 물고 물리는 관계 - 금태섭 파괴력? 흘러간 물로는 물레방아 돌릴 수 없어 ■ 인터뷰 자료의 저작권은 KBS 라디오에 있습니다.    인용보도 시 &lt;최경영의 최강시사&gt; 출처를 밝혀주시기 바랍니다.■ 프로그램명 : 최경영의 최강시사■ 방송시간 : 2023년 4월 25일 (화) 07:20-08:57 KBS1R FM 97.3 MHz■ 진행 : 최경영 기자 (KBS)■ 출연 : 정청래 최고위원 (더불어민주당)▷ 최경영 : 답답한 정치 이슈를 팍팍 때려보는 시간입니다. &lt;정치 펀치&gt; 정청래 민주당 최고위원 나오셨습니다. 안녕하십니까?  ▶ 정청래 : 네, 팍팍 정청래입니다.  ▷ 최경영 : 팍팍. 펀치 정청래 의원 나오셨습니다. 지금 혹시 돈 봉투 의혹 때문에 제 버전에는 정청래 의원님은 안 들어가 계시던데.  ▶ 정청래 : 없습니까?  ▷ 최경영 : 네.  ▶ 정청래 : 저는 못 봐서.  ▷ 최경영 : 다른 버전 혹시 갖고 계신 거 없으세요?  ▶ 정청래 : 저는 이거 본 적이 없습니다.  ▷ 최경영 : 그러세요?  ▶ 정청래 : 네. 저는 정론만 봅니다.  ▷ 최경영 : 정론만.  ▶ 정청래 : 지라시는 안 봅니다.  ▷ 최경영 : 지라시는 보지 않는다. 이거는 송영길 전 대표가 귀국을 했어요. 그 이후에 그런데 이제 뭐 딱히 지금 당장 진실이 규명되고 풀리고 이런 거는 지금 시간이 굉장히 오래 지체될 것 같거든요. 민주당으로서는 굉장히 힘든 상황 아닙니까?  ▶ 정청래 : 그러니까 이게 정보력을 보면 100:0 게임이에요, 지금. 검찰은 다 모든 걸 가지고 있고.  ▷ 최경영 : 100:0 게임이다.  ▶ 정청래 : 저희는 뭐 아는 게 없고 이렇죠. 저희도 좀 답답한 상황인데 어쨌든 보도된 내용이 사실이라면 당으로서는 국민들께 상당히 죄송스러운 일이죠, 이런 일이 벌어져서. 그래서 당에서는 매우 이례적으로 검찰이 신속하게 공정하게 수사를 해 달라. 저희가 이렇게 요구를 한 거죠.  ▷ 최경영 : 차라리 신속하게 수사를 해 달라.  ▶ 정청래 : 그렇습니다. 그래서 한 점 의혹이 없이 정치적인 관점을 떠나서 액면 그대로 수사를 해서 명명백백하게 진실이 밝혀졌으면 좋겠다. 이런 입장이고 또 항간에서는 왜 당에서는 자체 진상조사 안 하느냐?  ▷ 최경영 : 그러니까요.  ▶ 정청래 : 그렇게 이제 또 요구를 해요. 만약에 한다 그랬으면 거꾸로 또 이야기했을 거예요. 당에서 뭘 하겠느냐, 꼬리 자르기 하느냐, 셀프 면죄부 주려고 하는 것 아니냐?  ▷ 최경영 : 아니, 박범계 의원은 특별조사기관 필요하다고 그랬어요.  ▶ 정청래 : 그런데 의원들을 상대로 검찰 수사를 앞두고 있는 분들 아닙니까? 당에서 이제 물어보기도 어렵고 또 그분들도 그분들 입에 달려 있는 거잖아요. 그러면 거창하게 진상 조사해 놓는다고 해 놓고 애걔, 뭐 이거밖에 없어? 이렇게 비판받을 수도 있고 그래서 그런 것보다, 논란을 일으키기보다는 차라리 검찰 수사기관에 맡기는 것이 좋겠다. 이렇게 저희는 판단한 거죠.  ▷ 최경영 : 그런데 이 민주당 입장에서는 아마 이럴 것 같아요. 국회의원 뭐 송영길 전 대표는 지금 연루 의혹이 있고 그 국회의원들, 돈 받은 사람들 이름이, 돈 받은 사람들이 있다면. 이름이 1명씩 이렇게 나오는 상황이 최악일 것 같거든요. 1명씩 나온다. 그런데 뭐 20명 플러스알파라고 하고 그렇게 지금 보도가 되고 있으니까.  ▶ 정청래 : 저희도 언론 보도되는 내용 말고 딱히 뭐 아는 게 없어요. 그래서 어쨌든 신속하게 수사를 해서 진실을 밝혀 달라. 이런 입장입니다.  ▷ 최경영 : 해결책을 탈당을 하고 이렇게 했는데 국민의 힘에서는 꼬리 자르기라고 비판을 하고 이게 의혹이 지금 가시지 않는 상황에서 총선을 만약에 내년 총선까지 가면 그거는 굉장히 큰 악재가 될 것 같은데요.  ▶ 정청래 : 우선 꼬리 자르기라는 말 보면 대부분 어떤 일이 있으면 어떤 조치를 하면 다 이런 비판을 하지 않습니까? 그런데 송영길 대표의 전당대회 선거 있지 않습니까? 송영길 대표가 탈당한 거예요. 송영길 대표가 꼬리이면 누가 몸통이죠? 누가 머리이고? 그래서 송영길 대표는 제가 뭐 전화를 해 본 적은 없지만 어쨌든 부동산 문제가 터졌을 때 12명인가요? 탈당을 권유하지 않았습니까? 그러니까 본인도 본인 세웠던 룰을 본인 스스로 적용시킨 거죠. 그래서 일단 탈당하고 본인의 결백함을 증명하고 당에 돌아오겠다. 이런 취지인 것 같아요. 그래서 저희가 탈당을 하라 마라 지도부에서 할 수도 없는 일이고 또 한 적도 없고 본인 스스로의 판단인 거죠.  ▷ 최경영 : 이게 이재명 대표가 어떤 컨트롤할 수 있는 그 역량, 지금 능력, 리더십이 있는가와 관련해서 이재명 대표가 사법 리스크가 있기 때문에 2차 체포동의안이 혹시 또 넘어온다면 그때 현역 의원들이 또 가부권을 쥐고 있기 때문에 현역 의원들이 몇 명이 되든 간에 이 사건과 연루됐을 수도 있는. 그래서 자체조사를 안 하고 약간 좀 움츠러든 것 아닌가. 이렇게 지금 분석하는 시각도 있던데.  ▶ 정청래 : 그런 식으로 A조건을 건다면 B조건이 또 있지 않습니까? 왜 철저하게 진상조사 안 하느냐 하고 또 불만을 터뜨리는 의원들도 있지 않습니까? 그러면 그 의원들은 체포동의안을 만약에 가정한다면 의원들도 투표권이 있어요. 그러니까 그렇게 이야기하는 것은 반쪽 논리죠. 그렇지 않습니까? 어때요?  ▷ 최경영 : 아니, 뭐 저한테 어때요라고 해서. 청취자들이 뭐 판단하셔야 되고요. 제가 여기에서는 뭐 더 이상 질문은 못 드리겠습니다만 이재명 대표 같은 경우는 어제 그 기자들 질문, 돈 봉투 의혹 관련된 질문에 대해서 국민의힘 김현아 전 의원은 어떻게 대응하느냐고 하면서 토스를 했다는 말이죠. 그런데 이게 뭔가 끊고 혁신으로 어떤 가는 로드맵 같은 거를 제시를 해야 할 시점인데 그것도 상당히 늦은 것 아닌가 그런 생각도 들고요.  ▶ 정청래 : 지금 같은 말인데 앉아 있으면 왜 앉아 있느냐? 이렇게 말할 거고 서 있으면 왜 서 있느냐? 엉거주춤 있으면 뭐가 구리냐? 또 이렇게 이야기할 거고 그래서 지금은 뭘 해도 반대 방향 각도에서 공격은 들어온다. 그래서 지금은 이런 일이 터졌기 때문에 또 아는 정보도 없고 그래서 지금은 맞는 시기이다. 이렇게 보고 있습니다.  ▷ 최경영 : 맞을 수밖에 없다. 샌드백처럼 맞을 수밖에 없는 시기이다.  ▶ 정청래 : 네. 뭐 지금 그렇지 않습니까?  ▷ 최경영 : 알겠습니다. 윤석열 대통령 미국 국빈 방문을 위해서 지금 출국을 했고요. 여야 뭐 기대와 우려가 교차를 하고 있는데 최고위원님은 어떻게 생각하십니까?  ▶ 정청래 : 저는 국민들에게 많이 안 알려져 있는 용어인데 글로벌 포괄적 전략동맹. 이거에 사인해서는 안 된다. 이거는 문재인 정부 때 3불정책은 기억하시죠? ▷ 최경영 : 네. ▶ 정청래 : 사드 추가 배치하지 않는다. 한국과 일본은 군사동맹을 맺지 않는다. 그리고 한국이 미국의 MD체제, 미사일 방어체제에 복속되지 않는다. 이거거든요. 국익을 위해서 그런 겁니다. 그런데 글로벌 포괄적 전략동맹이라는 것은 미국과 함께 전쟁 다니자, 세계 곳곳에. 이런 거에 다름이 아니다. 저는 이렇게 생각을 하거든요. 그래서 그거를 하면 안 된다. 그러면 지금 우크라이나에 지금 포탄을 뭐 우회 지원하느냐, 어떠냐 뭐 문제가 되지 않습니까? 그러면 세계 분쟁 지역의 곳곳에 우리가 개입을 하게 돼요. 그러면 세계 곳곳과 적대국이 되면 우리가 수출로 먹고사는 나라인데 수출이 되겠습니까? 그래서 지금 사상 최대의 지금 무역 적자, 특히 중국 같은 경우는 적자 신기록 갱신을 계속하고 있는데 한미동맹이라는 것도 결국은 국익을 위해서 하는 것 아닙니까? 그래서 한미동맹은 존중하되 또 국익은 국익대로 챙겨야 된다는 생각이어서 이런 거에 덜컥덜컥 합의하고 오지 않았으면 좋겠어요.  ▷ 최경영 : 글로벌 포괄적 전략동맹. 이 단어만 들으면 멋있어 보이잖아요.  ▶ 정청래 : 그렇죠.  ▷ 최경영 : 그런데 여기 안에 숨은 어떤 덫이 있다?  ▶ 정청래 : 그렇습니다.  ▷ 최경영 : 구체적으로 좀 이야기를 해 주십시오. 가령 이번에 워싱턴포스트의 미셸 리 기사 같은 경우도 제목이 우크라이나와 중국에 초점이 맞춰지고 있다, 윤석열 대통령의 방미를 앞두고. 그게 기사의 제목이었거든요. 그런데 우리 입장에서는 우크라이나나 중국에 초점을 맞출 일은 없는 거잖아요, 사실은. 미국 입장에서는 그런 건데.  ▶ 정청래 : 그러니까 우리는 외교부이지 않습니까? 미국은 뭐예요? 국무부예요.  ▷ 최경영 : 맞아요, 이름이.  ▶ 정청래 : 국내 일이에요, 세계가. 그러니까 뭐냐 하면 세계의 어떻게 보면 초강대국으로서 곳곳에 다 개입하지 않습니까? 그런데 우리가 그럴 형편은 아니잖아요. 우리는 국익을 챙겨야 되지 않습니까? 그러니까 나토에 가서 탈중국 뭐 선언 또 추경호 장관이 또 안 했다고 하지만 어쨌든 중국과 반중 노선을 걷겠다는 사실을 사실상 가시화한 것 아니겠습니까? 중국에서 우리 물건을 사 줄 리가 없죠. 그렇지 않습니까? 그리고 우리하고 러시아는 나쁜 관계가 아니었거든요. 그런데 괜히 지금 우크라이나에 우회 지원한다. 이런 이야기 나오니까 러시아에서 뭐라고 그랬습니까? 받은 대로 돌려주겠다. 뭐냐 하면 우리 국익에 도움이 안 되는 일이지 않습니까? 그런 일들을 중국, 러시아 또 UAE 가서는 뭐 UAE의 적은 이란이다 해서 이란이 또 반박하고. 다니면서 왜 이렇게 적대국을 만드느냐는 거죠. 그런 걸 하면 안 된다. 그런데 글로벌 포괄적 전략동맹이라는 것이 미국이 분쟁 지역에 많이 개입하지 않습니까?  ▷ 최경영 : 그렇죠.  ▶ 정청래 : 그러면 우리도 같이 다니면서 개입하자. 이런 것에 다름 아니기 때문에 그런 일만큼은 해서는 안 된다고 생각합니다.  ▷ 최경영 : 국민의힘 같은 경우는 일단 민주당의 돈 봉투 의혹 때문에 한숨 돌린 걸로 봐야 될까요? 김재원, 태영호 최고위원의 징계 여부나 뭐 이런 것들도 윤리위를 구성하고 뭐 이랬습니다만.  ▶ 정청래 : 아니, 저희도 뭐 좀 어려운 입장이지만 그쪽은 거의 뭐 지도부가 콩가루 비슷하게 서로가 물고 물리는 이런 관계인 것 같고.  ▷ 최경영 : 서로가 콩가루라고 할 것 같습니다, 지금 상황이. 물고 물리는 관계다.  ▶ 정청래 : 뭐 그쪽 사정도 뭐 가히 심상치 않습니다.  ▷ 최경영 : 심상치는 않다. 그러면서 이게 꿈틀대는 게 지금 또 제3지대 이야기, 대선 전에도 이 이야기 나왔었는데. 금태섭 전 의원 신당 창당 뭐 수도권 30석 올해 추석 전에 어떻게 해 보겠다.  ▶ 정청래 : 원래 총선이 임박하면 그런 당들이 나오죠. 이때다당.  ▷ 최경영 : 이때다당.  ▶ 정청래 : 그리고 양당욕당.  ▷ 최경영 : 양당욕당.  ▶ 정청래 : 그래서 뭐 제3지대 신당이라는 이름은 나오는데.  ▷ 최경영 : 구체화는 될까요?  ▶ 정청래 : 뭐 여기 지금 거론되는 우리 이 당, 저 당 선생 이름도 나오고 하다 보니까.  ▷ 최경영 : 이 당, 저 당 선생은 김종인 선생을 가리키는...  ▶ 정청래 : 이 당, 저 당 다니지 않습니까?  ▷ 최경영 : 이 당, 저 당 선생.  ▶ 정청래 : 지금 보니까 신당은 아니고 쉰당 같다. 이런 생각이 듭니다.  ▷ 최경영 : 신당이 아니고 쉰당 같다.  ▶ 정청래 : 네. 쉰밥 먹으면 배탈 나죠. 그리고 뭐 때만 되면 철새들이 날아들듯이 이야기가 나오는데 안철수, 박지원. 이 두 분이 한번 재미를 본 적이 있는데 그거 말고는 별로 재미 본 적이 없어요.  ▷ 최경영 : 유승민, 이준석 등이 합류하면 좀 세지지 않을까요?  ▶ 정청래 : 그러면 TK는 좀 영향이 있겠죠.  ▷ 최경영 : TK는 영향이 있을 것이다.  ▶ 정청래 : 네.  ▷ 최경영 : 수도권에도 영향이 있지 않겠습니까?  ▶ 정청래 : 뭐 물론 제3당이 나와서 후보로 나오면 표는 가죠. 그런데 뭐 그것이 지축을 흔들 만큼의 뭐 그런 위력은 없을 거다. 이렇게 봅니다.  ▷ 최경영 : 금태섭 전 의원의 파괴력에 관해서는 어떻게 생각하세요?  ▶ 정청래 : 그러니까 신당 그러면 참신한 인물들이 나와야 되지 않습니까? 그분들도 이미 뭐 흘러간 물들 아닙니까?  ▷ 최경영 : 금태섭까지 포함해서?  ▶ 정청래 : 그러면 흘러간 물로 물레방아 돌릴 수 있습니까?  ▷ 최경영 : 흘러간 물로 물레방아 돌릴 수 없다. ▶ 정청래 : 네. ▷ 최경영 : 정의당을 중심으로 해서 제3지대 야권에서도 뭔가 리버럴이지만 또 다른 3당이 나올 수 있다.  ▶ 정청래 : 그거는 알 수 없죠.  ▷ 최경영 : 그거는 알 수 없다.  ▶ 정청래 : 네.  ▷ 최경영 : 당내 이슈 지금 못 찍고 간 것 중에서 한두 가지가 더 있어서 그것 좀 다시 돌아가서.  ▶ 정청래 : 아니, 아니. 그런데 윤석열 대통령 이야기하자고. 외국만 나가면 이제 걱정인데.  ▷ 최경영 : 그 이야기 좀 더 하고 싶으세요?  ▶ 정청래 : 어제 또 뭐 100년 전 일로 일본이 뭐 이렇게 또 반성한다, 어쩐다, 뭐 수용을 안 한다. 뭐 이런 생각을 해서 지금 또 가기 전에 또 사고를 치셨는데 왜 그럴까 저는 생각해 봤어요. 왜 이렇게 국민 정서와 동떨어진 마치 일본 총리 같은 발언을 할까?  ▷ 최경영 : 지금 국민의힘 지도부나 이쪽에서는 오번역이다. 이렇게 지금 주장을 하고 있습니다.  ▶ 정청래 : 아니, 그러면 워싱턴포스트지를 상대로 정정 보도 신청을 하든가 미국의 언론중재위에 가든가. 그런 걸 안 하지 않습니까? 그런데 어쨌든 오보라고 주장을 한다는 것을 백보 양보해서 받아들이더라도 왜 오역할 말을 하죠? 그래서 제가 봤을 때는 이런 것 같아. 문재인 정부하고는 거꾸로 가자. 그러니까 잘된 것도 거꾸로 가자. 이런 것 같아요. 그래서 심리적으로 그런 것 같아. 그리고 윤석열 대통령이 다 알다시피 정치 경력이 없지 않습니까? 그러고 대통령이 됐으니까 웬만한 건 다 모르죠. 다 모르다 보니까 다 아는 척하는 열등감이 심리적으로 깔려 있지 않나. 그리고 참모들이 조언을 하면 나 모른다고 무시하냐? 이렇게 심리적으로 불수용 심리가 있는 것 같아요. 그러다 보니까 대통령이 어떻게 다 알겠어요? 그러면 참모들의 조언을 받아들여야 되는데 그거를 받아들이지 못하는 어떤 열등감이 기저에 깔려 있지 않나. 그런 생각이 좀 들어서 진짜 걱정입니다.  ▷ 최경영 : 그리고 지금 민주당 이야기 중에 아까 못 짚은 이야기들이.  ▶ 정청래 : 계속 짚어야 되겠습니까?  ▷ 최경영 : 한 3분 남았어요.  ▶ 정청래 : 국민의힘을 좀 짚어 주세요.  ▷ 최경영 : 아니, 국민의힘도 비슷하게 해 드렸어요. 비슷하게 양을 맞춰 드렸으니까.  ▶ 정청래 : 그렇습니까?  ▷ 최경영 : 네. 송영길 전 대표의 탈당, 넘어서 정계 은퇴까지 이야기 필요하다, 선언까지 필요하다. 이런 주장에 관해서는 어떻게 생각하십니까?   ▶ 정청래 : 본인이 그렇게 이야기하지 않았습니까? 나는 정치를 뭐 생계로 하지 않았다, 직업으로 하지 않았다. 이렇게 했는데 나름대로 소명감을 가지고 한 것 아닙니까? 20여 년 한 거로 아는데 그런 판단은 본인의 몫이고.  ▷ 최경영 : 본인의 몫이다.  ▶ 정청래 : 어쨌든 본인이 지금 어려운 지경 아닙니까? 그래서 그렇게 이야기하는 것은 좀 야박하지 않나 그런 생각이 듭니다. ▷ 최경영 : 윤관석, 이성만의 선제 탈당은 어떻게 생각하십니까?  ▶ 정청래 : 그것 역시 제가 또 지도부의 일원으로서 여기에서 가타부타 이야기하는 것은 적절해 보이지 않아요.  ▷ 최경영 : 그래도 이야기해 주시면 훨씬 더 나을 것 같은데. 우리 입장에서는 훨씬 더 좋을 것 같아요.  ▶ 정청래 : 저도 속에 생각은 있는데. ▷ 최경영 : 속에 생각은 있으세요?  ▶ 정청래 : 말할 수 없는 이 포지션이 답답합니다.  ▷ 최경영 : 또 그러시구나. 속에 생각은 있다. 이거로 어떤 제가 약간 좀 가늠해 볼 수는 있을 것 같습니다. 뭔가를 가늠해 볼 수 있을 것 같기는 한데.  ▶ 정청래 : 가늠만 하세요.  ▷ 최경영 : 수위를 가늠해 볼 수는 있을 것 같아요. 그런데 대응을 하면서 김민석 정책위의장은 이제 실드 친다고 할까요? 실드를 치면서 송영길 전 대표는 집도 없고 물욕도 없는 사람이다, 내가 보증한다. 이렇게 지금 이야기를 하잖아요. 그런데 이게 국민들 눈높이에 봤을 때는. ▶ 정청래 : 저는 적절해 보이지는 않아요. 왜냐하면 아직 일이 다 끝난 것도 아니고 과정이고 어쨌든 국민적인 공분을 불러일으킨 사안 아닙니까? 그래서 나중에 일이 다 끝나고 고생했다. 이렇게 어깨를 툭툭 쳐줄 수는 있는데 지금 시기상은 국민 정서에는 좀 안 맞지 않나. 저는 개인적으로 그런 생각을 하고 저도 보면 딱하죠, 이렇게 인터뷰하고 땀 흘리고 이렇게 하는 걸 보면. 그런데 지금은 국민 정서를 더 고려해야 할 때다. 그렇게 생각합니다.  ▷ 최경영 : 그러니까 뭔가 확 끊고 뭘, 어떤 솔루션, 해결책 같은 게 나와야 되는데 거기에 관해서 전혀 이야기가 없으니까.  ▶ 정청래 : 그러니까 전지전능한 검찰께서 빨리 처리해 주시기 바랍니다.  ▷ 최경영 : 아니, 그런데 수사만 해서, 수사를 해서 사람들을 처벌한다고 끝내서 정치 혁신이 되는 건 아니잖아요.  ▶ 정청래 : 그래서 저희가 지금 말씀하신 대로 재발방지책, 정치혁신, 정당혁신. 그것을 조만간 저희가 발표할 생각입니다.  ▷ 최경영 : 어디까지 규모 뭐 이런 것도 생각해야 할 것 같고 그런데 그게 검찰 수사가 어떤 결과가 나오든 정말 세간의 의혹대로 20명 플러스알파가 나오더라도 민주당이 변신하려고 노력한다는 그 정도의 어떤 쇄신책이 되어야 할 텐데.  ▶ 정청래 : 그러니까 국민이 OK 할 때까지 계속 정당혁신의 페달을 밟아야겠죠.  ▷ 최경영 : 그래서 지금 나오는 소리가 혹시 이재명 체제로 총선 못 치른다, 비대위로 갈 수밖에 없다.  ▶ 정청래 : 그거는 아니고요.  ▷ 최경영 : 그거는 아니다?  ▶ 정청래 : 네.  ▷ 최경영 : 갈 수 있다? ▶ 정청래 : 아니. 갈 수 있다, 안 갈 수 있다가 아니라 지금의 체제가 어쨌든 투표에 의해서 민주적 절차에 의해서 된 것 아닙니까? 이거를 흔들고 다른 무엇이 또 정당하느냐. 이렇게 본다면 또 그것도 아니지 않습니까?   ▷ 최경영 : 알겠습니다. 여기까지 듣겠습니다. &lt;정치 펀치&gt; 정청래 민주당 최고위원이었습니다. 고맙습니다.  ▶ 정청래 : 오늘 좀 답답했죠? 답답한 상황입니다. 고맙습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>티머니GO 온다택시, 택시비 부담 줄일 혜택 제공</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003091798?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>티머니GO 온다택시는 6월 30일까지 택시비 부담 줄이기에 나선다고 17일 밝혔다.티머니GO 온다택시는 6월 30일까지 택시비 부담 줄이기에 나선다고 17일 밝혔다.티머니GO 온다택시는 애플리케이션(앱) 회원을 대상으로 2만원 상당의 '택시비 지원금 쿠폰팩'을 지급한다. 티머니GO 신규고객이라면 △택시비 50% 할인 쿠폰(5000원 한도) △3000원 할인 쿠폰 2장(신규가입 시 1장, 첫 자동결제 완료시 1장 추가 발급) △2000원 할인 쿠폰 등을 제공받는다. 기존 회원도 △출퇴근 지원금으로 택시비 20% 할인 쿠폰(2000원 한도) 2장 △심야 지원금 30%할인 쿠폰(3000원 한도)을 받을 수 있다.첫 이용 고객은 오는 23일까지 진행 중인 '티머니GO 온다택시 3000원권 G마켓 100원딜'로 티머니GO 온다택시 첫 탑승 3000원 쿠폰과 스타벅스 커피쿠폰을 100원에 구매할 수 있다. 토스 사용자라면 토스 앱 내 '브랜드 캐시백'코너에서 '티머니GO 온다택시'를 선택해 이용하면 캐시백 리워드 5000원도 받을 수 있다.조동욱 티머니 모빌리티사업부장 전무는 “티머니GO 온다택시는 다양한 혜택과 상생 활동으로 택시업계, 고객 모두에게 '착한 택시'로 자리매김하고 있다”라며 “더 많은 혜택으로 택시업계와는 동반성장하고, 고객에게는 사랑받는 티머니GO 온다택시가 되겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>‘비대면 진료 지키기 서명운동’ 열흘만에 11만명 넘었다</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003759600?sid=105</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>21일 대통령실에 결과 전달지난 21일 ‘비대면 진료 지키기 대국민 서명운동’ 10만명 참여 결과를 대통령실에 전달하는 모습. 왼쪽부터 류경재 코리아스타트업포럼 정책실장, 장지호 코리아스타트업포럼 원격의료산업협의회 공동회장, 곽은경 컨슈머워치 사무총장, 강동주 대통령실 시민사회수석실 국민통합비서관실 행정관.										코리아스타트업포럼은 ‘비대면 진료 지키기 대국민 서명운동’에 10만명 이상 참여한 결과를 21일 대통령실에 전달했다고 24일 밝혔다.코스포에 따르면 비대면 진료 지키기 서명운동에 24일 0시 기준 총 11만2564명의 국민이 참여한 것으로 나타났다. 서명운동에는 지난 14일 오후 3시 시작 이후 1시간만에 7000명 이상이 참여했으며, 6일째인 20일 저녁 7시쯤 10만명을 돌파했다. 이번 서명운동은 스타트업얼라이언스, 컨슈머워치, 한국소프트웨어산업협회(KOSA)와 함께 진행했다.비대면 진료는 스마트폰 같은 IT 기기를 이용해 의사에게 원격으로 진료받는 서비스이다. 2020년 코로나 초기 정부가 ‘심각’ 단계 감염병 위기 경보를 발령하면서 감염병예방법에 근거해 한시 허용됐다. 현재 닥터나우·굿닥 등 30여 비대면 진료 업체가 활발하게 영업하고 있다. 하지만 세계보건기구가 코로나 종식을 선언하면 비대면 진료의 법적 근거가 사라진다. 정치권이 비대면 진료 제도화를 추진하고 있지만, 초진 환자를 제외하고 재진으로만 한정하는 방안이 유력하다. 비대면 진료 99%를 초진이 차지한다는 점을 감안하면 존폐 기로에 서 있는 셈이다. 이에 코스포에서 비대면 진료 지키기 대국민 서명운동에 나선 것이다.코스포는 21일 원격의료산업협의회, 컨슈머워치와 함께 대통령실을 방문해 10만명 이상이 참여한 서명운동 결과와 이용자 의견을 전달했다. 또 감염병 위기 경보 단계가 하향되어도 비대면 진료가 중단되지 않고 누구나 아플 때 진료를 받을 수 있도록, 재진 중심의 ‘사실상비대면진료금지법’ 폐기와 초진부터 이용 가능한 현행 비대면 진료의 유지를 다시 한번 주장했다./조선일보DB										서명운동과 함께 시작한 ‘지켜줘 챌린지’에도 스타트업 창업자·대표들이 참여하고 있다. 박재욱 코스포 의장을 시작으로 김봉진 우아한형제들(배달의민족) 의장, 권도균 프라이머 대표, 송재준 컴투스 대표, 이동건 마이리얼트립 대표, 이수진 야놀자 대표, 이승건 비바리퍼블리카(토스) 대표, 이승재 버킷플레이스(오늘의집) 대표 등이 챌린지에 동참했다.박재욱 코스포 의장은 “지난 3년간 1379만명의 국민의 건강을 지킨 비대면 진료의 효용을 모든 국민이 누릴 수 있도록 앞으로도 최선을 다하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>[게시판] 토스증권, 해외주식 양도소득세 대행신고 무료 제공</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013887003?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>[토스증권 제공. 재판매 및 DB 금지]    ▲ 토스증권은 18일부터 해외주식 양도소득세 대행신고 서비스를 무료로 제공한다고 밝혔다. 대상 고객은 8개 증권사(토스·키움·미래에셋·한국투자·KB·신한투자·NH투자·삼성) 합산기준으로 작년 해외주식 매매차익이 250만원을 초과하는 고객이며, 토스증권이 예상 세금을 자동으로 계산한다. 타사 합산 고객은 토스증권 외 다른 증권사의 양도소득세 계산 내역 서류를 올려야 한다. (서울=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.04.28.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>[단독] 네·카·토, 외상거래 '선구매·후결제' 연체율 급등… 건전성 비상</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000916905?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜·카카오페이·토스가 선보이는 BNPL 서비스의 연체율이 오르면서 건전성 우려가 커지고 있다./그래픽=머니S DB 네이버파이낸셜·카카오페이·토스(비바리퍼블리카)가 제공하는 선구매·후결제(BNPL) 서비스 연체율이 오르며 건전성에 대한 우려가 커지고 있다. 신용카드 등 사용이 어려운 이들을 위한 '포용금융'의 취지로 시장에 나왔지만 자칫 소비를 조장해 부실을 초래할 수 있다는 지적이다. 28일 머니S가 최승재(국민의힘·비례대표) 의원실을 통해 금융감독원으로부터 받은 네이버파이낸셜·카카오페이·토스 등 3사의 지난 3월 기준 BNPL 총채권은 ▲토스 319억5100만원 ▲네이버파이낸셜 124억1100만원 ▲카카오페이 1억7400만원으로 집계됐다. 지난해 12월 기준 ▲토스 281억6800만원 ▲네이버파이낸셜 123억9100만원 ▲카카오페이 1억1500만원에서 모두 늘었다. 총채권이 증가한 가운에 연체채권(결제일 기준 30일 이상 연체채권)도 급증했다. 지난 3월 기준 연체채권은 ▲토스 15억9800만원 ▲네이버파이낸셜 3억3900만원 ▲카카오페이 90만원으로 집계됐다. 지난해 12월 기준으로 ▲토스 9억7900만원 ▲네이버파이낸셜 2억6500만원 ▲카카오페이 10만원으로 나타났다.연체율도 덩달아 뛰었다. 최승재 의원실에 따르면 지난해 12월 3사의 BNPL 평균 연체율은 1.9%였지만 올해 3월 2.75%로 3개월만에 0.85%포인트 올랐다. 단순 비교는 어렵지만 지난 2월 국내은행의 원화대출 연체율이 0.36%인 것과 비교하면 7배 이상 높다.지난달 기준 BNPL 연체율이 가장 높은 곳은 토스다. ▲토스 5% ▲네이버파이낸셜 2.73% ▲카카오페이 0.51%로 집계됐다. 지난해 12월 ▲토스 3.48% ▲네이버파이낸셜 2.14% ▲카카오페이 0.09%에서 3개월 사이 1.52%포인트, 0.59%포인트, 0.42%포인트 각각 올랐다.BNPL은 외상 거래를 생각하면 쉽다. 신용카드 없이 먼저 구매하고 나중에 결제하는 방식이다. 2021년 금융위원회가 지정한 '혁신금융서비스'로 사회초년생, 주부 등 씬파일러(금융 거래이력 부족자)에게 소액 신용 기회를 제공하고자 나왔다. 금융정보 외에도 비금융정보 등을 활용한 대안 신용평가를 바탕으로 서비스 가능 여부, 한도 등이 정해진다.네이버파이낸셜은 2021년 4월, 카카오페이는 지난해 1월, 토스는 2개월 뒤인 같은 해 3월 서비스를 개시했다. 카카오페이 BNPL 한도는 15만원, 네이버파이낸셜과 토스는 최대 월 30만원 내에서 후불결제를 지원한다.신용카드와 달리 연회비와 수수료가 없다. 지난 3월말 기준 3사의 BNPL 누적 가입자수는 266만3557명으로 지난해 12월 222만475명과 비교해 20% 늘었다.경제력이 약한 이들에게 서비스를 제공해 '포용금융' 역할을 수행한다는 취지는 긍정적이지만 경제 능력이 없는 이들에게 소비를 조장할 수 있다는 점이 문제로 지목된다.정해진 한도 내에서 소액을 이용하긴 하지만 사회초년생, 주부 등을 타깃으로 한 만큼 부실 우려를 배제할 수 없다는 지적에서다. 장기간 연체시 채권추심 회사에 위탁돼 관리될 수도 있다.무엇보다 금융당국이 손을 놓고 있어 문제를 키울 수 있다는 우려의 목소리도 들린다. 금융위는 BNPL 서비스를 혁신금융서비스로 지정하면서 연체 정보 공유를 제한했다. 금융 거래이력 부족자가 제도권 금융 이용 기회를 제한당하지 않도록 한다는 이유에서다.BNPL 연체 정보는 신용평가회사 신용평점에 반영되지 않으며 다른 금융회사들과 공유할 수도 없다. 타 금융업권이 연체자에 대한 정보를 공유해 리스크를 관리하고 있는 점과 비교된다.최승재 의원은 "BNPL 누적 가입자 수가 300만명에 달할 정도로 호응을 얻고 있지만 연체율 또한 큰 폭으로 증가하고 있어 경각심을 가지고 면밀하게 주시할 필요가 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>금융보안원, '락드쉴즈' 韓 훈련팀 금융권 대표 참가</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011819515?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]금융보안원이 '락드쉴즈 2023'에서 대한민국 합동훈련팀의 금융권 대표로 참가했다고 24일 밝혔다.(사진=금융보안원 제공)2023.04.24 photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 한재혁 기자 = 금융보안원이 '락드쉴즈 2023'에서 대한민국 합동훈련팀의 금융권 대표로 참가했다고 24일 밝혔다.이번 훈련에서 대한민국 합동 훈련팀은 금융보안원을 포함해 국가정보원 등 11개 기관 60명가량으로 구성됐다. 이 중 금융보안원은 사이버 공격·방어 전문가 8명을 선발해 비바리퍼블리카(토스)·카카오뱅크 측 사이버보안 전문가 2명이 포함된 금융권 합동 팀을 꾸렸다.금융보안원은 지난 18일부터 21일까지의 훈련기간 동안 8000회 이상의 사이버 공격에 대응했다. 특히 '스위프트'를 통한 부정송금 시도나 공격자가 내부직원으로 위장하는 등의 상황에 대처해 전산망 내 안전성을 확보했다. 이후 해당 위협을 국방·에너지 분야에 전파해 정보를 공유하는 역할도 맡았다.락드쉴즈 훈련은 북대서양조약기구(NATO) 회원국 간 사이버 위기 대응 협력체계 강화를 목표로 지난 2012년부터 매년 사이버방위센터(CCDCOE)에서 주관하는 다국적 사이버 공격·방어 훈련이다. 현재 약 30개 국가에서 2000명 이상의 인원이 참여하고 있으며 한국은 지난 2021년부터 방어 훈련에 참여했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.04.21.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>잘 나가는 ‘블루 아카이브’, 韓-中-日 서브컬처 팬심 끌어모은다</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002146975?sid=105</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>[디지털데일리 왕진화 기자] 넥슨게임즈가 개발한 모바일 서브컬처 게임 ‘블루 아카이브’가 한국은 물론 중국과 일본까지 연일 파죽지세다. 일본 서비스가 2주년을 넘겼고, 한국 서비스도 약 1년5개월째 진행 중인 상황에서 중국에서까지 사전 예약 100만명을 기록하며 지식재산권(IP) 저력을 보여주고 있다.    블루 아카이브는 플레이어가 다양한 학원 소속의 학생들을 이끌며 도시에서 발생한 사건을 해결하는 캐릭터 역할수행게임(RPG)이다. 지난 2021년 2월 일본 출시를 시작으로, 같은 해 11월 한국, 북미, 태국 등 중국을 제외한 글로벌 지역에 출시됐다.    이 게임은 성공한 ‘덕후’로 알려진 김용하 PD를 중심으로 넥슨게임즈 산하 MX스튜디오에서 만들었다. 일본에서 구글 플레이스토어 및 애플 앱스토어 최고매출 순위 1위, 한국 애플 앱스토어 최고매출 순위 1위를 기록한 바 있다.  ◆중국 서비스명 ‘울람당안’ 사전예약 시작…100만명 돌파=블루 아카이브는 지난달 중순 중국 외자판호 획득 소식을 알리면서 주목받았다. 판호는 게임 서비스 허가권을 뜻한다.    지난해 12월부터 3월까지 알려진 국내 게임사의 중국 외자판호 획득 타이틀 중에선 현지 서비스를 위해 가장 빠른 속도를 내고 있다. 그만큼 현지 서브컬처 팬심을 빠르게 사로잡겠다는 포부다.    블루 아카이브 중국 지역 서비스는 ‘상하이 로밍스타’가 맡는다. 상하이 로밍스타는 ▲벽람항로 ▲명일방주 등 일본, 북미지역 퍼블리셔인 서브컬처 게임 명가 ‘요스타’ 자회사다.    사전 예약을 시작한 지난 3월 31일에는 하루만에 약 30만명의 예약이 이뤄졌으며, 이후 예약 접수를 진행한 ‘빌리빌리(bilibili)’, ‘탭탭(Tap Tap)’ 등 주요 앱마켓 플랫폼에서 사전예약 인기 순위 1위를 기록하기도 했다.   이어, 사전예약자 수는 지난 19일 기준 100만명을 넘어섰다. 사전예약 시작 19일 만에 거둔 성과로, 함께 공개된 첫 번째 프로모션 비디오도 주목받으며 순조로운 출발을 알리고 있다.   ◆일본 성과도 꾸준…현지 구글플레이 톱(Top)10 유지=가장 먼저 출시됐던 국가인 일본에서의 인기가 여전히 뜨겁다. 국내 모바일 게임 개발작이 일본에서 장기 흥행작으로 자리매김하고 있다는 점은 국내외 게임업계에서도 눈여겨보는 성과다.   모바일 빅데이터 분석 플랫폼 모바일인덱스에 따르면, 지난 15일부터 오늘(21일)까지 일본 구글플레이 최고 매출 게임 톱10을 기록 중이다. 애플 앱스토어에서도 23위를 기록하며 상위권을 유지하고 있다.   블루 아카이브는 앞서 지난 1월 일본 출시 2주년을 맞이해 진행된 생방송에서 애니메이션 제작 소식과 인기 캐릭터 ‘미카’ 2주년 한정 모집 소식을 발표한 바 있다. 발표된 직후 일본 애플 앱스토어에서 실시간 최고 매출 순위 1위에 오르는 기록을 세웠다.   IP 확장 성과도 주목할 만하다. 게임 무대가 되는 ‘학원도시 키보토스’에서의 대난동을 주제로한 공식 코믹스 ‘블루 아카이브 앤솔로지’를 출시했다. 일본 지역 배급사와의 협업을 통해 ▲테피스트리 ▲열쇠고리 ▲아크릴 디오라마 등 다양한 굿즈를 제작, 판매했다. 여기에, 오리지널사운드트랙(OST)과 공식 아트북 모두 매진 사례를 기록하는 등 흥행력을 보여줬다.   향후 블루 아카이브는 일본에서 TV 애니메이션으로 방영될 예정이다. 파란 하늘과 바다 배경 속 인기 캐릭터인 ‘아로나’ 모습이 티저 이미지에 담겼다. 애니메이션 제작진은 청아하고 청량한 블루 아카이브 원작의 감성을 전달할 방침이다.  ◆뜨거운 한국 게이머 팬심, 화답은 ‘1.5주년 페스티벌’=한국 팬심도 끌어모으는 데 나섰다. 최근 국내 팬들의 마음을 사로잡은 건 곧 열릴 블루 아카이브 1.5주년 페스티벌이다. 이는 지난달 24일에 진행된 국내 특별 생방송에서 처음 공개돼 뜨거운 관심을 받은 바 있다.    이에 힘입어 이번 페스티벌 입장권은 지난 20일 오후 4시 티켓링크에서 판매 개시 후 7분만에 7000장이 빠르게 매진됐다. 이번 페스티벌은 오는 5월20일 일산 킨텍스에서 개최될 예정이다. 넥슨은 특별 팝업 스토어를 비롯해 ▲2차 창작 부스 ▲디제잉 공연 등 다채로운 볼거리를 제공할 계획이다. 이용자들과 실시간으로 소통하는 교류 및 축제의 장 마련에 나선다.    김용하 넥슨게임즈 총괄 PD는 “이용자가 블루 아카이브 1.5주년 페스티벌에 보내준 뜨거운 관심과 사랑에 감사하다”며, “행사장을 방문해주는 이용자에게 잊지 못할 추억을 제공해드릴 수 있도록 만반의 준비를 다하겠다”고 전했다.   한편, 블루 아카이브는 오는 25일부터 업데이트를 통해 키보토스 황륜대제 2차 이벤트 ‘Get Set, Go!’를 선보인다. 지난해 10월 일본에서 해당 이벤트를 선보였을 당시 콘텐츠 힘으로 애플 앱스토어 매출 50위권에서 단숨에 2위까지 급부상한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>티몬, 오늘 '레고 올인데이'…온라인 단독 특가 판매</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006764779?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>티몬 레고 올인데이(티몬 제공)(서울=뉴스1) 서미선 기자 = 티몬은 어린이날을 앞두고 24일 '레고 올인데이'를 열어 단독 특가 상품을 선보인다고 밝혔다. 10% 쿠폰과 토스페이 7% 중복할인을 더해 최대 17% 혜택을 받을 수 있다.티몬이 최근 3년간 4월1일~5월4일 완구용품 쇼핑 추이를 분석한 결과 어린이날 열흘 전인 4월24일을 기점으로 구매가 늘었고, 일주일 전인 27일이 가장 높았다.구매품목 1위는 로봇완구(21%)였고 역할놀이(17%), 학습교구·완구(10%)가 뒤를 이었다. 평균 단가는 3만원대였다.키워드 분석에선 레고가 매년 5위 안에 들었다.△클래식 라지 조립박스 △닌자고 니야의 사무라이 X 로봇 △듀플로 증기 기관차 등이 대표상품으로, 주요 인기 상품을 정상가 대비 저렴하게 만나볼 수 있다.이날 오전 11시 '티몬플레이'로 라이브 판매 방송을 진행하고 주요 상품 상세설명을 실시간으로 제공한다. 방송 시연 상품 구매 시 레고 스타터팩 만들기를 증정하며, 10만원 이상 구매 고객에겐 레고 틴케이스 세트를 사은품으로 준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>광주은행 ‘사회공헌’ 인색 꼬리표 뗐다…지난해 336억원</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001601704?sid=102</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>6개 지방 은행 중 3위그동안 ‘사회공헌’에 인색하다는 비판을 받아온 광주은행이 향토은행으로서 지역사회에 대한 기부천사 역할을 톡톡히 한 것으로 나타났다. 지난해 지역 사회공헌에 어느 해보다 많은 지출을 하는 ‘역대급’ 관심을 기울였다.광주은행은 “2022년 사회공헌 활동 비용으로 336억원을 지출했다”고 17일 밝혔다. 6개 지방은행 중 부산은행과 대구은행에 이어 세 번째로 많은 것이다.금융위원회가 집계한 지난해 광주은행의 사회공헌활동 지출액(잠정)은 336억원으로 전년(218억원) 대비 무려 54.1% 증가했다. 지난해 당기순이익(2582억원)의 13.0% 수준으로 2006년 집계를 시작한 이래 가장 많은 금액이다.지방은행 중에서는 부산은행(515억원)과 대구은행(413억원)에 이어 세 번째 사회공헌활동 비용 지출이 많았다. 다음으로 경남은행(224억원), 전북은행(192억원), 제주은행(23억원) 등 순이다.광주은행의 사회공헌활동 지출액이 전체 은행에서 차지하는 비중도 3.0%에 달했다.광주은행은 지난해 저소득 아동 공부방 사업, 대학생 홍보대사 활동, 서민 금융 지원, 지역 문화행사 후원 등을 통해 활발한 사회공헌 활동을 벌였다.국내 전체 은행 사회공헌 지출액은 1조1305억원으로 전년 대비 688억원 증가한 것으로 파악됐다. 당기순이익(18조5095억원)에서 차지하는 비중은 6.11%로 전년(6.29%)보다 0.18%p 줄었다.항목별로는 서민금융이 4678억원으로 가장 많았다. 전체의 41.4%에 달하는 수치다. 이어 지역사회·공익 분야(4508억원), 학술·교육(1010억원), 메세나·체육(933억원), 환경(95억원), 글로벌(83억원) 순이었다.은행별로는 농협이 1685억원으로 가장 많았다. 다음으로 국민은행(1630억원), 우리은행(1605억원), 하나은행(1493억원), 신한은행(1399억원)이 뒤를 이었다.인터넷전문은행 중에서는 26억원의 카카오뱅크가 가장 많은 사회공헌비를 지출했다. 케이뱅크와 토스는 각각 2억7000만원, 1억원이었다.공식적인 각 은행의 사회공헌 지출액은 매년 7월 은행연합회가 전체 은행의 실적을 취합해 연합회 홈페이지에 공시한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.04.30.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>'일단 사고 돈 내는' 후불결제 연체율 1년새 '급증'</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000333831?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>[토스. (비바리퍼블리카 제공=연합뉴스)]지금 돈이 없어도 우선 상품부터 구매한 뒤 일정기간 후 대금을 내는 '후불결제'(BNPL) 서비스 연체율이 지난 1년새 급증한 것으로 나타났습니다.오늘(30일) 금융감독원이 국민의힘 최승재 의원에 제출한 자료에 따르면 후불결제 서비스를 제공하는 네이버파이낸셜·카카오페이·비바리퍼블리카(토스)의 지난달 기준 누적 가입자는 266만명, 총채권액은 445억원에 달했습니다.단기간에 사용자가 늘면서 연체율이 급증하고 있다는 점이 문제로 지적됐습니다.3개 업체 중 이용량이 적은 카카오페이를 제외하고 네이버파이낸셜의 경우 지난해 3월 1.26%였던 연체율이 지난 3월 2.7%로 두 배가 넘는 수준으로 늘었습니다. 같은 기간 연체 채권은 9600만원에서 3억3천만원으로 증가했습니다.후불결제 이용자가 200만명 수준으로 3개 사 중 가장 큰 비중을 차지하고 있는 토스는 지난해 3월 서비스 개시 후 1년여 만에 채권액이 320억원으로 늘었습니다. 연체 채권은 이 가운데 16억원을 기록해 연체율이 5%에 달했습니다.후불결제는 물품 구매 거래가 이뤄질 때 업체가 가맹점에 먼저 대금을 지급하고, 소비자는 물품을 받은 뒤 여러 차례에 걸쳐 업체에 갚을 수 있도록 만든 서비스입니다.할부 기능을 제공하는 신용카드와 비슷하지만, 후불결제는 신용카드를 발급받을 수 없는 학생, 주부, 사회초년생도 이용할 수 있고 연체 등을 고려해 사용액이 월 30만원 수준으로 제한돼있습니다.최승재 의원은 "혁신금융 조건이던 채권 판매 제한 등을 감안하더라도 몇백만원 수준이던 연체채권이 단기간에 증가하고 연체율 또한 급증하는 상황에 경각심을 가지고 관리·감독을 강화하고 규제체계를 논의할 필요가 있다"고 지적했습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>현대·기아, 美 IRA 보조금 결국 탈락</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000332055?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>■ 백브리핑 시시각각 '헤드라인'◇ 코스피, 또 오전 '약보합'…환율 상승전날 막판 상승했던 코스피가 오전 중 다시 약보합권에서 움직이고 있습니다. 원·달러 환율은 이틀 연속 올라 1천320원에 육박했습니다. ◇ 아파트 실거래가지수 1.08% 상승 전환지난 2월 아파트의 실제 거래를 집계한 지수가 1% 상승한 것으로 나타났습니다. 지난달 서울의 아파트 거래 신고 건수도 2천700건을 넘겨, 당분간 거래 상승 흐름이 이어질 것으로 전망됩니다. ◇ 선이자 정기예금, '1인 1계좌' 없앤다토스뱅크가 가입 시 이자를 미리 지급하는 예금의 1인당 계좌 개설 제한을 풀기로 했습니다. 지급된 이자를 다시 정기예금으로 예치하려는 수요를 고려했다는 설명입니다. ◇ 현대·기아, 美 IRA 보조금 결국 탈락현대차와 기아가 미국의 인플레이션 감축법에 따른 전기차 보조금 대상에 결국 포함되지 않았습니다. 테슬라와 쉐보레, 포드 등 미국 차량만 대상에 올랐습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>'평균 하락률 94%'…시한폭탄 안고 가는 코인원</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000056177?sid=102</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>루나∙위믹스 사태로 곤욕 치른 코인원, '뒷돈 상장' 논란에 납치살인 화근 된 코인 거래처로 찍혀코인 27% 상장폐지…거래 중이라도 시세 변동 크고 시가총액 적은 단독 상장 코인 유념해야국내 주요 암호화폐 거래소 코인원이 전례 없는 동시다발적 위기에 처했다. 강남 납치살인 사건의 발단이 된 코인의 상장처로 찍힌 데다 상장을 대가로 뒷돈을 챙긴 직원이 구속되기도 했다. 최근 대중적으로 드러난 사건은 이 정도지만, 독단적 행보로 업계에도 찬물을 끼얹었다. 5대 거래소가 만장일치로 상장폐지에 합의한 코인을 홀로 재상장시켰기 때문이다.코인원을 둘러싼 논란이 가중되고 있지만 거래소는 조금도 지체 없이 바쁘게 굴러가고 있다. 매일 24시간 초 단위로 하루 951억원(4월12일 코인마켓캡 기준)의 거래가 진행되고 있다. 암호화폐 발행업체에 기술자문을 하고 있는 한 관계자는 "투자자들은 광풍과도 같은 투자 열기 속에서 코인이 얼마나 올랐나, 떨어졌나에만 관심이 매몰돼 있다"고 우려했다. 이어 "거래소가 상장 코인을 대대적으로 손보지 않으면 앞으로 형사사건에서 무슨 무슨 코인을 끊임없이 보게 될 것"이라고 경고했다.4월11일 서울 영등포구 여의대로 108 파크원 타워1에 입주해 있는 암호화폐 거래소 코인원 본사 ⓒ시사저널 최준필코인 250여 종 중 67종 상폐...119일 만에 퇴출되기도시사저널은 2017년 5월부터 올 4월까지 6년간 코인원에 상장된 암호화폐를 모두 살펴봤다. 해당 기간 상장된 코인은 총 250여 종이다. 이 중 88종의 코인이 유의종목으로 지정된 이력이 있었다. 3월29일 서울 강남 역삼동에서 일어난 납치살인 사건의 화근으로 지목된 코인 퓨리에버(PURE)도 그중 하나다. 2020년 11월 코인원에 상장된 퓨리에버는 3월3일 "프로젝트 외부평가 리포트 미제출"을 이유로 유의종목으로 지정됐다. 이후 2주일 만에 해제됐지만 납치살인 발생 후인 4월7일 다시 유의종목으로 지정됐다. 코인원 측은 재지정 이유를 두고 "백서 및 프로젝트팀에서 공개한 자료와 관련해 잘못된 정보를 제공한 의혹이 확인됐다"고 밝혔다. 하지만 '이번 사건으로 부정적 기사가 쏟아지니 뒤늦게 재검토에 들어간 것 아니냐'는 시각이 짙다.거래소는 암호화폐를 퇴출시키기 전에 유의종목으로 지정한다. 뚜렷한 성과가 없거나 최소한의 거래도 이뤄지지 않는 등 이상 신호가 보일 때 지정 공시한다. 유의종목 지정의 명목은 투자자 보호다. 투자자 입장에선 투자 종목에 대해 재고해 보고 미리 투자금을 회수하는 등 선제 조치를 할 수 있는 시간을 벌 수 있다. 그런데 바꿔 생각해 보면, 유의종목 지정이나 상장폐지가 빠를수록 거래소가 그만큼 시장성이 입증되지 않은 코인을 성급하게 상장시켰다고 볼 소지도 있다.콘텐토스(COS) 코인은 상장된 지 불과 14일 만에 유의종목으로 지정됐다. "단기간의 급격한 가격 변동으로 시세조작 위험성이 증가했다"는 이유 때문이다. 오리진 프로토콜(OGN) 코인의 경우 "거래 지속성과 최소한의 거래량 미달"로 49일 만에 유의종목으로 지정됐다. 두 코인은 지정 사유가 해소돼 지금은 거래 중이다. 코인원이 유의종목으로 지정한 코인 88종 중 67종은 상장폐지로 이어졌다. 4월 말 상장폐지가 예정된 세럼(SRM), 베이직(BASIC), 오미세고(OMG) 등 3종을 더하면 총 70종으로 전체 코인의 약 27%다. 70종의 평균 거래 기간은 상장폐지일이 확인되지 않는 코인 4종(다이, 스톰, 노시스, 크레도)을 제외하면 656일로 집계됐다. 2년을 채 버티지 못했다. 이 중 14개 코인은 상장한 지 1년도 되지 않아 자취를 감췄다. 디엠엠 거버넌스(DMG) 코인은 운영 중단으로 시세조작 가능성이 높아져 200일도 못 버티고 퇴출됐다. 뮤지카(MZK) 코인은 119일 만에 상장폐지돼 최단 기간을 기록했다.차명훈 코인원 대표 ⓒ뉴스뱅크1년도 못 버틴 코인 14종…일부 재상장 논란도국내 암호화폐 프로젝트의 대표 격인 위믹스(WEMIX) 코인은 2021년 12월29일 코인원에 상장됐다. 게임업체 위메이드가 발행한 위믹스는 '게임을 하면서 암호화폐를 벌 수 있다'는 개념을 내세워 상당한 호응을 불러일으켰다. 한때 시가총액이 3조5600억원에 육박하기도 했다. 그러나 코인원을 비롯한 국내 주요 거래소 5곳으로 구성된 디지털자산거래소 공동협의체(DAXA·닥사)가 "유통량 계획에 문제가 있다"고 판단해 상장폐지하기로 합의했다. 이에 위믹스는 상장 330일 만인 2022년 11월24일 코인원에서 거래 종료됐다.그런데 코인원은 약 3개월 만인 올 2월16일 다시 위믹스를 단독 상장시켰다. 극히 이례적인 일이었다. 무엇보다 닥사의 합의를 깨뜨린 결과여서 업계에 당황한 기색이 역력하다. 이 같은 사례가 반복될 경우 암호화폐 시장의 신뢰 회복을 위해 출범한 닥사가 스스로 신뢰를 깎아먹을 것이란 우려가 짙었다. 차명훈 코인원 대표는 위믹스 재상장에 대해 3월24일 언론 인터뷰에서 "원칙과 소신에 의한 결정"이라고 말했다. 그러면서 "다른 가상자산 프로젝트에도 투자자 보호 노력 등 전반적인 운영에 참고할 수 있는 케이스가 됐으면 한다"고 밝혔다. 그러나 사기 의혹이 불거진 퓨리에버가 납치살인 사건마저 초래하면서 빛이 바랬다.상장폐지나 유의종목 지정이 아니어도 안심할 수 없다. 루나 코인은 3년 동안 코인원 상장 목록에서 거래량 상위권을 차지하며 안정세를 유지했다. 그러다 결국 지난해 6월 상장폐지됐다. 이 코인은 다름 아닌 암호화폐 시장을 혹한기로 몰고 간 '테라-루나 사태'의 주범이다. 권도형이 설립한 테라폼랩스가 발행한 루나는 한때 시가총액이 50조원대에 달했다. 전 세계 암호화폐 10위 안에 들 정도였다.그러다 지난해 5월 약 일주일 만에 시세가 99.99% 떨어지는 극단적인 하락률을 기록했다. 이로 인해 미국의 대형 암호화폐 헤지펀드 스리애로우즈캐피털과 암호화폐 대출업체 셀시어스 네트워크가 파산했다. 셀시어스가 떠안은 부채는 90억 달러(약 11조9000억원)에 달했다. 절망적인 테라-루나 사태에 한국 투자자들을 끌어들인 매개체가 바로 코인원이다. 2019년 5월 루나를 전 세계 최초로 상장시켰기 때문이다. 코인원은 루나 상장 한 달 후에 자매 코인인 테라도 상장시켰다. 달러와 1대1 가치를 갖는 스테이블 코인 개념으로 발행된 테라는 가치 유지를 위해 루나에 의존하는 구조를 취했다.코인원은 테라-루나 사태가 터지고 약 한 달 후인 지난해 6월1일 두 코인을 상장폐지했다. 당시 이를 두고 늑장 조치라는 지적이 제기됐다. 업비트와 빗썸은 각각 5월20일, 5월27일 거래를 종료했다. 시기상으로는 불과 며칠일 차이지만 단 하루 차이라도 간과하기 힘들다. 암호화폐 거래는 24시간 가능하고 시세의 등락 폭도 비교적 크기 때문이다. 이 때문에 "투자자 보호는 뒷전이고 수수료를 챙기려는 것 아니냐"는 비판이 불거졌다.‘강남 납치살인 사건’ 피의자 이경우(왼쪽)와 ‘테라-루나 사태’ 장본인 권도형 테라폼랩스 대표(32)가 각각 3월 31일, 3월24일 체포됐다. 각 사건의 시발점이 된 퓨리에버와 루나 코인은 모두 코인원에 상장돼 있었다. ⓒ시사저널 임준선·REUTERS루나 최초 거래소 코인원, 늑장 상폐로 뭇매실제 지난해 10월 윤영덕 더불어민주당 의원이 닥사로부터 받은 자료에 따르면 테라-루나 사태로 코인원이 벌어들인 수수료는 3억7300만원으로 나타났다. 업비트는 62억7700만원, 빗썸은 19억5600만원으로 더 많았다. 최근 3년으로 넓혀보면 코인원이 상장폐지된 코인으로 거둔 수수료는 79억원에 달했다.올 들어 코인원에서 상장폐지 됐거나 폐지가 예정된 코인은 16종이다. 이 중 11종은 2020~21년 상장됐다. 이 시기는 브로커에 의한 상장 비리가 횡행했던 시기다. 검찰은 4월11일 "암호화폐 상장 청탁을 명목으로 금품을 주고받은 코인원 전 임직원 2명과 상장 브로커 2명을 구속했다"고 밝혔다. 검찰에 따르면 코인원 전 상장 담당 이사 전아무개씨는 2020년부터 2년8개월간 상장 브로커 고아무개씨와 황아무개씨로부터 총 20억원가량을 챙긴 혐의를 받는다. 그 대가로 국내에서 발행된 소위 '김치 코인' 29종이 코인원에 상장됐다. 이 중에는 퓨리에버와 함께 '청담동 주식부자' 이희진 형제가 시세조작에 개입했다는 의혹을 받는 피카도 포함돼 있었다. 상장 비리가 시작됐던 2020년 한 해 동안 코인원에 상장된 암호화폐는 문제의 코인 29종을 비롯해 총 106종이다. 모든 기간 통틀어 가장 많다.상장폐지나 유의종목으로 지정된 코인을 제외하면 현재 코인원에서 정상 거래 중인 코인은 170종이다. 안전하다고 볼 수 있을까. 장담하긴 이르다. 단독 상장 가능성 때문이다. 이는 오직 해당 거래소에서만 거래되는 코인을 가리킨다. 일반적으로 암호화폐 발행업체는 투자 접근성 향상과 거래 활성화를 위해 거래소를 넓혀 나간다. 상장된 거래소가 많다는 사실은 그만큼 신뢰성과 안정성이 확보됐다는 걸 뜻한다.반대로 단독 상장 코인은 상장폐지되면 거래할 수 있는 곳이 전부 사라져 버린다. 위험성이 클 수밖에 없다. 공개 매매가 불가능한 '디지털 조각'으로 돌아가는 셈이다. 게다가 단독 상장 코인은 해킹과 시세조작에 취약하다는 치명적 단점이 있다. 조작 세력이 거래소 한 곳만 통제하면 되기 때문이다. 피카와 퓨리에버도 코인원 단독 상장 코인이다.코인원에서 거래 중인 코인 170종이 닥사 구성원인 다른 거래소 4곳(업비트, 고팍스, 빗썸, 코빗)에도 상장돼 있는지 살펴봤다. 그 결과 4곳 중 어디에도 상장돼 있지 않은 코인이 66종으로 조사됐다. 일부는 해외 거래소에 상장돼 있거나 국내 다른 거래소에 상장됐다가 폐지됐을 가능성도 있다. 다만 현시점 기준 국내 주요 거래소로 좁혀보면 상장 거래소는 코인원이 유일하다.단독상장 66종 중 22종, 1원 안팎까지 폭락...최고 하락률 99.99%가격 변동성(MDD)은 최고점 대비 최대 하락률을 뜻하는 지표다. 시세 변화 폭이 얼마나 큰지 보여준다. 단독 상장 코인 66종을 대상으로 최초 상장일(코인원보다 빠른 상장 거래소가 있으면 해당 거래소 상장일 기준) 이후 지금까지 MDD를 계산해 봤다. 최저점은 최고점을 찍은 후에 나타난 시세를 기준으로 삼았다. 그 결과 MDD가 평균 94%로 나타났다. 100원짜리가 6원짜리로 폭락한 것이다. 메티스(MTS) 코인의 경우 최고가 약 5만4400원에서 1원 밑으로 떨어졌다. MDD 99.99%다. 메티스를 포함해 22종의 코인은 시세가 최저 1원 안팎까지 떨어졌다.하락 폭의 절댓값이 가장 큰 코인은 크러스트 네트워크(CRU)다. 글로벌 거래소 상장 이후 2021년 4월 최고 16만5095원까지 올랐다가 지난해 7월 966원까지 곤두박질했다. 16만4129원(99.4%) 폭락했다. 코인원에는 2021년 10월 단독 상장했는데 이후 4만원대까지 올랐다가 지금까지 계속 하락세를 면치 못하고 있다. 현재는 1000원대에 거래되고 있다. 변동성이 큰 만큼 위험 폭도 크다.투자 안정성을 가늠할 수 있는 또 다른 지표는 시가총액이다. 암호화폐의 경우 발행량과 유통량이 다르기 때문에 보통 현재 시세에 유통량을 곱해 시가총액을 계산한다. 코인원 단독 상장 코인 66종 가운데 메티스, 엔에프유피(NFUP), 아이스타더스트(ISDT) 등 3종은 시가총액이 1억원 미만이었다. 금융위원회는 "시가총액 1억원 이하 소규모 가상자산은 급격한 가격 변동과 유동성 부족 등으로 시장 위험에 유의할 필요가 있다"고 주의했다. 금융위원회의 '2022년 하반기 가상자산사업자 실태조사 결과'에 따르면 국내 모든 단독 상장 암호화폐 389종 중 132종(34%)은 시가총액 1억원 이하로 집계됐다. 시가총액이 적고 MDD가 큰 코인은 거래 기간이 오래됐다 해도 투자에 유념할 필요가 있다.* '(최고가-최저가)/최고가.' 기간은 최초 상장일(코인원보다 빠른 상장 거래소 있으면 해당 거래소 상장일 기준) 이후 4월13일까지로 잡았다. 최고가는 코인마켓캡 기준 각 코인의 최초 상장일 이후 가장 높은 가격을, 최저가는 최고가 기록 이후 가장 낮은 가격을 참고했다. "상시 감시한다"는 코인원, 사건 터지자 전수조사 나서코인원 홍보팀 관계자는 단독 상장 코인에 대해 "상시 모니터링을 진행하고 있다"고 강조했다. 그러면서 "상장 되려면 크게 9가지 엄격한 기준을 통과해야 한다"며 "만약 유의종목 지정 기준에 부합하면 충분한 기간을 두고 상장폐지 여부가 결정된다"는 원론적 답변을 내놓았다. 일단 코인원은 최근 일련의 사건과 관련해 고개를 숙였다. 코인원 측은 4월13일 차명훈 대표 명의로 낸 입장문을 통해 "매우 송구스럽게 생각한다"면서 "해당 사건과 관련된 것으로 밝혀진 가상자산 등에 대한 전수조사에 나서 사실관계를 면밀하게 파악하고 있다"고 밝혔다.한편 코인원의 '미운털'이 된 퓨리에버에 대해 수사 당국은 예의주시하고 있다. 서울남부지방검찰청 금융조사1부(이승형 부장검사)는 4월11일 코인원 상장 비리 수사 결과를 발표하며 "퓨리에버는 대표적인 김치 코인으로 발행업체의 재정 상황이 불량하지만 단독 상장됐다"고 밝혔다. 시세조종 정황도 포착됐다. 검찰은 2020년 11월 코인원 상장 직후와 2021년 1월 두 차례에 걸쳐 퓨리에버 시세조작이 이뤄진 것으로 추정하고 있다.강남 납치살인 사건의 배후로 지목된 유상원(51)∙황은희(49) 부부와 피해자 A씨(48)도 퓨리에버를 둘러싸고 갈등관계에 있었던 것으로 알려졌다. 이들은 해당 코인에 투자했다가 큰 손실을 보자 책임 소재를 놓고 서로 민형사 소송을 벌여왔다. 유씨 부부는 A씨와도 가까웠던 이경우(36)에게 7000만원을 건네며 범행을 부추겼고, 이경우는 황대한(36)과 연지호(30)를 시켜 A씨를 납치∙살해한 혐의를 받는다. 경찰은 피의자 5명의 신상을 모두 공개했다. 피의자 신상공개 제도가 도입된 2010년 이래 단일 강력사건으로는 최다 규모다. 경찰은 피의자 5명 외에 관련 혐의를 받는 2명을 추가해 모두 7명을 검찰에 송치했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>이창용, 반년 만에 은행장 만난다…'금리 엇박자' 언급하나</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005470612?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>작년 5월 상견례 하고 10월 만나 자금경색 논의한은 금리 인상 기조 유지 속 금융당국 '인하' 압박SVB파산 후 디지털 뱅크런 우려…'지급결제 리스크' 강화 당부 전망5월 금통위서 차액결제 담보비율 80%로 상향 논의할 듯[이데일리 최정희 기자] 이창용 한국은행 총재가 24일 오후 6시께 은행장들과 만난다. 작년 5월 상견례 이후 10월 레고랜드 프로젝트 파이낸싱(PF) 디폴트 사태로 단기자금 시장의 경색이 심해진 이후 반년 만에 만나는 모임이다. 이 총재가 이 자리에서 한은의 기준금리 인상 기조 유지와 금융당국의 예금·대출 금리 인하 압박간 엇박자에 대해 언급을 할지 주목된다. 또 미국 실리콘밸리은행(SVB) 파산 이후 디지털 뱅크런에 대해 경각심이 강해진 만큼 은행의 지급결제 기능 강화에 대해서도 논의가 이뤄질 전망이다. 차액결제 담보비율을 예정대로 상향 조정하는 방안이 논의될 수 있다.은행연합회는 작년 10월 26일 한국은행 총재 초청 은행장 간담회를 개최하고, 최근 국내외 금융시장 동향에 대한 인식을 공유하는 등 은행산업 현안에 대해 논의하는 시간을 가졌다. (아랫줄 왼쪽부터)권준학 농협은행장, 진옥동 신한은행장, 유명순 한국씨티은행장, 김광수 은행연합회 회장, 이창용 한국은행 총재, 강석훈 산업은행 회장, 윤종원 기업은행장, 박종복 SC제일은행장, 윤희성 수출입은행장. (윗줄 왼쪽부터)박성호 하나은행장, 홍민택 토스뱅크 대표, 윤호영 카카오뱅크 대표, 서한국 전북은행장, 이원덕 우리은행장, 이재근 국민은행장, 최홍영 경남은행장, 서호성 케이뱅크은행장, 이상형 한국은행 부총재보. (사진=은행연합회)금융권에 따르면 이 총재는 이날 오후 6시 은행연합회 16층 뱅커스클럽에서 은행장들과 간담회를 열기로 했다. 이 자리에는 총재를 비롯한 이상형 부총재보, 김광수 은행연합회 회장과 18개 시중은행장 등 기관장이 참석한다. 이 총재가 부임한 이후 은행장 간담회는 반기에 한 번 씩 개최되고 있다. 한은 관계자는 “정기적으로 만나는 모임으로 별도의 주제는 없다”며 “코로나19 때는 중단됐다가 총재 부임 이후 상반기, 하반기에 한 번 꼴로 진행되고 있다”고 밝혔다. 이날 이 총재는 한은이 2월과 4월 기준금리를 동결하게 된 배경과 함께 금리 방향성에 대한 인식을 은행장들과 공유할 전망이다. 총재는 4월 11일 금융통화위원회 기자회견에서 연내 금리 인하 가능성을 차단함과 동시에 본인을 제외한 6명의 금통위원 중 5명이 최종금리 3.75% 가능성을 열어둬야 한다고 밝혀 두 번 연속 금리 동결이 금리 인상 종료로 해석되는 것을 경계한 바 있다.그러나 금융당국이 작년말부터 은행권의 예금, 대출 금리를 인하하라고 압박함에 따라 한은의 기준금리 인상 기조 효과가 약해지고 있다는 평가가 나오고 있다. 실제로 주택담보대출 금리는 최저 3%대까지 내려왔다. 이 총재가 F4회의(경제·금융당국 수장 모임)에서 “미세 금리 조정이 통화정책 효과를 반감시킨다”고 지적했다는 언론 보도에 대해 그런 말을 한 적이 없다고 해명했으나 금융당국의 예금·대출 금리 인하 압박이 한은의 금리 인상 기조와 엇박자를 내고 있는 상황이 명백한 만큼 이에 대해 언급할지 주목된다. 한은 관계자는 “총재가 F4회의에서 저런 말을 한 적이 없다면 오히려 실망스럽다고 말하는 직원들도 있다”고 말했다. 금리 인상 효과를 제약되는 금융당국의 정책에 대해 한마디 말도 하지 않은 것에 대한 실망감이다. 또 이 총재는 SVB파산 사태를 타산지석으로 삼아 은행장들에게 지급결제 기능을 강화할 것을 당부할 가능성이 크다. 이 총재는 이달 14일(현지시간) 미 워싱턴에서 블룸버그 통신과의 인터뷰를 통해 “SVB 사태 같은 일이 한국에서 일어난다면 예금 인출 속도가 미국보다 100배는 빠를 것”이라며 “차액결제 담보비율을 높여야 한다”고 강조했다. 특정 은행의 재정 상태가 안 좋다는 소문이 나서 뱅크런이 나타나게 될 경우 모바일, 온라인 뱅킹을 통해 순식간에 자금이 유출될 것이라는 우려다. 이 총재는 이와 관련 “한국은행과 감독당국에게는 새로운 숙제”라고 말했다. 이에 따라 작년 레고랜드 PF 부도 사태에 따른 자금 경색으로 유예했던 ‘은행간 차액결제 이행용 담보증권 제공비율(차액결제 담보비율)’ 인상이 검토되고 있다. 차액결제 담보비율은 은행들이 차액결제시 결제이행을 보장하기 위해 한은에 납입해야 하는 적격증권 납입 비율을 말하는데 당초 이 비율은 금융시장인프라에 관한 원칙(PFMI)에 따라 올해 80%로 인상한 뒤 2024년 90%, 2025년 100%로 올릴 계획이었으나 관련 비율 인상 계획을 5월말까지 미룬 바 있다. 한은은 5월 금융통화위원회 정기회의를 열고 차액결제 담보비율을 80%로 인상할 가능성이 높아 보인다. 한은은 은행장들에게 관련 부분을 설명하고 디지털 뱅크런 발생시 중앙은행과 은행이 취할 수 있는 결제 리스크를 줄이기 위한 대응 방안을 논의할 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.04.16.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>토스인슈어런스, 보험설계사 600명으로 급증</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003091662?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>토스인슈어런스가 설계사를 공격적으로 영입하며 규모를 키우고 있다. (사진제공=토스인슈어런스)토스 보험 자회사 토스인슈어런스가 설계사 확보에 적극 나서고 있다. 토스인슈어런스에 따르면 이 회사 인슈어런스어드바이저(IA)가 지난해 8월 220명에서 올해 4월 620명으로 크게 늘었다. 대면 상담 시장에 진출한 후 약 1년 만에 보험 설계사를 대거 영입했다.토스인슈어런스는 각종 생명·손해 보험을 판매하는 법인보험대리점(GA)이다. 2018년 말 출범 이후 텔레마케팅에만 전념하다 지난해 초부터 오프라인 보험 시장으로 사업 방향을 틀었다. IA는 토스인슈어런스 소속으로, 토스 앱을 통해 보험 상담을 신청한 고객을 만나 상품을 소개하고 판매하는 위촉직 설계사다. GA에서 설계사 규모는 점유율과 이어진다.토스 관계자는 “GA 업계 전체로 보면 토스인슈어런스 설계사 규모는 아직 작지만 인수합병(M&amp;A) 없이 단기간의 설계사 대거 확보는 유례가 없다”면서 “가파른 성장을 넘어 폭발적으로 성장하고 있다”고 말했다.토스인슈어런스는 △업계 최고 수준의 수수료를 주고 △불완전 판매 등 관행이 없으며 △고객 발굴에 스트레스가 적은 것을 설계사 유치 강점으로 꼽았다. 설계사가 온전히 보험 상담에만 집중할 수 있는 구조이기 때문이다.GA에서 찾아보기 어려운 언더라이팅(보험가입심사) 지원센터를 운영하는 것도 경쟁사와의 차별점이다. 설계사와 센터가 실시간 소통, 고객 조건에 더 나은 보험을 선별해서 제시할 수 있다. 업계 관계자는 “성과에 따른 수수료 수입이 대부분인 IA를 단기간에 늘렸다는 것은 그만큼 근무 환경이나 처우가 좋다는 뜻”이라고 말했다.토스(비바리퍼블리카)에 따르면 토스인슈어런스는 지난해 처음으로 매출 100억원을 돌파했다. 적자 규모는 약 62억원으로 2021년 110억원에 비해 크게 줄었다. 보험 시장에서 90%를 차지하는 오프라인에 진출한 것이 효과를 본 것으로 풀이된다.토스인슈어런스는 올해 IA 규모를 1000명 이상으로 늘릴 계획이다. 보험 설계사들의 '대체 불가능한 파트너'를 지향한다.토스 관계자는 “보험 문제를 해결하기 위해서는 설계사 역할이 가장 중요하다”면서 “설계사들이 고객에게 최고의 서비스를 제공하도록 유도, 최종적으로 고객·설계사·보험사 모두가 윈윈하는 보험 생태계를 조성하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>멕시코 대통령, 코로나19 세 번째 걸렸다</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002134092?sid=104</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>2021년1월과 지난해 1월 이어멕시코 시티 관저서 휴식 중안드레스 마누엘 로페스 오브라도르 멕시코 대통령 [로이터][헤럴드경제=원호연 기자]안드레스 마누엘 로페스 오브라도르 멕시코 대통령이 코로나19에 걸렸다. 이번이 3번째다.로페스 오브라도르 대통령은 23일(현지시간) 자신의 트위터에 “이러면 안 되지만, 코로나19 양성반응을 보였다는 소식을 여러분께 전한다”며 “나는 괜찮으나 며칠 동안 격리할 예정”이라고 밝혔다.그의 코로나19 감염은 2021년 1월과 지난해 1월에 이어 3번째다. 로페스 오브라도르 대통령은 아스트라제네카 백신으로 1·2차 접종과 추가 접종(부스터 샷)을 맞았다. 앞서 현지에서는 ‘대통령이 오늘 아침에 기절했다’는 취지의 건강 이상설이 확산됐다. 대통령궁에서는 이를 공식 부인했다. 베라크루스주와 킨타나로오주에 이어 남부 유카탄주에서 일정을 소화하던 그는 현재 멕시코시티 관저로 이동해 휴식 중이다. 통계 사이트 다토스마크로닷컴과 코로나보드 등에 따르면 이날 기준 멕시코 내 누적 확진자는 757만4620명이다. 최근 2주 새 확진자 비율은 인구 10만명 당 12.63명으로, 비교적 낮은 수준이다.누적 사망자는 33만3745명으로, 치명율(4.4%)이 페루에 이어 세계 두번째로 높다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.04.16.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>“잔액 모두 인출” 허위정보 유포에 금융당국 “이득 본 세력 조사”</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003273437?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>대형 저축은행에서 1조원대 부실이 발생했다는 거짓 정보가 퍼지는데 불공정 세력이 관여했는지를 금융당국이 집중적으로 들여다본다. 주가 불공정 거래나 공매도 세력 연관 가능성을 살펴보기로 했다.  서울 영등포구 여의도 금융감독원. 연합뉴스           16일 금융당국 관계자는 “최근 금융 불안 심리를 이용해 이익을 보려는 움직임이 있을 수 있다”며 이같이 밝혔다. 최근 금융권에서는 개별 금융회사 위기설과 악성 소문이 줄을 잇고 있다. 지난 12일에는 ‘OK저축은행과 웰컴저축은행의 부동산 프로젝트파이낸싱(PF)에서 1조원대 결손이 나 지급 정지 예정, 잔액 모두 인출을 요망한다’는 지라시가 나돌았다. 이에 해당 저축은행은 허위 사실이라며 유포자를 고발하는 등 법적 대응을 진행했다. 금융감독원은 문제가 된 지라시 유포 이후 30분 단위로 해당 저축은행에서의 예금 인출 추이 등을 살펴보며 비상 대기 상태에 돌입하기도 했다.       금감원 관계자는 “상장사 관련 루머가 돌면 주가 불공정 세력이나 공매도 세력이 연계됐을 가능성을 집중적으로 들여다보게 된다”고 말했다. 금융당국은 거짓 정보가 상장사에 관한 것이거나 자본시장에 영향을 주려는 것으로 판단될 경우 불공정 거래 혐의가 있는지 집중적으로 조사할 계획이다. 이번 사건에 휘말린 OK저축은행과 웰컴저축은행은 상장사가 아니지만, 금융 분야의 복잡한 이해관계를 고려했을 때 간접적인 이익을 노린 세력이 있을 수도 있다는 의미다.      금융당국은 최근 확산하는 허위 정보에 촉각을 세우고 있다. 미국 실리콘밸리은행(SVB) 파산 사태를 촉발한 뱅크런(대규모 예금 인출)이 한국에서 일어나기 더 쉬운 환경이라는 인식 때문이다. SVB는 고객의 스마트폰 등을 이용한 뱅크런이 일어나며 약 36시간 만에 초고속 파산했다.        이창용 한국은행 총재는 앞서 14일(현지시간) 블룸버그통신과의 인터뷰에서 “한국에서 SVB 사태와 같은 일이 벌어지면 예금 인출 속도가 미국보다 100배는 빠를 것”이라며 “매일 이뤄지는 차액 결제의 담보 비율을 높여야 한다”고 지적하기도 했다. 김주현 금융위원장도 “전 세계적으로 금융시장 불안요인이 존재하는 상황에서 악의적 유언비어의 유포는 금융시장의 불안과 금융사의 건전성 등 국민 경제에 큰 손해를 끼칠 우려가 있다”며 엄중 대처를 주문했다.      이 때문에 최근 금융권에선 금융사의 건전성에 문제가 있다는 식의 소문에 특히 예민하게 반응하고 있다. 지난달 토스뱅크는 가입을 하면 이자를 먼저 주는 정기예금 상품을 출시했다가 유동성 위기에 대한 의심을 받았다. ‘선이자 예금’을 내놓아서라도 자금을 조달해야 할 만큼 돈이 급한 상황이 아니냐는 위기설이 온라인 커뮤니티에서 확산했다. 결국 홍민택 토스뱅크 대표가 직접 나서 “선이자 정기예금은 기존에도 금융권에 있던 상품으로, 고객에게 이자를 먼저 제공해도 재무적으로는 차이가 없다”고 설명했다.      최근 부동산 PF 부실 우려가 지속해서 제기되는 새마을금고도 악의적인 유튜브 영상 등에 대한 대응책을 고민 중이다. 새마을금고중앙회 관계자는 “예금 지급에 대해 언제든지 대비하고 있으며, 예금자 보호에 전혀 문제가 없다”며 “정보를 의도적으로 편집해 사실과 다른 내용을 퍼뜨리는 경우에 어떻게 대응할지 논의 중”이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.04.26.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>수도요금 고지서, 앱으로 받고 1000원 할인?</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000333239?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>[수도요금 전자고지서 안내문(사진=서울시)]서울시는 시민의 적극적인 수도요금 전자고지 서비스 가입을 위해 모든 가입자를 대상으로 매월 최소 200원부터 최대 1000원까지 수도요금의 1%를 감면해주고 있습니다.다만 전자고지와 종이청구서 동시 신청자는 제외됩니다.서울시는 지난 14일부터 오는 7월31일까지 수도요금 전자고지 신규 가입자를 대상으로 매달 250명을 추첨해 모바일 커피 쿠폰을 제공하는 이벤트를 진행하고 있다고 어제(25일) 밝혔습니다.수도요금 전자고지는 종이청구서 대신 문자, 이메일, 신한플레이, 카카오페이, 토스 등 모바일앱으로 수도요금을 안내받는 방식입니다.서울시는 월 평균 102만장의 종이 청구서를 제작해 사용자에게 직접 전달하거나 우편으로 송달하고 있는데, 이는 약 10톤 분량에 달합니다.시는 지난 2006년 2월부터 수도요금 전자고지 서비스를 제공하고 있으나, 가입률이 지난달 말 기준으로 11%에 머물러 있습니다.수도요금 전자고지는 종이 청구서보다 하루에서 이틀정도 빨리 요금을 알 수 있고, 요금 즉시 납부 및 분실의 염려가 없어 개인정보 보호 효과도 높습니다.문자나 이메일로 청구서를 받고 싶다면 카카오톡에서 '서울시 상수도사업본부' 채널을 추가한 후 '챗봇 아리수톡 바로가기'에 '전자고지'를 검색해 신청하면 됩니다.다산콜재단이나 관할수도사업소, 아리수 사이버고객센터 홈페이지를 통해서도 신청할 수 있습니다.모바일앱을 통한 전자고지 신청은 모바일 간편결제 앱 신한플레이, 카카오페이, 토스에 회원가입·로그인 후 '서울시 수도요금'을 검색해 신청하면 됩니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.04.19.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>[7NEWS] 2030·취약계층 죽음 내모는 ‘빌라왕’, ‘건축왕’</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003758640?sid=100</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>7NEWS 뉴스레터 구독하기 ☞https://page.stibee.com/subscriptions/145557안녕하세요. 7NEWS입니다. 지난 17일 인천 지역의 60대 건축업자, 일명 ‘미추홀 건축왕’의 전세사기 피해자가 극단적 선택을 하는 일이 있었습니다. 피해자는 최연소 육상 국가 대표 출신의 30대로, 전세보증금을 9000만원을 설정해 ‘8000만원 이하’로 정해진 전세보증금 최우선 변제 대상에 포함되지 못한 것으로 드러났습니다. 또 최근까지 피해구제를 받기 위해 노력한 사실과 관련 메시지 등이 보도되면서 안타까움을 더 하고 있습니다. 앞서 같은 전세사기로 극단적인 선택을 한 피해자도 20~30대였습니다.미추홀구 전세사기 피해대책위원회(이하 대책위)에 따르면 지난 11일 기준으로 대책위에 가입된 34개 아파트·빌라의 1787세대 중 경매나 공매에 넘어간 세대는 1066세대에 달하는 것으로 조사됐습니다. 대책위는 “대책위에 피해를 신고하지 않은 이들까지 포함할 경우, 18일까지 경매로 넘어간 주택은 2000채가 넘을 것”이라고 주장했습니다.이에 정부는 전세 사기 피해 매물의 경매 일정 중단과 유예 방안을 시행키로 했습니다. 윤석열 대통령은 18일 국무회의에서 원희룡 국토교통부 장관에게 경매 일정의 중단 또는 유예 방안을 보고받은 뒤, 이를 시행하도록 했습니다. 더불어 전세사기에 대해 “전형적인 약자 상대 범죄로, 이 비극적 사건의 희생자는 청년 미래 세대”라며 대책마련을 지시했습니다. 또 “민사 절차상의 피해 구제도 필요하지만, 전세 사기 피해자들은 구제 방법이나 지원 정책이 있다는 사실 자체를 모르는 경우도 많다. 찾아가는 지원 서비스 시스템을 잘 구축해달라”고 당부했습니다.전세사기 피해 사망자 가 거주한 인천시 미추홀구의 한 아파트 현관문에 단수 경고장이 붙여져 있다. / 뉴스1										‘미추홀 건축왕’ A씨는 인천 미추홀구 등에서 아파트와 빌라 2700여 채를 소유하면서 임차인 161명으로부터 전세 보증금 125억여 원을 가로챈 혐의를 받고 구속기소돼 있습니다. 경찰은 공인중개사를 포함한 공범은 60명에 이르고, 딸도 ‘바지 임대인’으로 범행에 가담한 것으로 보고 수사를 진행중입니다.전세사기가 기승을 부리는 것은 피해자 대부분이 사회초년생, 취약계층으로 피해 대응이 어렵다는 이유와 피해자의 고통·피해규모에 비해 형량이 낮은 편이기 때문입니다. 전세사기의 경우 통상 형법상 ‘사기죄’로 처벌돼 ‘10년 이하의 징역, 또는 2000만 원 이하의 벌금’의 처벌규정이 있지만, 관련 혐의로 기소된 사람들은 “보증금을 돌려줄 여건이 안됐을 뿐”이라며 사기의 ‘고의성’을 부인해 형량을 낮춰왔습니다. A씨 역시 이달 5일 열린 첫 공판에서 변호인을 통해 “법리상으로 사기가 될 수 없어 검찰의 법 적용에 문제가 있어 보인다”고 주장했고, 공인중개사 등 공범들도 “A씨 회사에서 직원으로 일했을 뿐”이라며 혐의를 부인한 것으로 알려졌습니다.‘전세사기에 대해 엄벌이 필요하다’는 사회적 분위기에 따라 최근에 들어서야 ‘15년형(10년+다른 범죄에 대해 2분의 1가중) 및 10억여원의 추징’을 구형하는 판결이 나왔습니다. 전세사기 피해자들은 전세사기를 ‘사회·경제적 살인’이라고 말합니다. 돈 때문에 누군가의 인생을 파멸로 이끌었다면, 그 대가는 무겁게 받아야 할 것입니다. 민주당 ‘돈봉투’ 핵심 강래구 “영길이 형이 많이 처리했더라”							‘2021년 민주당 전당대회 돈 봉투 살포 의혹’ 사건을 수사하는 검찰이 당시 송영길 당대표 후보가 돈 봉투 살포에 관여한 정황이 담긴 녹음 파일을 확보한 것으로 18일 전해졌다.기사보기 육상대표 출신도 공단 모범생도… 부동산 경험없는 2030이 피해							윤석열 대통령이 18일 전세 사기 피해 주택에 대한 ‘경매 절차 중단’ 지시를 내리면서 범정부 차원의 본격적인 대책 마련이 시작됐다. 한국자산관리공사(캠코)는 보유 중인 피해 주택을 당분간 경매로 넘기지 않고, 국토교통부도 금융기관에 경매 매각 연기를 강력 요청하기로 했다.기사보기 北, 0.01초만에 악성코드 심었다							지난해 6월부터 언론사와 방산 관련 기업 등 61개 기관의 PC 207대가 해킹당하는 사건이 발생했는데, 북한의 대남 공작을 총괄하는 정찰총국 산하 해커 조직 ‘라자루스’ 소행으로 드러났다고 18일 경찰청 국가수사본부 안보수사국이 밝혔다.기사보기 건설현장에 출근한 척 일당 챙긴 진보당 대표							최근 국회의원 보궐선거로 원내에 진입한 진보당 공동대표 장지화(여·53)씨는 지난 11개월간 수도권 한 아파트 공사장에 ‘현장 팀장’으로 이름을 올려놓고 노임 3700여 만원을 받아 갔다.기사보기 1300만명 이용… “비대면 진료 지키자” 6만명 릴레이 서명							코로나 기간 1300만명 넘게 이용한 비대면 진료가 중단 위기에 처하자 이를 막으려는 서명운동에 나흘 만에 6만명 넘게 모였다. 스타트업 단체 코리아스타트업포럼이 지난 14일 시작한 인터넷 서명운동에는 김봉진 배달의민족 창업자, 이승건 토스 대표 같은 국내 스타트업 창업자를 비롯해 일반 국민까지 참여하고 있다.기사보기 “백두산 화산 2025년 폭발? 마그마 안정돼 가능성 희박”							백두산이 오는 2025년 대폭발한다는 이른바 ‘백두산 분화 100년 주기설(說)’에 대해 기상청이 “가능성이 희박하다”는 첫 공식 입장을 18일 내놨다. 온라인 등에서 백두산 폭발을 둘러싼 괴담성 주장이 난무하자 기상청이 화산 활동 등을 분석해 이 같은 결론을 낸 것이다.기사보기 이집트 “흑인 클레오파트라는 역사 왜곡”							문화계의 ‘정치적 올바름(PC·political correctness)’ 논란이 역사 왜곡 논쟁으로 번지고 있다. 고대 이집트의 전설적 여왕 클레오파트라 7세(기원전 69년~30년)를 다룬 넷플릭스 다큐멘터리 시리즈 ‘퀸 클레오파트라’가 클레오파트라 역할로 흑인 배우 아델 제임스를 캐스팅하자 과도한 PC주의가 역사까지 뒤튼다는 논란이 거세지고 있다.기사보기7NEWS 뉴스레터 구독하기</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>5대 은행, 상반기 1500명 신규 채용</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003491751?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>尹대통령 “은행은 공공재”에 호응작년 같은 기간 대비 58% 늘어나인터넷은행 3곳도 300명 수시채용광주-대구-부산-전북銀, 내달 선발5대 시중은행이 상반기(1∼6월)에만 1500명에 이르는 신규 채용을 진행한다. 은행의 ‘공공재 성격’을 강조한 윤석열 대통령의 주문에 호응하듯 채용 규모를 전년 대비 60% 가까이 늘렸다. 16일 금융권에 따르면 KB국민·신한·하나·우리·NH농협 등 5대 시중은행은 상반기에 약 1500명을 신규로 채용할 계획이다. 지난해 상반기(950명)와 비교했을 때 58% 늘어난 수준이다. 5대 은행 모두 채용 인원을 늘린 것으로 나타났다.  NH농협은행의 상반기 채용 규모가 500명으로 가장 많았다. 2월 신입 행원 480명을 뽑아 영업점에 배치했으며, 현재 20명 규모의 경력직 채용도 진행 중이다. 하나은행은 지난해 하반기에만 채용했지만 올해 들어서는 1월 상반기 공채로 250명을 뽑았다.  KB국민은행은 상반기에 250명가량을 뽑기로 하고 이달 중 공고를 낼 예정이다. 채용 인원을 지난해 상반기 대비 약 50명 늘렸다.  신한·우리은행은 전년보다 100여 명 많은 각각 250명을 상반기 중에 채용할 방침이다. 신한은행은 지난달 수시 채용에 이어 이번 달 전문분야 채용을 시작했다. 신한은행은 하반기(7∼12월)에도 대규모 채용을 검토하고 있다. 우리은행은 17일까지 상반기 신입 행원을 뽑기 위해 서류를 접수받는다. 서류전형과 1·2차 면접, 인성검사와 최종면접 전형으로 진행된다. 시중은행뿐 아니라 인터넷전문은행과 지방은행도 채용을 확대하는 분위기다. 3대 인터넷은행(카카오뱅크·케이뱅크·토스뱅크)은 6월까지 약 300명을 수시로 뽑는다. 광주·대구·부산·전북은행도 5월부터 신규 채용에 나서는 것으로 알려졌다. 시중은행 관계자는 “은행에 사회적인 책임을 다하라는 목소리가 커지고 있어 채용이 전년 동기에 비해 크게 늘어나는 모습”이라며 “하반기에도 은행권이 채용을 확대할 가능성이 높은 상황”이라고 말했다. 윤 대통령은 앞서 2월 비상경제민생회의에서 은행 산업을 지목하며 “공공재로서 역할을 다해달라”고 주문했다. 과점 지위 덕분에 막대한 이자 수익을 냈지만, 그에 상응하는 공적 역할은 하고 있지 않다는 지적이었다. 이후 금융당국은 은행권에 유의미한 사회 공헌 대책을 마련하라고 주문했다. 채용 규모를 늘리는 것도 그중 하나였다. 김소영 금융위원회 부위원장은 2월 청년 일자리 간담회에 참석해 “금융권이 경제에서 차지하는 비중이 상당한 만큼, 청년 일자리 활성화에 적극 동참해 달라”고 요구한 바 있다. 다만, 은행권의 이 같은 움직임에도 상반기 전체 금융권의 채용 규모는 소폭 감소할 것으로 전망된다. 증시 부진과 금리 인상 여파로 증권, 자산운용, 캐피털 등의 실적이 급감할 것으로 예상돼 채용 여력도 줄어들었기 때문이다. 전국은행연합회는 2월 상반기 금융권의 채용 규모를 4719명 정도로 추산했다. 채용 인원이 5000명을 넘었던 지난해 상반기 대비 약 5∼6% 줄어들 것으로 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>토스뱅크, 예대금리차 5.41%p로 최고</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002795971?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>지난달 국내 주요 은행들의 예대금리차(예금금리와 대출금리 차이)가 소폭 하락했다. 하지만 인터넷전문은행의 예대차는 대부분 상승했다. 특히 토스뱅크는 한 달사이  0.51%포인트(p)가 상승, 예대차가 5.41%포인트로 커졌다.20일 은행연합회 소비자포털에 공시된 '은행별 예대금리차 비교'에 따르면 지난달 KB국민·신한·하나·우리·NH농협 등 5대 은행의 정책서민금융(햇살론뱅크·햇살론15·안전망 대출)을 제외한 가계 예대금리차는 평균 1.162%포인트(p)를 기록했다. 지난 2월 1.356%p에서 0.194%p 낮아졌다.은행별로 보면 NH농협은행이 1.34%p로 5대 시중은행 가운데 예대금리차가 가장 컸다. 이어 우리은행(1.22%p), KB국민은행(1.13%p), 하나은행(1.11%p), 신한은행(1.01%) 순이었다. 신한은행은 1, 2월에 이어 지난달에도 5대 은행 중 가계 예대금리차가 가장 작았다. 시중은행 관계자는 "은행들이 상생금융의 일환으로 잇따라 대출 금리를 낮추면서 예대금리차가 좁혀졌다"고 말했다.다만 인터넷은행의 경우 케이뱅크를 제외하고선 카카오뱅크와 토스뱅크 모두 3월 예대금리차가 전달 대비 상승했다. 카카오뱅크의 경우 정책서민금융 제외 가계예대금리차는 지난 2월(1.15%p)대비 0.6%p 오른 1.21%p를 기록했다. 같은 기간 토스뱅크는 4.90%p에서 0.51%p 뛴 5.41%p였다. 토스뱅크는 이날 공시에 참여한 19개 은행 중에서 예대금리차가 가장 큰 은행에 이름을 올리기도 했다. 토스뱅크의 예대금리차는 지난해 12월 5.48%p에서 올해 1월 4.72%p로 낮아졌다가 2월 4.90%p로 다시 상승했다. 이에 대해 토스뱅크 관계자는 "전월 대비 중저신용자 신규 취급액 및 취급 비중이 월등히 증가하는 등 이에 따른 영향이 컸다"면서 "이는 중저신용고객에 대한 포용금융 관점에서 인터넷은행 본연의 역할을 충실히 수행했음을 증명하는 것"이라고 말했다. 한편 업계 안팎에서는 지난해 '사상 최대' 실적을 낸 금융지주들이 올해부터는 감소세로 접어들 것이란 전망이 나온다. 기준금리 인상이 멈춘 데다 은행권을 향한 금융권의 예대마진 축소 압박이 더욱 거세질 것으로 보이기 때문이다. 우리금융은 오는 24일, KB·신한·하나금융은 27일 1분기 영업실적 발표를 앞두고 있다. 토스 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.04.26.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>“쏠쏠한데 너무 비싸”…7% 육박하던 ‘마통’ 금리, 5%대 목전</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005472124?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>5대은행 평균금리, 작년 11월 6.96%→올해 3월 6.02%1년 전 4%대와 비교하면 여전히 높아 “하향세 보일 것”[이데일리 이명철 기자] 비상시에 직장인들의 쏠쏠한 자금 조달 창구였던 일명 ‘마이너스통장(신용한도대출)’의 금리가 내려가고 있다. 지난해 말만 해도 평균 7%에 육박했지만 최근 들어 5%대 진입을 앞뒀다. 다만 기준금리가 본격적으로 오르기 전과 비교하면 여전히 높은 수준이어서 이자 부담은 당분간 계속될 전망이다.[이데일리 이미나 기자]25일 은행연합회에 따르면 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 3월 중 신용한도대출 평균 금리는 6.02%로 전월(6.04%)대비 0.02%포인트 하락했다.신용한도대출이란 신용대출의 한 종류다. 통상 신용대출은 일정액을 한번에 대출받는 ‘건별 대출’인 반면 신용한도 대출은 약정기간 동안 약정금액 한도 내에서 수시로 인출·상환할 수 있는 방식이다. 거래은행의 통장을 이용하기 때문에 마이너스 통장 대출로 부르기도 한다.5대 시중은행의 신용한도대출 평균 금리는 지난해 11월 6.96%까지 올랐다가 12월 6.83%, 올해 1월 6.42% 등 하락세를 나타내고 있다. 최근 대출금리 인하 추세를 감안하면 조만간 5%대 재진입도 가능할 것으로 보인다.은행별로 보면 3월 취급된 신용한도대출 평균 금리는 국민은행이 6.2%로 가장 높고 이어 농협은행 6.12%, 우리은행 5.99%, 신한은행 5.93%, 하나은행 5.87% 순이다. 전체 17개 은행(산업·씨티은행 제외)의 신용한도대출 평균 금리는 지난해 12월(7.21%) 7%를 넘겼지만 올해 3월 6.31%로 0.09%포인트 낮아졌다.3월 기준 전체 은행에서 평균 금리가 높은 곳은 SC제일은행(7.36%), DGB대구은행(7.27%), 토스뱅크(7.05%) 등이다. 카카오뱅크의 경우 지난해 12월 8.36%로 가장 높았지만 지난달 5.59%까지 내려갔다.신용한도대출 금리가 낮아지는 이유는 기준이 되는 금리 자체가 내려가기 때문이다. 신용대출 금리는 통상 단기성 자금인 양도성예금증서(CD) 91일물, 금융채(은행채) 6개월·1년물 등을 기준으로 삼는다.금융투자협회 채권정보센터에 따르면 CD 91일물 금리는 24일 기준 3.49%로 4%대 초반이던 지난해 12월보다 하락했다. 금융채 6개월과 1년물 금리도 지난해 12월초 4.6~4.7% 수준을 형성했지만 24일 현재 각각 3.494%, 3.547%까지 낮아진 상태다.상생 금융 추진에 따른 정책적 요소도 있다. 우리은행의 경우 지난 24일부터 신용대출 상품의 우대금리를 최대 0.5%포인트 인하했고 앞서 국민·신한·하나은행 등도 신용대출 금리를 줄줄이 낮춘 바 있다. 신용대출 금리가 내려가니 신용한도대출 또한 낮아진 것이다.다만 신용한도대출은 신용대출보다 금리가 높다. 3월 취급된 5대 시중은행의 신용대출 평균 금리는 5.80%로 신용한도대출에 비해 0.2%포인트 이상 낮다. 이는 건별 대출인 일반 신용대출보다 수시로 대출·상환이 이뤄지는 한도 대출의 특성상 더 높은 금리를 매기기 때문이다. 일반적으로 같은 신용등급의 차주인 경우 신용대출보다 신용한도대출의 금리가 0.5%포인트 정도 높게 책정된다는 게 은행권의 전언이다.금리가 다소 낮아졌지만 여전히 이자 부담은 큰 편이다. 기준금리 인상이 본격화될 무렵인 지난해 3월 5대 시중은행의 신용한도대출 평균 금리는 4.4%였다. 1년 새 1.2%포인트 이상 오른 셈이다.한 시중은행 관계자는 “최근 들어 신용을 포함한 대출금리는 하향 추세”라며 “연말 기준금리 인하 기대감도 있어 앞으로 마이너스통장 금리도 낮아질 수 있을 것”이라고 예상했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>한국투자증권, 펀더풀과 맞손… "토큰증권, 초기 생태계 구축"</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000914522?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>윤성욱 펀더풀 대표와 최서룡 한국투자증권 플랫폼본부장(왼쪽에서 4번째부터)./사진=한국투자증권  한국투자증권은 영화·드라마 등 문화 콘텐츠 투자 플랫폼 '펀더풀'과 토큰증권(ST) 상품화를 위한 업무협약(MOU)을 체결했다고 20일 밝혔다.두 회사는 지난 19일 서울 여의도 한국투자증권 본사에서 업무협약식을 갖고 ▲토큰증권형 투자상품 개발 ▲투자계약증권의 토큰증권화 ▲플랫폼 내 관련 투자상품 탑재를 위한 인프라 구축 등을 추진하기로 했다.토큰증권 상품의 핵심이 되는 투자계약증권은 자본시장법상 허용되는 증권의 한 유형이다. 투자자가 공동사업 형태로 금전 등을 투자하고, 결과에 따라 손익을 얻는 계약상 권리가 표시된 증권을 의미한다. 미술품, 선박, 항공기부터 음원과 영화 등 지적재산권(IP)까지 비정형 특성을 가진 자산은 모두 투자계약증권의 범주에 포함될 수 있다.한국투자증권은 지난달 카카오뱅크, 토스뱅크, 카카오엔터프라이즈와 손잡고 토큰증권 협의체 '한국투자 ST 프렌즈'를 출범한 데 이어 발행 분산원장(블록체인) 시스템 개발과 토큰증권 상품 공급에 속도를 내고 있다. 토큰증권 상품 기획 및 발행을 위해 다양한 파트너사와 전략적 제휴도 추진 중이다.최서룡 한국투자증권 플랫폼본부장은 "펀더풀의 풍부한 콘텐츠 역량을 활용해 양질의 상품을 발굴할 수 있을 것으로 기대한다"며 "한국투자 ST 프렌즈의 분산원장 네트워크를 통해 투자자가 만족할만한 창의적인 투자상품을 공급하면서 토큰증권 초기 생태계 구축에 앞장서겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>[단독] ‘이자 장사 논란’ 은행권, 서민금융 지원 1000억 가까이 줄여</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001601635?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>5대 은행 당기순익 대비 지원 규모  2년 만에 5.2%서 2.6%로 반토막  국책·인터넷·중소형사는 더 인색5대 시중은행 서민 금융 지원액이 최근 2년 만에 1000억원 가까이 급감한 것으로 나타났다. 이 기간 서민 금융 지원액이 5대 시중은행 당기순이익에서 차지하는 비중은 5%대에서 2%대로 반토막 났다. ‘이자 장사’로 막대한 수익을 올린 은행권이 사회공헌을 확대하도록 공시 체계를 하루빨리 개선해야 한다는 지적이다.16일 국민일보가 황운하 더불어민주당 의원실과 함께 금융감독원 자료 등을 분석한 결과 지난해 KB국민·신한·하나·우리·NH농협 5대 시중은행 서민 금융 지원액은 3380억원으로 집계됐다. 같은 해 5대 시중은행 순익 합계치(13조590억원)의 2.6%에 그쳤다. 2020년까지만 해도 5대 시중은행은 8조3750억원을 벌어 5.2%에 해당하는 4360억원을 서민 금융 지원에 썼다. 5대 시중은행 순익 대비 서민 금융 지원액 비중이 2년 만에 절반 수준으로 쪼그라든 것이다.은행별로 보면 지난해 순익 대비 서민 금융 지원액 비중은 우리은행(3.4%)이 가장 컸다. 2조6950억원을 벌어 930억원을 썼다. KB국민·NH농협은행이 각각 3%였고, 신한은행이 2.3%, 하나은행이 1.5%로 그 뒤를 이었다.5대 시중은행을 제외한 은행은 이보다도 소극적이다. SC제일은행(107억원), 한국씨티은행(75억원), KDB산업은행(59억원), 수출입은행(57억원), 카카오뱅크(26억원), 제주은행(23억원) 등 지난해 서민 금융 지원액을 포함한 전체 사회공헌 실적이 100억원 안팎에 그친 곳이 많았다. 케이뱅크 사회공헌 실적은 3억원, 토스뱅크는 1억원이었다.현행 은행권 사회공헌 공시 체계에는 문제가 적지 않다. 은행권은 은행연합회를 통해 전체 은행의 사회공헌 실적을 모아 공개하는데 서민 금융과 지역 사회·공익, 학술·교육, 문화·예술·체육, 환경, 글로벌 6대 분야별 지출 총액만 적을 뿐 세부 사항은 밝히지 않고 있다. 또 마케팅이나 홍보 등 영리 목적으로 문화·예술 행사 후원금을 내거나 체육 구단을 운영하는 데 드는 비용이 사회공헌 실적에 포함된다.외국 은행권 대비 사회공헌 활동의 적정성이 떨어진다는 비판이다. 미국 씨티·웰스파고은행은 지역 사회 저소득층이나 흑인 등 유색 인종을 대상으로 주거 지원 사업을 펼치거나 고령자 임차인을 보호하는 데 적극적이다. 일본 미쓰비시UFJ은행은 고령화와 저출산 등 국가가 당면한 문제를 해소하는 데 집중하고 있다.황 의원은 “최근 가파른 기준금리 인상으로 호황을 누린 은행권이 사회공헌, 특히 서민 금융 지원에 미온적인 것은 사회적 책임을 저버리는 것”이라고 말했다. 또 “한국도 사회공헌 공시 체계를 손봐 은행권이 더 실질적인 활동에 나서도록 유도해야 한다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>'비대면 진료 지키기' 서명운동 11만명 참여</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002289834?sid=105</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>스타트업 생태계 수장들 현행 비대면 진료 유지 촉구코리아스타트업포럼이 ‘비대면 진료 지키기 대국민 서명운동’에 10만명 이상 참여한 결과를 대통령실에 전달했다고 24일 밝혔다.코스포에 따르면 국민 건강권 제고를 위해 진행한 비대면 진료 지키기 서명운동에 전날 자정 기준 총 11만2천564명의 국민이 참여한 것으로 나타났다. 서명운동에는 지난 14일 오후 3시 시작 이후 1시간 만에 7천명 이상이 참여했으며 6일째인 20일 오후 7시께 10만명을 돌파했다.서명운동은 스타트업얼라이언스, 컨슈머워치, 한국소프트웨어산업협회(KOSA)와 함께 진행했다. 특히 이번 서명운동에는 육아 중인 맞벌이 부부, 1인 가구, 직장인, 자영업자 등 다양한 유형의 국민들이 참여해 비대면 진료의 필요성을 토로했다.왼쪽부터 류경재 코리아스타트업포럼 정책실장, 장지호 코리아스타트업포럼 원격의료산업협의회 공동회장, 곽은경 컨슈머워치 사무총장, 강동주 대통령실 시민사회수석실 국민통합비서관실 행정관.한 참여자는 “아침에 소아청소년과 진료를 받으려면 새벽 3시에 번호표를 받아야 하고, 예약이 마감되면 아이가 아파도 진료를 받을 수 없는데 지금처럼 비대면 진료라도 이용할 수 있어야 하지 않겠냐”고 호소했다.또 “혼자 사는 자취생에게는 아플 때 필수 앱인데 사라지면 혼자 살다가 죽을 것 같다”, “아파도 휴가 못 써서 꾹꾹 참고 버티는데 비대면 진료 덕분에 진료 보고 집에서 약 받아볼 수 있어 삶의 질이 향상된다” 등 여러 참여자들이 지지 의견을 남겼다.코스포는 21일 원격의료산업협의회, 컨슈머워치와 함께 대통령실을 방문해 10만명 이상이 참여한 서명운동 결과와 이용자 의견을 전달했다. 아울러 감염병 위기 경보 단계가 하향돼도 비대면 진료가 중단되지 않고 누구나 아플 때 진료를 받을 수 있도록, 재진 중심의 ‘사실상비대면진료금지법’ 폐기와 초진부터 이용 가능한 현행 비대면 진료의 유지를 다시 한 번 촉구했다.서명운동과 함께 시작한 ‘지켜줘 챌린지’도 스타트업 생태계 전반으로 빠르게 확산하고 있다. 박재욱 코스포 의장을 시작으로 김봉진 우아한형제들(배달의민족) 의장, 권도균 프라이머 대표, 송재준 컴투스 대표, 이동건 마이리얼트립 대표, 이수진 야놀자 대표, 이승건 비바리퍼블리카(토스) 대표, 이승재 버킷플레이스(오늘의집) 대표 등 스타트업 생태계 수장들이 챌린지에 동참해 비대면 진료 가치와 의미를 전파하는 데 힘을 실었다.(사진=코리아스타트업포럼)박재욱 코스포 의장은 “일주일도 안 된 짧은 기간 동안 10만명 이상이 서명에 참여했다는 건 많은 국민에게 언제 어디서나 이용할 수 있는 비대면 진료가 꼭 필요하다는 방증”이라며 “서명운동에 참여해주신 국민 여러분과 지켜줘 챌린지를 함께 해준 스타트업 생태계 구성원들에게 감사드리고, 지난 3년간 1천379만명의 국민 건강을 지킨 비대면 진료의 효용을 모두 누릴 수 있도록 앞으로도 최선을 다할 것”이라고 말했다.2020년 코로나19로 한시적 전면 허용된 비대면 진료는 3년간 1천379만명이 이용했으며, 87.9%에 달하는 이용자가 만족을 표했다. 코로나19 시기 재택치료자 폭증, 소아청소년과 진료 대란 상황에서 환자들의 원활한 치료에 기여했다는 평가를 받고 있으나 최근 감염병 위기 경보 단계 하향이 임박함에 따라 서비스 중단 위기에 처했다.국회 스타트업 연구단체 유니콘팜은 국민 건강 증진과 의료 선택권 보장을 위해 이달 초 초진부터 비대면 진료를 허용하도록 하는 ‘의료법 일부개정법률안’을 발의했으며, 25일 국회 보건복지위원회 제1법안심사소위원회에서 논의를 앞두고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>韓·日 홀린 ‘블루 아카이브’ 중국 덕후 사로잡는다</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/396/0000642078?sid=105</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>넥슨, 중국서 판호 발급 받아현지 서비스명은 ‘울람당안’사전등록 신청 100만명 돌파미소녀 청춘+탄탄한 스토리밀리터리 판타지 세계관 매력中서브컬처 팬심 잡을지 기대    ‘블루 아카이브’ 일본 서비스 2주년 기념 키비주얼    주요 게임 시장 중 한 곳인 중국에서 현지 출시 허가권에 해당하는 ‘판호’ 발급이 중단·지연되는 가운데 미소녀들이 주축을 이루면서 이야기를 이끌어가는 이른바 서브컬처(하위문화) 게임 한 편이 중국에 진출한다.  넥슨게임즈에서 개발한 모바일 RPG(역할수행게임) ‘블루 아카이브’가 일본과 한국에서 돌풍을 일으킨데 이어 이제 중국에서 정식 발매를 위한 사전 등록 절차에 돌입했다. 19일 기준으로 신청자는 100만 명을 돌파했다. 첫 번째 프로모션 비디오는 조회수 390만 건을 기록했고 2만 건 이상 댓글이 등록되는 등 ‘블루 아카이브’에 대한 관심이 높아가고 있다.     ‘블루 아카이브’ 현지 서비스명 ‘울람당안’    넥슨게임즈는 앞서 지난 3월 16일 중국 국가신문출판광전총국으로부터 ‘블루 아카이브’ 관련 판호를 발급받았다. 현지 서비스명은 ‘울람당안’이다. ‘벽람항로’와 ‘명일방주’ 등 일본을 중심으로 사업을 전개하고 있는 서브컬처 게임 명가 요스타의 자회사 상하이 로밍스타가 배급을 담당한다.  서브컬처 게임은 마치 일본 애니메이션을 연상시키는 영상에다 꼼꼼한 스토리가 핵심이다. 국내에서는 상대적으로 저변이 확고하지 않은 비주류로 불리면서 그동안 토종 일본산이거나 흉내를 내던 중국산 아류작들이 내수 시장을 넘봤다. 하지만 최근 들어 ‘블루 아카이브’를 포함해 카카오게임즈가 2018년 선보인 ‘뱅드림! 걸즈밴드파티’와 2019년 ‘프린세스 커넥트! 리:다이브’, 그로부터 3년 뒤 ‘우마무스메’ 등이 시장에 안착하면서 어느새 두터운 팬층을 형성했다.     ‘블루 아카이브’    ‘블루 아카이브’는 수많은 학교가 모여있는 거대 학원도시 키보토스를 무대로 학생들의 흥미진진한 일상을 다룬다. 게임 이용자는 이곳에서 연방 수사 동아리 ‘샬레’의 고문 교사로 활동하면서 학생들과 키보토스의 끊이지 않는 사건·사고를 해결하게 된다. 강아지 귀가 달린 수인(獸人), 보호본능을 자극하는 소녀, 악마처럼 행동하지만 어딘가 엉뚱한 인물 등 학생들의 매력을 토대로 자신이 좋아하는 캐릭터를 정해 교감하면서 관계를 짜게 된다. 3D 그래픽으로 구현한 총 6명의 SD 캐릭터(Super Deformation, 캐릭터의 귀여움을 강조하기 위해 머리 부분 비율을 키우는 기법)로 팀을 꾸려 임무부터 지명수배, 이용자간 대전(PvP)인 전술대항전, 여기에 부대를 편성해 거대 보스와 싸우는 총력전 등 다양하게 활약한다.  밀리터리 판타지가 결합된 세계관도 십분 체험할 수 있다. 애니메이션풍의 매력적인 캐릭터 외형과 연출이 돋보이고 시시각각 전황이 변하는 장소에 맞춰 다채로운 개성을 지닌 학생들을 활용하는 풀(full) 3D 전투가 백미다. 이처럼 탄탄한 스토리와 매력적인 캐릭터를 기반으로 일본에서는 구글 플레이와 애플 앱스토어 매출 순위 1위를 찍었고, 한국 앱스토어에서도 매출 1위를 차지했다.     ‘블루 아카이브’ 일본 버전 시연 장면    특히 ‘블루 아카이브’는 성공한 ‘덕후’로 알려진 김용하 PD를 중심으로 넥슨의 자회사인 넷게임즈 산하 MX스튜디오에서 만들었다. MX스튜디오는 ‘마비노기’, ‘마비노기 영웅전’ 등 넥슨의 대표 게임 개발에 참여한 김용하 PD 외에도 양주영 시나리오팀장, 김인 아트 디렉터 등 소위 ‘오타쿠 문화’에 대한 이해도가 남다른 이들로 구성됐다. 군사 무기에 조예가 깊은 ‘밀리터리 덕후’들도 포진했다. 그런 만큼 미소녀 청춘 판타지라는 서브컬처 게임의 공식을 그대로 따랐다.  한편, ‘블루 아카이브’는 일본에서 TV 애니메이션으로 방영될 예정이다. 청아하고 청량한 원작의 감성에 초점을 둔 게 특징이다. 제작 소식을 알리는 기념 생방송은 최고 시청자수가 6만 6000명을 넘었고, 일본 트위터 트렌드 1위를 꿰차기도 했다. 생방송 3일 뒤인 올해 1월 25일 ‘블루 아카이브’는 일본 애플 앱스토어에서 실시간 최고매출 순위 1위를 달성했다. ‘블루 아카이브’는 2021년 2월 4일 일본 시판 직후에는 일본 애플 앱스토어와 구글 플레이에서 각각 최고 매출 순위 2, 3위까지 올랐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>LG유플러스, 외국어 홈페이지 오픈 …요금납부·소액결제 가능</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000043651?sid=105</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>외국인 고객 경험 혁신 위해 영어 버전 외국어 홈페이지 오픈요금 즉시 납부, 일시정지 해제 등 다양한 업무 처리 가능외국어 홈페이지를 소개하는 LG유플러스 모델의 모습. [사진 LG유플러스][이코노미스트 원태영 기자]LG유플러스는 외국인 고객의 통신 서비스 사용 경험 혁신을 위해 고객센터를 거치지 않고도 요금 수납, 일시정지 해제 등 통신 서비스 업무를 간편하게 처리할 수 있는 영문 버전 외국어 홈페이지를 오픈했다고 20일 밝혔다.법무부 출입 국통계자료에 따르면 2022년 국내 입국한 장기체류 외국인은 약 81만명으로 2021년 36만명에 비해 약 122% 증가했다. LG유플러스는 최근 급증하는 국내 장기체류 외국인 고객을 위해 영어로 관련 정보를 제공하는 모바일 기반의 외국어 홈페이지를 개설하고, 자사 고객센터 앱인 ‘당신의 U+’에도 순차적으로 적용한다.외국어 홈페이지 제작에 앞서 LG유플러스가 전화와 채팅으로 접수된 외국인 고객의 의견을 수렴·분석한 결과 요금 즉시 납부, 소액결제 내역 확인 및 차단/해제 등 기본적인 통신 서비스 업무가 70% 가까이 차지하는 것을 확인했다. 이에 외국인 고객이 대부분의 업무를 편리하게 처리할 수 있도록 외국어 홈페이지를 제작했다고 LG유플러스는 설명했다.이번에 오픈한 외국어 홈페이지는 가입 정보 조회, 실시간 사용량 조회와 함께 요금 즉시 납부, 데이터 주고받기, 소액결제 차단 및 해제, 유심 일시정지 및 해제 등 기본적인 통신 서비스 업무를 처리할 수 있도록 한 것이 특징이다. 업무 처리 중 어려운 부분이 있거나, 궁금한 사항이 생기면 외국어 채팅 상담 서비스를 통해 도움을 받을 수도 있다.외국어 홈페이지에서는 통신 서비스 업무 처리 이외에도 멤버십 할인, 결합 상품 할인, 이벤트 등 고객이 받을 수 있는 혜택도 한 눈에 확인할 수 있다. 특히 멤버십의 경우 국문 버전의 ‘U+멤버스’ 앱을 거치지 않고 바로 발급된 바코드를 이용해 GS25편의점, 뚜레쥬르, 파리바게뜨 등 제휴사 할인 혜택을 받을 수 있도록 지원한다.뿐만 아니라 서류 제출 등 대면 업무가 필요한 경우를 대비해 ‘구글맵’을 기반으로 고객 위치에서 가장 가까이에 있는 매장을 알려주는 위치 서비스도 추가했으며, 통신 서비스 이용 경험 및 국내 체류 시 필요한 정보를 고객 간 공유할 수 있는 커뮤니티 기능인 ‘talk+’ 탭도 신설했다.아울러 LG유플러스는 고객 사용 편의성을 높이기 위해 기존 홈페이지 계정 외에도 토스, 카카오톡, 네이버, 애플 계정으로도 간편하게 로그인할 수 있도록 했으며 구글 계정 연동도 추가될 예정이다.LG유플러스는 상반기 내 영어 외에도 중국어, 베트남어, 러시아어 등 다양한 외국어 버전 홈페이지를 선보일 예정이다.김유진 LG유플러스 글로벌통신사업담당은 “외국인 고객이 통신 서비스를 사용하는 데 있어 불편함을 줄이고, 사용 경험 혁신을 위해 외국어 홈페이지를 마련했다”며 “통신 관련 업무 처리를 넘어 국내 체류 외국인에게 필요한 다양한 혜택을 제공해 외국어 홈페이지가 생활 편의 플랫폼으로 거듭날 수 있도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>티몬, 24일 '레고 올인데이'…온라인 단독 특가 판매</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004878617?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>티몬은 어린이날을 앞두고 24일 '레고 올인데이'를 열어 단독 특가 상품을 선보인다고 밝혔다. 10% 쿠폰과 토스페이 7% 중복할인을 더해 최대 17% 혜택을 받을 수 있다.티몬이 최근 3년간 4월1일~5월4일 완구용품 쇼핑 추이를 분석한 결과 어린이날 열흘 전인 4월24일을 기점으로 구매가 늘었고, 일주일 전인 27일이 가장 높았다.구매품목 1위는 로봇완구(21%)였고 역할놀이(17%), 학습교구·완구(10%)가 뒤를 이었다. 평균 단가는 3만원대였다.키워드 분석에선 레고가 매년 5위 안에 들었다.△클래식 라지 조립박스 △닌자고 니야의 사무라이 X 로봇 △듀플로 증기 기관차 등이 대표상품으로, 주요 인기 상품을 정상가 대비 최대 41% 저렴하게 만나볼 수 있다.이날 오전 11시 '티몬플레이'로 라이브 판매 방송을 진행하고 주요 상품 상세설명을 실시간으로 제공한다. 방송 시연 상품 구매 시 레고 스타터팩 만들기를 증정하며, 10만원 이상 구매 고객에겐 레고 틴케이스 세트를 사은품으로 준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.04.26.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>[취재수첩] 혁신도 허락 받아야 하는 한국</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004837196?sid=110</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>신규 가입 중단된 네이버 통장일일이 사업 허가 받아야 할 처지조미현 금융부 기자‘한국판 애플통장’으로 불리는 ‘네이버페이 머니 하나통장’의 신규 가입이 출시 5개월 만인 지난 20일 중단됐다. 금융위원회가 지난해 11월 임시 허가를 내주며 제한한 계좌 한도인 50만좌가 모두 소진됐기 때문이다.이 통장을 설계한 네이버파이낸셜과 하나은행 측은 금융위에 신설 계좌 수를 늘려달라고 요청하기로 했다. 하지만 두 회사는 언제, 얼마만큼 계좌 수가 늘어날지 소비자에게 정확히 알리지 못하고 있다. 모두 금융위의 손에 달려 있어서다.네이버 통장은 간편결제 서비스인 네이버페이에서 선불로 충전한 돈을 예금자보호가 되는 하나은행 계좌에 보관하는 혁신 상품이다. 과거 머지포인트 사태처럼 고객이 맡긴 선불 충전금이 휴지 조각이 되는 사례가 있었다. 소비자 입장에선 선불 충전금을 자기 계좌에서 안전하게 관리할 수 있다. 또 네이버페이로 결제 시 포인트 혜택을 얻고, 하나은행에선 이자를 받는다. 테크 기업과 은행이 손을 잡은 사례로 골드만삭스와 제휴한 애플의 ‘애플통장’에 견줄 만하다는 평가가 많다.하지만 네이버 통장은 현행법상 불법이다. 금융당국이 비은행에 예·적금 상품 판매 중개를 허용하지 않고 있어서다. 혁신금융서비스라는 특례제도를 통해 상품이 출시되기는 했지만, 사업이 지속 가능할지는 미지수다. 금융위에 2년 뒤 성과를 보고하고 재허가를 받아야 하기 때문이다. 네이버 통장뿐 아니다. 음악 저작권에 ‘조각 투자’하고 거래할 수 있는 세계 최초 플랫폼인 뮤직카우도 비슷한 처지다. 지난해 9월 혁신금융서비스에 지정된 뒤 본격 사업 재개를 앞두고 있지만, 내년 9월이면 또다시 금융위로부터 허가를 받아야 한다.미국 조사업체 CB인사이트에 따르면 지난해 기업가치가 10억달러 이상인 세계 유니콘 기업 1066개 중 20.8%가 핀테크 회사였다. 핀테크 유니콘 1위인 온라인 결제 플랫폼 기업 스트라이프는 기업가치가 950억달러(약 126조원)에 달한다. 하지만 한국에서 핀테크 유니콘은 토스 운영사인 비바리퍼블리카가 유일하다. 기업가치는 스트라이프의 10%에도 못 미친다.해외 핀테크 기업이 혁신의 속도를 최대치로 끌어올려 몸값을 키우고 있을 때 국내 핀테크 기업은 당국의 허가를 받기 위해 서류 만드는 데 시간을 쏟고 있는 처지다. 혁신보다 허가가 더 중요한 한국의 핀테크 생태계에서 세계적인 기업이 나올 것이라고 기대하는 건 무리일지 모른다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>2600억 번 카뱅도 26억 불과…사회공헌에 인색한 인뱅들</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000331894?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>고금리로 인한 은행의 막대한 이익과 성과급 잔치가 논란으로 떠오르면서 은행권의 사회공헌 책임을 강조하는 목소리도 커지고 있습니다. 그런데, 인터넷 은행들의 사회공헌이 안 그래도 부족한 대형 은행들에 비해서도 훨씬 더 인색한 것으로 나타났습니다. 이한승 기자, 인터넷 은행의 사회공헌 어느 정도 수준입니까?지난해 국내 은행권은 사회공헌에 1조1300억여원을 썼습니다.지난해 당기순이익 18조5천억여원의 6% 수준입니다.그런데 인터넷 은행의 사회공헌 규모는 이보다도 턱없이 적습니다. 카카오뱅크가 26억 원에 불과했고, 케이뱅크가 2억7천만원, 토스뱅크는 1억원에 그쳤습니다.지난해 당기순이익과 비교하면 1%에도 미치지 못할 정도인데요.토스뱅크의 경우 임직원 연봉이 평균 1억1900만원이라는 점을 감안하면 사회공헌금액이 직원 한 명의 임금보다도 적었습니다.가장 가장 실적이 좋은 카카오뱅크도 미미한 수준이군요?2600억원을 넘게 벌었는데, 사회공헌에 26억원을 썼으니까 1%도 채 쓰지 않은 것입니다.카카오뱅크는 사회공헌에 2021년 3억원을 썼던 것과 비교하면 1년 만에 9배가량 늘었다며, 회사 성장에 맞춰 사회공헌 활동을 확대하겠다고 밝혔습니다.다른 인터넷 은행은 어떤가요?케이뱅크 연간 당기순이익 지난 2021년 흑자로 돌아선 케이뱅크는 지난해에는 순이익 규모를 800억 원 넘게 늘렸는데요.그럼에도 순이익에서 사회공헌이 차지하는 비중은 0.3% 수준에 불과했습니다.돈을 더 벌었지만, 누적적자가 3천억 원 넘게 쌓여있다는 이유로 시중은행 수준의 사회공헌은 어렵다는 게 케이뱅크의 입장입니다.아직 연간 적자를 기록 중인 토스뱅크도 올해 흑자전환을 선언하긴 했지만, 아직 사회공헌에 힘을 기울이기엔 여력이 부족한 상황입니다.SBS Biz 이한승입니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>‘모바일 뱅크런’ 시대, 5천만원 예금 한도 괜찮을까</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/036/0000048060?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>토스뱅크 유동성 위기설은 ‘해프닝’으로 지나갔다지만미국 소셜미디어발 불안 확산→디지털 뱅크런 현실화에 은행 유동성 평가 강화 논의 나와모바일로 접속한 토스뱅크 애플리케이션. 연합뉴스“토스뱅크 미리 주는 예금, 이런 상품 개발은 왜 한 거야? (중략) 내부적으로 불안해 보이는데… 돈이 필요한 거야?”(Nk****)“조삼모사 아녀? 홍보는 확실히 되는 듯.”(sis****)“어떤 은행이 굳이 선이자 주면서 영업함? 후달리는 뭔가가 있다는 인식을 시장에 주는 순간 악순환 (후략)”(인생무****)2023년 3월25일 한 온라인 익명 커뮤니티에 올라온 게시글과 댓글의 일부다. 전날 토스뱅크는 ‘이자를 미리 주는 정기예금’ 상품을 출시했다. 일반적으로 정기예금은 만기가 되면 이자를 지급하는데 토스뱅크의 선이자 정기예금은 가입 즉시 이자부터 먼저 주는 상품이다.토스 ‘선이자 예금상품’ 출시가 유동성 위기설로이를 두고 일부 온라인 커뮤니티에선 뜻밖의 반응이 나타났다. ‘토스뱅크의 자금 사정이 어려워 이렇게 무리해서 예금을 유치하는 것 아니냐’고 의심했다. 특히 토스뱅크가 최근 파산한 미국 실리콘밸리은행처럼 채권에 많이 투자했다는 점이 부각되면서 우려가 이어졌다. 주말(3월25~26일)에 온라인 커뮤니티에서 토스뱅크 유동성 위기설이 돌자, 3월27일 홍민택 토스뱅크 대표는 한 토론회장에서 기자들과 만나 “유동성 문제는 전혀 없다. 사실 저희 유동성은 너무 많은 편이다. 이런 루머가 왜 나오는지 되게 의아하다”고 말하며 진화했다. 홍 대표는 “이 오해가 어디서 나왔나 보면 시장이 너무 불안하고 은행이 어려움을 겪으니 국내에도 그런 일이 있지 않을까 했을 때 상대적으로 저희가 업력이 작고 젊은 은행이다보니 약간 소비자의 불안감이 있는 것 같다”고 말했다. 실제 토스뱅크에서 예금이 대거 이탈하는 상황은 벌어지지 않았고, 위기설은 ‘해프닝’으로 마무리됐다. 하지만 소셜미디어로 빠르게 번지는 불안이 디지털금융과 만날 경우 순식간에 예금인출행렬(뱅크런)이 나타날 수 있고 이는 은행 존립을 흔드는 새로운 위협이라는 사실은 분명해지고 있다. 최근 전세계 금융위기 걱정을 키운 실리콘밸리은행의 파산에도 소셜미디어가 자리하고 있다. 미국 스타트업을 주된 고객으로 영업하는 실리콘밸리은행은 2023년 3월8일 오후 채권 투자 실패로 18억달러의 손실을 본 사실과 유상증자를 통한 자본확충을 추진한다는 계획을 공지했다. 다음날 오전까지만 해도 대규모 예금인출 징후는 없었다. 하지만 오후부터 업무용 메신저인 슬랙, 와츠앱 등에서 ‘실리콘밸리은행의 자금 사정이 불안하다’는 소문이 퍼졌다. 벤처캐피털 회사들이 기업에 “예금보호 한도(25만달러)를 초과하는 돈은 인출하라”고 조언하면서 몇 시간 만에 420억달러 인출 요청이 쇄도했고, 영업 종료 시점엔 현금 9억5800만달러가 부족했다. 은행은 다음날 아침 연방준비제도(Fed)에 “고객 요청에 따른 예금인출 규모가 훨씬 더 클 것”이라 알렸고 그 규모는 1천억달러였다. 하루 만에 1420억달러 인출 요청이 일어났는데, 2022년 말 기준 실리콘밸리은행 예금잔액(1750억달러)의 81%에 이르는 규모다. 연준 직원들은 3월9일 실리콘밸리은행에 수십억달러를 빌려줄 방법을 찾았지만, 1천억달러가 넘는 인출요청액을 감당해줄 수는 없었다. 결국 은행은 10일 오전 폐쇄됐다. 이 모든 일이 48시간도 안 돼 벌어졌다.인출 요청 1천억달러 넘는 데 48시간도 안 걸려이후 금융당국은 은행의 유동성 위기가 소셜미디어로 빠르게 확산됐다고 털어놨다. 마틴 그룬버그 연방예금보험공사 의장은 3월28일 상원 은행위원회 청문회에서 “소셜미디어를 통해 증폭된 뉴스에 반응해 자금이 엄청난 속도로 유출될 수 있는 오늘날의 환경에서는 예금을 관리하기 매우 어렵다”고 말했다. 전통적인 뱅크런은 예금자가 은행창구나 자동입출금기에서 돈을 인출하는 현상을 일컬었다. 오프라인으로 돈을 찾기에 예금이 모두 빠져나가기까지 시간이 걸린다. 하지만 디지털금융이 발달한 현재는 예금자가 은행을 방문하지 않고도 스마트폰 등을 통해 손가락 터치 몇 차례만으로 대규모 예금인출이 일어난다. 한국은행에 따르면, 2022년 기준 전체 입출금과 이체 건수 가운데 인터넷뱅킹이 차지하는 비중은 77.7%다. 일평균 인터넷뱅킹 이용 건수(1971만 건)에서 모바일뱅킹(1684만 건)의 비중도 85.4%다. 디지털 뱅크런은 전통적 방식보다 규모가 크고 빠른 속도로 일어나 금융시장에 미치는 충격이 더 크다. 은행이 신속하게 대응하기도 어려워진다.부산저축은행과 대전저축은행이 금융당국으로부터 6개월 영업정지를 당한 2011년 2월18일 부산2저축은행 해운대지점 예금자들이 예금인출을 위한 번호표를 받으려고 줄을 서서 기다리고 있다. 연합뉴스2008년 글로벌 금융위기 이후 세계 금융당국은 은행이 충분한 자본을 갖고 자금 부족에 대응할 수 있도록 규제를 강화했다. 현재 은행은 현금, 국채, 중앙은행 지급준비금 같은 고유동성자산을 ‘향후 30일간 순현금유출액’보다 많이 보유해야 하는 유동성커버리지비율(LCR) 규제를 적용받는다. 순현금유출액은 은행이 보유한 자산 등을 고려해 ‘예상 이탈률’을 적용해 산출한다. 디지털 뱅크런이 현실화한 상황에서 유동성 평가를 강화해야 한다는 논의가 나오고 있다. 이소영 예금보험공사 리스크총괄부 조사역은 2020년 낸 보고서에서 “글로벌 금융위기와 비교했을 때 현재는 대부분 예금이 인터넷을 통해 즉시 해지되고 이체되므로, 금융의 디지털화를 반영해 유동성커버리지비율 산출시 (자금)이탈률을 더 높게 적용해 유동성 리스크를 관리할 필요가 있다”고 말했다.(‘금융의 디지털화 확산에 따른 금융회사의 유동성리스크 분석 및 시사점’)연준 부의장 “새 위험에 비춰 은행 인식 발전시켜야”마이클 바 연방준비제도(Fed) 부의장은 3월28일 청문회에서 “최근 사건은 변화하는 기술과 새로운 위험에 비춰 은행에 대한 이해를 발전시켜야 한다는 걸 보여줬다. 은행업, 고객 행동, 소셜미디어, 집중화되고 새로운 비즈니스모델 등에 대해 교훈을 분석하고 있으며, 금융안정성에 대한 우리의 생각도 고려하고 있다”고 말했다. 소셜미디어를 통한 불안 확산과 이에 따른 디지털 뱅크런을 원천적으로 방지하기는 어렵다. 이 때문에 현실적으로 예금보험 한도를 올리는 방안도 거론된다. 현재 한국은 은행이 파산할 경우 고객이 찾을 수 있는 예금 한도가 5천만원이다. 25만달러(약 3억원)인 미국보다 매우 낮다. 민세진 동국대 교수(경제학)는 “뱅크런은 발생할 수 있는 일이다. 건전한 은행도 무너질 수 있다는 우려 때문에 예금자보험제도가 유지되는데, 예금보험 한도를 올릴 필요가 있다. 다만 은행이 내는 예금보험료가 고객한테 전가되지 않도록 감독을 함께 강화해야 한다”고 말했다. 이경미 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>중남미 '핑크 타이드' 바람…파라과이도 합류하나</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004179956?sid=104</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>■中, 중남미 영향력 확대좌파 알레그레 대선 지지율 40%우파 집권당 페냐에 5%P차 앞서아르헨·브라질·페루 이은 좌회전中 경협확대·안보동맹···美 긴장파라과이 대선 후보인 야당 정통급진자유당 소속 에프라인 알레그레 후보. AP연합뉴스파라과이 대선이 임박한 16일(현지 시간) 수도 아순시온에서 야당 정통급진자유당 소속 에프라인 알레그레 후보의 지지자들이 유세에 나서고 있다. 로이터연합뉴스[서울경제] 70년 넘게 우파 정권이 집권하며 ‘우파 텃밭’으로 여겨져온 남미 파라과이의 대선 판도가 요동치고 있다. 선거를 2주가량 앞두고 진행된 여론조사에서 중도 좌파 계열의 야당 후보가 여당 후보를 앞서기 시작하면서다. 지난 해 말 남미 1위 경제 대국 브라질의 합류로 중남미 주요국에 모두 좌파 정부가 들어서는 2차 ‘핑크타이드’가 본격화한 가운데 파라과이에도 핑크빛 물결이 일지 주목된다.16일(현지 시간) ABC콜로르 등 현지 매체에 따르면 이달 30일 파라과이 대선을 앞두고 실시된 각종 여론조사에서 중도 좌파 계열의 정통급진자유당(PLRA) 소속 에프라인 알레그레 후보가 집권당인 공화국민연합당(ANR)의 산티아고 페냐 후보를 앞서고 있다. 알레그레 후보는 10일 발표된 다토스의 여론조사에서 40.6%의 지지율을 나타내며 35.5%를 기록한 페냐 후보를 따돌렸다. 두 달 전까지만 해도 페냐 후보에게 밀리던 알레그레 후보는 대선이 한 달 앞으로 다가온 지난달 말을 기점으로 페냐 후보를 근소하게 앞서기 시작했다.사진 설명파라과이에서 좌파 후보의 선전은 상당한 의미를 갖는다. 1947년 이후 집권 여당이 야당에 대통령 자리를 내준 적이 2008년부터 2012년까지 단 4년에 불과하다. 중도 좌파 성향의 페르난도 루고 전 대통령이 한 차례 정권 교체에 성공했지만 그조차도 탄핵당하며 임기를 채우지 못했다. 현재 변화의 물결을 주도하고 있는 알레그레 후보 역시 앞서 2013년과 2018년 대선에 출마해 고배를 마신 바 있다. 현지 매체들은 보수 여당의 장기 집권에 대한 피로감과 연이은 부패 의혹에 민심이 돌아섰다고 분석했다.알레그레 후보의 당선이 현실화할 경우 중남미 전체 정치 지형에도 적지 않은 영향을 줄 것으로 보인다. 2018년 중남미에 좌파 열풍이 불면서 멕시코를 시작으로 2019년 아르헨티나, 2020년 볼리비아, 2021년 페루, 2022년 콜롬비아·브라질에 줄줄이 좌파 정권이 들어섰다. 우파 정권이 버티고 있는 국가는 파라과이를 비롯해 우루과이·에콰도르·과테말라 정도다.중남미와 인접한 미국은 난감한 상황이 됐다. 가뜩이나 경제를 중심으로 중남미 국가들과 중국의 밀착이 가속화하는 상황에서 중국의 영향력이 전방위적으로 확대될 우려가 높아졌기 때문이다. 이전 집권 기간 동안 브릭스(BRICS)를 앞세워 중국과 돈독한 관계를 이어온 루이스 이나시우 룰라 다시우바 브라질 대통령의 최근 행보도 미국에는 부담이다. 룰라 대통령은 14일 중국에서 시진핑 중국 국가주석과 만나 미국의 패권에 맞선 다자주의 강화를 선언하고 ‘탈달러’에 대한 공감대를 확인했다. 알레그레 후보 역시 친중 성향이 짙다. 그는 최근 한 인터뷰에서 “이번 대선에서 승리한다면 1957년 수교 이후 60여 년간 이어진 대만과의 외교 관계를 끝낼 수 있다”며 “가축과 곡물 분야의 수출을 늘리기 위해서는 중국과의 관계 수립이 필요하다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.04.21.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>대기업과 맞짱뜨는 스타트업…"녹록치 않네" [긱스]</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004835741?sid=105</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.스타트업이 대기업과 경쟁하는 경우는 흔치 않습니다. 보통 스타트업은 대기업이 없는 시장에서 사업을 시작하기 때문입니다. 새로운 시장을 개척하거나 틈새시장을 노리는 게 보통입니다. 인력과 자본에서 열세인 스타트업이 대기업이 진출했거나 진입할 시장을 피하는 건 어찌보면 당연한 일입니다. 그럼에도 특유의 뚝심으로 대기업과 '맞짱'을 마다하지 않은 스타트업들이 있습니다. 한경 긱스(Geeks)가 해당 업체의 지난해 실적을 살펴봤습니다.글로벌 대기업과 '맞짱', 왓챠 왓챠의 오리지널 드라마 '오늘은 좀 매울지도 몰라'최근 경쟁이 가장 격화한 국내 인터넷 콘텐츠 시장 중 하나가 OTT다. 넷플릭스가 시장을 압도하고 있지만 웨이브, 티빙 등 국내 업체들도 선전하고 있다. 글로벌 엔터테인먼트 콘텐츠의 강자인 디즈니의 디즈니플러스도 마블 등 다양한 인기 콘텐츠로 1위 자리를 노리고 있다. 후발주자인 쿠팡플레이는 쿠팡 멤버십 가입자에게 무료로 관련 서비스를 제공하면서 이용자 확보에 나서고 있다. 이런 글로벌업체와 국내 대기업의 사이에서 OTT 스타트업 왓챠가 고군분투 중이다.하지만 왓챠의 지난해 실적은 1년 전보다 악화했다. 생사의 갈림길에 섰다는 지적도 나온다. 지난해 영업손실이 두 배 이상 증가하고 신규 투자할 현금성 자산도 크게 줄었다. 그동안 국내외 대기업 OTT업체의 사이에서 힘겹게 버틴 왓챠가 다시 살아날지 업계는 주목하고 있다.  왓차의 지난해 매출(연결기준)은 733억원으로 1년전(708억원)보다 소폭 증가했다. 하지만 영업손실은 248억원에서 555억원으로 커졌다. 왓챠의 감사를 맡은 신한회계법인은 감사 의견으로 ‘계속기업 관련 중요한 불확실성’을 지적했다. 부채가 자산보다 과다하게 많아 지속 가능한 기업 운영이 어려울 수 있다는 얘기다. 지난해 기준 왓챠의 유동부채(기업의 부채 가운데 1년 안에 갚아야 하는 빚)는 유동자산보다 323억원 더 많았다. 현금성 자산이 많 감소한 것도 부담이다. 보통 현금성 자산은 신규 투자, 인력 확대 등에 쓰인다. 왓챠의 현금성 자산은 2021년 말 281억원에서 지난해 말 42억원으로 감소했다. 왓챠의 실적 악화는 국내 OTT 시장의 ‘쩐의 전쟁’ 결과라는 분석이 나온다. OTT 업체들은  소비자들의 눈길을 사로잡을 영상을 확보하기 위해 대규모 자금을 쏟아부었다. 넷플릭스와 디즈니+, 애플TV 등 글로벌 기업들과 티빙(CJ), 웨이브(SK텔레콤) 등은 매년 수백억원에서 수천억원을 투입했다. 티빙과 웨이브도 출혈 경쟁으로 지난해 각각 1192억원과 1217억원이 영업 손실을 기록했다. 왓챠도 시장에서 밀리지 않기 위해 콘텐츠 투자를 확대할 수밖에 없었다. 하지만 경쟁업체 공세에 밀려 이용자 수(아이지에이웍스의 모바일인덱스 기준)는 올 2월 71만명으로 2년 전(139만명)보다 절반 정도 줄었다. 최근 투자 유치 실패로 왓챠가 막다른 길에 몰렸다는 지적도 나온다. 왓챠는 지난해 상반기에는 1000억원 규모의 상장 전 투자 유치(프리IPO)에 나섰다. 하지만 투자 시장 위축 등의 영향으로 자금 확보에 어려움을 겪었다. 작년 하반기에는 결국 회사 매각 카드까지 꺼냈다. LG유플러스, 웨이브, 리디 등이 인수 사업자로 거론됐지만 거래가 성사되지는 못했다. 왓챠는 효율적인 자금 집행으로 이번 위기를 넘기겠다는 계획이다. 왓챠는 자사의 콘텐츠 리뷰 서비스인 왓챠피디아가 보유한 국내외 최고 수준의 이용자 평점 데이터(6억5000만개 이상)를 올해도 적극 활용할 예정이다. 지난해 인기몰이에 성공한 드라마 ‘시맨틱 에러’도 AI로 관련 데이터를 분석해 제작했다. 왓챠 관계자는 “다른 OTT 서비스에서는 볼 수 없는 콘텐츠로 소비자를 공략할 것”이라고 말했다.왓챠는 최신 극장 상영작의 유통도 최근 시작하는 등 매출 확대에도 나섰다. 시청자들이 특정 영화를 동시에 감상하는 캠페인인 '왓챠영화파티'로 영화 애호가를 노린 마케팅 활동도 시작했다. 왓챠영화파티는 영화 전문가의 해설을 들으면서 시청자가 채팅으로 소통하며 동시에 영화를 시청하는 이벤트다. 왓챠는 이용자 확대를 위해 광고 요금제 도입도 검토 중이다. 광고를 보여주는 대신 이용료를 낮추는 요금제다. 넷플릭스도 지난해 월 5500원의 광고 요금제를 출시했다. 카모에 맞서는 타다와 아이엠택시모빌리티 산업 중에서는 스타트업이 콜택시 사업에서 대기업과 경쟁 중이다. 그동안 국내 모바일 앱 기반 콜택시 시장을 키운 건 대기업으로 성장한 카카오였다. 중견기업 정도 수준이었던 카카오는 2015년 '카카오택시' 서비스를 시작했다. 후발주자인 스타트업들은 콜택시가 아닌 다른 방식으로 카카오와 경쟁하려고 했다. 타다가 대표적이다. 타다는 2018년 차량 호출 서비스를 시작했고, 1년 만에 회원 170만 명을 모았다. 기존 택시에서 접하기 어려웠던 고급 차량과 승객 맞춤 서비스로 소비자를 공략했다. 하지만 택시업계의 반발이 거셌다. 택시업계는 타다가 ‘위법 콜택시’라고 주장했다. 이에 정치권은 2020년 택시 면허를 다량 확보하거나 일정 기여금을 내는 업체만 모빌리티 사업을 할 수 있다는 내용을 법제화했다.모빌리티 서비스를 갓 시작한 스타트업에는 버거운 조건이었다. 업계가 해당 법안을 ‘타다 금지법’(여객자동차운수사업법 개정안)으로 부른 이유다. 결국 타다는 관련 서비스를 접어야 했다. 이후 카카오의 자회사인 카카오모빌리티 등 자금력이 있는 일부 기업만 모빌리티 사업을 확장할 수 있었다. 타다는 2021년 비바리퍼블리카로부터 거액의 투자를 받고서야 모빌리티 사업을 본격적으로 다시 시작할 수 있었다.하지만 타다를 운영하는 브이씨엔씨의 지난해 성적표는 좋지 않다. 매출은 2021년 38억원에서 지난해 41억원으로 소폭 늘었다. 영업손실은 같은 기간 177억원에서 262억원으로 증가했다. 아이엠택시를 운영하는 진모빌리티의 경우에는 지난해 매출 217억원으로 1년 전(56억원)보다 크게 늘었다. 반면 영업손실은 138억원에서 136억원으로 소폭 줄이는 데 그쳤다. 두 기업 모두 지난해 마케팅 비용 증가 등 영업비용이 늘어난 영향으로 영업손실을 기록했다. 반면 대기업 카카오모빌리티는 지난해 역대 최대 실적을 기록했다. 연결기준 매출 7915억원과 영업이익 195억원을 올렸다. 각각 1년 전보다 45%와 55% 증가했다. 2017년 카카오에서 분사하고 한동안 적자를 기록했던 카카오모빌리티는 2021년에 첫 흑자를 냈다.SK스퀘어의 자회사인 티맵모빌리티와 우버의 합작회사인 우티는 지난해 회계상으로 마이너스 매출 128억원을 기록했다. 이례적인 수치다. 마케팅 비용 증가 등을 회계 기준에 반영한 결과다. 2021년 매출은 44억원이었다. 작년 당기순손실은 1185억원으로 집계됐다. 1년 전(-409억원)보다 손실 규모가 세 배 정도 커졌다.브이씨엔씨와 진모빌리티는 1위 사업자 카카오모빌리티에 대항하기 위해 최근 합병을 검토하고 있다. 대형 택시에서 두 회사의 운영 차량을 합치면 카카오모빌리티(2000대)와 비슷한 수준으로 알려졌다.   금융권의 '메기' 토스연합뉴스금융업에서는 국내 대표 유니콘 기업(기업가치 1조원 이상 비상장사)인 핀테크 스타트업 비바리퍼블리카가 빠른 속도로 성장하고 있다. 비바리퍼블리카는 간편 송금 서비스 토스를 앞세워 가입자를 확대했다. 은행업, 증권 등 다른 금융 서비스로 사업을 확대하자 금융권은 반발했고, 금융당국도 각종 규제로 토스를 가로막았다. 하지만 스마트폰으로 금융 서비스를 이용하는 소비자가 급증하면서 기존 금융권도 토스 서비스를 참고하기 시작했다. 정부도 금융규제 샌드박스 등을 통해 관련 규제 개선에 나설 수밖에 없었다.토스는 국내 금융권에서 ‘메기’ 역할을 톡톡히 했다는 평가다. 오프라인 영업점이 없는 토스뱅크, 토스증권 등을 잇달아 내놨다. 토스뱅크는 지난해 600만명을 넘겼다. 기존 제1금융권에서 대출받기 어려웠던 중저신용자의 대출 비중이 작년 말 기준 40.4%로 가장 높았다.하지만 지난해 실적을 보면 수익성이 좋지 않다. 비바리퍼블리카의 지난해 매출(연결기준)은 처음으로 1조원을 돌파한 1조1888억원을 기록했다. 1년 전보다 52% 늘었다. 반면 영업손실은 전년보다 38% 증가한 2472억원으로 집계됐다. 토스 매출액의 60% 정도를 차지한 결제대행(PG) 서비스였다. 이 부문을 맡고 있는 자회사 토스페이먼츠의 지난해 매출은 전년 동기 대비 95% 늘어난 7405억원이었다. 국내 PG업체 중에서는 3위였다. 다만 1~2위와 격차가 크게 줄었다. 지난해 매출 1위 사업자는 KG이니시스(1조1770억원)였다. 2위는 NHN한국사이버결제(8228억원). 다만 KG이니시스와 KG이니시스가 모두 지난해 400억원 이상의 영업이익을 냈지만 토스페이먼츠의 영업손실은 687억원에 달했다. 토스페이먼츠는 비바리퍼블리카가 2020년 LG유플러스의 PG 부문을 인수하고 설립한 회사다.토스 전체 매출에서 두 번째로 비중이 큰 계열사는 토스증권이다. 지난해 매출 1276억원, 영업손실 325억원을 기록했다. 업계 1위인 미래에셋증권의 지난해 실적(매출 19조1612억원, 영업이익 8459억원)과 비교하면 차이가 크다. 비바리퍼블리카가 36.84%의 지분을 보유중인 토스뱅크의 지난해 매출과 영업손실은 각각 2449억원과 2449억원으로 집계됐다.인터넷은행 업계의 1위 업체인 카카오뱅크의 지난해 매출은 1조6058억원이었다. 영업이익은 3532억원으로 집계됐다. 업계 관계자는 “토스는 은행, 증권, 간편결제 등에서 이용자 확보를 위해 마케팅비, 인력 확보 등 비용이 많이 들었다"라며 "앞으로 매출은 계속 늘겠지만 흑자 전환은 시간이 걸릴 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>한국은행 총재 초청 은행장 간담회</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013900116?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 이창용 한국은행 총재가 24일 서울 종로구 은행연합회에서 열린 ' 한국은행 총재 초청 은행장 간담회'에 앞서 참석자들과 기념 촬영하고 있다.     앞줄 왼쪽부터 김종호 기술보증기금 이사장, 이원덕 우리은행장, 유명순 한국씨티은행장, 이창용 한국은행 총재, 김광수 은행연합회 회장, 강신숙 수협은행장, 최원목 신용보증기금 이사장, 방성빈 부산은행장. 가운데 왼쪽부터 이석용 농협은행장, 이재근 국민은행장, 이승열 하나은행장, 정상혁 신한은행장, 윤호영 카카오뱅크 대표, 홍민택 토스뱅크 대표, 김성태 기업은행장, 서호성 케이뱅크 은행장. 뒷줄 왼쪽부터 이상형 한국은행 부총재보, 이호형 은행연합회 전무이사, 고병일 광주은행장, 백종일 전북은행장, 예경탁 경남은행장, 황병우 대구은행장. 2023.4.24 [은행연합회 제공. 재판매 및 DB 금지]    photo@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>토스증권, 해외주식 양도소득세 대행신고 무료 제공</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005118095?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>18일부터 신청… 신고·납부 5월 31일까지토스증권(대표 김승연)은 지난해 해외주식을 판매한 고객들을 위한 양도소득세 대행신고를 무료로 제공한다고 18일 밝혔다.대상은 8개 증권사 합산기준으로 2022년 해외주식 매매차익이 250만원을 초과하는 고객이다. 예상 세금 여부는 토스증권에서 자동계산 해준다. 합산 서비스를 제공하는 8개 증권사는 토스증권, 키움증권, 미래에셋증권, 한국투자증권, KB증권, 신한투자증권, NH투자증권, 삼성증권 등이다.신청은 토스증권 앱의 해외주식 양도소득세 신고하기 배너를 클릭하면 된다. 신청 기간은 오는 18일부터 시작될 예정이다. 타사 합산 고객은 해당 증권사의 양도소득세 계산내역 서류를 업로드해야 한다. 토스증권 거래내역은 별도로 업로드할 필요가 없다.일정은 대행신청(4월 18일~5월 9일), 제휴 세무법인의 대행신고(5월 10일~5월 19일), 신고완료 안내 및 납부(5월 22일~5월 31일)순으로 진행된다.해외주식 양도소득세는 전년 해외주식 판매수익에서 기본공제 250만원, 수수료, 제세금을 빼고 차익이 있을때 발생한다. 차익의 22%가 세금으로 부과된다. 신고와 납부는 매년 5월1일부터 31일까지다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.04.27.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>[ET톡]금융 알뜰폰의 진정한 성장</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003094753?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>금융 알뜰폰이 떠오르고 있다. KB국민은행 리브모바일은 규제 샌드박스 기업을 넘어 알뜰폰 정식사업자가 됐다. 토스도 직관적인 사용자환경을 내세운 토스모바일로 MZ세대를 끌어들이고 있다. 신한은행과 하나은행은 직접 진출은 아니지만 각자 통신사 및 알뜰폰 플랫폼과 손잡고 전용 요금제를 선보이고 있다.시장이 금융 알뜰폰에 기대하는 것은 단순히 저렴한 요금제를 앞세워서 기존 알뜰폰 시장 이용자를 빨아들이는 것이 아니다. 소비자와 가장 밀접한 금융·통신 데이터를 융합한 새로운 혁신 서비스를 선보이고 이용자 편의를 향상할 수 있는 방향을 원한다. 특히 금융기업이 통신 데이터를 확보함으로써 다양한 신용평가 모형에도 활용할 수 있게 됐다. 이를 통해 기업과 소비자가 얻을 수 있는 혜택도 클 것이다. 실제 정부는 이 같은 역할을 기대하고 알뜰폰을 부수 업무로 지정할 길을 열어 줬다.실증 특례 기간에 KB국민은행은 이 같은 시도를 이어 왔다. 리브모바일과 연계한 예·적금 상품을 통해 금융 및 통신 이용자에게 혜택을 제공했다. KB국민인증서를 알뜰폰 가입 등에 적용, 이용자의 페인포인트를 해결하기도 했다. 통신요금 납부 등 다양한 통신 데이터를 마이데이터와 연계하는 방안도 고려하고 있다.이처럼 앞으로 시장에 진출할 금융 알뜰폰은 디지털 시대를 맞아 개인 맞춤형 서비스 제공에 앞장설 수 있는 사업자로 거듭나야 할 것이다. 알뜰폰뿐만 아니라 다양한 비금융 분야와의 융합 사업 가능성을 시장에 보이는 역할을 해야만 한다.혁신 서비스를 선보이는 것과 더불어 기존 알뜰폰 시장과 함께 성장하는 상생의 태도를 견지해야 할 것이다. 기존 알뜰폰 사업자들도 무조건적인 반대보다는 국민은행이 내놓을 상생안을 기다려 보겠다는 입장이다. 그러나 거대 자본을 무기로 해서 금융 알뜰폰이 시장 내 공정 경쟁 구도를 해칠 수 있다는 우려는 여전하다.선도 사업자인 국민은행이 부수업무 신고에 앞서 상생을 위한 진정성을 보여 줘야 한다. 실제 리브모바일은 금융위원회와 상생 관련 논의를 지속하는 한편 알뜰폰협회의 의견을 듣고 있다. 이를 바탕으로 무엇보다 실효성 있는 방안이 나와야 한다.이동통신 자회사 수준의 규제까지는 어렵더라도 도매 대가 이하 상품 지양 등은 당국과 논의해서 관련 규정 등에 넣을 수 있다. 시장에 직접 기여할 방안도 있다. 기존에 알뜰폰 이미지 제고를 위한 공간으로 만든 알뜰폰스퀘어를 더욱 고도화할 수 있다. 2호점을 만든다면 유동 인구가 많고 실제 사업자의 다양한 상품을 홍보할 수 있는 곳에 구축할 수도 있다.융합을 기반으로 한 혁신 시대다. 금융과 통신 융합도 결국은 이용자 편의를 높이고 세상에 가치를 더하는 쪽으로 진화해야 할 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.04.26.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>[수요논점]“비대면 진료 없어지면 한밤중 아이가 아플 때 어떡하죠…”</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003493703?sid=110</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>한시 허용 비대면 진료 제도화 논란《코로나19 거리 두기로 인해 수십 년간 풀지 못했던 의료계의 숙제가 단번에 시행된 것이 있다. 바로 비대면 진료다. 정부는 2020년 2월 코로나19 위기경보 단계가 ‘심각’이 되자 유무선 전화나 화상통화를 이용한 비대면 진료를 한시적으로 허용했다. 지난해 12월 까지 3661만 건, 1379만 명을 상대로 비대면 진료가 이뤄졌다.세계보건기구(WHO)는 조만간 ‘코로나19 국제적 공중보건 비상 상태’를 해제할 예정이다. 여기에 발맞춰 우리 정부가 코로나19 단계를 ‘심각’에서 ‘경계’ 이하로 낮추면 비대면 진료의 법적 근거가 사라진다. 정부는 비대면 진료 제도화를 추진 중이고, 국회에도 5개의 법안이 발의돼 있다. 하지만 비대면 진료의 초진 허용을 놓고 갈등이 빚어지고 있다.》● 비대면 진료 자체는 허용  서울 중구 보아스 이비인후과병원에서 오재국 원장이 확진판정을 받은 환자에게 전화를 걸어 비대면 진료를 보고있다. 2022.02.17. 뉴시스정부는 2월 대한의사협회와 의료현안 협의체에서 의원급 의료기관 중심의 비대면 진료 제도화 추진에 합의했다. 이런 합의가 가능했던 것은 3년 가까운 비대면 진료의 성과가 썩 괜찮았기 때문이다. 국민건강보험공단에서 2020년 전화로 진료를 받은 환자 및 가족 500명을 조사한 결과 응답자 77.8%가 ‘만족한다’고 답했다. 87.8%는 ‘재이용 의향이 있다’고 했다. 비대면 진료에 따른 심각한 의료 사고는 확인되지 않았다. 처방 과정에서 누락, 실수 등 5건만 정부에 보고됐다. 또 전체 진료 건수의 86.2%는 의원급 의료기관이 담당했다. 이를 근거로 찬성 측에서는 비대면 진료의 효용성과 안전성이 검증됐다고 주장하고 있다. 비대면 진료는 2000년 시범사업을 처음 실시한 이래 역대 정부에서 대부분 추진했으나 의료계의 반대로 무산됐다. 하지만 코로나19로 인한 뜻밖의 실험을 통해 “대형병원으로 환자가 몰려 동네의원 설 자리 없어진다” “심각한 의료 사고가 발생해 국민 건강을 해친다”는 기존 논리의 설득력이 약해졌다. 이에 따라 어떤 방식으로든 비대면 진료가 계속 허용될 것이라는 전망이 우세하다. 경제협력개발기구(OECD) 38개 국가 중 비대면 진료 자체를 금지한 국가는 우리나라 외에는 없다.● 초진 vs 재진 하지만 비대면 진료를 초진과 재진 중 언제부터 허용할 것인지를 놓고는 갈등이 심각하다. 정부-의협의 비대면 진료 합의는 재진만을 대상으로 하고 있고, 현재 국회에 발의된 5개 법안 중 4개도 초진은 허용하지 않는다. 이에 대해 비대면 진료 앱을 운영해온 스타트업 관련 업체들의 반발이 거세다. 스타트업 단체인 코리아스타트업포럼 산하 원격의료산업협의회(원산협)는 그동안 초진이 99%에 달하는데 재진만 허용하는 건 말이 안 되고 기업들도 살아남을 수 없을 것이라고 주장하고 있다. 이들은 14일부터 초진부터 비대면 진료를 허용하자는 인터넷서명운동을 벌이고 있다. 김봉진 배달의민족 창업자, 박재욱 쏘카 대표, 이수진 야놀자 대표, 이승건 토스 대표, 이승재 오늘의집 대표 등 유명 스타트업 대표들이 잇따라 서명에 나섰다. 일주일 만에 10만 명을 넘었다. 이들은 비대면 진료가 정치권의 눈치 보기로 ‘제2의 타다’가 돼서는 안 된다는 입장이다. 구태언 법무법인 린 변호사는 “3000만 건이 넘는 비대면 진료가 이뤄지면서 플랫폼 사고가 없었는데도 허가제를 실시하는 것은 지나친 규제”라고 말했다. 반면 의료계는 반대의 목소리를 높이고 있다. 그간 비대면 진료는 전화를 통한 문진이 80%를 차지했다. 의료계는 촉진 청진 등으로 환자의 상태를 체크할 수 없어 정확한 진단이 어렵다는 입장이다. 주요 7개국(G7) 중 초진 비대면을 허용한 국가는 영국, 캐나다처럼 평소 의사를 대면하기 힘든 나라들이며 미국도 일부 공공의료 대상자에게 내년 말까지 허용하고 있다는 것이다. 우봉식 대한의사협회 의료정책연구소장은 “비대면 진료에서 환자의 안전성을 확보하기 위해 ‘초진 불가, 재진 환자 위주’ 방식을 반드시 지켜야 한다”고 말했다.● 의료산업 주도권 쟁탈전 서로 간에 진실 공방도 벌어지고 있다. 의료계는 원산협의 99% 초진 주장은 틀렸다고 한다. 의료계는 건강보험심사평가원 자료를 인용해 코로나19 기간 비대면 초진은 18.5%, 재진은 81.5%였다고 주장한다. 하지만 원산협은 이 자료에서 집계한 1832만 건 중 초·재진 구분이 불가능한 경우가 843만 건(46%)이나 된다고 주장했다. 비대면 의료 현장에선 초·재진 구분이 잘 안된다는 것이다. 한 의료계 관계자는 “정확한 숫자는 18.5∼99% 사이에 존재할 것”이라고 말했다. 의료계는 ‘국민 건강’, 산업계는 ‘국민 편익’을 내세우지만 서로 물러설 수 없는 건 비대면 진료가 의료산업의 주도권을 좌우할 수 있기 때문이다. 의료계는 초진을 허용할 경우, 플랫폼이 환자들의 의료기관 선택에 개입할 수 있다는 점을 꺼린다. 환자가 비대면 의료기관을 검색할 때 플랫폼이 ‘가장 가까운 곳’ ‘가장 평가가 좋은 곳’ 등 조건을 달아 보여줄 수 있다. 또 ‘프리미엄 서비스’ 같은 이름으로 광고료를 낸 병·의원부터 소개할 가능성이 높다. 가맹 병·의원이 많아질수록 플랫폼의 시장 장악력도 커져 병·의원이 플랫폼에 종속될 수 있다. 반대로 재진만 허용할 경우 환자의 병·의원 선택은 대부분 ‘초진한 병·의원’으로 한정된다. 비대면 플랫폼으로선 확실한 수익 구조를 만들기 어려워진다.● 다음 달 중단되면 환자 불편 예상 경기 성남시 성남시의료원 재택치료상황실에서 의료진이 코로나19 재택치료 환자와 비대면 진료를 하고 있다. 2022.01.19. 뉴시스당장 우려가 되는 건 초·재진 갈등으로 다음 달경 한시적 비대면 진료가 아무 후속 조치 없이 끝나는 것이다. 이로 인한 환자들의 불편은 매우 클 것으로 보인다. 환자단체연합회는 지난달 하순 ‘환자의 의료서비스 접근권 확대’ 차원에서 비대면 진료를 바라봐야 한다고 강조했다. 오지에 사는 환자, 중증장애인 같은 거동 불편자에게 비대면 진료를 가장 먼저 적용하고 나아가 고혈압 당뇨 등 만성질환자 등도 포함시켜야 한다는 것이다. 고령화사회로 갈수록 비대면의 필요성이 높아지게 된다. 여기에 맞벌이 부부나 1인 가구 등 비대면 진료의 효용성과 편리함을 알게 된 환자들의 불만은 어떻게 할 것인지가 관건이다. 한국보건사회연구원이 지난해 가을 900명을 상대로 온라인 조사를 한 결과 농어촌이나 중소도시보다 대도시 환자가, 30대 후반∼40대 초반 연령층이 비대면 진료를 더 활발히 이용한 것으로 밝혀졌다. 인터넷 맘카페 등에서 비대면 진료 이용 후기를 보면 휴일 저녁에 아이의 감기 기운이 심해져도 응급실에 갈 수 없었는데 비대면 진료를 이용하니 30분 만에 진료를 받았다는 식의 글이 적지 않다. 조규홍 보건복지부 장관은 24일 국회에서 “의료법 개정이 늦어지면 보건의료기본법에 따라 격오지 거주자, 노인, 장애인을 대상으로 시범사업을 진행하겠다”고 했지만 구체적인 방향은 나오지 않았다.● 초·재진 아닌 ‘질환’ 중심으로 현재 갈등의 근원인 초진, 재진 문제에 얽매이지 않는 것이 해결의 출발점이란 지적이 나온다. 비대면 진료 허용 기준을 초·재진으로 하는 것보다는 병의 증상, 질환의 종류에 따라 융통성 있게 정하자는 것이다. 가벼운 열과 기침이 나는 감기나 작은 부위의 피부 발진 등은 초진을 허용해 편의성을 높일 수 있다. 특히 아이들이 심야나 한밤에 아플 경우 당번 병원들이 비대면으로 상태를 확인한 뒤, 대면이 필요한지 판단해 주면 무작정 소아과 응급실을 찾아 헤매지 않아도 된다. 정기석 한림대 의대 호흡기내과 교수는 “초진, 재진에 얽매이지 말고 비대면을 허용할 수 있는 초진, 허용해선 안 되는 재진 등 기준을 만들면 많은 부분이 해결될 수 있다”고 말했다. 또 비대면 진료가 의료비의 증가로 이어져선 안 된다. 코로나19 기간엔 비대면 진료의 수가를 일반 진료의 130%로 인정해줬다. 의협은 향후 수가를 150∼200%로 올려달라는 조건을 내걸었다. 여기에 플랫폼도 끼어들면서 추가 비용이 나올 수 있다. 디지털화로 인한 비용 절감의 이점이 희석되지 않는 시스템을 만들어 건강보험 재정에 주름이 가지 않도록 해야 한다는 것이다. 이 밖에 비대면 진료 도입 시 오진으로 인한 법적 문제, 환자 본인 확인, 개인정보 유출 가능성 등 다뤄야 할 사안이 적지 않다. 장기적으론 주치의 제도 도입을 통해 주치의에 의한 비대면 진료를 운영하는 것도 고려할 만하다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.04.16~2023.04.30).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.04.16~2023.04.30).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.04.19.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>[단독]예금자 울리는 '꼼수금리' 그만…당국, '실질지급 이자 표기' 추진</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006755932?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>우대금리 통한 고금리 영업 관행 제동…상품 가입시 만기이자 안내 유도1개월 초단기적금 등장에도 연리 표기 오해 가중…"필요시 제도개선 계획"서울 시내 한 은행 영업점 대출창구 모습. 2021.12.27/뉴스1 ⓒ News1 민경석 기자(서울=뉴스1) 신병남 기자 = 앞으로 예·적금 가입자는 상품을 가입하기 전 만기 시 받을 수 있는 실제 이자금액을 미리 알 수 있게 될 전망이다. 은행 등 금융회사들이 기본금리는 낮고, 달성이 어려운 우대금리만 높은 고금리 예·적금 판매를 지속하자 금융당국이 관행 개선에 나서기로 하면서다.19일 금융권에 따르면 금융당국은 조만간 금융사가 예금자에게 상품 가입 전 실질지급 이자금액을 안내할 수 있도록 행정지도에 나설 계획이다. 경기여건 악화로 고금리 특판 예·적금 상품에 대한 소비자 관심이 높아지는 가운데, 소비자가 오인하기 쉬운 예·적금 판매가 늘고 있다는 판단에서다.금융당국 관계자는 "일부 은행은 고객이 만기 이자액을 미리 알 수 있도록 사전에 안내해 소비자의 이해를 돕는 사례가 있는 것으로 알고 있다"며 "다른 은행들도 자율적으로 제도개선에 나설 수 있도록 지도하고, 필요시 감독규정 등 개정에 나설 계획"이라고 말했다.현재 금융권에서 소비자가 받을 이자를 미리 선보이고 있는 사례로는 토스뱅크의 '먼저 이자 받는 예금', '받을 이자' 서비스 등이 꼽힌다. 먼저 이자 받는 예금은 예치와 동시에 연 3.5% 이자(3개월, 6개월 만기)를 지급하는 상품으로, 이자를 먼저 주는 만큼 소비자는 내가 받을 이자액을 즉시 알 수 있다. 받을 이자는 토스뱅크에 예치한 금액에 따라 얼마의 이자를 받을 수 있는지를 고객에게 미리 알려주는 서비스다. 별도 우대금리나 조건 없이 예·적금을 유치한다는 판매 원칙에 따라 이 같은 서비스가 가능했다는 게 토스뱅크의 설명이다.금융당국이 금융사의 예·적금 판매 관행 개선에 나선 것은 최근 미끼성 상품이 늘면서 소비자들의 민원이 증가하고 있기 때문이다. 현재 금융위원회와 금융감독원은 소비자 오해 소지가 높은 우대금리 적용 저축성 상품에 대한 현장점검을 실시하고 있다.주로 △특판 예·적금 광고시 기본금리보다 큰 글씨로 최대금리만 강조하는 등 금리구조에 대해 금융소비자가 오인할 수 있는 광고를 하진 않는지 △정해진 확률에 따라 우대금리를 지급하는 경우 그 확률을 명확히 안내하고 있는지 등을 점검하고 있다.또한 최근 정기 적금 기간 관련 규제 완화로 이달부터 1개월 단기 적금이 출시된 영향도 작용한 것으로 분석된다. 예치 기간이 한 달까지 짧아졌음에도 은행들은 1년 단위 금리를 안내하고 있어 소비자 혼란이 가중될 가능성이 커졌다.현행 은행업감독업무시행세칙에 따르면 은행이 저축상품에 대한 공시 기준은 확정금리(또는 배당)부 저축상품의 경우 연수익률로 작성하게 돼 있다. 은행이 소비자 이해를 돕기 위해 월 단위로 이율을 쪼개어 안내할 이유가 없다. 실제 KB국민·하나·기업은행이 판매 중인 초단기 상품인 'KB 특별한 적금', '하나 타이밍 적금', 'IBK D-day 적금' 등을 보면 최고 금리를 순서대로 연 6%, 연 3.95%, 연 3.45%로 안내하고 있다.금융당국은 예치금액 제한에 따른 소비자 오해 소지도 최대한 해결하겠다는 입장이다. 앞서 언급한 초단기 상품들은 월 최대 납입액이 20만~50만원으로 1개월 만기 시 이자는 최대 1392원이 고작이다. 일부 은행은 매주 불입금액이 늘어나는 계단식 납입형 적금 상품을 판매하고 있다. 연 7%로 광고하고 있지만, 납입액이 초기에는 적고 만기에 가까울수록 커지는 특성상 실질 이자는 연 1.23%에 불과하다. 하지만 이를 제재할 규정은 없는 상황이다.한 시중은행 관계자는 "해당 상품들은 과거 돼지저금통이 변형된, 소비자의 적금 습관을 길러주는 목적의 상품"이라며 "소비자에게 재밌는 금융이라는 접근을 위한 것인데, 광고성 상품이란 꼬리표는 과한 지적"이라고 해명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.04.21.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>LG유플러스, 영문 홈페이지 오픈… 요금납부 등 외국인 편의↑</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000914860?sid=105</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>LG유플러스가 영문 버전 외국어 홈페이지를 열고 외국인 고객의 요금 수납·일시정지 해제 등 통신 서비스 업무를 지원한다고 밝혔다. 사진은 외국어 홈페이지를 소개하는 LG유플러스 모델의 모습. /사진=LG유플러스 제공  LG유플러스가 영문 버전 외국어 홈페이지를 열고 외국인 고객의 요금 수납·일시정지 해제 등 통신 서비스 업무를 지원할 방침이다.21일 업계에 따르면 LG유플러스는 지난 20일 "최근 급증하는 국내 장기체류 외국인 고객을 위해 영어로 관련 정보를 제공하는 모바일 기반의 외국어 홈페이지를 개설하고 자사 고객센터 앱에도 순차적으로 적용한다"고 밝혔다.LG유플러스는 외국어 홈페이지 제작에 앞서  전화와 채팅으로 접수된 외국인 고객의  의견을 수렴·분석했다. 그 결과 요금 즉시 납부, 소액결제 내역 확인 및 차단·해제 등 기본적인 통신 서비스 업무가 70% 가까이 차지하는 것을 확인했다.이를 반영해 LG유플러스는 외국어 홈페이지에서 가입정보나 실시간 사용량 조회, 요금 즉시 납부, 데이터 주고받기, 소액결제 차단 및 해제, 유심 일시정지 및 해제 등 기본적인 통신 서비스 업무를 처리할 수 있도록 했다. 업무 처리 중 어려운 부분이 있거나 궁금한 사항이 생기면 외국어 채팅 상담 서비스를 이용할 수 있다.외국어 홈페이지에서는 멤버십 할인, 결합 상품 할인, 이벤트 등 고객이 받을 수 있는 혜택도 한 눈에 확인할 수 있다. 특히 멤버십의 경우 국문 버전의 'U+멤버스' 앱을 거치지 않고 바로 발급된 바코드를 이용해 GS25편의점, 뚜레쥬르, 파리바게뜨 등 제휴사 할인 혜택을 받을 수 있다.또 서류 제출 등 대면 업무가 필요한 경우를 대비해 '구글맵'을 기반으로 고객 위치에서 가장 가까이에 있는 매장을 알려주는 위치 서비스도 추가했다. 통신 서비스 이용 경험 및 국내 체류 시 필요한 정보를 고객 간 공유할 수 있는 커뮤니티 기능인 '톡플러스(talk+)' 탭도 신설했다.기존 홈페이지 계정 외에도 토스, 카카오톡, 네이버, 애플 계정으로도 간편하게 로그인할 수 있도록 했으며 구글 계정 연동도 추가할 예정이다. LG유플러스는 상반기 내 영어 외에도 중국어, 베트남어, 러시아어 등 다양한 외국어 버전 홈페이지를 선보일 계획이다.김유진 LG유플러스 글로벌통신사업담당은 "외국인 고객이 통신 서비스를 사용하는 데 있어 불편함을 줄이고, 사용 경험 혁신을 위해 외국어 홈페이지를 마련했다"며 "통신 관련 업무 처리를 넘어 국내 체류 외국인에게 필요한 다양한 혜택을 제공해 외국어 홈페이지가 생활 편의 플랫폼으로 거듭날 수 있도록 노력하겠다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.04.27.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>토스뱅크가 시작한 '지금 이자 받기'… 카카오뱅크까지 합류</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000916299?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>사진=카카오뱅크 토스뱅크와 케이뱅크에 이어 카카오뱅크가 '지금 이자받기' 서비스를 다음달부터 시작한다. 예금자들은 이자를 한달에 한번씩 정해진 날짜에 받다가 다음달부턴 원할때 언제든지 이자를 받을 수 있게 된다.26일 금융권에 따르면 카카오뱅크는 최근 세이프박스 특약을 개정했다. 특약 개정에는 이자 지급 시기를 '고객이 요청한 날'로 추가한다는 내용이 담겼다. 시행일자는 오는 5월24일이다.카카오뱅크의 세이프박스는 계좌 속 금고로 자유로운 입출금을 통해 통장의 여유자금을 간편하게 분리해서 관리할 수 있는 상품이다.최대 보관 한도는 1억원으로 입출금계좌당 1좌씩 개설 가능하며 하루만 맡겨도 연 2.40% 금리를 제공한다.그동안 이자지급 방법은 매월 네번째 금요일을 기준으로 결산해 토요일에 세이프박스가 연결된 카카오뱅크 입출금통장 또는 개인사업자통장으로 이자 지급해왔다.하지만 다음달 24일부터는 매월 네번째 토요일 또는 원하는 날짜 중 이자 받는 날을 선택할 수 있다.카카오뱅크 관계자는  "지금 이자 받기 서비스가 인기가 높고 고객 니즈가 많아 우리도 이 서비스를 도입하게 됐다"고 설명했다.'지금 이자 받기'는 토스뱅크가 지난해 3월 국내 금융사 최초로 선보인 서비스다.수시입출금 통장인 '토스뱅크통장'을 보유한 고객은 매일 한 번씩 자신이 원할 때 즉시 이자를 받을 수 있다. 매일 남은 잔액을 기준으로 이자가 쌓이는 '일 복리' 구조가 적용됨에 따라 고객들은 돈을 많이 보관할수록 또 이자를 매일 받을수록 유리하다. 토스뱅크의 '지금 이자 받기' 출시 1년만에 298만 고객이 총 2670억원의 이자를 받았으며 서비스 이용 횟수도 1억5000만회를 넘어섰다.토스뱅크를 의식한 케이뱅크도 지난 1월2일부터 파킹통장인 플러스박스에 이자를 매일 받을 수 있는 서비스를 시작했다. 이전에는 플러스박스 역시 이자지급 주기가 한달이었다.케이뱅크의 플러스박스 금리는 1년 만기 기준 연 2.7%로 한도는 최대 3억원까지다. 토스뱅크를 시작으로 케이뱅크에 이어 인터넷전문은행 중 가장 규모가 큰 카카오뱅크까지 지금 이자 받기 서비스 대열에 합류한 것이다.은행권 관계자는 "인터넷은행에 이어 시중은행에서도 지금 이자 받기 서비스 출시를 검토 중인 것으로 알고 있다"며 "소비자들은 은행에 돈을 맡기면 매일 이자를 바로 받을 수 있다는 재미를 느끼는 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.04.28.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>티몬, 5월 가정의 달 맞아 '소비자 물가 안정 프로젝트' 펼친다</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006775758?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>1~7일 '몬스터메가세일'…매일 카테고리별 단독 특가사전쿠폰 받으면 최대 43% 할인 혜택티몬, '소비자 물가 안정 프로젝트' 실시.(티몬 제공)(서울=뉴스1) 신민경 기자 = 티몬은 창립 13주년을 앞두고 내달 1일부터 한 달간 가정의 달 '소비자 물가 안정 프로젝트'를 실시한다고 28일 밝혔다.1일부터 7일까지 일주일간 '몬스터메가세일'을 열고 역대급 쇼핑 기회를 선사한다. 매일 카테고리별 단독 특가를 가정의 달 선물·여행에 초점을 두고 엄선한 '몬스터데이'를 진행한다.1일 식품데이를 시작으로 △2일 리빙데이 △3일 여행·E쿠폰데이 △4일 패션데이 △5일 뷰티데이 △6일 출산·유아동데이 △7일 가전·디지털데이 순으로 특가 릴레이가 열린다.사전 쿠폰을 받으면 더 큰 혜택을 누릴 수 있다. 이달 29~30일 양일간 최대 25% 할인의 사전 쿠폰팩 3종을 지급한다. 본 행사 기간 지원되는 최대 8% 카카오페이 결제할인, 최대 10% 페이백과 합치면 43%까지 쇼핑 혜택을 즐길 수 있다.1일부터 31일까지 한 달 내내 티몬 베스트 상품을 총집합해 선보이는 '베스트 팍팍세일'도 열린다. 고객들이 많이 찾는 생필품 등 다양한 상품들을 파격 할인가로 판매한다. 토스페이머니 등 추가 결제 할인도 받을 수 있는 '콤보 혜택'도 준비했다.전구경 티몬 마케팅본부장은 "티몬이 창립 13주년을 맞아 철저히 고객 관점에서 필요한 행사를 꾸리도록 노력했다"며 "가정의 달 선물·황금연휴 나들이 고민을 덜어드리기 위한 특가 상품을 총동원했으니 한 달간의 쇼핑 축제를 만끽해 주시기 바란다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.04.25.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>尹 방미 경제사절단 122명 중 금융권 1명… 4대 금융지주 수장 제외</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000896323?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>대통령 美 국빈 방문에 금융은 토스만 포함예대마진 중심 구조 비판적 인식 반영된 듯美서 저조한 국내 은행들 실적도 영향24일부터 진행되는 윤석열 대통령의 미국 국빈 방문에 동행할 경제 사절단에 금융권에서는 이승건 비바리퍼블리카 대표 한 명만 포함됐다. /조선비즈DB        윤석열 대통령의 미국 국빈 방문에 동행하는 경제사절단 명단을 두고 금융권이 당혹스러워하고 있다. 122명의 방미 경제사절단에 금융권 인사는 단 한 명만 포함됐을 뿐 4대 대형 금융지주사 수장(首長)이 모두 제외됐기 때문이다.재계와 금융 시장에서는 평소 은행의 예대마진(예금과 대출의 금리 차이)을 통한 수익 창출과 돈 잔치에 대해 비판적이었던 윤 대통령과 정부의 인식이 반영됐기 때문이라는 분석이 나온다. 또 미국 시장에서 여전히 저조한 수준에 머무는 국내 금융사의 성과도 영향을 미친 것으로 풀이된다. 방미 동행 금융인, 2013년 朴정부 5명, 2017년 文정부 0명        25일 재계 관계자에 따르면 이번 윤 대통령의 미국 국빈 방문에는 대기업 19곳, 중소·중견기업 85곳, 경제 관련 협회·단체 14곳, 공기업 4곳 등 총 122곳의 대표들이 경제사절단으로 동행한다. 제조와 서비스, 정보통신, 도소매, 연구개발, 전기, 광업 등 다양한 업종의 기업인이 참여한다.이번 사절단 명단에 금융권에서는 핀테크(Fintech·금융과 기술의 합성어) 업체인 토스를 운영하는 비바리퍼블리카 이승건 대표 한 사람만 포함됐다. 은행과 보험, 증권 등 각 업권별 금융사 대표는 물론 신한·KB·우리·하나 등 4대 대형 금융지주 회장들도 명단에 이름을 올리지 못했다.지난 정부를 보면 이명박 전 대통령이 취임한 2008년 4월 첫 미국 방문 때는 금융권에서 김승유 하나금융지주 회장, 라응찬 신한금융지주 회장, 강정원 KB국민은행장, 박해춘 우리은행장, 하영구 씨티은행장, 김남구 한국투자금융지주 부회장, 신창재 교보생명 회장 등 7명이 동행했다.박근혜 대통령 시절인 2013년 5월에는 박병원 은행연합회 회장과 김정태 하나금융지주 회장, 한동우 신한금융지주 회장, 홍기택 KDB금융그룹 회장, 하영구 씨티은행장 등 5명이 방미 경제사절단에 포함됐다.다만, 문재인 대통령의 2017년 6월 방미 때는 52명의 경제사절단 중 금융권 인사가 한 사람도 들어가지 않았다.윤 대통령의 미국 방문에 금융권에서 유일하게 동행하는 이승건 비바리퍼블리카 대표. /비바리퍼블리카 제공  尹 대통령·금융 당국, 예대마진 통한 수익 창출에 비판        경제사절단에 금융권 인사가 한 명만 포함된 것을 두고 재계와 금융권 등에서는 윤 대통령과 정부의 금융에 대한 가치관이 반영된 결과라는 해석을 내놓고 있다. 이명박, 박근혜 정부 시절에는 금융을 정부가 지원·육성해야 할 주요 산업으로 인식해 방미 경제사절단에 대거 동행시켰지만, 현 정부는 국민과의 상생을 위한 공공적 역할을 해야 할 대상으로 보고 있다는 것이다.실제로 윤 대통령은 지난 1월 30일 금융위원회 신년 업무보고에서 “은행은 공공재”라고 발언하며, 금융권에 대해 과도한 수익 창출보다 사회적인 역할을 다할 것을 주문한 바 있다. 또 여러 차례 은행의 예대마진 중심 사업 구조와 이를 통해 얻는 막대한 수익 등에 대해 비판하기도 했다.금융 당국 수장들도 은행에 대한 압박 수위를 높였다. 이복현 금융감독원장은 지난해 기준금리가 빠르게 오르자 “은행들이 금리 상승기에 지나치게 이익을 얻으려 한다”고 지적했고, 올해 들어 1월에는 “과도한 대출금리 상승으로 가계와 기업의 부담이 커지고 있다”고 말했다.과도한 성과급과 퇴직금 지급 문제, 금융노조의 이기심 등도 윤 대통령과 당국이 금융 당국에 대해 비판 수위를 높인 이유로 꼽힌다.지난해 신한·KB국민·하나·우리·NH농협 등 5대 시중은행의 성과급 총액은 1조3823억원으로 전년 대비 35.6% 증가했다. 또 지난해 말과 올해 초 5대 시중은행들은 2200여명의 퇴직자들에게 특별퇴직금을 포함, 1인당 평균 6억~7억원을 챙겨주기도 했다.주요 은행별 미국 법인 순이익/각 은행 제공  국내 은행권, 美 법인서 낮은 성과도 영향        금융 시장에서는 국내 금융사들이 미국 시장에서 여전히 별다른 성과를 거두지 못하고 있다는 점도 방미 경제사절단에서 대거 제외된 데 영향을 미쳤다는 분석이 나온다.지난해 전체 시중은행 가운데 해외에서 가장 많은 4269억원의 순이익을 거둔 신한은행의 경우 북미 법인인 아메리카신한은행에서는 72억원을 버는데 그쳤다. 대부분의 이익은 일본과 베트남, 중국 등 주로 아시아 시장에서 나왔다.하나은행도 인도네시아에서 516억원, 러시아와 캐나다에서 각각 139억원, 160억원을 벌었지만, 미국에서는 로스앤젤레스(LA)와 뉴욕 법인을 합쳐 74억원의 순이익을 기록하는데 만족해야 했다. KB국민은행은 뉴욕 등에 지점만 두고 있을 뿐 미국에 아직 법인조차 갖추지 못한 상황이다.그나마 우리은행이 미국 법인에서 전년 대비 43% 증가한 362억원의 순이익을 올려 주요 금융사 가운데 유일하게 체면치레를 했을 뿐이다.시중은행 한 관계자는 “금융 시장이 성장세에 있고 해외 금융사들이 개척할 여지가 많은 개발도상국과 달리 미국은 국내 은행들이 공략하기 어려운 시장에 해당된다”며 “형식적으로 금융에 자리를 안배하기보다 대통령의 방미 동행을 통해 제대로 실익을 얻을 수 있는 기업과 업종에 중점을 두고 사절단을 선정한 것으로 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>토스, 국제 사이버 공격 방어 연합훈련 ‘락드쉴즈’ 참가</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002147090?sid=105</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 토스가 나토(NATO, 북대서양 조약기구) 사이버방위센터(CCDCOE)에서 주관하는 국제 사이버 공격 방어 연합훈련 ‘락드쉴즈(Locked Shields)’에 대한민국 대표팀의 일원으로 참가했다. 토스는 금융 위협 분석 대회 ‘FIESTA 2022’의 1위 자격으로 금융보안원으로부터 참가 초청을 받았다. 4월 18일부터 21일까지 열린 ‘락드쉴즈’는 NATO 사이버방위센터가 2010년부터 개최하고 있는 사이버 훈련으로, 가상의 국가를 대상으로 이루어지는 국방, 에너지, 금융 등의 분야에 대한 사이버 공격을 방어한다. 대한민국 대표팀은 총 11개 기관 60여 명의 보안전문가들로 구성되었으며 올해는 튀르키예와 연합 훈련 팀을 이루어 참가했다. 금융보안원이 주관하는 금융권 특화 사이버 침해 위협 분석 대회 ‘FIESTA’에서 2021년부터 2년 연속 1위에 오른 토스는 금융보안원의 초청을 받아 금융 분야 훈련에 참가할 수 있는 기회를 얻게 됐다. 토스는 가상의 중앙은행 시스템을 방어하는 역할을 수행했다. 금융망 시스템 취약점 분석 및 제거, 보안 강화를 위한 조치, 위협 모니터링, 보고 및 시스템 복구 등을 진행했다. 또한, 그동안 쌓아온 노하우와 경험을 활용해 금융 보안을 위한 모의 해킹, 문제점이나 취약점을 발견하고 의도적으로 공격하는 ‘레드 티밍(red-teaming)’도 수행하며 보안 역량을 발휘했다. 토스 보안기술팀 이종호 리더는 “38개국에서 2000여 명의 보안 전문가가 참여하는 ‘락드쉴즈’는 최신 트렌드가 반영된 공격·대응·복구 사례들을 공유하고 훈련을 진행하기 때문에 깊은 인사이트를 나누고 배울 수 있었다”라며 “금융보안원에서 토스를 대표 금융사 중 하나로 초청해 주신 만큼, 앞으로도 책임감을 가지고 금융업권의 전반의 보안 수준을 향상시킬 수 있도록 다양한 노력을 기울이겠다”라고 전했다. 토스는 전 팀원이 화이트 해커로 구성된 ‘보안기술팀’이 공격자적 관점에서 앱의 보안 취약점을 찾고 방어막을 세우며 보안을 강화하고 있다. 악성 앱 탐지 시스템 ‘토스 피싱제로’, 이상거래 탐지 시스템 등을 포함해 토스 앱의 보안 환경을 구축하는 ‘토스 가드’를 개발해 운영 중이며, 최근에는 금융업권 전반의 보안 수준 향상을 위해 ‘토스 피싱제로’를 다양한 금융 관련 사업자에게 제공하기 위해 노력하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>대출금리 인하 압박에 은행권 예대금리차도 축소</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004835291?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>5대 은행 예대금리차 전월 대비 0.2%p 감소주요 시중은행의 예대금리차(대출금리와 예금금리 차이)가 하락세로 전환했다. 금융당국의 예대차 축소 압박에 따른 각 은행별 대출금리 인하 조치가 반영된 결과로 풀이된다. 5대 은행 예대금리차 소폭 줄어20일 전국은행연합회 공시에 따르면 국민 신한 하나 우리 농협 등 5대 은행의 정책서민금융을 뺀 평균 가계 예대금리차는 1.162%로 전월(1.356%) 대비 약 0.2%포인트 감소했다. 5대 은행의 가계 예대금리차는 올 들어 두 달 연속 증가했으나 다시 감소세로 전환했다.예대금리차가 줄어든 것은 올 초 은행들이 시행한 대출금리 인하분이 반영되면서다. 대출금리를 내려 예대차 마진을 줄이라는 당국 압박이 이어지자 은행들은 내부 가산금리를 낮추는 식으로 대응했다. 실제 5대 은행이 지난달 취급한 평균 가계대출금리는 연 4.69~4.84%로 올 초(연 4.92~5.32%) 대비 상‧하단이 모두 감소했다.금융권에서는 금리 인하 등 은행들의 상생금융 실천이 본격화되면서 하반기로 갈수록 예대금리차가 줄어들 것이란 전망이 많다. 예대금리차가 줄면 순이자마진(NIM) 또한 감소할 가능성이 크다. 한국투자증권은 올 1분기부터 4대 은행의 NIM이 지난해 4분기(1.67~1.77%) 대비 소폭 줄어들 것으로 추정했다.5대 은행 가운데 예대금리차가 가장 큰 곳은 농협은행(1.34%포인트)이었다. 농협은행 관계자는 “대출금리는 5대 은행 중 두 번째로 낮고 예‧적금 금리도 타행 대비 높은 수준으로 책정했다”며 “은행 특성상 금리가 낮은 단기 정책자금을 취급하면서 예대금리차가 벌어질 수밖에 없는 구조”라고 했다. 이어 우리(1.22%포인트) 국민(1.13%포인트) 하나(1.11%포인트) 신한(1.01%포인트) 순이었다. 예대금리차 1위 토스뱅크인터넷은행 중 가계 예대금리차가 가장 큰 곳은 토스뱅크로 5.41%포인트를 기록했다. 올 1월 4.72%포인트로 집계됐던 예대금리차는 두 달 연속 커지고 있다. 카카오뱅크의 가계 예대금리차도 1.21%포인트로 전달 대비 0.06%포인트 증가했다. 반면 케이뱅크의 지난달 가계 예대금리차는 1.76%포인트로 전월보다 0.28%포인트 감소했다.지방은행과 외국계 은행을 포함한 공시 대상 19개 은행 중 가계 예대금리차가 가장 큰 은행도 토스뱅크였다. 다음으로 전북(4.82%포인트) 광주(3.89%포인트) 한국씨티(2.43%포인트) 경남(2.37%포인트) 순으로 금리차가 컸다. 한편 SC제일은행의 가계 예대금리차가 0.86%포인트를 기록해 19개 은행 가운데 가장 낮았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.04.30.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>K스타트업-미국 VC들, 보스턴서 한자리 모였다</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004839220?sid=105</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>K스타트업 투자 로드쇼 열려K스타트업과 미국 투자자들이 한자리에 모였다.한국벤처투자는 'K스타트업 투자 로드쇼'를 개최했다고 30일 밝혔다. 이 행사는 중소벤처기업부가 미국 보스턴에서 주최한 '한·미 클러스터 라운드테이블'의 연계 행사로 지난 28일(현지시간) 진행됐다. 이날 행사엔 이영 중소벤처기업부 장관을 비롯해 스텝스톤, 어플라이드벤처스, 버지니아벤처파트너스 등 미국 벤처캐피털(VC) 39곳, 국내 유망 스타트업 15곳 등에서 100명 이상이 참석했다. 각 스타트업에는 피칭 7분, 질의응답 7분 등 14분씩의 기업설명(IR) 기회가 주어졌다. K스타트업으로는 바이오·헬스케어 회사 8곳, 로봇·인공지능(AI) 회사 7곳 등이 참여했다.바이오·헬스케어 분야엔 △AI 기반 심혈관 질환 진단 솔루션을 가진 메디픽셀 △혈액 내 유전체 분석을 통해 암을 진단하는 기술을 개발하는 아이엠비디엑스 △웨어러블 심전도 측정 기기를 선보인 휴이노 △알츠하이머 치료제를 개발하는 바이오오케스트라 △대사항암제 개발 회사 셀러스 △마이크로바이옴 기반 치료제 회사 지놈앤컴퍼니 △액체생검 기반 암 진단 기술을 개발 중인 진캐스트 △AI를 활용해 자기공명영상(MRI)의 효율을 높이는 서비스형 소프트웨어(SaaS)를 선보인 에어스메디컬 등이 참여했다.또 로봇·AI 분야엔 토스(비바리퍼블리카)를 비롯해 △클라우드 기반 보안 솔루션을 내놓은 에버스핀 △자율주행차용 이미지 레이더 센서를 만드는 스마트레이더시스템 △조리 로봇을 활용한 치킨 브랜드 '롸버트치킨' 운영사 로보아르테 △기업용 식사 구독 서비스를 제공하는 플레이팅코퍼레이션 △자율주행차용 라이다(LiDAR) 회사 서울로보틱스 △조리 로봇 기반 화덕 피자 브랜드 '고피자' 등이 피칭에 나섰다.유웅환 한국벤처투자 대표는 각 회사들의 피칭에 앞서 발표자로 나섰다. 이날 유 대표는 글로벌 파트너십을 확대해 2030년까지 모태펀드의 글로벌 벤처펀드 규모를 국내 수준까지 늘리겠다고 약속했다. IR 행사 이후엔 회사별 1 대 1 맞춤형 투자 상담회를 열어 국내 회사들이 해외 자본을 유치할 수 있도록 했다.유 대표는 "지금 전 세계 사람들이 즐기는 K컬처나 유망 딥테크 기업들 뒤엔 벤처 생태계 마중물 역할을 수행한 모태펀드가 있었다"며 "앞으로 글로벌 벤처펀드 규모를 더 키울 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>토스증권, 해외주식 양도소득세 대행신고 서비스 시작</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011809270?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>기사내용 요약매매차익 합산 250만원 초과 대상[서울=뉴시스] 박은비 기자 = 토스증권은 지난해 해외주식을 판매한 고객들을 위한 양도소득세 대행신고를 무료로 제공한다고 18일 밝혔다.대상은 8개 증권사 합산 기준 지난해 해외주식 매매차익이 250만원을 초과하는 고객이다. 예상 세금 여부는 토스증권에서 자동 계산해준다. 합산 서비스를 제공하는 8개 증권사는 토스증권, 키움증권, 미래에셋증권, 한국투자증권, KB증권, 신한투자증권, NH투자증권, 삼성증권 등이다.타사 합산 고객은 해당 증권사의 양도소득세 계산내역 서류가 필요하고 토스증권 거래내역은 별도로 제출할 필요가 없다. 일정은 이날부터 다음달 9일까지 대행신청, 다음달 10일부터 19일까지 제휴 세무법인 대행신고, 다음달 22일부터 31일까지 신고 완료 안내·납부 순으로 진행된다.한편 해외주식 양도소득세는 지난해 해외주식 판매수익에서 기본공제 250만원, 수수료, 제세금을 빼고 차익이 있을 때 발생하며, 차익의 22%가 세금으로 부과된다. 신고와 납부는 매년 5월1일부터 31일까지고 기타 자세한 사항은 토스증권 홈페이지 공지사항을 참고하거나 고객센터로 문의하면 된다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>엔픽셀, 블록토와 전략적 파트너십으로 웹3 게임 대중화</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003092334?sid=105</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>엔픽셀 웹3 기반 게임 생태계 '메타픽이'이 포르토 멀티 체인 지갑 및 웹 3 생태계 '블록토' 와 전략적 파트너십을 체결했다.블록토는 메타픽셀과 첫 번째로 협업 관계를 맺은 주요 지갑이다. 소셜 로그인과 가스 비용 지원 그리고 앱토스 생태계 속에서 가장 빠르고 편리한 접근성을 제공한다.엔픽셀은 지난해 실리콘밸리 레이어1 블록체인 기업 앱토스 와 게임 부문 파트너십을 체결했다. 웹3 기반 게임 생태계 메타픽셀의 첫 번째 다중접속역할수행게임(MMORPG) '그랑사가: 언리미티드'를 개발하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.04.26.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>“韓 금융 클라우드 수요 폭발… 관건은 ‘얼마나 빨리’ 도입하느냐”</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000896968?sid=105</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>금융권 클라우드 서비스 이용, 6년간 1959%↑“포스트 팬데믹 ‘불확실성’ 영향… 고객 기대치 높아져”도입 후도 문제… KB “비용 절감, 인력 확보 고민”노경훈 아마존웹서비스(AWS) 금융고객팀 총괄이 26일 서울 강남구 AWS코리아 사무실에서 간담회를 하고 있다. /박수현 기자 “클라우드 컴퓨팅 가격 체계는 대부분 종량제이기 때문에 기업 입장에서는 불필요한 자원은 덜어내는 식으로 비용을 효율화하는 게 중요하다. 다만 금융 업계는 보수적이라고 할 만큼 한 번 구축해놓은 인프라를 유지하려는 경향이 있다. KB금융그룹도 마찬가지다. 때문에 인프라 자원은 최대 용량으로 유지하되, 업무 외 시간에는 개발 환경 장비를 끄는 식으로 현재 많은 비용 절감 효과를 거두고 있다.”김주현 KB금융그룹 클라우드 센터장“주말에 개발 환경 장비를 끈다는 건 온프레미스로 실현 불가능한 일일 뿐만 아니라 은행에서는 과거 상상도 못했던 일이다. 게임처럼 기술 수준이 굉장히 높은 산업에서나 가능했기 때문이다. KB금융그룹의 사례는 국내 금융 기업들의 IT·클라우드 역량이 그만큼 높아졌다는 방증으로 여겨진다.”노경훈 아마존웹서비스(AWS) 금융고객팀 총괄국내 금융 기업들이 클라우드 도입에 있어 더 이상 ‘왜(Why)’가 아닌 ‘얼마나 빨리(How fast)’를 묻고 있다는 진단이 나왔다. 관련 규제가 완화된 가운데 코로나19 팬데믹(감염병의 대유행)을 계기로 전 산업군에 퍼진 ‘속도전’ 기조에 힘입어 금융권의 클라우드 도입 수요가 폭증하고 있다는 분석이다.노경훈 아마존웹서비스(AWS) 금융고객팀 총괄은 26일 서울 강남구 AWS코리아 사무실에서 간담회를 열고 “이미 다른 산업군에서 클라우드 사용에 대한 검증이 끝난 만큼, 금융사들은 이제 클라우드를 사용할지 말지 보다는 클라우드를 어떻게 하면 빨리 도입해 잘 사용할지에 대한 고민을 하고 있다”며 이렇게 말했다.그는 “금융사도 클라우드를 쓸 수 있는 법적 근거가 2019년 마련됐고, 이후 팬데믹 기간 비대면 금융의 폭발적인 수요를 경험하면서 핀테크 스타트업은 물론 전통 기업 사이에서도 디지털 혁신을 가속화해야 한다는 인식이 형성됐다”며 “여기에 정부가 마이데이터 사업을 본격적으로 시작하면서 클라우드의 중요성은 더욱 대두됐다”고 했다.노 총괄은 대내외 불확실성도 국내 금융 클라우드 성장에 기여했다고 덧붙였다. 그는 “현재 각계각층에서 저마다 미래 경제 변화에 대한 예측을 내놓고 있지만 가장 확실한 건 ‘모든 게 불확실하다’는 사실이다”라며 “이에 기업들은 구체적인 계획을 바탕으로 클라우드 전략을 세우는 대신 불확실한 상황 속에서 적응할 수 있도록 체질을 개선하는 방향으로 나아가고 있다”고 했다.노 총괄은 “기업 입장에서는 높아진 고객의 기대치도 숙제다”라며 “시장에 새로 진입한 경쟁자들이 앞다퉈 신규 서비스를 내면서 고객들의 눈높이를 높인 것이다. 이런 확장성에 더해 최근에는 IT 인프라의 운영 탄력성, 즉 문제가 발생했을 때 얼마나 빠르게 회복할 수 있는지를 보는 고객도 늘고 있다”고 했다.금융감독원 ‘2023년 디지털금융 감독방향’ 중 일부 발췌. /아마존웹서비스(AWS)        실제 금융감독원의 ‘2023년 디지털금융 감독방향’에 따르면 2016년 6월부터 지난해 12월까지 약 6년간 금융권의 클라우드 서비스 이용건수는 34건에서 666건으로 1959% 증가했다. 노 총괄은 “천지개벽과 같은 일이 벌어지고 있는 것”이라며 “특히 증권업계에서의 움직임이 두드러진다. 트래픽이 갑자기 늘어나는 대형 기업공개(IPO) 등 상황에서 유연하게 대처할 수 있는 건 온프레미스가 아닌 클라우드이기 때문이다”라고 강조했다.한때 ‘하루 최대 64만개 주식계좌 개설’이라는 기록을 세웠던 토스증권이 한 예다. 노 총괄은 “토스증권은 방향보다 속도가 더 중요하다는 판단 아래 동시다발적으로 실험을 하고, 성과가 안 나는 건 빨리 접는 식으로 사업을 전개했다”며 “이처럼 새로운 시도를 하려면 클라우드로의 대응이 필수적이다. 토스증권은 클라우드 도입 후 같은 가격, 같은 조건 대비 온프레미스보다 30% 이상 성능이 향상됐다고 밝혀왔다”고 전했다.소수지만 클라우드 도입을 이미 마치고 비용 효율화를 고민하는 곳도 있다. KB금융그룹이 그중 하나다. 2018년부터 단계적으로 클라우드를 도입한 KB금융그룹은 올해 사업별로 비용과 아키텍처, 페인 포인트(고객이 불편함을 느끼는 지점)를 분석해 보다 효과적인 비용 절감 방안을 도출한다는 방침이다.이날 간담회에 참석한 김주현 KB금융그룹 클라우드 센터장은 “클라우드 도입을 적극 추진하는 과정에서 예상치 못한 두 가지 문제를 마주하게 됐다. 하나는 비용, 하나는 인력 확보였다”며 “통상 예산을 기반으로 프로젝트를 진행하는데, 클라우드는 사용한 만큼 과금이 되기 때문에 예산을 초과할 경우 이를 어떻게 잡을 것인지에 대한 논의가 많았다”고 했다.김 센터장은 이어 “인공지능(AI), 머신러닝(ML) 등 기술력을 가진 인재를 확보하는 데에도 굉장한 어려움을 겪었다”라며 “관련 풀이 적은 데다, 금융이라고 하면 IT와 거리가 멀다고 생각하는 개발자가 많아 외부 영입이 쉽지 않았다. 이런 문제를 우선순위로 놓고 클라우드 전략 방향을 다시 짜게 됐다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.04.25.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>“10명 중 8명이 소포로 받는데…” 비대면진료 약 배송 운명은?</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002134708?sid=105</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>해당 사진은 기사 본문과 관계 없습니다. [양천구 제공][헤럴드경제=고재우 기자] 비대면진료의 앞날은 산 넘어 산이다. 진료부터 처방까지 의사들의 반발을 이겨내면 그 뒤론 이제 약사단체의 반대를 극복해야 한다. 진료·처방까지는 의료법, 약 배송은 약사법에서 다뤄져야 하는 탓이다.코로나19를 계기로 한시적으로 비대면진료가 허용된 상황에선 문제가 되지 않았다. 하지만 약사법엔 현재 약 배송과 관련한 근거가 전무하다. 대한약사회의 거센 반대로 최근 법안 논의에서도 약 배송은 논의조차 되지 못하고 있다.비대면진료에서 직접 대면으로 약을 수령하는 환자는 20%에 불과하다. 약 배송이 없다면 ‘비대면진료’란 용어 자체가 사실상 무의미하다.업계는 초진부터 약 배송까지 첩첩이 쌓인 난관을 타개하고자 집단 서명운동 등 갖가지 대책을 짜내고 있다. 정부와 국회의 적극적인 자세를 촉구하는 취지다.[닥터나우 제공]▶비대면진료 약 수령, 80%는 약 배송=25일 업계에 따르면 비대면진료 서비스의 핵심인 ‘약 배송’은 아예 국회 논의에 벗어나 있다. 이를 다뤄야 할 약사법 개정안은 발의조차 되지 않은 상태다.원격의료산업협의회에 따르면, 비대면진료 약 수령에서 40%는 퀵 배송, 40%는 소포로 집계됐다. 방문 및 대리수령은 20%에 그쳤다. 즉, 10명 중 8명은 약 배송으로 비대면진료를 이용한다는 의미다.현재 논의 중인 법안도 의료법 개정안일 뿐 약 배송을 다룰 약사법 개정안은 아예 논의에서 배제돼 있다. 의료법 개정안에서 비대면진료 초·재진 허용 여부부터 공전을 거듭하면서다.비대면진료의 약 배송 서비스는 약사회가 강하게 반대하고 있다. 약사회는 비대면진료라고 해서 꼭 의약품을 배달해야 하느냐는 입장이다. 약사회 관계자는 “비대면진료라고 해서 꼭 의약품을 배달해야 하는 것은 아니고, 약 배달에 전적으로 반대하고 있기 때문에 (약 배송을) 논의할 이유도 없다”고 강조했다.국회 보건복지위 관계자는 “의료법으로는 약을 배송하기 위한 절차, 방법, 대상, 범위 등을 규정할 수 없다”며 “약사법 개정이 안 된다면 입법 부재 상황이 벌어진다”고 말했다.업계는 한숨이 깊다. 사업이 당장 존폐 위기에 직면한 상황에서 마치 ‘도장깨기’를 하듯, 하나를 극복해도 또 다른 난제가 도사리는 꼴이다. 사업이 정상화될 수 있도록 정부나 국회가 하루빨리 논의해주길 바라는 입장이다.업계 관계자는 “의료법 개정안이 처리되더라도 약사회가 약 배송을 문제 삼으면 또 문제가 된다. 약 배송 관련 법도 빨리 논의를 해야 한다”고 우려했다.지난달 15일 장지호 원격의료산업협의회 공동회장이 서울 여의도 스위치22에서 열린 기자간담회에서 비대면진료 관련 발언을 하고 있다. [원격의료산업협의회 제공]▶실증특례 지원에 서명운동까지, 업체들은 몸부림 중=현재 국회가 법안을 논의하는 과정에서 업체가 할 수 있는 일은 많지 않다. 그렇다고 난항을 거듭하는 국회만 손 놓고 보고 있을 수만도 없다.비대면업체들은 최근 과학기술정보통신부가 주관하는 실증특례에 지원했다. 실증특례를 통해서라도 비대면진료를 이어가길 바라는 취지에서다. 하지만 실증특례 조건상 비대면진료가 채택될 가능성은 사실상 전무하다. 업계도 알고 있다.실증특례에 지원한 한 업계 관계자는 “선정되길 바라고 지원한 건 아니다. 뭐라도 해봐야 한다는 몸부림에 가깝다”고 토로했다. 또 “제도화 과정에서 업계와 소통에 소홀한 보건복지부에 대한 항의 성격도 있다”고 덧붙였다.지난 14일부터 24일까진 서명운동도 진행했다. 국내 스타트업으로부터 시작해 성장한 주요 인사들이 대거 동참했다.박재욱 쏘카 대표, 김봉진 우아한형제들(배달의민족) 의장, 이승건 토스 대표, 송재준 컴투스 대표, 이수진 야놀자 대표, 이승재 버킷플레이스(오늘의집) 대표, 이동건 마이리얼트립 대표 등을 포함해 총 11만2564명(24일 0시 기준)이 동의했다.비대면진료로 시작된 대응은 이제 벤처·스타트업 전반으로 확산되는 추세다. 지난 24일엔 벤처기업협회, 코리아스타트업포럼, 한국벤처캐피탈협회, 한국블록체인협회, 한국액셀러레이터협회, 한국엔젤투자협회, 한국인공지능협회, 한국초기투자기관협회 등 8개 기관이 공동으로 “비대면진료 서비스 관련 법안을 조속히 마련하라”는 성명서를 발표했다.이들 단체가 소속된 혁신벤처단체협의회는 성명서를 통해 “비대면진료 서비스가 코로나19 위기 속에서 국민 누구에게나 제약 없이 의료 서비스를 제공해 의료 공백을 보완했다”며 “가장 중요하게 검토돼야 할 건 의료 소비자인 국민의 편익”이라고 강조했다.이어 “아기가 아픈데 문 연 병원이 없어 발을 동동 굴러야 했던 워킹맘, 병원 갈 시간조차 포기해야 했던 샐러리맨과 자영업자 등 소비자 입장이 가장 먼저 고려돼야 한다”며 “정부와 국회가 국민과 혁신의 편에서 보다 합리적인 판단을 내리길 기대한다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>[알립니다] 은행이 스타벅스와 경쟁하는 ‘빅블러 시대’… 미래금융포럼 26일 개최</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000894115?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>금융과 비금융의 경계가 사라지는 시대김소영 금융위 부위원장 특별강연 마련제이슨 솅커가 들려주는 금융의 미래스타벅스 플랫폼 비즈니스 성공 전략 강의인터넷은행 5주년 현주소 진단 패널토의2023 조선비즈 미래금융포럼 기조연설자인 미래학자 제이슨 솅커(Jason Schenker) 퓨처리스트 인스티튜드 회장        송금을 위해 은행 애플리케이션(앱)을 더는 사용하지 않아도 됩니다. 국민 메신저인 ‘카카오톡’으로 마치 메시지를 보내듯 송금할 수 있습니다. 물론 그 하단에는 은행 계좌에서 돈이 오가는 전산 시스템이 작동하긴 합니다. 은행은 뒤로 숨었고, 빅테크 기업이 전면에 섰습니다. 마이크로소프트(MS) 창업자인 빌 게이츠가 1994년 일찍이 ‘은행(Bank)은 사라지고 은행업무(Bnaking)만 남는다’고 예측했던 미래 모습의 전형입니다.커피프랜차이즈 스타벅스에서 신용카드나 현금으로 커피값을 치르는 모습도 점점 사라지고 있습니다. 고객 대부분이 스타벅스 카드나 앱에 선불 충전금을 넣어두고 결제합니다. 이렇게 충전된 금액이 웬만한 미국 중소형 은행의 총자산보다 많다고 합니다. KB금융그룹과 우리금융그룹, 하나금융그룹 등 국내 대표 금융사 수장들이 스타벅스를 ‘새로운 경쟁자’로 꼽은 이유이기도 합니다.금융과 비금융의 경계가 사라지고 있습니다. 빅테크 기업의 금융산업 침공은 어제오늘 일이 아닙니다. 이젠 스타벅스처럼 금융업과 전혀 무관해 보이던 기업도 기존 금융사의 경쟁자로 떠오르고 있습니다. 우리는 지금 산업 간 경계가 허물어지는 ‘빅블러(Big Blur)’ 시대에 살고 있습니다.조선미디어그룹 경제전문 매체 조선비즈는 4월 26일(수) 서울 소공동 웨스틴조선호텔에서 ‘2023 미래금융포럼’을 열고 빅블러 현상에 따른 금융산업의 패러다임 전환을 위한 방법을 모색합니다. ‘무너지는 금융 장벽, 빅블러 온다’를 주제로 열리는 이번 포럼에는 국내외 금융 석학과 전문가, 기업인들이 참석해 급변하는 금융산업을 진단하고, 빅블러 시대에 금융사들이 생존할 수 있는 전략을 모색합니다. 또한 금융업에 진출한 비금융 기업들의 성공 노하우를 공유하는 시간도 마련했습니다.김소영 금융위원회 부위원장이 특별강연으로 포럼의 문을 엽니다. 김 부위원장의 특강을 통해 빅블러 시대에 맞는 금융당국의 정책 방향을 확인할 수 있습니다. 김 부위원장은 금융-비금융 영역이 흐릿해지는 상황에서 금융사가 신속하게 대응해 경쟁력을 제고할 수 있어야 한다고 말합니다.블룸버그가 선정한 세계 1위 미래학자 제이슨 솅커(Jason Schenker) 퓨처리스트 인스티튜드 회장이 기조연설로 나서 빅블러가 가져올 미래 금융을 전망합니다. 솅커 회장은 빅블러 현상이 다양한 영역에서 벌어지고 있으며, 기존 금융사에 기회이면서도 위험이 될 수 있다고 강조합니다.        첫 강연으로는 백지웅 스타벅스코리아 기획담당이 스타벅스 플랫폼 비즈니스의 성공 전략에 대해 강의합니다. 자체 앱에서 충전·주문·결제까지 할 수 있는 플랫폼 서비스를 만드는 것은 모든 기업의 꿈이었습니다. 그러나 스타벅스처럼 이 전략을 성공시킨 기업은 그리 많지 않습니다. 백지웅 담당은 이번 강연에서 스타벅스 플랫폼 비즈니스 성공 노하우와 미래 전략을 공유합니다.세계 최대의 럭셔리 소비재 기업인 LVMH의 투자전문 자회사 앨 캐터튼(L Catterton)에 몸담고 있는 마이클 오리어리(Michael O’Leary)가 두 번째 강연에 나섭니다. 오리어리는 미국 상원 의회와 두 번의 대통령 선거에서 경제 정책 고문으로 활동한 경제 전문가입니다. 오리어리는 모든 기업이 어떤 방식으로든 은행이 되고 싶어 한다고 진단하며 앞으로 금융산업은 지금의 모습과 전혀 다르게 진화할 것이라고 합니다.허세영 루센트블록 대표이사는 최근 투자업계의 ‘뜨거운 감자’로 떠오른 토큰증권발행(STO) 투자를 소개합니다. STO는 블록체인 기술 기반으로 한 ‘소액 쪼개기 투자’를 말합니다. 루센트블록은 그중에서도 부동산 쪼개기 투자 사업을 하고 있습니다.스타벅스 사이렌오더로 음료를 주문하는 모습. /스타벅스코리아 제공        서병호 한국금융연구원 금융혁신연구실 실장을 좌장으로 출범한 지 5년이 지난 인터넷전문은행의 현주소를 진단하는 패널 토론도 마련했습니다. 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷전문은행 3사 전략 담당 관계자가 패널로 참석합니다.신한은행과 하나은행 등 전통 금융사들이 비금융업권으로 진출해 성공한 사례 발표도 있습니다. 이어 박남규 서울대 경영대학 교수를 좌장으로 빅블러 시대 금융사들의 생존 전략을 논의하는 토론을 진행합니다.금융산업의 미래에 관심 있는 많은 분의 참여를 바랍니다.&lt;행사개요&gt;▲행사명: 2023 미래금융포럼▲주제: 무너지는 금융 장벽, 빅블러 온다▲일시: 2023년 4월 26일(수) 오전 9시~오후 3시▲장소: 서울 소공동 웨스틴조선호텔 그랜드볼룸▲접수·문의: 02)724-6157, event@chosunbiz.com▲홈페이지 : e.chosunbiz.com▲참가비: 단체등록(33,000원), 사전등록(55,000원)</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.04.30.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>네이버페이·토스 등 핀테크 ‘후불결제’ 연체율 급등</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002637901?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>선 구매 후 결제(Buy Now, Pay Later) 가능한 혁신금융서비스연체율 네이버파이낸셜 2.7%, 토스5%까지 급등BNPL 활성화한 미국서도 연체율 급등 골머리사진은 게티이미지뱅크.네이버페이·토스 등 핀테크 업체들이 1∼2년 전 출시한 후불결제(BNPL) 서비스 연체율이 최근 급등하고 있다. 혁신금융서비스로 지정받아 시범사업을 벌이는 단계인 만큼 향후 정식 인가를 얻으려면 연체율 관리 방안이 필요할 것으로 보인다. 30일 최승재 국민의힘 의원이 금융감독원에서 받은 자료를 보면, 지난 3월 말 기준 국내에서 후불결제 서비스를 제공 중인 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스) 3사의 연체율이 모두 지난해 말 대비 급상승한 것으로 나타났다. 71만명이 이용하는 네이버파이낸셜의 경우 3월 말 기준 연체율이 2.7%로 1년 전인 지난해 3월 말(1.26%)과 지난해 말(2.14%) 대비 모두 크게 상승했다. 지난해 3월부터 서비스를 시작한 토스의 연체율은 5%로 지난해 말(3.48%) 대비 1.52%포인트 급등했다. 토스 후불결제는 192만명이 이용 중이다. 지난해 1월 서비스를 내놓은 카카오페이 연체율도 0.51%로 지난해 말(0.09%) 대비 5배 이상 뛰었다. 3사의 누적 가입자수는 3월 말 기준 266만3557명이며, 이용 금액(총 채권)은 약 445억3600만원, 연체 채권은 19억3790만원이다. 네이버파이낸셜 후불결제 서비스. 화면 갈무리후불결제는 신용거래 내역이 적어 신용카드 발급이 어려운 대학생 등 신파일러도 간편결제 업체를 통해 먼저 물건을 산 뒤 다음 달 지정한 결제일에 대금을 치를 수 있게 해주는 일종의 단기 대출 서비스다. 네이버페이와 토스는 월 최대 30만원까지 온·오프라인 가맹점에서 모두 이용 가능하다. 카카오페이는 15만원까지 교통요금을 후불 결제할 수 있다. 국내의 경우 아직 시범 사업 단계여서 결제 대금을 연체해도 신용 등급에는 영향을 주지 않지만, 후불결제 서비스 이용이 중단될 수 있다. 향후 후불결제 서비스가 혁신금융서비스를 넘어 정식 승인을 얻으려면, 연체율 관리 방안을 마련해야 할 것으로 보인다. 후불결제가 활성화된 미국도 연체율 급등으로 골머리를 앓고 있다. 세계 3대 신용평가사 중 한 곳인 피치는 지난해 7월 미국의 주요 후불결제 사업자 연체율이 수개월 동안 2배 이상 급등했다고 경고했다. 미국 소비자금융보호국(CFPB)은 지난 3월 내놓은 후불결제 사용 행태에 대한 보고서에서, 후불결제 이용자가 비이용자보다 채무가 많고, 이미 다른 금융기관에서 연체 이력이 있으며 신용등급이 더 낮은 경우가 많았다고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.04.19.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>[사설] "비대면 진료 지켜라" 벌써 7만명 서명 외국처럼 초진부터 허용을</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005118909?sid=110</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>비대면 진료가 중단될 위기에 처하자 스타트업 단체인 코리아스타트업포럼이 지난 14일 '비대면 진료 지키기 서명운동'을 시작했다. 박재욱 쏘카 대표, 김봉진 배달의민족 창업자, 이승건 토스 대표 등 스타트업 창업자들을 비롯해 일반 국민까지 동참하면서 19일 오전 기준 서명 참여자가 7만명을 돌파했다. 이 같은 호응은 의료 접근성을 증진시킨 혁신 서비스의 지속을 원하는 여론이 높다는 방증이다.비대면 진료는 코로나19로 2020년 2월부터 한시적으로 허용됐다. 하지만 정부가 오는 5월 감염병 위기 경보를 하향 조정하면 법적 근거가 사라지게 된다. 이용자들이 불편을 겪게 되는 것은 물론이고 닥터나우·굿닥 등 30여 개 비대면 진료 스타트업도 문을 닫아야 한다. 이를 막기 위해 정부와 정치권이 비대면 진료 법제화를 추진하고 있다. 문제는 초진 환자를 제외하고 재진에만 허용하는 방안이 유력하게 검토되고 있다는 것이다. 현재 국회에 발의된 비대면 진료 관련 법안 5건 중 4건이 재진을 원칙으로 하고 있다. 하지만 현재 원격의료 플랫폼 첫 사용자의 99%가 초진 환자라는 점을 감안하면 재진만 허용할 경우 기존 이용자 대부분이 비대면 진료를 받을 수 없게 된다. 현재 활발하게 영업 중인 비대면 진료 스타트업도 사실상 사업을 접어야 한다.정치권이 '재진'으로 범위를 축소하는 것은 "오진 위험이 크다"는 의료계의 반발 때문이다. 하지만 지난 3년간 1300만명이 비대면 진료를 이용했고, 의료사고가 단 한 건도 발생하지 않았는데 초진 허용을 막는 것은 과도하다. G7 국가 중 이탈리아를 제외한 6개국이 초진부터 허용하고 있는데 우리만 시범사업을 시작했던 35년 전으로 돌아가자는 것이다.결국 국회에 달렸다. 비대면 진료 법안을 심의하는 국회 보건복지위원회 제1소위 의원 13명 가운데 의사·약사 출신은 4명으로 모두 초진 허용을 반대하고 있다. 하지만 국회가 기득권의 반발에 휘둘리면 '타다 사태'가 재연될 수 있다. 혁신 서비스는 사라지고 손해는 오롯이 국민 몫이 된다. 국회는 더 이상 혁신의 발목을 잡아선 안 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>"유통·모빌리티도 웰컴"… 알뜰폰 시장 또 다른 '메기'오나</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002705590?sid=105</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>정부 통신비 인하 전략 본격 가동...규제 완화·경쟁 촉구 카드 '만지작'통신3사 로고가 있는 간판. ⓒ연합뉴스[데일리안 = 남궁경 기자] 정부가 금융사 이외 비(非)통신사업자의 '알뜰폰(MVNO)' 시장 진출을 환영한다는 입장을 밝혔다. 경쟁력 있는 사업자들의 진출이 통신비 이하를 이끌어낼 수 있다는 판단에서다.21일 통신 업계에 따르면, 금융위원회는 KB국민은행의 알뜰폰 서비스 리브모바일(리브엠)이 규제 샌드박스가 아닌 정식 사업으로 인정받을 수 있는 절차를 준비하고 있다. 리브엠은 지난 2019년 4월 혁신금융서비스 1호 특례 서비스로 지정된 금융권 최초 알뜰폰 브랜드로, 지난 12일 금융위가 알뜰폰 사업을 은행의 부수업무로 지정하는 내용의 안건을 통과시키면서 정식 서비스를 앞두고 있다.정부는 이번 KB국민은행의 정식 사업 승인을 긍정적으로 바라보고 있다. 타 산업 알뜰폰 사업자와 기존 알뜰폰 사업자와의 경쟁이 시장의 경쟁을 기대할 수 있다는 이유에서다. 박윤규 과학기술정보통신부 제2차관은 최근 기자들과 만난 자리에서 "KB국민은행이 정식사업으로 할 수 있도록 규제 완화가 이동통신시장의 경쟁활동에 긍정적이라고 생각한다"면서 "이 기회에 알뜰폰 산업이 통신사와 경쟁할 수 있도록 할 것"이라 밝혔다.정부는 다양한 사업자들이 알뜰폰 사업에 들어올 수 있도록 문을 열어둔다는 입장이다. 기존 통신사업자처럼 신규 알뜰폰 사업자에 대한 별도 사업 조건을 맞추지 않겠다고 한다. 박 차관은 “금융이든 유통이든, 모빌리티든 경쟁력 있는 사업자가 시장에 들어온 점이 중요하다”며 “알뜰폰이 통신3사와 경쟁하기 위한 여건을 국회와 신속히 협의해 만들어가겠다”라고 했다.정부가 금융사 이외 타 산업군의 진출 가능성이 열리자 통신업계에는 긴장감이 흐르고 있다. 기존 통신사처럼 자체 영업망을 가지고 있고 기존 사업과 통신업 시너지를 낼 경우 시장에 미칠 영향이 상당하다는 판단에서다.실제 KB리브엠은 지난 2019년 10월 알뜰폰 사업 진출 이후 4년여 만에 영업력과 공격적인 마케팅으로 가입자 40만명 이상을 확보한 것으로 알려졌다. 이는 통신사 자회사를 제외한 알뜰폰 사업자 중 가장 많은 가입자 수다.금융사 이외 비통신 사업자의 알뜰폰 시장 진출 가능성도 배제할 수 없다. 통신 업계 한 관계자는 "알뜰폰 시장이 B2C 사업자들에게는 매력적인 시장일 수도 있다"면서도 "문제는 수익성 확보 방안"이라 말했다. 실제 2010년대 초 국내 유통업체 이마트와 홈플러스가 알뜰폰 시장에 뛰어든 적 있지만, 통신3사와의 대결에서 경쟁력을 확보하지 못해 사업을 포기했었다.KB리브엠의 성공 사례를 본 다른 금융사도 통신 시장 진출을 검토하고 있는 것으로 알려졌다. 실제 금융플랫폼 토스 운영사인 비바리퍼블리카가는 알뜰폰 사업자를 인수한 뒤 시장에 진출했고 전통 금융사인 신한은행과 하나은행은 알뜰폰 제휴 요금제를 내놓으며 시장 진출 의지를 드러내고 있다.한편, 중소 알뜰폰 업체들은 이같은 정부 기조에 불편한 심기를 감추지 않고 있다. 은행권의 무분별한 알뜰폰 시장 진출이 중소사업자들을 밖으로 내몰 수 있다고 한다. 이동통신 대리점과 판매점을 회원으로 둔 전국이동통신유통협회(KDMA)는 최근 "은행의 알뜰폰 사업 진출에 대한 명확한 규제 장치가 필요하다"며 정부 당국에 공개 질의서를 보낸 상태다. 이들은 도매대가 이하 요금제 제공 금지와 금융권의 알뜰폰 시장 점유율 규제 등을 요구하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.04.23.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>LBS 다듬는 토스, 간편결제 틈새공략</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003093457?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>상반기 오프라인 결제 시작데이터 기반 추천·분석 준비애플페이 진입에 시장 균열혁신 앞세워 빅테크와 경쟁토스가 현장결제 개시를 앞두고 위치기반서비스(LBS)를 가다듬는다. 네이버페이, 카카오페이 등 이미 사업에 진출한 빅테크와 치열한 점유율 경쟁이 예상된다.토스가 상반기 토스페이 오프라인 결제 진출을 앞두고 LBS 고도화에 착수했다.특히 올해 들어 △토스페이 사용처 찾기 △데이터로 맛집 찾기 △카페 브랜드 캐시백 △나의 소비지도 등 현장결제 데이터를 토대로 한 서비스를 준비하거나 검토 중인 것으로 알려졌다. 사용처를 제시하고 결제 데이터를 바탕으로 추천·분석 서비스를 전개할 것으로 보인다.토스 관계자는 “토스페이 오프라인 진출을 앞두고 다양한 방식으로 관련 서비스를 제공할 수 있도록 준비하고 있다”면서 “구체적인 내용은 서비스 개시 이후 순차 선보일 것”이라고 말했다.토스는 올 상반기 오프라인 간편결제 서비스를 시작한다. 소비자가 QR코드를 생성해 가맹점에 제시하는 바코드CPM 방식으로 사업을 전개할 계획이다.단기간에 오프라인 사용처를 확보하기 위해 이달 초 편의점 CU를 운영하는 BGF리테일과 전략적 업무 협약을 맺었다. CU와 가장 먼저 오프라인 서비스를 개시한다. 토스 관계자는 “CU 이외 사업자들과도 오프라인 결제 지원을 협의 중”이라고 덧붙였다.간편결제 사업자들의 오프라인 경쟁은 올해 들어 치열해지고 있다. 국내 오프라인 간편결제 시장은 삼성페이를 필두로 네이버페이와 카카오페이가 뒤를 따르고 있지만, 올 1분기 애플페이가 국내 서비스를 시작하며 변수가 생겼다.국내 오프라인 간편결제 서비스는 삼성페이가 약 80%로 압도적인 점유율을 가지고 있다. 네이버페이와 카카오페이 오프라인 간편결제 비중은 각각 자사 전체 거래액에서 한 자리 수에 그치고 있다.삼성페이 위치가 공고한 가운데 애플페이가 올해 국내에 도입되며 균열이 예고됐다. 시장조사업체 카운터포인트 리서치에 따르면 내년 애플페이 국내 간편결제 점유율은 15%에 이를 것으로 추산된다.업계 관계자는 “오프라인 간편결제 구도가 재편되고 있어 후발 주자인 토스 입장에서는 네이버, 카카오 등 빅테크와 붙어볼 만한 상황”이라면서 “서비스에서 안정성, 혁신성을 담보할 수 있다면 의미있는 지분을 가져갈 수 있을 것”이라고 평가했다.소비자 관심이 커진 만큼 상대적으로 소규모 사업자도 기존 대형 사업자 점유율을 가져 올 수 있는 니치마켓이 열릴 것이란 예측이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>[데이터링] "건당 1천원씩 300만건 샀는데 무용지물...데이터 경제 걸림돌"</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000741337?sid=105</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>개인정보보호위원회, 11개 스타트업과 정책방향 공유 및 의견 청취 등 간담회 개최산업계 "가명정보 활용 가치 떨어져"…활용 가능한 정책 설계 필요개인정보위 "가명정보 제도 개선할 것"…'개인정보 안심구역' 도입개인정보보호법이 국내 스타트업들의 데이터 활용에 큰 걸림돌로 작용하고 있다는 비판이 제기됐다. 비식별 처리된 정보의 산업적 활용도가 떨어지고 가명처리 과정도 현실적이지 않아 현장 중심의 가이드라인이 필요하다는 지적이다.고학수 개인정보보호위원회 위원장이 17일 오후 서울시 마포구 공덕동 소재 서울창업허브에서 개최된 간담회에 참석한 스타트업 대표들에게 인사말을 하고 있다. [사진=개인정보보호위원회]개인정보보호위원회는 17일 오후 서울 마포구 공덕동 소재 서울창업허브에서 보호법 2차 개정안의 향후 정책방향을 논의하기 위해 '신뢰기반 데이터 경제 활성화를 위한 스타트업' 간담회를 개최했다.이날 간담회에는 코리아스타트업포럼을 비롯해 메가존클라우드, 비바리퍼블리카(토스), 직방, 뱅크샐러드, 쏘카, 로앤컴퍼니(로톡) 등 스타트업 11개사가 참석했다.이들은 영세한 환경 속에서 기존 제도와 함께 새로 도입되는 제도를 잘 준수하기 위해서는 정부의 다양한 지원방안이 필요하다고 강조했다. 법·제도를 실제 현장에 적용하는 과정에서 중견기업 보다 법령해석이나 판단에서 한계나 기술적 어려움이 크다는 것이다.◆"가명정보 활용 가치 떨어져"…현장 중심의 비식별화 필요기업들은 현재 비식별 처리되는 가명정보들이 현장에서 활용 가치가 떨어진다고 비판했다. 가명정보는 개인정보 일부를 삭제·대체하는 등 과정을 거쳐 추가 정보 없이는 개인을 특정할 수 없도록 한 것이다. 비일관적이고 형식적인 비식별처리로 인해 가명정보의 산업적 가치가 불분명하다는 지적인 것이다.법률 서비스 플랫폼 로톡을 운영하는 로앤컴퍼니의 엄보운 이사는 "회사는 법원행정처로부터 300만건 상당의 판결문을 건당 1천원에 샀는데 변호사 등 법률전문가조차 알아볼 수 없을 정도로 비실명 처리가 돼 있어 서비스에 활용하기 어려웠다"면서 "일례로 판결문 본문과 이를 추가 설명하는 부속서류에서 비식별 처리 명칭이 달라 서로 연관된 내용인지 파악할 수조차 없다"고 토로했다.그는 "비실명 처리된 판결문들이 데이터로서 활용 가치가 떨어지는데도 어쩔 수 없이 구매를 해야 하는 게 현실"이라며 "비실명 처리된 데이터를 활용할 수 있도록 가명처리 기준을 표준화하고, 정보의 의미가 이해되도록 실질적인 가명처리가 필요하다"고 덧붙였다.가명처리 과정을 규정하고 있는 가이드라인이 현실적이지 않다는 지적도 나왔다. 토스 운영사 비바리퍼블리카의 김성태 개인정보보호책임자(CPO)는 "수시로 활용하고 분석해야 하는 빅데이터를 필요할 때 마다 가명화하고 적정성 검토를 거친 후 폐기하고 분리하는 등의 일련의 과정을 진행하는 게 쉽지 않다"면서 "그렇다고 모든 데이터를 가명화하고 처리해서 쓰는 것도 현재 가이드라인으로는 위법"이라고 지적했다.그는 법 개정 시행 과정에서 가명제도 개선 작업은 물론 데이터 활용 범위 등을 명확히 규정한 가이드라인이 필요하다고 강조했다. 김 CPO는 "서비스 품질 개선을 위해 사용자의 필수동의를 거친 정보를 활용하고 있었는데, 규제기관은 활용할 수 없는 정보로 판단하고 개선 요청한 경우가 있었다"면서 "정보를 어디까지 활용할 수 있는지 기준이 불분명하기 때문에 사업자 자체적으로 판단해야 하는 현실"이라고 전했다.이같은 지적에 대해 개인정보위는 가명정보 활용 제도 및 절차를 개선하고 스타트업 대상 활용 지원을 확대하겠다는 뜻을 내비쳤다.가명정보 활용 관련 기준과 절차 상 표준화·간소화를 추진하고 불분명한 부분에 대해서는 적극적인 유권해석을 통해 개선하겠다는 것이다. 또 가명정보 자체 결합(자기활용 목적) 허용을 검토하는 한편 온·오프라인 가명정보 활용 지원체계를 확립하기로 했다.고학수 개인정보위 위원장은 "국내 벤처기업들의 총 매출액이 재계 2위 수준이고, 종사자수도 4대 기업의 총합을 웃도는 등 스타트업계가 한국 경제 성장의 한축으로 자리매김했다"면서 "가명정보 활성화를 위해서 기획재정부 등 여러 관계부처와 논의하는 한편 산업계의 의견을 토대로 다양한 개선 방안을 검토하겠다"고 밝혔다.개인정보위는 영상·음성·텍스트정보 등 비정형데이터의 가명처리 기준을 마련하고 보안성이 확보된 환경에서 유연한 개인정보 분석·활용을 허용하는 '개인정보 안심구역'을 도입할 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.04.16.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>"커피 대신 적금 부어요"…'금리 6%' 초단기적금 찾는 MZ세대</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004875475?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>[우리만 아는 금융꿀팁] 상품·서비스[편집자주] 금융, 이것만 읽으면 쉽습니다. 쉽게 설명해주고 도움되는 정책과 상품, 서비스를 소개합니다. 보이스피싱 등 범죄로부터 내 돈을 지키는 방법을 알려드립니다이달부터 1개월 만기 적금이 가능해지면서 은행권이 잇달아 '초단기적금' 내놓고 있다. 이자 수령액은 크지 않지만, 금융 변동성이 커지자 단기적으로 유동자금을 굴리려는 금융 소비자들의 수요가 생겨나고 있다. 은행들은 단기 납입을 선호하는 MZ세대(1980년대 중반~2000년대 초 출생) 공략에 배수진을 쳤다.14일 현재 IBK기업은행, 케이뱅크, 하나은행, 국민은행, 토스뱅크가 6개월 이하 만기의 초단기적금 상품을 운영하고 있다. 월 최대 납입액은 20만~65만원, 연 최고금리는 3.3%~6.0% 수준이다. 신한은행과 카카오뱅크도 초단기적금 출시를 준비하고 있다. 시장금리가 하락하고 불확실한 경제 상황이 이어지면서 짧은 기간에 상대적으로 높은 이자를 받으려는 금융소비자들이 초단기적금을 찾고 있기 때문이다.하나은행은 지난 11일 '하나 타이밍 적금' 라이브 방송을 진행했다. 방송이 진행된 40분 동안 5000여 명이 신규 계좌를 개설했다. 지난 7일 출시 후 전날까지 약 2만3000여 개의 신규 계좌가 열렸다. 하나은행의 주요 적금 하루 평균 가입좌수가 1000좌임을 감안하면 뜨거운 반응이다. 토스뱅크도 지난 12일 '굴비 적금'을 출시해 3일 만인 이날 오전 10시 기준으로 누적 계좌개설 5만6000좌를 돌파했다.특히 젊은 세대를 중심으로 큰 인기를 얻고 있다. 일반적인 적금은 재테크 핵심층인 40~50대의 가입 비율이 높은 데 반해, 케이뱅크의 초단기적금인 '코드K 자유적금'은 2030세대 가입자가 60%에 달한다. 하나 타이밍 적금도 MZ세대 가입자가 약 80%로 파악됐다. 이자뿐만 아니라 단기 저축 목표를 세우는 젊은 층이 많아지고 있는 것으로 풀이된다.단기 적금은 하루나 일주일 단위로도 돈을 넣을 수 있다. 커피 마실 돈을 모아 저축한다는 가입자, 어릴 때 저금통에 넣던 기억으로 하루에 1000원씩 넣는다는 가입자도 있다. 하나 타이밍 적금에 가입한 한 20대 고객은 "두 달 뒤에 여행을 가려고 친구와 같이 가입했다"며 "버튼을 눌러 적금하는 방식이 게임하는 것 같아서 재미있게 돈을 모을 수 있을 것 같다"고 말했다.은행권 관계자는 "고객들이 저축하는 재미를 느끼고 재테크 습관을 갖출 수 있도록 다양한 시도를 하고 있다"라며 "소비자의 자금 운용 상황에 맞게 상품을 고를 수 있는 폭이 넓어져 고객의 편의성을 높일 수 있을 것"이라고 했다.다만 소비자들은 1개월 만기를 선택할 시 실제 이자수령액이 많지 않을 수 있음은 감안해야 한다. 1개월 적금 중 최고금리가 6%로 가장 높은 'KB 특별한 적금'에 최대 불입액인 30만원을 넣으면 만기 시 세후이자는 1269원이다.따라서 똑같은 1개월 만기를 고려할 때 자금의 여유가 있다면 1개월 만기 정기예금과 비교해볼 필요가 있다. 카카오뱅크 정기예금(3.0%), 케이뱅크 코드K 정기예금(3.0%), 기업은행 실세금리정기예금(2.95%) 등이 1개월 만기에 연 3%대 기본금리를 제공하며 가입금액에 상한이 없다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.04.27.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>내달 종소세·지소세 신고·납부…배달라이더 등 8230억 환급</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011827749?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>기사내용 요약국세청, 종소세 대상 5월31일까지 신고·납부해야640만 소규모 사업자 모두채움 서비스 간편 신고수출기업·산불 지역 납부기한 8월31일까지 연장[세종=뉴시스]세종시 정부세종2청사 국세청. 2019.09.03. ppkjm@newsis.com *재판매 및 DB 금지[세종=뉴시스]용윤신 기자 = 종합소득세 대상자는 오는 5월31일까지 신고·납부해야 한다. 배달라이더·대리운전 기사 등 인적용역 소득자에 대한 환급금은 8000억원이 넘는 것으로 나타났다. 산불피해 지역 납세자와 수출기업의 납부기한은 8월말까지 연장한다.640만명 납세자에 모두채움 서비스 제공…환급금 8230억원국세청은 27일 지난해 종합소득이 있는 개인은 올해 5월31일까지 종합소득세와 개인지방소득세를 신고·납부해야 한다고 밝혔다.작년 귀속 수입금액이 일정 규모 이상인 사업자가 대상이다. 도·소매업 등 15억원, 제조업·음식업 등 7억5000만원, 임대업·서비스업 등 5억원이다.성실신고확인 대상자는 세무대리인이 작성한 성실신고확인서를 첨부해 올해 6월30일까지 신고·납부해야 한다.올해는 근로소득과 다른 소득(연금·기타소득)이 함께 있는 근로자 등을 추가해 총 640만명의 납세자에게 모두채움 서비스를 제공한다. 대상자는 세무서 방문 없이 쉽고 신고할 수 있다.모두채움 서비스 대상은 단순경비율이 적용되는 소규모 사업자다. 도·소매업 등은 6000만원 미만, 제조업·음식업 등 3600만원 미만, 임대·서비스업 등 2400만원 미만 등이다.아울러 사업소득이 아닌 다른 소득(근로·연금·기타소득)이 발생한 납세자도 대상이 된다. 모두채움 안내문을 받은 납세자는 ARS 전화(1544-9944) 한 통으로 간편하게 신고를 마칠 수 있다.아울러 국세청은 배달라이더·대리운전기사·행사도우미·학원강사·간병인 등 인적용역 소득자 400만명에게 모두채움 환급 안내문을 발송한다. 인적용역 소득자는 회사로부터 소득을 지급받을 때 3.3% 세금을 원천징수로 납부 이 금액이 실제 부담해야할 세금보다 많은 경우 환급금이 발생한다. 환급액은 총 8230억원에 이른다.모두채움 대상자에게는 다음 달 1일부터 5일까지 모바일(만 65세 미만)·서면(만 65세 이상) 안내문을 순차 발송한다. 홈택스·손택스에서도 내달 1일부터 확인할 수 있다. *재판매 및 DB 금지수출기업·산불 피해 납세자 납부기한 8월31일까지 직권 연장수출기업·산불 피해 납세자가 유동성을 적기에 확보할 수 있도록 종합소득세 납부기한을 8월31일까지 직권 연장한다.수출기업 요건은 작년 수출액이 매출액의 50% 이상이고 매출과표 5억원 이상이거나, 관세청·대한무역투자진흥공사(KOTRA)가 선정한 수출 관련 개인사업자다. 다만 이자소득과 배당소득 등 금융소득 2000만원 초과자는 신청 시 제외된다.산불피해 납세자는 이달 발생한 산불피해·전국적 산불로 인해 특별재난지역으로 선포된 지역에 주소지를 두고 있는 경우다. 대전 서구, 충북 옥천군, 충남 홍성군·금산군·당진시·보령시·부여군, 전남 함평군·순천시, 경북 영주시, 강원 강릉시다.납부기한 직권연장 대상자는 납세담보를 제공하지 않아도 된다. 성실신고확인서 제출자는 6월30일에서 8월31일까지 2개월 연장된다.납부기한 직권연장 대상자도 납세자가 원하는 경우 5월1일에서 8월31일 사이에 언제든 납부 가능하다.납부기한이 직권연장 되는 것이므로 신고기한 내에 종합소득세 신고를 해야한다.대상자에게는 연장된 납부기한이 기재된 안내문을 발송하며 홈택스·손택스 '신고도움 서비스'에서 직권연장 여부를 확인할 수 있다.직권연장 대상이 아닌 납세자도 경영상 어려움으로 기한연장(신고·납부)을 신청하는 경우 적극 지원한다.영세 자영업자가 납부기한 연장을 신청하는 경우 최대 1억5000만원까지 납세담보 제공을 면제한다.[강릉=뉴시스] 김경목 기자 = 16일 오후 산불 피해 이재민들이 강원 강릉시 포남동 강릉아레나 대피소에서 저녁식사를 하고 있다. 2023.04.17. photo31@newsis.com5월 한달 개인지방소득세 신고·납부…종소세 환급 4주 이내 환급5월 한 달간 종합소득세(국세)를 신고·납부하는 납세자는 개인지방소득세(지방세)도 지방자치단체에 신고·납부해야 한다.개인지방소득세 신고·납부 기간은 종합소득세와 동일하게 내달 1일부터 31일까지고, 성실신고확인 대상자의 신고·납부 기간도 5월1일부터 6월30일까지로 동일하다. 환급 대상자의 경우 종합소득세 환급 후 4주 이내에 개인지방소득세도 환급받을 수 있다.모두채움 안내문에는 개인지방소득세 납부세액(환급세액)과 납부방법을 함께 안내하고 있다. 전자신고 시 자료가 자동으로 연계돼 종합소득세와 개인지방소득세를 한번에 신고할 수 있다.모두채움 안내문을 받은 납세자는 안내문에 기재된 개인지방소득세 가상계좌로 납부만 하면 신고로 인정됐다. 또 전국 228개 자치단체(시·군·구)에 신고창구를 설치해 종합소득세와 개인지방소득세를 한 번에 신고할 수 있다. 고령자·장애인 등 신고에 도움이 필요한 경우 가까운 자치단체 신고창구(주소지 무관)에서 도움을 받을 수 있으며 신고창구 위치는 위택스에서 검색이 가능하다.전자신고의 경우 홈택스 또는 손택스(모바일 앱)에서 종합소득세 신고 후 '지방소득세 신고이동'을 클릭하면 위택스로 한번에 이동해 개인지방소득세까지 신고가 가능하다.전자신고 시 도움이 필요하거나 개인지방소득세 신고·납부와 관련된 문의 사항이 있다면, 신고기간 운영하는 개인지방소득세 전담 콜센터(1661-6800)를 통해 도움을 받을 수 있다.전자신고 시 위택스(PC)나 스마트 위택스(모바일 앱)에서 전자납부가 가능하고 가상계좌를 통한 무통장 입금도 가능다. 또한 은행 자동화기기를 이용하면 납부서 없이도 납부가 가능하다.행정안전부는 납세자의 편의 제고를 위해 올해부터 개인별 맞춤형 모바일 안내 및 분할납부 서비스를 제공한다.국민비서(구삐) 서비스를 활용해 개인지방소득세 미납자에게 납부세액·계좌 등 개인별 맞춤형 모바일 안내를 제공한다. 또한 납부할 세액이 100만원을 초과하는 경우 분할납부 신청도 가능하다.민간 앱 14종 활용: 카카오톡·네이버·토스·KB스타뱅킹·신한플레이·하나원큐·우리WON뱅킹 등이다.종합소득세 납부기한 직권연장 대상자 및 기한연장 신청 승인자에 대해서도 별도의 신청 없이 개인지방소득세 납부(신고)기한을 동일하게 연장한다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.04.30.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>서울시, 지방세 고지서 모바일로 받으면 '세액공제'</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000214504?sid=102</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>전자송달·자동납부 둘 다 신청하면 1600원 공제서울시는 전자송달·자동납부 서비스로 지방세 고지서를 받을 경우 1장당 800~1600원의 세액공제 혜택을 준다. 지방세 전자송달·자동납부 서비스 포스터./서울시 제공지방세 고지서를 종이 대신 모바일로 받으면 세액 공제 혜택을 받을 수 있다.서울시는 전자송달·자동납부 서비스로 지방세 고지서를 받을 경우 1장당 800~1600원의 세액공제 혜택을 제공한다고 30일 밝혔다.세금납부시스템(ETAX) 또는 모바일 세금납부 앱(STAX), 간편결제사 앱(네이버, 카카오페이, 토스, 페이코 등), 카드사 앱(신한, 하나)을 통해 신청 가능하며 구청 세무민원창구를 직접 방문해도 된다.주민세, 재산세, 자동차세, 등록면허세를 전자송달 또는 자동납부 신청하면 1장당 800원이 할인되며 둘 다 신청하면 1600원의 세금 공제 혜택을 받는다. 납세자는 신청한 다음 달부터 공제된 전자고지서를 전자우편이나 모바일앱으로 확인할 수 있다.아울러 탄소 배출을 줄이는데 기여했다는 의미로 지구지킴이 명찰도 받을 수 있으며 5~11월 집중신청기간 신규 신청자 중 매월 1만 명을 추첨해 모바일 커피쿠폰을 제공한다.신청방법이나 궁금한 사항은 세금납부시스템(ETAX) 고객센터로 문의하면 된다.그동안 시는 종이없는 고지서를 세무행정의 목표로 삼고 탄소중립과 ESG경영을 실천해왔다. 지난해에 전자송달 서비스를 통해 온실가스 배출량 21톤을 절감했으며 올해는 온실가스 30톤 감축을 목표로 하고 있다.한영희 서울시 재무국장은 "전자송달을 받을 수 있는 다양한 매체가 있고 자동납부도 계좌이체나 카드를 선택해 신청할 수 있다"며 "편리한 방법으로 신청해 지구환경 보호에 참여하며 지방세 공제를 받을 수 있으므로 시민들의 많은 참여를 당부드린다"고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>파낙토스, 클리노믹스와 유전자 검사 사업 협약 체결</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004877619?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>(사진 왼쪽부터)정종태 클리노믹스 대표와 박병운 파낙토스 대표가 협약을 체결하고 기념사진을 촬영 중이다/사진제공=파낙토스파낙토스가 최근 클리노믹스와 유전자 검사 사업을 위한 협약을 체결했다고 20일 밝혔다.이번 협약에 따라 클리노믹스는 개인 유전체 검사 서비스를 파낙토스에 제공한다. 파낙토스 측은 해당 서비스 도입으로 기존 뇌파 검사 결과 이외에 영양소, 식습관, 행동습관, 외·내면적 특징 등 다양한 검사 결과를 제공할 수 있을 것으로 기대한다고 했다.파낙토스는 전국 100여 개의 통합 뇌 센터 가맹점을 통해 개인 유전체 검사를 시행할 예정이다. 뇌파 측정에 따른 뇌 건강 상태 분석뿐만 아니라 유전적인 특성까지도 분석, 회원들의 뇌 건강 증진과 학생들의 학습 능력 향상을 꾀할 방침이다.파낙토스 관계자는 "이번 협약을 통해 업계 최초로 파낙토스에서 뇌파 검사와 개인 유전체 검사를 함께 받아볼 수 있게 됐다"며 "빠르면 올 3분기, 늦어도 4분기에는 파낙토스 전국 각 센터에서 개인 유전체 검사 서비스를 이용할 수 있을 예정"이라고 말했다. 이어 "파낙토스는 다양한 검사 체계뿐 아니라 개인 맞춤형 뇌 발달 및 훈련 프로그램과 필요한 영양소를 안내해 개인별 건강 증진을 위해 힘쓰고 있다"고 덧붙였다.한편 파낙토스는 서울대학교 의공학과와 공동으로 최첨단 뇌파 측정기를 개발한 업체다. 독자적인 기술력과 뉴로피드백 시스템을 활용, 고감도·고정밀 뇌파 측정 및 다양한 두뇌 훈련법으로 신경망 발달 프로그램을 개발 중이다. 클리노믹스는 게놈 기반 바이오헬스 정보처리 역량을 보유한 회사다. 혈액에서 CTC(순환종양세포)와 cfDNA(세포유리 DNA)를 동시 검출하는 기술 및 다중오믹스 분석 기술을 통해 전 주기적인 게놈 기반 암 조기진단 서비스를 제공 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.04.30.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>新자린고비, 짠테크 : '거지방' 몰린 짠돌이 짠순이, 절약을 놀이로!</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/053/0000035956?sid=102</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>외식 물가가 치솟으면서 편의점 도시락으로 점심을 해결하는 학생·직장인이 늘어나고 있다. photo 뉴시스'월급 빼고 다 오른다'는 말을 유독 체감하는 요즘이다. 먹거리, 주유비, 전기·가스·수도 요금 등 안 오른 것을 찾아보기 힘들다. 물가 상승 속도를 월급 인상 속도가 따라가질 못하니 실제 소득은 줄어들어 통장은 곧 '텅장(텅 빈 통장)'이 된다. 한국은행이 발표한 2023년 3월 소비자심리지수(CCSI)는 92를 기록하며 2022년 6월 이후 계속 기준값인 100을 밑돌았다. CCSI가 100보다 크면 소비자가 경제 상황을 낙관한다는 의미고 100보다 작으면 비관적이라고 보는 것이다. 그 돌파구를 '짠테크'에서 찾는 사람이 늘고 있다. 짠테크는 구두쇠처럼 인색한 '짜다'와 '재테크'의 합성어다. 한때 '욜로(You Only Live Once·한번 사는 인생 제대로 즐기자)', '플렉스(flex·돈 자랑)'에 대한 외침은 사라지고 '절약이 미덕'이란 목소리에 힘이 실리고 있다. 고정 지출을 최대한 줄이려는 소비문화가 주목받으며 각종 절약법도 공유된다. 가계부 작성은 기본 냉장고 파먹기, 무지출 챌린지(도전) 등 노하우 공유는 물론 짠테크 경쟁이 넘쳐난다.점심값 아끼기는 알뜰족의 두드러진 특징이다. 런치플레이션(점심+인플레이션)이라는 말이 등장했을 정도로 외식 가격이 급등하면서 도시락을 선호하는 사람이 부쩍 늘었다. 가성비(가격 대비 성능) 좋은 편의점 도시락 수요도 커졌다. 주요 편의점의 2023년 1분기 도시락 매출은 전년 같은 기간보다 40% 내외로 급증했다. 도시락 값이 올라서 매출이 늘어난 건 아닐까 싶지만 오히려 5000원 이상인 도시락 판매량은 줄었단다. 더구나 대학가와 회사 상권에서 매출이 급증했다고 하니 MZ세대(밀레니얼+Z세대)가 소비를 줄이기 위해 한 선택이라고 해도 무방해 보인다. 여기에 편의점 구독 서비스를 이용해 할인도 받는다. 월 이용료를 내면 한 달 동안 일부 메뉴를 할인된 가격에 구매할 수 있는데 이용료보다 할인 요금을 키우는 전략을 쓰는 것이다.기프티콘 시장 파고든 중고거래중고거래를 통한 알뜰 찬스 활용도 다양하다. '당근마켓'이 아닌 '니콘내콘', '팔라고', '기프티스타' 등의 기프리콘 거래 애플리케이션(앱)을 이용해서다. 판매자는 선물 받은 기프티콘을 일정 조건에 맞춰 현금화할 수 있고 구매자는 원하는 상품을 저렴하고 안전하게 살 수 있는 앱들이다. 기프티콘은 보통 10~20% 할인된 가격에 거래되는데 커피는 약 1000원, 영화 관람권은 5000~6000원, 치킨은 2000~3000원 저렴하다. 통계청이 발표한 '2023년 2월 온라인 쇼핑 동향'에 따르면 2월 '이쿠폰서비스' 판매액은 전년 같은 기간 대비 1613억 원(29.7%) 증가한 7039억 원으로 나타났다. 여기에는 기프티콘 중고거래의 신장이 적지 않은 영향을 미쳤다.알뜰폰은 통신비 허리띠를 졸라매는 수단이 됐다. 이용자의 약 70%를 MZ세대가 차지하면서 알뜰폰은 중장년층이 주로 이용한다는 통념을 깼다. 알뜰폰 비교·분석 플랫폼 '모요'에 따르면 2023년 1월 연령별 가입자 분포는 20대 35%, 30대 33%, 40대 15%, 10대·50대 이상 17%였다. 알뜰폰 서비스 '리브모바일(Liiv M)' 가입자도 약 60%가 2030세대로 나타났다.소비 생활을 공유하며 절약을 독려하는 '거지방'도 등장했다. 주로 카카오톡 오픈 채팅방에서 열리는 거지방에서는 참여자들이 소비를 기록하고 절약팁을 나눈다. 신랄한 채찍질이 동반되지만 자신의 소비를 되짚어보는 기회로 삼는다. '1100원짜리 생수 사서 마셨다'는 글에는 '물은 회사 가서 마셔라', '오후에 비가 온다는데 좀 더 기다리지' 같은 답변이, '음원사이트 구독료 지출했다'는 글에는 '세상에서 가장 나쁜 독은 정기구독이다. 당장 해지해라', '길 가다 음악이 들리면 멈춰서 들어라' 같은 답변이 돌아오니 정신을 쏙 차릴 수밖에. 혼자 하면 자칫 어려운 절약 과정을 놀이로 풀어내며 즐기는 모양새다.티끌 모아 큰 티끌 만들기절약의 근육이 좀 붙었다면 짠테크의 다음 단계는 간단한 소득 올리기로 나아간다. 이른바 '티끌 모아 큰 티끌 만들기'다. 금융 플랫폼 '토스'의 만보기를 이용하면 현금처럼 사용할 수 있는 포인트를 모을 수 있다. 1000걸음, 5000걸음을 완료하면 각각 10원씩, 1만 걸음을 걸으면 20원을 받는다. 만보기 앱 '캐시워크'에서도 하루 1만 보를 걸으면 100캐시를 쌓을 수 있다. 퀴즈를 풀면 10~20캐시를 받을 수 있는데 정답을 공유하는 오픈 채팅방까지 생겨났다. 삼성 금융사 통합 앱 '모니모' 이용자는 매일 5000보를 걸으면 10~100원 사이의 무작위 보상을 받는다. KB 스타뱅킹 앱은 1주일에 3만 5000보 달성 시 100원, 7만보 달성 시 500원을 적립해준다. 건강을 중요하게 여기는 MZ세대에겐 일석이조의 효과인 셈이다. H포인트(현대백화점), 신한플레이(신한카드), 리브메이트 앱 등에서 매일 퀴즈를 풀면서 포인트를 받기도 한다. 옛날 옛적 굴비를 천장에 매달아 반찬으로 삼은 자린고비를 보며 사람들은 그 인색함에 혀를 내둘렀다. 하지만 신(新)자린고비의 절약법은 유쾌하다. 절약에 도전하는 과정을 누리소통망(SNS)에 공유하고 서로를 독려한다. 절약하는 자세를 폄하하기보다 각자를 돌아보고 이룬 성취라고 해석한다. 소비 다이어트를 고통이 아닌 그들만의 놀이 방식으로 재미있게 실천한다. 알뜰함의 기쁨을 맛본 젊은 세대가 미래를 위해 더 큰 목표를 세워가니 이처럼 큰 달성이 또 있을까? 삶을 주도적으로 가꿔가는 즐거움은 덤이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.04.26.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>[2023 금융포럼] 금융 ‘빅블러’ 시대 진단…미래금융포럼, 성황리 개막</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000896699?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>금융과 비금융의 경계가 사라지는 현상 진단김소영 금융위 부위원장 특별강연제이슨 솅커, 금융의 미래 전망 은행권 ‘메기’ 인터넷은행, 현주소 진단 패널토의조선비즈의 '2023 미래금융포럼'이 26일 서울 중구 웨스틴조선호텔에서 열렸다. 김영수 조선비즈 대표이사가 개회사를 하고 있다./조선비즈        ‘무너지는 금융 장벽, 빅블러 온다’를 주제로 한 조선비즈의 ‘2023 미래금융포럼’이 26일 서울 중구 웨스틴조선호텔에서 성황리에 개막했다.이날 행사에는 윤창현 국민의힘 국회의원, 김소영 금융위원회 부위원장, 윤종규 KB금융그룹 회장, 진옥동 신한금융그룹 회장, 임종룡 우리금융그룹 회장, 강석훈 산업은행 회장, 김광수 은행연합회장 등 금융 당국과 정치권, 금융회사 등 각계 주요 인사가 대거 참석했다.이번 행사는 김소영 금융위 부위원장의 특별강연으로 포문을 열었다. 김 부위원장은 ‘디지털 금융 정책방향’이라는 주제로 강단에 올라 “기술이 삶의 양식 자체를 변화시키는 것을 디지털 전환이라고 생각한다”라며 “당국이 원하는 디지털 혁신과 전환은 특정 사업자와 업권을 지원하는 게 아니라 많은 소비자가 편익을 얻고 경제 발전에 도움을 주는 것”이라고 말했다.김소영 금융위원회 부위원장이 26일 서울 중구 웨스틴호텔에서 열린 조선비즈 '2023 미래금융포럼'에서 특별강연을 하고 있다./조선비즈        특별강연 이후 금융과 비금융의 경계가 사라지는 빅블러 시대에 금융산업의 패러다임 전환을 위한 통찰력 있는 진단이 이뤄진다. 블룸버그가 선정한 세계 1위 미래학자 제이슨 솅커(Jason Schenker) 퓨처리스트 인스티튜드 회장이 기조연설로 나서 빅블러가 가져올 미래 금융을 전망한다. 솅커 회장은 빅블러 현상이 다양한 영역에서 벌어지고 있으며, 기존 금융사에 기회이면서도 위험이 될 수 있다고 강조한다.첫 강연은 금융회사의 경쟁자로 떠오르고 있는 스타벅스가 맡는다. 백지웅 스타벅스코리아 기획담당은 스타벅스 플랫폼 비즈니스의 성공 전략에 대해 강의한다. 백 담당은 충전·주문·결제까지 할 수 있는 자체 플랫폼 서비스를 성공적으로 만든 스타벅스의 플랫폼 비즈니스 성공 노하우와 미래 전략을 공유한다.세계 최대의 럭셔리 소비재 기업인 LVMH의 투자전문 자회사 앨 캐터튼(L Catterton)에 몸담고 있는 마이클 오리어리(Michael O’Leary)가 두 번째 강연자로 나선다. 오리어리는 미국 상원 의회와 두 번의 대통령 선거에서 경제 정책 고문으로 활동한 경제 전문가다. 오리어리는 모든 기업이 어떤 방식으로든 은행이 되고 싶어 한다고 진단하며 앞으로 금융산업은 지금의 모습과 전혀 다르게 진화할 것이라는 전망을 전한다.윤창현 국민의힘 의원이 26일 서울 중구 웨스틴조선 호텔에서 열린 조선비즈 2023 미래금융포럼에서 개회사를 하고 있다./조선비즈        이날 오후에는 은행권의 새로운 경쟁자들의 전략을 공유하는 시간이 마련됐다. 허세영 루센트블록 대표이사는 최근 투자업계의 ‘뜨거운 감자’로 떠오른 토큰증권발행(STO) 투자에 대한 강연을 진행한다. 루센트블록은 블록체인 기술을 기반으로 부동산 쪼개기 투자 사업을 영위하고 있다.인터넷은행의 현 주소에 대한 진단과 미래 전략을 공개하는 패널 토의도 준비됐다. 서병호 한국금융연구원 금융혁신연구실 실장을 좌장으로 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷전문은행 3사 전략 담당 관계자가 패널로 참석한다.전통 금융권에서는 빅블러 시대 생존법을 소개한다. 신한은행과 하나은행 등 전통 금융사들이 비금융업권으로 진출해 성공한 사례를 발표한다. 이어 박남규 서울대 경영대학 교수를 좌장으로 빅블러 시대 금융사들의 생존 전략을 논의하는 토론을 진행한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>미·중 애태우는 파라과이 대선…보수우파 70년 장기 집권 막내리고 친중 정권 들어서나</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003217773?sid=104</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>30일 대선…중도좌파 알레그레 약진대만 국교 단절·중국 교역 강화 공약‘핑크 타이드’ 확장에 미국도 부담파라과이 제1야당이자 중도좌파 성향의 정통급진자유당 에프라인 알레그레 대선 후보가 지난 11일(현지시간) 루케에서 지지자들을 향해 연설하고 있다. AFP연합뉴스보수우파가 70년 이상 장기집권한 남미 파라과이에 중도좌파 바람이 거세게 불고 있다. 오는 30일(현지시간) 치러지는 대선을 앞두고 제1야당인 정통급진자유당(PLRA·급진자유당) 에프라인 알레그레 후보가 집권 여당 공화국민연합당(ANR·콜로라도당)의 산티아고 페냐 후보를 앞서고 있다는 여론조사 결과가 잇따라 발표됐기 때문이다.이번 파라과이 대선은 그간 지리멸렬했던 중도좌파 세력의 정권 탈환 여부뿐 아니라 세계 각지에서 펼쳐지는 미국과 중국의 패권 경쟁에 큰 분수령이 될 수 있다는 점에서 의미가 있다. 친중 성향의 알레그레 후보는 대만과의 국교 단절과 중국과의 교역 정상화를 주요 공약으로 내걸었다. 중남미를 ‘뒷마당’으로 여기던 미국은 우군을 잃을까 노심초사하고 하는 분위기다.중국은 최근 급속히 세를 불리는 중남미의 ‘핑크 타이드(Pink Tide·좌파 물결)’ 물결에 파라과이가 힘을 보태줄 것으로 기대하고 있다. 반면 지난달 26일 온두라스가 대만과 단교하고 중국과 손을 잡으면서 공식 수교국이 13개로 줄어든 대만의 발등엔 불이 떨어졌다. 인구 680만 명으로 대한민국 인구의 7분의 1 수준인 파라과이 대선에 전 세계가 집중하는 이유다.에프라인 알레그레(가운데) 파라과이 정통급진민주당 대선 후보가 지난 4일(현지시간) 과람바레에서 주민들과 함께 빵을 만들고 있다. AFP연합뉴스대선을 약 2주 앞둔 16일 파라과이 일간지 ABC콜로르 등 현지 언론에 따르면 각종 여론조사에서 알레그레 후보는 페냐 후보를 근소한 차이로 앞서 있다. 지난 10일 파라과이 여론조사기관 ‘다토스’ 조사에서 알레그레 후보는 40.6%의 지지를 얻어 35.5%에 그친 페냐 후보를 5.1%포인트 차이로 따돌렸다. GEO 등 다른 여론조사에서도 비슷한 흐름이 나타났다.알레그레 후보의 선전은 기적으로 여겨진다. 보수 여당인 콜로라도당은 1947년 이후 2008년부터 2012년까지 4년을 제외하곤 정권을 잃은 적이 없다. 정권 교체에 성공했던 중도좌파 성향의 페르난도 루고 전 대통령도 보수 기득권의 끝없는 방해로 2012년 6월 임기를 채우지 못한 채 탄핵당했다.알레그레 후보는 마리오 아브도 베니테스 파라과이 대통령의 경제 실정 부각에 공을 들이고 있다. 파라과이의 지난해 물가 상승률은 8.1%로 치솟았는데, 알레그레 후보는 대만과 국교를 맺은 상황에서 ‘큰손’ 중국을 외면할 수밖에 없는 처지가 경기 침체 원인이라고 꼬집었다. 그는 “대선에서 승리하면 1957년 7월 이후 60여 년간 이어진 대만과의 외교 관계를 끝낼 수 있다”며 “중국과 가까이 지내야 한다”고 말했다.파라과이 집권 여당 공화국민연합당의 산티아고 페냐 대선 후보가 지난 12일(현지시간) 산로렌소에서 지지자들에게 손을 흔들고 있다. AFP연합뉴스이를 의식한 듯 베니테스 대통령도 지난해 9월 대만을 찾아 “대만이 비수교국엔 60억달러(약 7조9000억원) 이상을 투자하고 있다”라며 “대만은 파라과이엔 10억달러(1조3000억원)는 투자해야 한다”고 목소리를 높였다. 이어 “(대규모 투자가) 대만과의 전략적 동맹 구축의 중요성을 강조하는 데 도움이 될 것”이라고 경고 메시지를 보냈다.미국은 파라과이 대선에 촉각을 곤두세우고 있다. 루이스 이나시우 룰라 다시우바 브라질 대통령이 지난 14일 시진핑 중국 국가주석과 정상회담을 열고 미국 1강 체제 거부와 다자주의 강화를 천명하는 등 ‘탈미국’ 움직임이 가속하는 가운데 전통적인 우방국인 파라과이마저 중국에 내줄 위기에 처했기 때문이다.토니 블링컨(왼쪽) 미 국무장관이 지난달 27일(현지시간) 워싱턴DC에서 훌리오 아리올라(오른쪽) 파라과이 외교장관과 회동하고 있다. 로이터연합뉴스여기에 알레그레 후보가 당선되면 남미 주요 13개국 중 미국과 비교적 가까운 우파 정권은 에콰도르와 우루과이만 남게 된다. 이에 미국은 지난달 27일 토니 블링컨 국무장관이 워싱턴DC에서 훌리오 아리올라 파라과이 외교장관을 만나 여러 지원을 약속하는 등 파라과이 껴안기에 나섰다.파라과이 정권이 바뀌면 가장 큰 타격을 입게 되는 쪽은 대만이다. 현재 대만 수교국은 파라과이를 비롯해 교황청(바티칸)과 벨리즈, 에스와티니, 과테말라, 아이티, 나우루, 팔라우, 마셜제도, 세인트키츠네비스, 세인트루시아, 세인트빈센트 그레나딘, 투발루 등 13개국밖에 남지 않았다. 이중 파라과이는 단연 몸집이 가장 큰 국가다.미 외교 전문지 더 디플로맷은 “파라과이가 대만과 정치적 관계를 유지하면서 중국과 무역 관계를 증진하기를 원한다면 이는 달성하기 불가능한 시나리오”라며 “미국은 대만의 마지막 중남미 외교 동맹국인 파라과이를 지키기 위해 중국의 영향력을 최대한 막고자 할 것”이라고 진단했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.04.21.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>국내 IT 스타트업 윤 대통령 방미 동행..."해외 진출 기대"</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002289748?sid=105</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>토스·왓챠·닥터나우·웨이브라이프스타일테크·알스퀘어·에이슬립 등 포함다음주 예정된 윤석열 대통령 국빈 미국 방문에 토스·왓챠·닥터나우·웨이브라이프스타일테크(이하 웨이브)·알스퀘어·에이슬립 등 국내 IT 스타트업들이 동행한다.각분야 전문성을 인정받아 선정된 이들 스타트업은 이번 미국 방문으로 국내외 투자사, 관련 기관 네트워킹을 통해 미국 등 글로벌 진출을 모색한다는 계획이다.이번 방미가 한미동맹 70주년을 맞아 양국 경제안보협력을 다지기 위해 마련된 만큼, 프롭테크·헬스케어·핀테크 등 유망 스타트업들이 다수 포함됐다. 전국경제인연합회는 혁신 스타트업 성장과 미국 시장 진출을 지원하기 위해 경제사절단 122개 기업 중 70%를 중소·중견기업으로 채웠다.지난해 11월 캄보디아 프놈펜에서 진행된 한미 정상회담 모습. (츨처=뉴시스)핀테크 기업에 '토스', OTT 기업에 '왓챠'토스를 운영하는 비바리퍼블리카는 중소벤처기업부 ‘K스타트업 투자 로드쇼’에 선정된 배경으로 이번 미국 사절단에도 동참하게 됐다. 토스는 이번 사절단 유일한 핀테크 기업으로, 핀테크 산업에 대한 관심 제고와 함께 투자 기회도 모색할 방침이다. 이번 방미에는 이승건 대표를 포함 일부 직원들이 동행할 전망이다.온라인동영상서비스(OTT) 스타트업 왓챠는 2010년 설립돼 국내 콘텐츠 OTT 플랫폼 전문성을 인정받아 사절단에 합류하게 됐다. 박태훈 왓챠 대표는 방미 기간 글로벌영상콘텐츠리더십포럼에 참가할 계획이다. 이 포럼에는 왓챠뿐 아니라 CJ, 미국 파라마운트, 디즈니, 넷플릭스 등 기업도 참여한다. 왓챠는 이번 기회로 다양한 미국 콘텐츠 기업과 탄탄한 네트워킹을 구축하고, 중장기적으로 해외 진출을 위한 발판을 다질 복안이다.스타트업 이미지(출처=픽사베이)프롭테크 기업에 '알스퀘어', 헬스케어 기업에 닥터나우 등프롭테크 기업 알스퀘어는 동남아, 미국 시장 진출을 계획 중인 만큼 이번 기회를 관련 기관·파트너사 네트워킹, 데이터솔루션 사업 협력 확대에 활용할 방침이다.에이슬립과 닥터나우 등 헬스케어 스타트업도 사절단에 포함됐다. 슬립테크 기술력을 인정받아 사절단에 선정된 에이슬립은 방미 기간 중소벤처기업부 주최 중소기업인의밤과 보스턴 스타트업로드쇼에 참석할 예정이다. 닥터나우는 미국 방문에서 예정된 다수 산학연 파트너십으로 글로벌 파트너와의 협력을 강화한다는 전략이다.로봇 주방 운영 서비스 스타트업 웨이브는 로봇 기술력과 로봇주방 시스템 혁신성, 산업 내 높은성장성 등을 인정받아 방미 경제사절단으로 선정됐다.웨이브는 전경련, 미국 상공회의소 주관 한미 첨단산업포럼, 미 정부 주최 백악관 환영 행사, 중기부 주최 한미 클러스터 라운드에 참가한다. 웨이브는 이번 방미를 미국 외식 브랜드 협력, 미국 시장 진출 등 사업 확대 기회로 삼을 계획이다.윤석열 대통령은 24일부터 29일까지 조 바이든 대통령 초청으로 미국을 국빈 방문한다. 사절단은 이번 정부 출범 이후 최대규모의 경제사절단으로, 대기업 19개, 중소․중견기업 85개, 경제단체 및 협․단체 14개, 공기업 4개 등 총 122개로 구성됐다. 12년 만의 국빈방문을 전격 지원하기 위해 2003년 이후 20년만에 처음으로 4대 그룹 총수와 6대 경제단체장이 모두 참여한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>[거위{인뱅}의 꿈]②케이뱅크 위기와 비대면의 한계</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000742030?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>자본 확충 문제로 15개월간 영업 중단카카오뱅크 은행과 맞서기엔 역부족시중은행 "경쟁상대로 의식하지 않는다"가파른 성장세로 시중은행을 긴장시켰던 인터넷전문은행에 우려가 제기된 건 케이뱅크의 영업 중단이었다.카카오뱅크는 대주주인 카카오가 금산분리 규제로 지분율 10%(의결권 있는 지분 4%)에 묶이자 새로운 투자자를 찾았고, 한국투자금융지주로부터 자본을 수혈받으며 안정적 성장을 일궜다. 하지만 케이뱅크는 한국투자금융지주와 같은 원군을 찾지 못했다.설립을 주도했던 KT가 공정거래법 위반 혐의로 대주주 적격성 심사 문턱을 넘지 못하면서 오랜 기간 자본 수혈에 실패했다. 케이뱅크는 자본 부족으로 설립 첫해부터 대출 중단과 재개를 반복하다 그해 4월부터 신규 신용대출 판매를 차례대로 중단하며 셧다운(일시적 업무정지)했다. 출범 2년 만의 일이다.케이뱅크 로고와 쓰러져있는 체크 피스. [사진=박은경 기자]2019년 제3인터넷전문은행 예비인가 심사에서도 토스뱅크가 자금 조달 우려로 고배를 마셨던 점을 고려할 때 자본 확충은 인터넷전문은행의 첫 번째 숙제였다. 이를 계기로 업계에선 인터넷전문은행의 자본 적정성에 의구심을 제기했고, 그 사이 시중은행은 탄탄한 자본력을 기반으로 입지를 굳혔다. 카카오뱅크가 선전했지만, 은행과 맞서기엔 역부족이었다.카카오뱅크는 '26주 적금', '모임통장', '개인사업자 사잇돌대출' 등을 출시하며 성장을 이어갔지만, 시중은행의 장벽은 견고했고 비대면의 한계도 서서히 드러나기 시작했다. 출범 2년 차였던 2018년 말 총자산 기준 성장률은 107%에 달했지만 2019년 들어 성장세가 꺾이더니 지난해 말에는 9.6%로 내려왔다. 그 사이 시중은행에선 하나은행이 점차 성장세를 높이더니 카카오뱅크보다 큰 폭의 성장을 일궜다.카카오뱅크와 하나은행 총자산기준 성장률 추이. [그래픽=아이뉴스24]카카오뱅크와 시중은행의 점유율 격차. [그래픽=아이뉴스24]케이뱅크는 우여곡절 끝에 KT 계열사인 비씨카드가 대주주로 등판하고 인터넷전문은행법 개정안도 국회 문턱을 넘으면서 영업 중단 15개월 만인 2020년 7월 기사회생했다. 그 사이 토스뱅크도 문을 열며 인터넷전문은행은 다시 활기를 띠는 듯했다.그러나 토스뱅크가 영업 9일 만에 대출한도를 소진하며 일부 대출을 중단했다. 2022년 토스뱅크도 영업을 재개했지만 925억원의 적자를 봤다. 영업 첫해 카카오뱅크와 케이뱅크가 838억원, 1천24억원의 적자를 낸 만큼 흑자 전환에는 시간이 필요하지만, 업계에선 녹록지 않을 것으로 보고 있다.금융권 관계자는 "올해는 주택시장 침체 등으로 가계 및 개인사업자대출 증가세가 둔화하고 있어 지속적인 성장을 기대하기에는 어려울 것"이라고 말했다. 실제로 올해 1분기 토스뱅크의 총여신은 6천606억원 증가에 그쳤다. 이는 전년 동기(2조648억원) 대비 68% 감소한 수준이다.여기에 인터넷전문은행들은 일 년 사이 부실채권(고정이하여신·NPL) 비율도 두 배 이상 증가하며 건전성 위기마저 닥쳤다.인터넷전문은행 부실채권 추이. [그래픽=아이뉴스24]성장에 한계를 느낀 인터넷전문은행들은 금융당국에 중·저신용자 대출 규제 완화를 요청하기도 했지만, 금융당국은 요지부동이다. 법인을 대상으로 한 대면 영업 추진도 깜깜무소식이다. 지난 2018년에 금융위는 인터넷전문은행의 법인 대면 영업 허용을 위해 입법예고하고, 이듬해 1월부터 시행한다고 밝혔지만 결국 무산됐다.은행권에선 인터넷전문은행에 대한 초창기 긴장감이 사라진 지 오래다. 은행권 관계자는 "은행에선 인터넷전문은행을 경쟁상대로 의식하지 않는다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.04.19.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>증시 슬슬 들어갈까… CMA로 돈 몰린다</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005466823?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>증권사 CMA 66조6370억원…9개월래 최대지난해 증시 급락 속 11조원 쪼그라들었지만주식 강세 분위기에 금리 매력으로 분위기 바뀌어"CMA 자금 증시 유입은 조금 더 지켜봐야"[이데일리 김인경 기자] 증권사 종합자산관리계좌(CMA) 잔고가 66조원을 넘어서며 지난해 7월 이후 최대치를 기록했다. 계좌 수 역시 역대치를 경신 중이다. 2차전지가 급등한 이후 증시에 다시 유입되는 개미투자자가 증가하는 데다 은행 예금금리가 하락하며 수시입출금통장(파킹통장)의 매력이 낮아지자 CMA를 새로운 투자처로 찾는 모습이다.[이데일리 이미나 기자]18일 금융투자협회에 따르면 지난 14일 기준 CMA 잔고는 66조6370억원으로 나타났다. 지난 7월 18일(66조7646억원) 이후 9개월 만에 가장 많다. CMA는 증권사가 고객으로부터 받은 자금을 단기성 금융상품에 투자하고, 여기서 발생한 수익을 지급하는 상품이다. 수시 입출금이 가능한 데다 급여 이체와 카드 대금 납부, 체크카드 사용 등도 돼 사실상 예금 계좌처럼 사용하는 투자자가 많다. 운용 대상에 따라 환매조건부채권(RP)형, 머니마켓펀드(MMF)형, 발행어음형, 종금형으로 나뉜다. 종금형을 제외하면 예금자 보호 대상이 아니지만, 원금 손실 가능성이 거의 없는 만큼 상대적으로 안정적인 투자처로 분류된다. 지난해 코스피가 연간 24.89%, 코스닥은 34.30% 하락하면서 주식시장 탈출 행진이 이어지자 CMA 잔고도 11조6831억원 가량(69조1867억→57조5036억원) 쪼그라들었다. 하지만 올해 주식시장 분위기가 개선되자 CMA 통장 열기도 살아나고 있다. 이날 코스피 지수는 작년 말보다 14.97% 오른 2571.09로 거래를 마쳤다. 코스닥 역시 같은 기간 33.82% 상승하고 있다. 이에 CMA 통장 잔고 역시 지난해 말 대비 16.11% 증가하며 9조원가량 불어났다. 계좌 수도 3647만개로 CMA가 도입된 2006년 이후 최대 규모로 집계됐다. 금리도 매력적이다. 최근 연 5%를 넘어섰던 은행 예금금리는 미국이 긴축을 멈출 것이란 전망 속에 현재 연 3%대에 머물고 있다. 일반은행보다 더 높은 금리를 제공하는 인터넷전문은행의 파킹통장 금리도 마찬가지다. 토스뱅크의 파킹통장 금리는 2.0%로 이전보다 0.2%포인트 낮아졌다. 토스뱅크는 예치금 5000만원 이상에 대해선 연 3.6%의 이자를 지급하지만, 역시 연 4.0%에 달했던 이전보다 0.4%포인트 하락했다. 최대 3억원까지 금액과 관계없이 연 3.0%의 금리를 제공하던 케이뱅크의 ‘플러스박스’ 상품의 금리 역시 3.0%에서 2.7%로 0.3%포인트 인하됐다.반면 지난해 초까지만 하더라도 1% 초반에 머물렀던 대형 증권사의 CMA 이자율은 연 3% 중반으로 올랐다. 미래에셋증권의 경우, CMA 통장이 연 3.55%의 금리를, SK증권과 다올투자증권은 각각 3.50%, 3.40%의 금리를 제공하고 있다. 이 외에도 IBK투자증권, 한국투자증권, 메리츠증권, KB증권 등이 3% 초중반의 금리를 제시하고 있다.금융투자업계 관계자는 “미국의 금리 인상에 대한 전망이 축소하며 예금상품 매력은 줄어들고 있는 가운데, 2차전지 투자로 ‘대박’을 낸 투자자는 늘어나며 CMA에 돈을 맡기고 분위기를 보려는 투자자들이 늘고 있다”라면서도 “1분기 실적 우려와 코스닥 과열에 대한 논란이 여전한 만큼 CMA 자금이 본격적으로 증시로 유입될지는 조금 더 지켜봐야 할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.04.27.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>아임웹, 이커머스 고객사에 ‘애플페이’ 결제 서비스 지원</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005122486?sid=105</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>개발자 없이 노코드로 만든 쇼핑몰에서 PG사 통해 애플페이 즉시 활용 가능쇼핑몰 고객 결제 편의성 높이고, 이커머스 사업자는 매출 향상 기대고객 니즈 맞춰 연동 서비스 및 이커머스 기능 확장 예정 &lt;이미지&gt; 아임웹이 ‘애플페이’ 결제 서비스 지원노코드 이커머스 솔루션 ㈜아임웹(대표 이수모)은 이커머스 고객사를 대상으로 ‘애플페이’ 결제 서비스를 지원한다고 27일 밝혔다.아임웹은 노코드 기반의 웹사이트 쇼핑몰 구축 솔루션을 제공한다. 고도화된 UI/UX와 다채롭게 커스터마이징이 가능한 웹사이트 꾸미기 기능 및 편리한 쇼핑몰 운영 기능을 제공해 현재까지 누적 50만개 이상 사이트가 아임웹을 통해 만들어졌고, 이커머스 고객사의 누적 거래액은 3조원을 돌파했다.아임웹은 그간 개발 인력 없이 노코드 기반으로 개인이나 소상공인, 또는 중소 규모 기업이 만든 쇼핑몰에서도 다양한 결제 서비스를 활용할 수 있도록 지원해 왔다. 이번에는 PG사 결제 서비스에 애플페이를 연동해 아임웹을 이용하는 이커머스 고객사라면 누구나 고객들에게 애플페이 결제 서비스를 제공할 수 있게 했다. 애플페이는 아이폰, 아이패드 등 애플 기기를 사용하는 고객이 실물 카드 없이도 결제할 수 있도록 지원하는 애플의 간편결제 서비스다.애플페이 결제를 지원하는 PG사는 △KG이니시스 △NHN KCP △나이스페이먼츠 △토스페이먼츠다. 한국정보통신(KICC)도 곧 애플페이 결제를 지원할 예정이다. 아임웹은 이번 애플페이 도입을 통해 고객사가 구매자의 결제 편의성과 결제 서비스 선택 폭을 넓혀 매출 향상에도 도움을 얻을 수 있을 것으로 보고 있다.아임웹 이수모 대표는 “이커머스 기업 고객들이 더욱 다양한 결제 서비스를 활용하고, 매출 증가에도 도움을 받을 수 있도록 PG사 결제 서비스에 애플페이를 추가했다”며 “앞으로도 고객들이 꼭 필요한 서비스를 발 빠르게 이용할 수 있도록 제공 서비스를 점차 확장해 나갈 것”이라고 밝혔다.아임웹은 이커머스 사업자가 사업 운영에 필요한 대부분 기능을 아임웹 내에서 활용할 수 있도록 여러 가지 앱 서비스 연동도 지원하고 있다. 고객들은 △데이터 통계 분석 서비스 ‘라플라스 애널리틱스’ △물류 대행 서비스 ‘파스토’ △온라인 쇼핑몰 ‘지그재그’에 상품 자동 연동 등 다양한 앱 서비스를 필요에 따라 선택해 이용할 수 있다.아임웹은 고객 니즈에 맞춰 이커머스 관련 기능을 추가 도입 및 개선함으로써 고객 편의성을 한층 더 끌어올릴 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>윤호영 카뱅 대표 "카뱅, 다른 인뱅 대비 안전한 포트폴리오 갖춰"</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004876420?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>(서울=뉴스1) 김민지 기자 = 윤호영 카카오뱅크 대표이사가 18일 서울 여의도 페어몬트 앰배서더 서울에서 열린 기자간담회에서 카카오뱅크 2023 전략·방향성에 대해 발표하고 있다. 2023.4.18/뉴스1  Copyright (C) 뉴스1. All rights reserved. 무단 전재 및 재배포 금지.윤호영 카카오뱅크 대표가 담보대출의 비중이 50%가 넘는 안정적인 대출 포트폴리오를 갖추는 등 리스크 관리에 문제가 없다고 18일 밝혔다. 최근 인터넷은행의 건전성을 우려하는 목소리에 반박으로 풀이된다. 윤 대표는 이날 여의도 페어몬트 앰배서더 호텔에서 열린 '2023 카카오뱅크 프레스톡(Press Talk)'에서 "카뱅의 대출 포트폴리오는 신용대출뿐 아니라 담보대출로도 구성돼있는 시중은행과 비슷한 안정적인 구조"라며 "담보대출 비율이 50%가 넘어 다른 인터넷은행 대비 상대적으로 안정적인 대출 포트폴리오를 갖고 있다"고 밝혔다.지난해 말 기준 카뱅의 연체율은 0.49%로 전년(0.22%)보다 0.27%포인트(p) 올라 인터넷은행 3사 중 가장 낮다. 케이뱅크는 0.85%로 전년 대비 0.44%p 상승했고 2021년 10월 출범한 토스뱅크는 지난해말 0.72%를 나타냈다. 윤 대표는 연체율 상승 관련해 "중·저신용자 대출의 구성비가 늘며 연체율이 늘었는데, 지극히 당연스러운 현상"이라고 말했다. 이어 "충분한 대손충당금을 확보하고 있느냐가 가장 중요한 지표인데, 지난해와 올해 중·저신용자 대출을 위해 충분한 대손충당금 확보해놓았다"고 덧붙였다.또 '포용적 금융'을 위해 내건 중·저신용자 대출 비율 목표 30%도 문제가 없다는 입장을 내비쳤다. 이미 올해 목표치에 근접하게 대출을 공급한 만큼, 크게 우려하지 않는다는 설명이다. 윤 대표는 "중·저신용자 대출 비율을 이미 올해 25.4%를 달성했다"며 "앞으로 4% 정도 비율이 상승할텐데, 연체율이 크게 늘어나지 않을 것으로 본다"고 말했다.아울러 자본 적정성도 은행권에서 가장 우수하다고 강조했다. 윤 대표는 "BIS(국제결제은행) 자기자본비율이 은행권 평균 대비 두 배 정도 높은 36% 수준이라 가장 안전한 자본 적정성을 갖고 있다"고 했다.윤 대표는 이날 향후 카카오뱅크 주가 부양 계획도 설명했다. 윤 대표는 "플랫폼 파워와 은행 라이선스를 갖고 더욱 노력해 영업이익을 확대해 자산건전성과 자본적정성을 높일 것"이라고 했다. 이어 "자본적정성이 늘면 IPO(기업공개) 이후 주주환원정책을 했던 것처럼 또 다시 주주환원정책을 할 수 있을 것"이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>토스증권, 해외주식 양도소득세 대행신고 무료 제공</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006753659?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>(토스증권 제공)(서울=뉴스1) 이기림 기자 = 토스증권은 지난해 해외주식을 판매한 고객들을 위한 양도소득세 대행신고를 무료로 제공한다고 18일 밝혔다.대상은 8개 증권사 합산기준으로 지난해 해외주식 매매차익이 250만원을 초과하는 고객이며, 예상 세금 여부는 토스증권에서 자동계산해 준다. 합산 서비스를 제공하는 8개 증권사는 토스증권, 키움증권, 미래에셋증권, 한국투자증권, KB증권, 신한투자증권, NH투자증권, 삼성증권 등이다.신청은 토스증권 앱의 해외주식 양도소득세 신고하기 배너를 누르면 되고, 이날부터 이용할 수 있다. 타사 합산 고객은 해당 증권사의 양도소득세 계산내역 서류를 업로드해야 하고, 토스증권 거래내역은 별도로 업로드할 필요가 없다.일정은 대행신청(5월9일까지), 제휴 세무법인의 대행신고(5월10~19일), 신고완료 안내 및 납부(5월22~31일)순으로 진행된다.해외주식 양도소득세는 지난해 해외주식 판매수익에서 기본공제 250만원, 수수료, 제세금을 빼고 차익이 있을때 발생하며, 차익의 22%가 세금으로 부과된다. 신고와 납부는 매년 5월1일부터 31일까지 이고, 자세한 사항은 토스증권 홈페이지 공지사항 및 고객센터로 문의하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>토스뱅크, 누구나 출금·결제 ‘모임통장’</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003354501?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>토스뱅크가 출시한 모임통장의 혜택을 담아낸 홍보 배너. 토스뱅크 제공토스뱅크가 지난 2월 1일 출시한 모임통장은 기존의 모임통장과는 달리 모임원이라면 누구나 출금은 물론 카드 발급, 결제까지 가능하다. 이러한 점이 부각되면서 출시 두 달여 만에 개설 30만 계좌를 돌파했다.토스뱅크 모임통장은 단 하루만 맡겨도 연 2%(세전)의 이자를 준다. 기존 토스뱅크 수시입출금 통장의 장점을 그대로 탑재한 것이다. 다른 모임통장의 경우 별도의 공간으로 자금을 이동해 출금, 결제가 안 되도록 묶어 놔야 이자가 쌓이는 구조를 갖고 있다. 모임 인원수의 제한도 없으며 ‘공동모임장’ 권한을 갖게 되면 누구나 본인 명의의 모임 카드 발급이 가능하고 해당 카드를 사용해 출금, 결제를 할 수 있는 것은 물론 추후 연말 정산도 가능하다.모임에서 빼놓을 수 없는 회식, 놀이, 장보기 등의 지출 때 받을 수 있는 혜택도 강화했다. 음식점이나 주점에서 오후 7시부터 자정까지 1만원 이상 결제 시 건당 500원, 1만원 미만 결제 시 100원을 즉시 지급한다. 노래방이나 볼링장, 당구장, 골프장 등에서도 가능하며 이마트나 농협 하나로마트에서도 같은 혜택을 볼 수 있다. 캐시백 혜택은 3대 영역에서 일 1회, 월 5회까지 제공되며 월 최대 15회까지 사용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>엔픽셀, 블록토와 전략적 파트너십…웹3 게임 대중화 시도</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000741540?sid=105</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>'메타픽셀', 포르토의 블록토 월렛과 전략적 파트너십 체결[사진=엔픽셀]엔픽셀(공동대표 배봉건, 정현호)은 웹3 기반 게임 생태계 '메타픽셀(METAPIXEL)'이 포르토(Portto)의 멀티 체인 지갑 및 웹3 생태계 '블록토(Blocto)와 전략적 파트너십을 체결했다고 18일 발표했다.이번 파트너십은 게임 본연의 재미와 블록체인 기술을 융합한 차세대 웹3 게임 대중화를 목표로 글로벌 게이머의 이용 편의 및 접근성 향상 등을 목표로 했다.블록토는 메타픽셀과 첫 번째로 협업 관계를 맺은 지갑으로 160만명의 활성 이용자를 확보했다. 최근에는 8천만달러 가치를 인정받으며 마크 큐반 등 실리콘밸리 투자자들로부터 투자를 유치한 바 있다. 블록토는 소셜 로그인과 가스 비용 지원, 앱토스(Aptos) 생태계 속에서 가장 빠르고 편리한 접근성을 제공하는 등 메타픽셀 커뮤니티의 활성화에 기여할 예정이다.엔픽셀은 "메타픽셀의 비전은 게임을 통해 실제와 가상 세계를 연결하는 경험을 제공하는 데 있으며, 블록토와의 파트너십을 통해 웹3 게임의 대중화에 기여할 것으로 기대한다"고 말했다.블록토는 "블록체인 기술의 장점을 적용해 게임의 재미를 향상할 수 있는 진정한 웹3 게임의 대중화에 기여할 수 있게 돼 기쁘다"고 말했다.한편 엔픽셀은 지난해 레이어1 블록체인 기업인 앱토스와 게임 부문 파트너십을 체결하고 웹3 기반 게임 생태계 메타픽셀의 첫 번째 MMORPG '그랑사가: 언리미티드'를 개발하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.04.23.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>제4이통사 쉽지 않네…과기정통부 "이번엔 안 될지라도"</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004878401?sid=105</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>"스타링크 국내 출시, 상반기 어려워…은행권 알뜰폰 별도 규제 없다"정부의 '제4 이동통신사' 찾기가 진통을 겪고 있다. SK텔레콤·KT·LG유플러스의 3사 과점체제에 경쟁의 바람을 불어넣겠다는 취지지만, 신규 사업자 유치가 쉽지 않다. 오는 6월 '통신시장 경쟁활성화 정책' 공개를 예고한 과학기술정보통신부마저 '이번에는 어려울 수 있다'면서 중장기 과제로의 전환 가능성을 내비쳤다.23일 과기정통부 고위 관계자는 "새로운 이통사업자와 관련해 관심이 있는 기업을 접촉하고 있고, 일부 관심을 표명한 기업도 있지만 아직 뚜렷하게 '하겠다'는 정도로 (입장이) 성숙하진 않았다"며 "큰 투자이기 때문에 기업들도 신중하게 고민하는 단계"라고 말했다. 아울러 "혹시 이번에 되지 않더라도 (제4이통사는) 통신시장 경쟁의 활성화를 위해 끊임없이 노력해야 할 이슈"라고 강조했다.과기정통부는 그간 이통3사와 견줄 수 있는 대형 사업자를 중심으로 제4이통사 진출 가능성을 타진해 왔다. 알뜰폰 사업을 영위하는 KB국민은행·토스, 플랫폼 사업자 중에서는 네이버·카카오·쿠팡, 초대형 유통기업인 롯데·신세계 등이 잠재적 후보군으로 꼽히기도 했다. 하지만 막대한 운영비 부담, 이통시장의 성장 정체 등으로 신규 사업자 찾기가 어려울 것이란 전망이 팽배했다.정부는 그간 세제 혜택과 정책자금 지원, 또 제4이통사의 핵심 요소인 5G 28㎓ 투자의 최소화 등 시장 진입의 문턱을 최대한 낮추겠다는 유인책을 제시해 왔다. 그러나 이날 발언은 과기정통부 스스로도 제4이통사 유치의 현실적인 어려움을 인식하는 동시에 보다 중장기적인 과제로 평가했다는 점에서 눈에 띈다. 서울의 한 휴대폰 판매 매장에 붙어있는 통신 3사 로고. 2022.8.4/사진제공=뉴스128㎓ 활성화 정책도 표류하는 모양새다. 과기정통부는 지난해 말 5G 28㎓ 주파수 대역의 망 구축 의무를 이행하지 않은 KT와 LG유플러스의 주파수 할당을 취소하고, SK텔레콤에 대해서는 올해 5월 말까지 유예기간을 부여했다. 그러나 SK텔레콤의 망 구축률 역시 작년 말과 변화가 없는 것으로 알려졌다. 이렇게 되면 6월 이후 SK텔레콤의 28㎓ 주파수 할당 취소 역시 정해진 수순으로 보인다.해외사업자도 당장의 대안이 되기는 어려워 보인다. 이 관계자는 국내 진출을 타진하는 미국 저궤도 위성통신 '스타링크'에 대해 "(스타링크 등) 해외 위성통신 사업자들이 국내 서비스를 위해 행정 절차를 진행 중인데, 사업자 등록 절차상 자료를 보완하는 상태"라며 "(완료되려면) 상반기는 조금 지나야 할 것 같다"고 말했다.한편 과기정통부는 비통신 사업자의 알뜰폰 시장 진입을 적극 독려하겠다는 입장을 재확인했다. 규제샌드박스를 통해 가능했던 KB국민은행의 알뜰폰 '리브엠'이 최근 제도개선으로 정식사업이 가능해진 것을 두고 그는 "금융을 포함한 어떤 사업권이라도 '경쟁력 있는 플레이어'가 통신시장에 들어온 것에 의미를 부여한다"고 평가했다.은행권 사업자 별도 규제는 없을 것이란 입장도 분명히 했다. 현재 이통3사 알뜰폰 자회사들의 합산 점유율 상한을 50%로 뒀는데, 중소 알뜰폰 업계와 이통3사의 유통사업자들은 은행권에 대해서도 비슷한 규제를 요구하고 있다. 그러나 40만 가입자, 점유율 1%에 불과한 리브엠과 이통3사 자회사를 동일선상에서 규제하는 건 부적절하다는 게 과기정통부의 판단이다. 이 관계자는 "알뜰폰 시장 내 크고 작은 기업 간 관계보다는 전체 이통시장에서 알뜰폰 경쟁력을 어떻게 높일지에 초점을 맞히고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>토스증권, 미국 주식 거래 종목 6000여개 추가</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003093660?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>토스증권은 미국 주식 거래 가능 종목 6000여개를 추가해 거래 가능 종목수를 1만여개 수준으로 확대했다고 24일 밝혔다.토스증권은 미국 주식 거래 가능 종목 6000여개를 추가해 거래 가능 종목수를 1만여개 수준으로 확대했다고 24일 밝혔다.6000여개 종목은 고객요청 횟수에 따라 3차에 걸쳐 순차적으로 확대됐다. 1차로 고객요청이 10회를 초과한 종목 900여개를 지난 3일 추가했다. 2차로 고객요청이 1~10회인 종목 2000여개는 10일부터, 24일에는 3차로 3000여개 종목이 더해져 총 1만여개 종목이 거래 가능해졌다.고객 추가요청이 많았던 종목은 지니어스그룹, 메밀아이글로벌, 콘서트파머슈티컬스 등 일반 주식군과 상장지수펀드(ETF)군으로 구분된다. 이번 추가로 워런트, 유닛, 클래스 종목을 제외한 미국에 상장된 대부분 종목이 거래 가능하다.토스증권 미국주식 거래 대금 시장점유율은 1월 19.2% 에서 3월 21.5%로 성장했고, 2월부터는 거래 가능 시간도 대폭 확대해 하루 총 21시간 50분으로 늘어났다. 고객 편의와 선택폭 확대를 위해 올해 WTS(웹 트레이딩 시스템)를 출시하고, 해외주식 옵선 거래 서비스도 제공할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.04.26.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>"온라인 보험 비교, 어디랑?"… 네카토, 전략적 파트너 찾는다</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000915891?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>빅테크사들이 보험 비교 추천 서비스 시행에 앞서 해당 서비스 시행을 위한 논의를 본격적으로 시작했다./그래픽=머니S DB 네이버와 카카오, 토스 등 빅테크사들이 온라인 보험 비교·추천 서비스를 시행하기 위해 금융위원회 혁신금융서비스(금융규제 샌드박스)를 신청했다. 이르면 연말부터 해당 서비스를 운영한다는 것. 빅테크사들은 혁신금융서비스 대상자로 선정 되는대로 보험사들과 서비스 시행을 위한 논의에 들어간다는 방침이다.   26일 금융권에 따르면 네이버와 카카오, 토스 등을 포함해 30여곳의 빅테크·인슈어테크사들이 온라인 보험 비교·추천 서비스를 시행하기 위한 논의에 들어갔다. 해당 서비스를 운영하기에 앞서 보험사들과 시스템 구축방안, 상품 판매범위 등에 대한 전략을 구상하는 것이다. 앞서 빅테크사들은 지난해 10월 현대해상과 DB손해보험, KB손해보험, 롯데손해보험, 캐롯손해보험 등 5개사와 온라인 보험 비교·추천 서비스를 위해 상품 수수료 등을 논의한 바 있다.  빅테크사들은 온라인 판매채널이 미비한 손해보험사와 공동 마케팅을 펼치면 시너지 효과가 있을 것으로 보고 있다. 보험사들도 소액단기보험 판매를 위한 온라인 채널을 별도로 구축하지 않아도 된다는 게 유리하다고 판단했다. 이들은 네이버·카카오가 구상하고 있는 보험 비교·추천 서비스를 모니터링 중으로 서비스 성격에 맞는 상품을 제공한다는 계획이다. 빅테크 플랫폼을 통해 판매량을 끌어올릴 수 있다고 보는 것이다.  온라인 플랫폼의 보험 비교·추천 서비스는 대형 포털사이트나 플랫폼에서 각 보험사의 상품을비교·추천하는 것이다. 소비자는 플랫폼에서 내게 맞는 상품을 비교·추천 받을 수 있고 가입까지 가능하다. 그동안 소비자들은 각 보험사 홈페이지에 접속해 보험료를 비교하고 가입을 진행해왔다. 그동안 보험권에서 다양한 보험상품을 비교하는 온라인 서비스가 없었던 건 아니다. 2015년 11월부터 손해·생명보험협회가 운영하는 보험다모아가 대표적이다. 보험다모아에서는 자동차보험 등 8개 범주의 보험상품 가격을 비교할 수 있다. 하지만 보험다모아는 소비자의 선택권 확대에 일조하지 못했다는 평가가 지배적이다. 우선 표준화된 가입조건으로 보험료를 산출하기 때문에 여러 조건을 다양하게 반영하지 못한다. 이에 따라 보험다모아에서 안내한 보험료와 실제 가입 시 보험료가 다르다는 불만도 많다. 사실상 각사 홈페이지 링크를 모아놓은 수준이라는 지적이다. 플랫폼 운영 노하우를 쌓아온 빅테크 업체들의 경우 보다 질 좋은 서비스를 제공할 것이란 기대가 크다. 대형 포털사이트나 플랫폼에서 각사별 보험료를 손쉽게 비교하고 각 개인에 맞는 상품추천도 받을 수 있기 때문이다. 과거엔 보험상품을 비교하기 위해 많은 시간이 소요됐지만 플랫폼 비교·추천 서비스를 통해 이러한 시간이 줄어들 전망이다. 보험사 입장에서도 자사 상품 판매를 늘릴 수 있는 기회로 활용할 수 있다. 특히 중소 보험사 위주로 빅테크의 서비스를 적극 활용할 가능성이 크다. 브랜드 인지도가 낮은 보험사들은 빅테크 플랫폼을 판매를 끌어올릴 계기로 삼을 수 있기 때문이다. 한상용 한국금융연구원 연구위원은 "소비자들의 보험 접근성 측면에서만 보면 플랫폼업체가 비교시장에 들어오는 것은 긍정적"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>'70년 우파집권' 파라과이 대선판 지각변동…親中좌파 후보 선두</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013883970?sid=104</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>오는 30일 대선 실시…중남미의 '좌파 물결' 더 거세지나알레그레 후보 "당선되면 대만과 단교"…대만, 선거 결과에 촉각지난 11일 선거 유세를 펼치는 에프라인 알레그레 파라과이 대선 후보[AFP 연합뉴스 자료사진. 재판매 및 DB 금지](멕시코시티=연합뉴스) 이재림 특파원 = 인구 670만명의 남미 파라과이에서 이달 말 치러질 대선과 총선을 앞두고 거센 지각변동 조짐이 일고 있다.    70년 넘게 집권한 보수 우파에 대한 민심의 요동 속에 중도좌파 계열 후보가 여론조사 지지율에서 여당 후보를 근소한 차로 앞서 나가면서, 최근 완전히 왼쪽으로 기운 중남미 정치 판도에 무게 추를 더할 수 있다는 관측이 제기된다.    16일(현지시간) ABC콜로르, 디아리오오이, 라나시온 등 파라과이 매체 등을 종합하면 2주 뒤인 오는 30일로 예정된 파라과이 대선(총선과 함께 치러짐)을 앞두고 야당인 정통급진자유당(PLRA·급진자유당)의 에프라인 알레그레(60) 후보가 집권당인 공화국민연합당(ANR·통칭 콜로라도당)의 산티아고 페냐(44) 후보를 각종 여론조사에서 앞서고 있다.    알레그레 후보는 지난 10일 발표된 '다토스'의 여론조사 결과 40.6%의 지지율로, 35.5%의 지지율을 보인 페냐 후보를 5.1%포인트 차로 우세를 보였다. 3월 19∼4월 3일에 1천725명을 대상으로 시행한 이 조사의 오차범위는 95% 신뢰수준에서 ±2.4%포인트다.    여론조사 추이상 중도좌파 계열 알레그레는 2월 중순까지 우파 페냐에 사실상 밀리고 있었다. 그러다 갑자기 선두로 치고 나온 건 2월 말∼3월 초부터다.파라과이 집권당 대선 후보인 산티아고 페냐[EPA 연합뉴스 자료사진. 재판매 및 DB 금지]그는 대선을 한 달여 남기고 다토스와 'GEO' 등 여론조사기관에서 시행한 지지도 조사에서 페냐 후보를 오차범위 내에서 근소한 차로 앞서기 시작했다. 다만, 다른 기관인 'FaSaC 콘술토레스'에서는 알레그레 후보가 페냐 후보에 크게 뒤지는 것으로 발표(3월 10일)했다.    알레그레 후보의 '지지율 1위 기록'은 파라과이에선 커다란 변화의 전조로 볼 수 있다. 보수우파가 무려 70년 넘게 장기 집권을 해오고 있기 때문이다.    콜로라도당은 1947년 이후 딱 4년(2008∼2012년)을 제외하고 71년간 대권을 놓친 적이 없다. 중간에 정권 교체를 이룬 인물은 중도 좌파 성향의 페르난도 루고(71) 전 대통령이었는데, 그조차 당시 기득권층 주도로 중도에 탄핵당하며 임기를 채우지 못했다.    일각에서는 콜로라도당에 대한 피로감에 더해 장기 집권 중인 여당의 각종 부패 의혹에 대한 심판론이 이번 선거에 표출될 수 있다는 분석을 하고 있다고 현지 매체는 전했다.    변호사이자 대학교수 출신인 알레그레 후보는 이미 2013년과 2018년 대선에서 2차례 고배를 마신 적이 있어 2전 3기 도전이다. 특히 현 마리오 아브도 베니테스(51) 대통령을 상대로 한 직전 대선에선 대규모 야당 연합 후보로서 베니테스 후보와 접전을 벌이기도 했다.호세 무히카 전 우루과이 대통령(오른쪽)으로부터 지지 입장을 확인하는 알레그레[로이터 연합뉴스 자료사진. 재판매 및 DB 금지]앞서 루고 정부에서 공공사업통신부 장관을 지내기도 한 그는 에너지 공급에 대한 공공 개입, 부패 척결, 빈곤층 구제, 조직범죄 소탕을 주요 공약으로 삼고 있다.    특히 외교 면에서 알레그레 후보는 "중국과 가까이 지내야 한다"는 입장이다. 이런 배경에서 그가 집권하면 현재 대만과의 수교 관계를 끊을 수 있다는 예측도 나오고 있다.    앞서 알레그레 후보는 현지 TV 방송 인터뷰에서 "대선에서 승리하면 1957년 7월 8일 이후 60여년간 이어진 대만과의 외교 관계를 끝낼 수 있다"고 말했다고 대만언론 등은 보도하기도 했다. 파라과이가 대만을 계속 인정한다면 중국과의 동맹으로 인한 투자 이익을 잃게 된다는 게 알레그레 후보의 설명이라고 대만 언론은 전했다.    최근 중미 니카라과와 단교하는 등 '우군'을 잃고 있는 대만에서는 이런 이유로 파라과이 대선 결과를 예의주시하는 것으로 알려졌다.    알레그레 후보가 당선되면 멕시코와 브라질, 아르헨티나, 페루, 칠레, 콜롬비아, 베네수엘라, 볼리비아, 온두라스, 니카라과 등 중남미에 일렁이는 거센 좌파 물결('핑크 타이드')에 더 힘이 실리게 된다. 남미 주요 13개국 중 우파는 에콰도르와 우루과이만 남게 된다.파라과이 깃발 흔드는 알레그레 후보 지지자들(아순시온 로이터=연합뉴스) 파라과이 대선을 보름 앞둔 15일(현지시간) 수도 아순시온에서 야당인 에프라인 알레그레 후보 지지자들이 선거 유세장에서 파라과이 깃발을 흔들고 있다. 2023.4.16    walden@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.04.30.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>“유명 셰프 요리 먹으러 출근해요” 회사 구내 식당 맞아?</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002137145?sid=105</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>플레이팅 서비스를 이용하는 IT회사 직원들 [플레이팅 제공][헤럴드경제=손인규 기자] “미슐랭 셰프의 요리를 구내 식당에서!”텍사스 전통 요리법의 바베큐 플래터, 인도네시아의 대표 요리 나시고랭, 세계적으로 인기몰이 중인 전주콩나물해장국. 이름만 들어도 군침 도는 요리들, 심지어 미슐랭 출신 셰프가 만들어주는 요리다. 그런데 이런 요리를 회사 구내 식당에서 먹는다면?토스, 뱅크샐러드, 오늘의집 등 IT 플랫폼 기업 점심 메뉴다. 재택 근무 종료와 함께 IT기업들마다 직원들 식사에 신경을 많이 쓰고 있다. 하루 종일 회사내 앉아서 근무하는 개발인력들이 많기 때문이다. 심지어 셰프가 해주는 식사까지 등장했다.셰프의 찾아가는 구내식당 서비스를 하는 기업 ‘플레이팅’은 이를 실제 구현해냈다. 이 회사에는 전문 교육을 거친 전문 셰프 약 30명이 근무 중이다. 특히 메뉴 개발 등 총괄을 맡고 있는 김상범 요리디렉터는 미슐랭 1~3스타 레스토랑을 거쳐, 빌즈코리아 COO(최고운영자), 고든램지버거코리아 COO에서 일한 베테랑 셰프다.플레이팅 운영팀 직원이 점심 식사를 준비 중인 모습[플레이팅 제공]과정은 이렇다. 전문 셰프들이 플레이팅이 운영하는 직영 센트럴키친에서 매일 아침 약 3000인분의 음식을 조리한다. 현재 플레이팅이 개발한 메뉴는 약 700개.조리된 음식은 위생적인 보온박스에 담아 서비스 회사로 가져간다. 그리고 회사 점심 시간 전, 쓰지 않는 사무실 등 빈 공간에 세팅된다. 그럼 직원들이 와서 밥을 먹는다. 다 먹은 뒤 수거나 뒤처리는 플레이팅의 몫이다.대상은 자체 구내 식당을 갖추기 어려운 기업들이 주로 많다. 직원 복지 차원에서 품질 높은 식사를 제공하려는 기업들도 있다.현재 토스, 뱅크샐러드, 오늘의집 등 주로 IT, 플랫폼 기업 60여곳이 서비스를 이용 중이다.플레이팅 서비스를 이용하는 IT기업 직원은 “그동안에는 편의점 도시락이나 샐러드를 사먹었기에 ‘끼니를 때운다’는 느낌이 강했다”며 “하지만 이 음식들은 맛도 좋고 뭔가 제대로 먹는다는 만족감을 준다”고 말했다.123RF점심 한끼의 가격은 9000원. 1만원 메뉴엔 과일과 같은 디저트까지 제공된다. 물론, 이 서비스는 기업 대상이기 때문에 해당 식사비는 회사가 지급한다.플레이팅 관계자는 “직장인들에게 점심시간은 중요한 휴식시간인데 밖에 나가서 점심을 먹다보면 밥만 먹어도 시간이 다 지나가버린다는 아쉬움이 있다”며 “전문적인 케이터링 서비스로 시간을 줄여 직원의 휴식시간을 충분히 보상하고 이게 생산성 향상으로 이어진다는 반응을 받았다”고 말했다.현재 플레이팅 서비스는 서울 전지역은 물론 분당, 판교 등 기업들이 모여있는 지역도 가능하다.플레이팅은 지금까지 누적 90억원의 투자를 유치했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.04.29.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>[MZ사전]'사이버 폐지 줍기'…폰으로 1원씩 모아가요</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005252587?sid=103</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>고물가·고금리 시대를 이겨내려는 MZ세대의 짠내나는 사투가 시작됐다. 스스로 허리띠를 졸라매고, 소비를 극단적으로 줄이자는 취지의 '거지방(카카오톡 오픈 채팅방)'에 참여해 지출을 허락받는다. 두손 두발은 바빠졌다. MZ세대 직장인은 '사이버 폐지 줍기'를 하며 '티끌 모아 티끌'을 실천한다.'사이버 폐지 줍기'='앱테크'에 유머 한 스푼'사이버 폐지 줍기' 혹은 '온라인 폐지 줍기'는 '앱테크(애플리케이션+재테크)'의 다른 말이다. 보상형 앱에서 지급하는 포인트를 모으는 것이다.광고를 보는 등 행위를 통해 지급되는 포인트가 1원, 10원 등 소액이기 때문에 붙여진 별명이다.현실에서 폐지를 주워다 고물상에 파는 일이 큰돈이 되지 못한다는 것에서 착안해, 앱테크를 통해 소액을 모으고 있는데 오는 회의감을 방지하기 위해 유머로 승화한 듯 보인다. 이에 더해 포인트를 받는 링크를 공유하기도 하는데, "사이버 폐지 줍기 떴다. 20억 받아 가라"라고 말하기도 한다. 이 말도 역시 '지금은 소액을 모으지만, 나중에는 거액이 될 것이다'라는 희망과 함께 소액에 대한 회의감을 유머로 승화하는 맥락으로 해석해볼 수 있다.일각에서는 '투잡'의 개념으로도 '사이버 폐지 줍기'라는 단어를 사용하기도 한다.'사이버 폐지 줍기'를 할 수 있는 앱으로는 대표적으로 ▲토스 ▲캐시 워크 ▲하나 머니 ▲캐시슬라이드 등이 있다. '만보 걷기'를 달성하면 100포인트, 특정 장소에 도착하면 20포인트, '기사 보기'를 클릭하면 1포인트, 퀴즈를 풀면 랜덤 포인트를 지급하는 등의 방식으로 이뤄진다.이렇게 열심히 모은 포인트는 환전하거나 기프티콘으로 교환한다. '현실 폐지 줍기'와 마찬가지로 인생 역전할 만큼 큰 금액을 주진 않지만, 열심히 모으면 커피 한 잔, 한 끼 식사를 포인트로 사 먹을 수 있다. 고물가 시대에 맘 편히 먹을 수 있는 한 끼 식사, 커피 한 잔이 돼주는 것이다.사이버 폐지 줍기의 '성지'도 등장사이버 폐지 줍기의 성지도 생겨난다. 지난달 '토스' 앱은 '친구와 함께 토스 켜고 포인트 받기' 이벤트를 열었다. 블루투스 기능을 이용해 함께 토스 앱에 접속한 사람끼리 포인트를 적립 받는 서비스다. 이에 포인트를 많이 모으고자 직장인들이 점심시간을 이용하여 서울시립미술관 등에 모여 '사이버 폐지 줍기'를 하는 진풍경이 벌어졌다.성지를 찾아가기 힘든 사람들은 일상 속에서 기회를 만든다. 최근 다수의 온라인 커뮤니티에는 '지하철 출퇴근길에서 2030 MZ들이 다 해줬으면 좋겠다'는 제목의 글이 올라왔다. 작성자는 '친구와 함께 토스 켜기'와 '성지' 보도를 소개하며 "성지까지 가고 싶진 않다"며 "(대신) 출퇴근하면서 전부 다 같이 (포인트) 벌자"고 했다. 지하철 등 대중교통에서도 서로 블루투스를 켜고 '사이버 폐지 줍기'로 상부상조하자는 취지다.한편 기존 가계부채 관련 국제통계에 잡히지 않는 전세보증금을 반영하면 지난해 한국의 가계부채가 3000조원에 육박한다는 분석이 나왔다.전국경제인연합회 산하 한국경제연구원(한경연)은 3월 6일 발표한 '전세보증금을 포함한 가계부채 추정 및 시사점' 자료에서 최근 5년간(2017~2022년) 전세보증금을 포함한 국내 가계부채가 700조원 이상 증가한 것으로 추산됐다며 이같이 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>LG유플러스, 외국인 고객 위해 영문 버전 홈페이지 선보여</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002795799?sid=105</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>LG유플러스 모델이 외국어 홈페이지를 소개하고 있다. LG유플러스 제공    LG유플러스는 외국인 고객의 통신 서비스 사용 경험 혁신을 위해 고객센터를 거치지 않고도 요금 수납, 일시정지 해제 등 통신 서비스 업무를 처리할 수 있는 영문 버전 외국어 홈페이지를 20일 오픈한다고 밝혔다. LG유플러스는 최근 급증하는 국내 장기체류 외국인 고객을 위해 영어로 관련 정보를 제공하는 모바일 기반의 외국어 홈페이지를 개설하고, 자사 고객센터 앱인 '당신의 U+'에도 순차적으로 적용한다.외국어 홈페이지 제작에 앞서 LG유플러스가 전화와 채팅으로 접수된 외국인 고객의 의견을 수렴·분석한 결과 요금 즉시 납부, 소액결제 내역 확인 및 차단·해제 등 기본적인 통신 서비스 업무가 70% 가까이 차지하는 것을 확인했다. 이번에 오픈한 외국어 홈페이지는 가입정보 조회, 실시간 사용량 조회와 함께 요금 즉시 납부, 데이터 주고받기, 소액결제 차단 및 해제, 유심 일시정지 및 해제 등 기본적인 통신 서비스 업무를 처리할 수 있도록 한 것이 특징이다. 업무 처리 중 어려운 부분이 있으면 외국어 채팅 상담 서비스를 통해 도움 받을 수 있다.  외국어 홈페이지에서는 통신 서비스 업무 처리 이외에도 멤버십 할인, 결합 상품 할인, 이벤트 등 혜택도 확인할 수 있다. 멤버십의 경우 국문 버전의 'U+멤버스' 앱을 거치지 않고 바로 발급된 바코드를 이용해 GS25편의점, 뚜레쥬르, 파리바게뜨 등 제휴사 할인 혜택을 받을 수 있도록 지원한다.또 서류 제출 등 대면 업무가 필요한 경우를 대비해 '구글맵'을 기반으로 고객 위치에서 가장 가까이에 있는 매장을 알려주는 위치 서비스도 추가했다. 통신 서비스 이용 경험 및 국내 체류 시 필요한 정보를 고객 간 공유할 수 있는 커뮤니티 기능인 '토크+' 탭도 신설했다. 아울러 LG유플러스는 기존 홈페이지 계정 외에도 토스, 카카오톡, 네이버, 애플 계정으로도 로그인할 수 있도록 했으며 구글 계정 연동도 추가될 예정이다. 올 상반기 내 영어 외에도 중국어, 베트남어, 러시아어 등 다양한 외국어 버전 홈페이지도 선보일 예정이다.김유진 LG유플러스 글로벌통신사업담당은 "통신 관련 업무 처리를 넘어 국내 체류 외국인에게 필요한 다양한 혜택을 제공해 외국어 홈페이지가 생활 편의 플랫폼으로 거듭날 수 있도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>티몬X레고 올인데이…최대 41% 할인 판매</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011819331?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>(사진=티몬 제공) *재판매 및 DB 금지[서울=뉴시스] 이혜원 기자 = 티몬은 특별한 어린이날 선물을 고민하는 고객들을 위해 ‘레고 올인데이’를 열고 단독 특가 상품들을 선보인다고 24일 밝혔다.티몬은 어린이날 선물을 고민하는 고객들을 위해 24일 단 하루, ‘레고 올인데이’를 열고 초특가 상품들을 전한다. 10% 쿠폰과 토스페이 7% 중복할인을 더해 최대 17%까지 혜택을 누릴 수 있다. 대표적으로 ▲클래식 라지 조립박스(4만3900원) ▲닌자고 니야의 사무라이 X 로봇(9만3000원) ▲듀플로 증기 기관차(6만270원) 등이다. 이외에도 주요 인기 상품들을 정상가 대비 최대 41% 저렴한 가격으로 만나볼 수 있다.이날 오전 11시에는 ‘티몬플레이’로 라이브 판매 방송을 진행하고, 주요 상품의 상세 설명을 실시간으로 제공한다. 방송 시연 상품 구매 시 ‘레고 스타터팩 만들기’를 증정하며, 10만원 이상 구매 고객에게는 ‘레고 틴케이스 세트’도 사은품으로 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.04.18.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>저축은행 '파산·전액인출' 루머 속출… 이복현 "시장교란 행위 대응"</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000913867?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>이복현 금감원장이 12일 서울 중구 명동1가 은행회관에서 열린 금융감독원, 민생침해 금융범죄 근절 위한 비대면 생체인증 활성화 토론회에 참석, 여야 국회의원의 축사를 경청하고 있다./사진=임한별 기자 이복현 금융감독원장이 허위사실로 시장을 교란하는 행위에 철저히 대응한다는 입장을 밝혔다. 이 원장은 18일 금감원 임원회의에서 "최근 대내외 경제 및 금융시장의 불확실성이 지속되면서 일부 금융업권이나 금융회사의 건전성 상황에 대한 불안감이 커지고 특정 회사에 대한 허위사실이 시장을 교란시키는 사례가 있다"며 "금융위원회 및 수사기관과 긴밀한 공조 체계를 바탕으로 시장 불안 요인 해소 및 교란 행위 차단에 총력을 기울여 달라"고 지시했다.이어 그는 "금감원 내 전담 대응 체계를 강화해 악성루머 유포 행위를 집중적으로 감시하고 악성 루머와 관련된 금융사의 건전성 현황을 정확히 전달해 시장 혼란을 최소하며 불공정거래 행위 확인 시 즉각 조사 착수 등 철저히 대응해야 한다"고 주문했다.최근 금융권에서는 미국 실리콘밸리은행(SVB)과 유럽 크레디트스위스(CS) 사태 등으로 은행권 불안이 커진 상황이라 위기설과 악성 루머가 끊이지 않고 있다.지난 12일 'OK저축은행과 웰컴저축은행에서 1조 원대 프로젝트 파이낸싱(PF) 결손으로 지급 정지 예정이니 전액 인출이 요망된다'는 허위 지라시가 나돈 것과 관련해 저축은행중앙회와 해당 은행은 유포자를 고발하는 등 적극적인 대응에 나섰다.인터넷전문은행 토스뱅크는 지난달 가입 즉시 이자를 먼저 주는 예금 상품을 내놓자 인터넷 커뮤니티 등을 통해 유동성 위기설이 번지기도 했다. '폰지 사기'(다단계 금융 사기) 형태의 예금 상품을 내놓을 만큼 유동성 문제가 심각한 상황이라는 내용이다.이 원장은 "디지털화된 시장환경에서도 작동될 수 있는 보다 치밀하고 신속한 대응이 필요하다"면서 부동산PF 불안요인 관리·대응에 만전을 기하고 한은·예보 공동검사, 스트레스테스트 실시 등 관계기관과 보다 기민하고 유기적인 상호 협력·소통체계를 강화하도록 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.04.26.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>카카오뱅크도 예금이자 원할때 받는다</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005122219?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>카카오뱅크가 원할 때 이자 받는 서비스를 도입한다. 한 달에 한 번씩 은행이 정한 날짜에 예금 이자를 받는 게 아니라 고객이 원할 때 언제든 이자를 받을 수 있는 서비스다. 이미 서비스 중인 토스뱅크, 케이뱅크까지 인터넷전문은행 3사가 모두 '지금 이자 받기'를 제공하게 됐다. 26일 금융권에 따르면 카카오뱅크는 최근 세이프박스 특약 개정을 통해 이자 지급 시기에 '고객이 요청한 날'을 추가한다고 밝혔다. 시행 일자는 다음달 24일이다. 세이프박스는 연 2.4% 이자를 주는 보통예금으로, 고객은 매월 네 번째 토요일 혹은 원하는 날짜 중 이자 받는 날을 선택할 수 있다. '지금 이자 받기'는 토스뱅크가 지난해 3월 국내 금융사 최초로 선보인 서비스로 이용 횟수가 1년간 1억5000만회를 넘어서며 인기를 끌었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.04.25.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>쓱페이 매각 난항...토스 발 빼고 네이버는 관망</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003094052?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>사진=전자신문DB신세계 간편결제 'SSG(쓱)페이' '스마일페이' 매각이 난항을 겪고 있다. 유력 후보자들이 협상에서 철수하거나 유보적 태도를 취하면서 고착 상태에 빠졌다.25일 관련 업계에 따르면 토스와 신세계 쓱페이(SSG닷컴), 스마일페이(G마켓) 매각이 사실상 결렬됐다. 토스 관계자는 “신세계와 간편결제 서비스 관련 구체적인 논의가 없다”고 말했다.신세계는 최근 쓱페이와 스마일페이 등 자사 계열 간편결제 서비스 매각을 추진하는 과정에서 토스(비바리퍼블리카)와 두어 차례 만났지만 몸값이나 매각 방식 등에서 이견이 커 협상을 본 테이블에도 올리지 못한 것으로 알려졌다. 토스 사정에 정통한 한 관계자는 “토스 내부 분위기는 '신세계와 딜을 하지 않는다'는 것”이라고 말했다. 토스가 나서서 신세계 간편결제 인수를 추진하지 않겠다는 것이다.또 다른 매수 후보자로 꼽히는 네이버는 사태를 관망하고 있다. 네이버 관계자는 “페이 사업과 관련해 신세계와 전략적으로 다양한 방향을 검토하고 있다”면서 “양사가 우호적 관계 연장선에서 (페이 사업을 비롯한) 다양한 협업 가능성을 정기적으로 논의하고 있다”고 말했다.공식적으로는 협업을 검토하고 있다고 밝혔지만 네이버 안팎을 종합하면 실제 양사 간 간편결제 매각·인수와 관련한 구체적 논의는 없는 것으로 알려졌다. 양사가 정기 미팅을 하는 자리에서 간편결제 사업이 언급되기는 했지만 세부 조건을 따지는 협상은 없었다는 것이다.신세계는 “페이 사업 지속 성장을 위한 다양한 전략을 고민하고 있다”면서 “현재로선 확정된 내용이 없다”는 입장이다.쓱페이와 스마일페이 점유율이 낮고 타사와의 시너지를 내기 어렵다는 것이 인수 걸림돌로 꼽힌다.온라인 간편결제 시장에서 쓱페이와 스마일페이 합산 점유율은 한 자릿수다. 온라인 간편결제 서비스는 카카오페이·삼성페이·네이버페이 3사가 약 90%를 넘게 점유하고 있다.토스 입장에서는 쓱페이와 스마일페이를 합쳐도 점유율을 크게 넓히지 못한다. 자사 간편결제 서비스를 넘긴 신세계 그룹이 애플페이 등을 도입하면 오히려 타격이다. 거대 유통 채널을 확보했다는 의미가 퇴색하는 것이다.네이버 역시 스마트스토어 등 자사 쇼핑·유통 플랫폼을 운영하고 있어 신세계 그룹 간편결제와 시너지가 크지 않다. 플랫폼 업계 관계자는 “우호적 관계만으로 이루어질 수 있는 딜은 아니다”라면서 “신세계 쪽에서 파격 조건을 제시하지 않는 이상 매수자들이 매력을 느끼기 어렵다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.04.17.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>연체율 높다했는데…가상화폐 투자자에 대출 대거 내준 케이뱅크</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005465956?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>신용대출 8조 中 약 5조 업비트 고객에 내줬다"시그니처뱅크도 가상자산 리스크에 파산...감사 필요"[이데일리 지영의 기자] 국내 인터넷은행 케이뱅크가 가상화폐 투자자들의 자금 공급원으로 활용된 정황이 포착됐다. 케이뱅크 전체 신용대출액의 60% 이상이 가상자산 거래소 업비트 이용자들에게 나간 것이다. 이에 따라 최근 케이뱅크 연체율이 급증한 배경에 가상화폐 투자로 흘러간 대출이 부실화됐을 가능성이 제기된다. 케이뱅크가 인터넷 은행 중 가장 높은 연체율과 부실채권 비율로 도마에 오른 점을 감안하면 가상자산 관련 건전성 점검이 시급하다는 평가다.  신용대출 60%가 업비트 연계계좌 대출17일 이데일리가 더불어민주당 김한규 의원실을 통해 확인한 금융감독원 자료에 따르면 지난해 말 기준 케이뱅크 전체 신용대출 누적액의 60% 이상이 업비트 연계계좌 보유 고객(가상화폐 투자자)에게 나간 것으로 파악됐다. 신용대출 총 잔액이 8조2140억원으로 이 중 업비트 연계계좌 보유자의 대출액이 4조9487억원(60.25%)에 달했다. 반면 업비트 계좌가 없는 일반 고객의 대출액은 3조2652억원(39.75%)에 그쳤다. 문제는 업비트를 이용하는 가상화폐 투자자들이 케이뱅크 신용대출을 받아 ‘빚투(빚내서 투기)’에 활용했을 가능성이 상당히 높아보인다는 점이다. 케이뱅크가 업비트에 실명 계좌를 발급해주기 시작한 시점은 지난 2020년 6월 말이다. 지난 2020년 7월부터 지난해 말까지 업비트로 입금한 기록이 있는 고객들이 케이뱅크에서 받은 총 대출액을 집계해보면 4조1031억원대다. 같은 기간 업비트로 이체한 총 금액대도 4조9060억원을 기록했다. 더불어 가상화폐 투자자들이 케이뱅크에서 신용대출을 받은 금액과 해당 월에 업비트로 이체한 월별 금액대도 평균적으로 높은 상관관계를 보였다. 가상화폐 투자자가 케이뱅크에서 받은 신규 신용대출액이 증가하면 업비트로 이체한 금액도 유사한 수준으로 늘어났고, 반대로 대출받은 금액이 감소하면 업비트로 이체한 금액도 감소세를 보였다.케이뱅크 본사 사옥 전경. (사진=케이뱅크) 업비트 이용 고객 연체율만 쉼 없이 올랐다...케이뱅크 건전성 도마가장 우려가 되는 요인은 케이뱅크에서 업비트 이용자들의 계좌를 중심으로 연체율이 가파르게 증가하고 있다는 점이다. 세부적으로 보면 업비트 이용자들의 연체율은 지난 2021년 6월(0.14%) 이후 지난해 말(1.01%)까지 한 달도 쉬지 않고 지속적인 상승세를 기록했다. 해당 기간 연체율 상승폭만 0.87%포인트(p)에 달한다. 반면 같은 시기 업비트 계좌가 없는 일반 고객들의 연체율은 0.14%p 감소했다. 이 시기 전체 신용대출 연체율은 0.57%에서 0.98%로 0.47%p 상승했다. 업비트 이용자들의 높은 연체율이 케이뱅크의 건전성 리스크를 키운 셈이다. 케이뱅크는 현재 인터넷 은행 및 1금융권을 통틀어 가장 높은 연체율과 부실채권 비율로 도마에 오른 상태다. 금감원에 따르면 지난해 말 기준 케이뱅크의 전체 연체율은 0.85%로 인터넷은행을 포함해 전체 1금융권 중 가장 높다. 부실채권 규모도 0.95%로 토스뱅크(0.53%)와 카카오뱅크(0.36%) 대비 현저히 높은 수준이다. 한 금융투자업계 전문가는 “가상자산 거래소와 연계가 됐던 시점부터 금융당국의 면밀한 점검이 있었어야 했다”며 “가상자산 리스크 때문에 파산했던 시그니처뱅크 사례를 감안하면 지금이라도 정확한 대출 실태와 부실화 가능성에 대해 점검이 있어야 한다”고 평가했다.이와 관련 케이뱅크 측은 “업비트 계좌를 보유한 고객 중 케이뱅크에서 신용대출을 받았다 해도 그 돈을 어디에 썼는지는 체크할 수 없는 부분”이라며 “4조원대가 다 업비트로 흘러갔다고 보는 것은 과한 해석”이라는 입장을 내놨다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.04.30.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>"스타트업 아이디어 베끼기 논란에 불신 퍼지면 혁신도 좌초" [긱스]</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004839222?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>정신아 카카오벤처스 대표"누구든 뛰어들어 깃발 꽂아야 산업 경쟁력 향샹""플랫폼, 돈 버는 방식 바꿔야"이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.알고케어가 올해 초부터 롯데헬스케어와 영양제 디스펜서 사업 아이디어 도용 문제로 분쟁을 이어가고 있고, 닥터다이어리도 카카오헬스케어의 유사 서비스를 놓고 다툼을 벌이고 있습니다. 디지털 헬스케어 스타트업 업계 전반에 불신이 퍼지는 조짐입니다. 대기업에 속하면서도 오랫동안 초기 스타트업 발굴에 힘써온 정신아 카카오벤처스 대표에게 이번 사태를 어떻게 바라봐야 하고, 무엇을 배우고 고쳐나가야 할지를 한경 긱스(Geeks)가 물어봤습니다. 정신아 카카오벤처스 대표가 지난 28일 경기 성남시 판교테크노밸리에 위치한 본사에서 한국경제신문과 인터뷰하고 있다. 정 대표는 "스타트업 아이디어 탈취 논란으로 불신이 퍼지면 이제 막 시작한 디지털 헬스케어 혁신이 좌초될 수 있다"며 "초기 시장일수록 누구든 뛰어들어 깃발을 꽂아야 전체 산업 경쟁력이 올라간다"고 강조했다. 이솔 기자"기술 혁신은 시간이 중요합니다. 초기 시장일수록 누구든 뛰어들어야 전체 경쟁력도 올라가요. 불신이 퍼지면 이제 막 시작한 디지털 헬스케어의 혁신마저 좌초될 수 있습니다."정치권으로 옮겨붙은 대기업의 스타트업 아이디어 탈취 논란에 대해 정신아 카카오벤처스 대표는 이렇게 말했다. 알고케어는 올해 초부터 롯데헬스케어와 영양제 디스펜서 관련 사업 도용 문제로 분쟁을 이어가고 있다. 닥터다이어리도 카카오헬스케어의 유사 서비스를 놓고 다툼을 벌이고 있다.지난 28일 경기 성남 본사에서 만난 정 대표는 "어떤 문제를 푸느냐와 어떻게 푸느냐는 구분해서 접근해야 한다"며 "특정 영역에 먼저 진입했다고 후발 주자에 '베끼기'라고 할 수는 없다"고 지적했다.글로벌 대기업부터 초기 스타트업을 발굴하는 벤처캐피털(VC)까지 경험한 정 대표는 "구글의 유튜브 인수나 마이크로소프트(MS)의 오픈AI 선점 같은 '아하의 순간'이 국내 대기업엔 없었다"며 "신규 사업팀을 내부에 만들 게 아니라 좋은 기업을 사들이며 혁신을 위한 속도전에 뛰어들어야 한다"고 강조했다.Q. 알고케어, 닥터다이어리 등 헬스케어 스타트업이 대기업의 기술 탈취, 아이디어 도용 피해를 주장하며 반발하고 있습니다.A. 그동안 달궈졌던 문제들이 이번 일로 끓어올랐다고 봐요. 문제는 한번 불신이 생기면 사이클을 타고 전체로 퍼지게 된다는 점입니다. 앞으로도 어떤 일들이 나올 때마다 '아이디어 도용'으로 한데 묶어 보게 될 텐데 그 아이디어를 나눠서 볼 필요가 있습니다. 어떤 영역에서 문제를 푸느냐와 어떻게 운영하느냐를 똑같이 봐선 안 됩니다. 독창성이 인정되고, 운영의 핵심이 너무 비슷하면 당연히 문제죠. 하지만 어떤 영역에 들어가는 것을 놓고 '베끼기'라고 말하는 것은 맞지 않습니다.Q. 카카오헬스케어와 카카오VX도 아이디어 탈취 주장이 제기되는데 각 사안을 달리 보나요.A. 카카오VX는 스마트스코어 출신 직원이 전 회사의 관리 계정에 접속했기 때문에 운영상 문제라고 봅니다. 카카오헬스케어의 경우 닥터다이어리와 비슷한 서비스를 내놨다고 해서 문제라고 보긴 어렵습니다. 디지털 헬스케어처럼 이제 막 시작하는 시장에선 누구든 뛰어들어 전체 수준을 끌어줘야 합니다. 비슷한 서비스가 4~5개 나와서 경쟁하다 보면 전체 산업 경쟁력이 올라가는 거죠. 네이버와 다음이 서로 비슷한 서비스를 내놓으면서 인터넷 모바일 경쟁력이 향상된 것처럼요.Q. 이번 아이디어 도용 논란이 기술 혁신을 방해할까요.A. 혁신을 방해할 수 있다고 생각해요. 혁신은 일어나기 전까지 모두가 불신하죠. 그걸 하는 게 스타트업입니다. 지금은 뭐가 정답인지 모르기 때문에 각자 기업들이 뛰어들어 자기의 문제를 깨는 거죠. 먼저 진입했다고 후발 기업에 왜 따라하느냐고 할 수는 없는 거예요. 기술 혁신은 '다함께' 만드는 게 아니라, '그린필드(초원)'에서 경쟁하는 것과 같아요. 욕먹더라도 저기까지 빨리 가서 깃발을 꽂고 내 땅을 차지하는 게 중요하죠. 혁신엔 타이밍이 중요하기 때문입니다.Q. 오픈이노베이션이 더욱 위축될 것이란 우려 섞인 목소리도 나옵니다.A. 대기업의 오픈이노베이션은 스타트업 투자만이 아니라 사업적으로 혁신을 일어나게 하는 게 목적입니다. 그룹 전체적으로 스타트업을 아예 만나지 말라는 분위기가 생겨버리면 안 되지 않을까요. 기업 내부적으로 프로세스를 정비할 게 있으면 하고, 외부적으로 신뢰를 회복할 부분이 있으면 노력해야죠.Q. 기업들은 어떤 운영 원칙을 세워야 할까요.A. 대기업은 '베스트 팔로어' 전략으로 컸습니다. 신규사업 담당자가 더 잘하기 위해 다른 기업의 사업모델을 따라 하는 게 당연하다시피 했죠. 회사마다 윤리적인 원칙을 만드는 게 필요해요. 잘못인 줄 모르고 하는 게 많거든요. 대기업에서 신규 서비스를 내놓을 땐 관련 스타트업을 아예 만나지 않는 게 좋다고 생각해요. 이런 가이드라인이 있어야 신뢰를 갖게 되죠.Q. 카카오벤처스는 어떤 내부 가이드라인이 있나요.A. 기존 투자한 회사와 유사한 스타트업은 투자 검토가 불가해요. 연락이 와도 기존 패밀리사가 있어 어렵다고 얘기하죠. 대기업에서 스타트업을 소개해 달라고 하면 해당 기업에 말하지 않고는 세부 자료를 보내주지 않아요. 그게 기본이죠.정신아 카카오벤처스 대표가 지난 28일 경기 성남시 판교테크노밸리에 위치한 본사에서 한국경제신문과 인터뷰하고 있다. 이솔 기자Q. 대기업이 스타트업 생태계에서 어떤 역할을 해왔다고 평가하나요.A. 메타의 인스타그램, 구글의 유튜브 인수나 MS의 오픈AI 투자 같은 '아하의 순간'이 한국엔 없었죠. 미국 데이팅 앱 틴더가 어떻게 국내 스타트업 하이퍼커넥트를 2조원에 인수했을까요. 미국 기업은 안에서 못 하는 것은 사서라도 한다는 데 '원점'이 찍혀있기 때문에 가능한 일이라 생각해요. 반면 국내 대기업은 속도전에 민감하지 않아요. 스타트업이 잘하는 부분이 있어도 '아직 멀었다'고 폄하하기 일쑤죠. 대기업은 '다 내가 해야 한다'는 문화가 있는데, 신규 사업팀을 직접 꾸리기보다는 좋은 기업을 인수하는 쪽으로 바뀌어야 해요. 각자 기업이 속도전으로 가야 혁신이 가능합니다.Q. 토스의 권고사직에 대해 쏟아지는 비판 여론을 보면 스타트업이 우리 사회에 정말 혁신을 만들어내고 있는지를 되묻게 됩니다.A. 그런데도 스타트업이 사회를 혁신하고 있다고 감히 생각해요. 무엇보다 사용자 중심으로 서비스를 만들며 고객의 문제를 푸는 방식을 혁신하고 있죠. 또 뛰어난 사람들이 일하는 꿰뚫는 문화를 만들었어요. 물론 혁신이 좋은 것만 있진 않죠. 사람을 내보내는 것처럼 안 좋은 일일수록 커뮤니케이션과 프로세스가 중요한데 스타트업이 서툴죠. 하지만 직원들을 그대로 두고 회사가 어려워지면 그게 혁신일까요. 토스가 대규모 권고사직으로 시장 상황에 반응해 살아남기 위한 방법을 제시했다고 생각해요.Q. 왜 플랫폼이 적대시되고 있나요.A. 플랫폼이 돈을 안 벌었을 때는 다 좋아했지만, 돈 벌기 시작하면서 다수의 중소상인과 택시 노동자를 건드리게 됐죠. 다수를 상대로 수수료를 받는 방식은 한계가 있어요. 사용자와 중간 공급자를 연결한다는 측면에선 혁신이 맞지만 돈 버는 측면에선 전통적인 방식이었어요. 결국 플랫폼이 돈 버는 방식을 바꿔야 해요.Q. 챗GPT가 우리 산업의 방향을 어떻게 바꿀까요.A. 딥마인드의 알파고는 일반 사용자에겐 진입장벽이 높았는데, 대화형 AI는 모두가 접할 수 있어요. 시장은 사용자가 반응하면서 열려요. 공급자가 생기고, 서비스 플랫폼이 만들어지면서 생성형 AI 생태계가 생길 거예요. 투자 관점에선 기반 기술-중간지대-서비스로 나눌 수 있어요. 기반 기술단에선 MS에 이어 아마존웹서비스, 구글도 대화형 AI를 출시하고, 국내 대기업도 경쟁하겠죠. 생성 AI를 활용한 서비스도 우후죽순 생겨날 겁니다. 현재 기반 기술과 서비스를 연결하는 중간이 비어 있는데, 2~3년 뒤면 데이터를 걸러내고, 비용 효율을 돕는 등 중간에서 서비스형 소프트웨어(SaaS)를 제공하는 숨은 고수들이 나올 것으로 기대합니다.정신아 카카오벤처스 대표가 지난 28일 경기 성남시 판교테크노밸리에 위치한 본사에서 한국경제신문과 인터뷰하고 있다. 이솔 기자Q. 스타트업 투자 시 무엇을 가장 중요하게 보나요.A. 갈수록 더 사람이더라고요. 스타트업마다 '죽음의 계곡'은 항상 옵니다. 10년을 내다보고 투자하기 때문에 10년 동안 정답을 찾아내려는 집념을 놓치지 않는 팀이어야 해요. 그동안 실패한 투자를 돌이켜보면 창업자가 빨리 포기한 경우들이더라고요. 끝까지 해보지 않고 이직 제안을 받아 뿔뿔이 흩어진 곳들이죠. 투자한 회사가 망했다고 투자자가 실패하는 게 아니에요. 사람을 잘못 본 게 투자자로서의 실패죠.Q. 벤처캐피털리스트가 아녔다면 어떤 직업이 어울린다고 생각하나요.A. 신규 서비스를 만들어내는 스타트업을 창업했을 것 같아요. 글로벌 대기업 이베이 동남아에서 일할 때 이베이 US의 사용자 경험(UX)이 맞지 않아 동남아 판매자에게 맞춘 '미러링 포털'을 만들었더니 거래량이 쭉 오르더라고요. 사용자가 뭘 좋아하는지 파악해서 거기에 딱 맞는 서비스를 만들어내는 데 재미를 느껴요.Q. 앞으로 해결하고 싶은 문제가 있나요.A. 고객의 문제를 해결하는 게 기업이라고 생각해요. 회사 규모마다 사람이 해야 하는 문제가 있고, 시스템이 풀어야 하는 문제가 있어요. 어떤 기업은 사람이 먼저라 체계가 엉망이고 반대인 경우도 있죠. 큰 기업일수록 사람만으로 일할 수 없어요. 시스템이 일할 수 있게 해줘야죠. 회사 성장 단계에 맞게 시스템이 함께 정착될 수 있는 방법을 고민하고 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.04.25.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>"벤처투자는 긴 호흡으로…지금은 과감함보다 신중함 필요하죠"</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004183272?sid=102</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>[CEO＆STORY] 김창규 우리벤처파트너스 대표1994년 전신인 KTB네트워크서 첫 발한 직장서 심사역으로 기복없이 승승장구배민·토스 등 발굴···포티투닷도 '잭팟'미래 유망투자처론 웹3·블록체인 주목5년내 운용자산 두 배로 키워 3조 목표우리금융 손잡고 글로벌 전략펀드 추진VC 1위 재도약으로 옛 명성 되찾을 것[서울경제] “우리벤처파트너스(298870)(옛 KTB네트워크)를 업계 1위 벤처캐피털(VC)로 성장시켜 과거의 명성을 되찾을 겁니다. 5년 내 운용 자산을 두 배로 키우고 국내를 넘어 아시아에서도 명성을 인정받는 VC로 발돋움할 것입니다.”한국 벤처 투자 업계에서 살아 있는 전설의 심사역 중 한 명으로 꼽히는 김창규 우리벤처파트너스 대표는 서울경제신문과 처음 만나 인터뷰를 하듯 이같이 포부를 밝혔다. 그를 만난 곳은 서울시 중구 소공동의 우리금융지주(316140) 본사 빌딩. 한 달 전만 해도 다올금융그룹의 일원이던 김 대표는 다올인베스트먼트가 우리금융지주에 매각되면서 새 옷으로 갈아입었다. 임종룡 우리금융지주 회장은 모기업의 어려움 때문에 새 주인을 찾게 된 김 대표와 다올인베스트먼트 임직원을 품으면서 벤처 투자에 대한 전문성도 인정해줬다.우리벤처파트너스는 지난달 23일 우리금융이 인수를 완료하며 열다섯 번째 자회사로 편입됐는데 임 회장은 다올인베스트먼트의 전신인 KTB네트워크 시절부터 30년 가까이 분골쇄신한 그의 성실함과 탁월한 투자 감각을 인정해 우리벤처파트너스의 수장으로 재선임했다.우리금융지주는 그간 금융회사를 새로 인수해 자회사로 편입하면 대부분 대표를 교체했지만 김 대표가 재선임되자 벤처 심사역으로서 전문성과 한 우물을 판 그의 집념이 인정받은 결과라는 평가가 나왔다.김창규 우리벤처파트너스 대표가 14일 서울 중구 우리은행 본점에서 서울경제신문과 인터뷰하기 전 포즈를 취하고 있다. 성형주 기자김 대표는 우리벤처파트너스라는 새 사명은 전체 임직원들, 특히 MZ세대 직원들의 의견을 존중해 결정했다고 했다. ‘우리나라 벤처기업의 파트너가 되겠다’는 의미를 담고 있다. 그는 “‘우리벤처투자’ ‘우리벤처스’ 등 많은 의견이 나왔지만 앞으로 오랫동안 회사에 남아 일할 젊은 직원들의 뜻을 반영해 회사명을 결정했다”면서 “요즘 젊은 직원들이 줄임말을 좋아하니 ‘우벤파’라고 불러도 좋을 것 같다”며 웃었다.그는 인터뷰 내내 우리나라 1호 VC인 KTB네트워크의 명성과 신뢰를 이어가겠다는 의지를 강조했다. 우리벤처파트너스는 1981년 과학기술처가 설립한 공기업이자 1세대 VC인 한국기술개발(KTB)이 전신이다. 1999년 민영화와 함께 투자를 넘어 증권사로 업무를 확대·재편했고 사명도 KTB투자증권으로 바꿨다. 2008년에는 KTB투자증권이 벤처 투자 부문을 분할하면서 KTB네트워크로 재탄생했다. 또 지난해 모회사였던 KTB투자증권이 사명을 다올투자증권으로 바꾸면서 다올인베스트먼트가 됐다. 우리벤처파트너스까지 포함하면 1981년 설립 이후 네 번이나 간판을 바꿔 단 셈이다.김 대표는 “인수합병(M&amp;A) 과정에서 저를 포함해 불안해 하는 직원들이 많았다”면서 “이제 안정을 되찾았고, 변화를 발판 삼아 옛 KTB네트워크 선후배들과 우리금융 동료들, 주주들에게 실망스럽지 않은 VC로 재도약하겠다”고 다짐했다. 이어 “과거 우리는 독보적인 업계 1위였는데 주춤하는 사이 한국투자파트너스 등 경쟁사들이 앞서 나간 것은 사실”이라며 “좋은 대주주를 만난 만큼 회사가 새로운 성장 동력을 확보했다고 본다”고 자신했다.그는 업계 1위 도약을 위한 구체적 목표로 운용 자산 3조 원대 돌파와 글로벌 벤처 투자 시장 진출 확대를 제시했다. 우리벤처파트너스는 1조 4600억 원의 운용 자산을 확보하고 있다. 운용 자산만 놓고 보면 한국투자파트너스와 소프트뱅크벤처스, KB인베스트먼트, IMM인베스트먼트 등에 이어 VC 업계 5위다. 1위인 한국투자파트너스의 운용 자산(3조 2000억 원)에 비하면 절반 수준이다. 우리벤처파트너스는 조만간 최대 약정액 4000억 원의 신규 스케일업 펀드 결성을 앞두고 있어 완료되면 운용 자산은 1조 6000억 원 수준으로 늘어난다.특히 김 대표는 동남아시아와 미국 등 글로벌 벤처 투자 확대에 강한 자신감을 나타냈다. 그는 “우리금융그룹 산하 VC가 된 지 한 달이 채 안 됐지만 벌써 해외 투자가들이 우리벤처파트너스를 바라보는 시선이 달라진 것을 느낀다”면서 “조만간 미국 출장을 갈 예정인데 그동안 만나지 못했던 해외 대형 VC들과 미팅 약속을 수월하게 잡을 수 있었다”고 설명했다.우리벤처파트너스는 벤처 투자 업계에서 가장 먼저 글로벌 진출을 시도했던 VC로 꼽힌다. 중국 상하이와 싱가포르에 각각 해외 법인을 두고 있으며 미국 캘리포니아주 팰로앨토에도 사무소를 운영 중이다. 해외 유수의 VC가 조성한 벤처 펀드에 출자자로 나서며 탄탄한 투자 네트워크도 확보하고 있다. 전체 해외 벤처 펀드 출자 규모는 700만 달러(약 93억 원) 수준이며 최근에는 싱가포르 블록체인파운더스펀드에 50만 달러(약 7억 원), 인도네시아 AC벤처스에 100만 달러(약 13억 원)를 출자했다.앞으로 해외 스타트업에 펀드 자금의 100%를 투자하는 글로벌 전략 펀드를 조성해 본격적인 해외 영토 확장에 나서겠다는 계획도 선보였다. 김 대표는 “해외 현지에서 대형 벤처 펀드를 조성해 자유롭게 투자할 수 있어야 글로벌 톱 VC들과도 협력해 공동 투자를 진행할 수 있다”고 설명했다.그는 “국내 VC들이 해외 벤처 투자에서 경쟁력을 가지려면 해외 스타트업에만 100% 투자할 수 있는 대형 펀드를 확보하고 있어야 한다”며 “국내 출자 기관의 지원만으로는 역부족이어서 우리금융과 함께 진정한 의미의 글로벌 펀드를 만들어보고 싶다”고 강조했다.김창규 우리벤처파트너스 대표가 14일 서울 중구 우리은행 본점에서 앞으로 목표를 밝히고 있다. 성형주 기자김 대표는 벤처 투자 업계에 입문 후 30년 동안 현장에서 기복 없는 실력으로 승승장구했다. 그가 발굴해 각 분야 최고의 자리에 오른 스타트업들은 한 손으로 다 꼽을 수 없을 정도다. 하나마이크론과 엘오티베큠 등에 투자하며 코스닥 상장까지 성공시킨 김 대표는 최근에는 우아한형제들(배달의민족)·비바리퍼블리카(토스)·몰로코·알비더블유 등에 초기부터 투자해 대박 행진을 벌였다. 그는 김봉진 우아한형제들 이사회 의장과는 지금도 종종 만나 격의 없이 대화를 나누는 데 젊은 스타트업 대표들과도 연배를 떠나 꾸준히 교류하며 든든한 맏형 역할을 하고 있다.특히 배민과 토스 투자는 회사 성장의 중요 모멘텀이 되기도 했다. 원활한 투자금 회수에 긍정적 영향을 주면서 실적 향상을 이끌었기 때문이다. KTB네트워크 시절인 2017년 83억 원이던 영업이익은 2021년 840억 원으로 10배 이상 치솟았는데 배민과 토스가 효자 노릇을 했다. KTB네트워크가 2021년 말 코스닥 상장을 추진할 당시 증시 입성의 원동력이 됐음은 물론이다. 김 대표의 투자 여정은 진행형이다. 토스만 해도 회수할 투자금이 상당 부분 남아 있다. 또 최근 단기간에 큰 수익을 안겨준 자율주행 모빌리티 스타트업 포티투닷도 김 대표가 탁월한 투자 감각을 발휘한 사례다. 포티투닷은 지난해 8월 현대차그룹이 인수하면서 우리벤처파트너스가 ‘잭팟’을 터뜨렸다. 2019년과 2020년에 걸쳐 투자한 90억 원이 2년 만에 250억 원으로 불어나 돌아왔다. 김 대표는 “포티투닷의 송창현 대표를 처음 만난 자리에서 무조건 투자해야겠다는 생각이 들었다” 며 “당시에도 현대차가 주주로 참여하고 있었는데 자율주행 분야에서 두 회사가 협업하면 큰 성과를 낼 것이라는 확신이 들었다”고 회고했다.그는 미래 유망 투자처를 묻자 블록체인과 웹3.0 등을 제시했다. 김 대표는 “젊은 사람들이 가장 열광하는 블록체인·웹3.0 등의 분야가 앞으로 성장할 수밖에 없다”며 “시중 금리가 떨어지면 블록체인을 활용한 탈중앙화 인프라 기술 등으로 자금이 몰리고 본격적인 성장이 시작될 것"이라고 전망했다.30년간 벤처 투자 업계에 몸 담으며 1997년 말 외환위기와 2008년 글로벌 금융위기 등 산전수전을 다 겪은 그지만 “지금은 콕 찍어 투자를 얘기하기가 망설여진다”고 토로했다. 그러면서 신중한 투자를 주문했다. 김 대표는 “과거 50억 원을 한 번에 투자했다면 이제는 기업 성장 주기별로 10억~20억 원씩 쪼개서 투자하는 것이 낫다” 면서 “투자 업계 상황은 물론 거시 경제 변수가 너무 많기 때문에 신중하고 이성적인 투자가 중요한 시기”라고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.04.24.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>尹 “한미동맹 역사상 가장 성공적… 100년 전 일로 ‘日 무릎 꿇어야’ 생각 안해”</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003356195?sid=100</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>윤석열 대통령 5박7일 일정 美 국빈 방문 위해 출국WP 인터뷰서 “한미동맹 의미·성과 국민 인식 중요”“우크라이나 지원 여러 관계 고려하지 않을 수 없다”윤석열 대통령이 24일 한미동맹 70주년을 맞아 5박7일 일정으로 미국을 국빈 방문하기 위해 출국했다. 대통령의 국빈 방미는 2011년 이명박 전 대통령 이후 12년 만으로, 조 바이든 미 행정부에서는 에마뉘엘 마크롱 대통령에 이은 두 번째 국빈 방문이다.미국을 국빈 방문하는 윤석열 대통령과 김건희 여사가 24일 성남 서울공항에서 공군 1호기에 탑승, 환송객들에게 인사하고 있다. 연합뉴스윤 대통령은 이날 출국 이후 공개된 워싱턴포스트 인터뷰에서 이번 국빈 방미에 대해 “한미동맹 70주년의 역사적 의미, 성과 등을 양국 국민이 제대로 인식할 수 있는 기회가 되는 것이 가장 중요하다”고 밝혔다.윤 대통령은 한미동맹에 대해 “한미동맹은 역사적으로 모든 동맹 중 가장 성공한 동맹이고 무엇보다 가치 동맹”이라고 강조했다. 그는 또 “이번 주와 그 이후에 한미동맹이 직면한 다양한 문제들을 논의할 것으로 기대한다”고 말했다. 윤 대통령은 앞서 지난 18일 국무회의에서 한미동맹을 “이익에 따라 이합집산하는 관계가 아니라 자유민주주의, 시장경제라는 보편적 가치에 기반한 동맹”이라고 언급한 바 있다.윤 대통령은 인터뷰에서 우크라이나 지원에 대해 전쟁 당사국과의 관계를 고려할 수밖에 없다는 입장을 내놨다. 윤 대통령은 “우크라이나가 불법 침략을 받았기 때문에 다양한 지원을 해주는 것이 맞다”면서도 “무엇을, 어떻게 지원할 것이냐는 우리나라와 교전국 간의 직·간접적인 여러 관계들을 고려하지 않을 수 없다”고 말했다. 앞서 윤 대통령은 지난 19일 공개된 로이터 인터뷰에서 “민간인에 대한 대규모 공격이나 국제사회에서 묵과할 수 없는 대량 학살, 전쟁법을 중대하게 위반하는 사안이 발생할 때는 인도 지원이나 재정 지원에 머물러 이것만을 고집하기 어려울 수 있다”고 밝혀 러시아의 반발을 샀다.대일 외교에 대해 윤 대통령은 “한국의 안보 우려가 일본과의 협력을 지연시키기에는 너무 급박했다”며 “일부 비평가들은 결코 납득할 수 없을 것”이라고 말했다. 그는 그러면서 “지금 유럽에서는 참혹한 전쟁을 겪고도 미래를 위해 전쟁 당사국들이 협력하고 있다”며 “100년 전의 일을 가지고 ‘무조건 안 된다’, ‘무조건 (일본 측이) 무릎 꿇어라’고 하는 것은 받아들일 수 없다”고 했다. 그는 이어 “이것은 결단이 필요한 문제”라며 “설득에 있어서 최선을 다했다고 생각한다”고 강조했다.윤 대통령은 25일(현지시간) 바이든 대통령 내외와 워싱턴DC 한국전쟁기념비 방문하는 등 친교 시간 을 가진 뒤 26일 백악관에서 한미 정상회담을 진행한다. 회담 주요 의제는 한미 연합 방위태세 공고화 및 핵우산 등 확장억제 강화, 경제안보 및 첨단기술 협력 구체화, 양국 미래세대 교류 지원, 글로벌 이슈 공조 강화 등이다. 특히 과학기술 분야에서는 우주·인공지능(AI)·양자·데이터·바이오 등 협력 강화 방안과 미 보스턴 바이오 클러스터를 벤치마킹한 ‘한국형 바이오 클러스터’를 위한 협력 방안을 논의될 전망이다. 윤 대통령의 대선 공약으로 연내 설립을 추진 중인 우주항공청과 미국항공우주국(NASA)와의 협력, 나사가 추진 중인 유인 달 탐사 계획 ‘아르테미스’ 참여 방식 등도 거론될 지 주목된다. 회담 결과는 양국 정상의 공동 기자회견을 통해 발표된다. 윤 대통령은 또 회담 당일 저녁에 바이든 대통령 부부 초청으로 국빈 만찬에 참석하며 이 자리에는 한미 정·재계 주요 인사들이 대거 참석한다.27일 예정된 윤 대통령의 미 의회 상·하원 합동 의회 연설도 이번 방미의 중요 행사 중 하나다. 윤 대통령은 역대 대통령 가운데 네 번째로 영어 연설에 나서는데, 30~40분가량의 연설에서 한미동맹 70년 역사를 회고하고, 새로운 70년의 청사진을 제시할 계획이다.윤 대통령은 세계 최대 바이오 클러스터가 위치한 보스턴으로 이동해 28일 매사추세츠공대(MIT) 디지털·바이오 분야 석학들과 대담, 한미 클러스터 라운드 테이블 행사 등 일정을 이어간다. 그는 이어 하버드대 케네디스쿨에서 ‘자유를 향한 새로운 여정’을 주제로 정책 연설을 진행한다.윤 대통령은 특히 이번 방미 기간 동안 워싱턴DC와 보스턴에서 열리는 총 7개의 경제단체 행사를 소화할 예정이다. 이 일정에는 이재용 삼성전자 회장, 최태원 SK 회장, 정의선 현대차 회장, 구광모 LG 회장, 신동빈 롯데 회장 등 4대 그룹 대표들과 6대 경제단체 회장을 포함해 총 122명의 역대 최대 규모의 경제사절단이 동행한다. 이밖에 전국경제인연합회가 지난 19일 발표한 동행 명단에는 최수연 네이버 대표, 이승건 토스(비바리퍼블리카) 대표, 박태훈 왓챠 대표 등 주요 인터넷·금융서비스 기업 경영자들과 이주완 메가존클라우드 대표, 조영택 튜닙 이사, 장지호 닥터나우 대표 등 스타트업 인사들도 이름을 올렸다. 카카오는 명단에서 빠졌지만 계열사인 카카오헬스케어의 황희 대표가 참여한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.04.20.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>LG유플, 외국어 지원 확대…영문 버전 홈페이지 오픈</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005119437?sid=105</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>통신 서비스 위한 영어 홈페이지 오픈중국어, 베트남어, 러시아어도 지원 예정 LG유플러스가 외국인 고객이 통신 서비스 업무를 간편하게 처리할 수 있는 외국어 홈페이지를 오픈한다고 20일 밝혔다. [사진 제공 = LG유플러스]국내 거주하는 외국인도 영문 버전 홈페이지를 통해 요금 납부, 소액결제와 같은 업무를 처리할 수 있게 된다.LG유플러스는 외국인 고객이 고객센터를 거치지 않고도 통신 서비스 업무를 처리할 수 있도록 영문 버전 외국어 홈페이지를 오픈한다고 20일 밝혔다.LG유플러스가 오픈한 외국어 홈페이지는 가입정보 조회, 실시간 사용량 조회, 요금 즉시 납부, 유심 일시정지 및 해제와 같은 기본적인 통신 서비스 업무를 처리할 수 있도록 했다. LG유플러스 측은 외국인 고객의 의견을 수렴한 결과 기본적인 통신 서비스 업무가 70% 가까이 차지해, 이를 위해 외국어 홈페이지를 제작했다고 설명했다.해당 외국어 홈페이지에서는 통신 서비스 외에도 멤버십 할인과 같은 고객 혜택도 확인할 수 있으며, 구글맵을 기반으로 고객에게 가장 가까이 있는 매장을 알려주는 위치 서비스도 제공한다. 이와 함께 토스, 카카오톡, 네이버, 애플 계정으로도 로그인 할 수 있는 간편 로그인 기능도 추가됐다.LG유플러스는 상반기 내로 영어 외 중국어, 베트남어, 러시아어와 같은 다양한 외국어 버전 홈페이지를 선보일 예정이다.김유진 LG유플러스 글로벌통신사업담당은 “외국인 고객이 통신 서비스를 사용하는 데 있어 불편함을 줄이고, 사용 경험 혁신을 위해 외국어 홈페이지를 마련했다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.04.23.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>금융보안원, NATO 사이버훈련 '락드쉴즈 2023' 참가</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002705548?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>금융권 대표로 2년 연속 진행금융보안원 관계자들이 락드쉴즈에 참여해 기념 촬영을 하고 있다.ⓒ금융보안원[데일리안 = 고정삼 기자] 금융보안원은 '락드쉴즈(Locked Shields) 2023'에 금융 분야가 처음 추가된 지난해 이어 2년 연속 대한민국 합동훈련팀의 금융권 대표로 참가했다고 23일 밝혔다.락드쉴즈는 북대서양 조약기구(NATO) 회원국 간 사이버 위기 대응 협력 체계 강화 차원에서 지난 2012년부터 매년 사이버방위센터(CCDCOE)에서 주관하는 다국적 사이버 공격·방어 훈련이다. 우리나라는 지난 2019년 CCDCOE에 가입해 훈련 자격을 확보했고, 2021년부터 방어 훈련에 참여하고 있다.합동 훈련팀은 금융보안원을 포함한 국가정보원·국방부·한국전력공사 등 민·관·군 11개 기관, 60여명으로 구성됐다.금융보안원은 이번 훈련을 위해 사이버 공격·방어 전문가 8명을 선발했다. 특히 올해에는 비바리퍼블리카(토스)·카카오뱅크의 사이버보안 전문가 2명을 포함한 금융보안원 주도의 금융권 합동 팀을 구성해 가상 금융시스템 등에 대한 공격을 방어하는 임무를 전담했다.훈련기간 전체 약 8,000회 이상의 대규모 사이버 공격이 진행됐지만, 금융시스템에 대한 선제적 보안 취약점 식별 및 조치를 통해 금융전산망의 안전성을 확보했다는 설명이다. 특히 스위프트를 통한 부정 송금 시도를 모두 사전에 차단하고 내부 직원으로 위장한 공격자를 식별하는 등 다양한 사이버 공격에도 성공적으로 대응했다.또한 금융보안원 방어팀이 탐지한 사이버 위협을 국방, 에너지 등 다른 분야의 합동 훈련팀에 즉시 전파해 위협 정보를 공유하는 등 중추적인 역할을 수행했다.김철웅 금융보안원장은 "금융보안원이 대한민국 대표로 2년 연속 국제 훈련에 참여해 금융보안 전담기관으로써 전문성을 국내외에 널리 알리는 계기가 됐다"며 "앞으로도 락드쉴즈 외에 국내외 해킹방어 훈련 등에 금융회사 전문가들과 공동참여를 적극 추진해 금융보안원 및 금융사 정보보호 담당자들의 전문성 강화에 힘쓸 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
